--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12580"/>
+    <workbookView windowWidth="15740" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="312">
   <si>
     <t>Code</t>
   </si>
@@ -503,6 +503,450 @@
   </si>
   <si>
     <t>_Camisa de mujer en mezcla de lino blanca H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
+  </si>
+  <si>
+    <t>_Shorts denim mom ultra alto azul oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla S_2</t>
+  </si>
+  <si>
+    <t>_Shorts denim alto azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XS_0</t>
+  </si>
+  <si>
+    <t>_Bermudas de mujer denim altos azul denim H&amp;M</t>
+  </si>
+  <si>
+    <t>_Sombrero bucket verde salvia H&amp;M</t>
+  </si>
+  <si>
+    <t>_Sombrero bucket negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Calcetines tobilleros negros H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 8-10_39-41</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>_Corbata gris oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla unitalla</t>
+  </si>
+  <si>
+    <t>_Top sin mangas acanalado corto blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top sin mangas acanalado corto blanco con bordes negros H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer corto blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer blanco ajustado H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer acanalado Mi Amore blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer blanco con dibujo de limón H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer de algodón marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer negro de algodón H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer acanalado color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver entallado de microfibra rosa polvoriento H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer de algodón topo oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer oversized marrón/Les Jardins H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer oversized blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer oversized azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer de algodón crema con rayas negras H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer estampado azul de rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer de algodón beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer blanco con letrero Beauté H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR98</t>
+  </si>
+  <si>
+    <t>_Bolso bandolera de lona color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR99</t>
+  </si>
+  <si>
+    <t>_Bolso marrón con patrón de cocodrilo H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR100</t>
+  </si>
+  <si>
+    <t>_Bolso de hombro de paja beige H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR101</t>
+  </si>
+  <si>
+    <t>_Bolso de hombro con detalle entretejido marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR102</t>
+  </si>
+  <si>
+    <t>bolsos /hm /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Bolso bandolera marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR103</t>
+  </si>
+  <si>
+    <t>_Bolso de hombro con patrón cocodrilo negro H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>YNIR104</t>
+  </si>
+  <si>
+    <t>_Bolso de mano negro con detalle de agarre dorado H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>_Shorts de buzo regular fit azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts de buzo regular fit color durazno H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts de buzo regular fit de gran calidad verde menta H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts de buzo regular fit marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>SQ0807835</t>
+  </si>
+  <si>
+    <t>_Shorts regular fit beige H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>YILHM3115</t>
+  </si>
+  <si>
+    <t>_Shorts de buzo regular fit beige de gran calidad H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>YILHM3119</t>
+  </si>
+  <si>
+    <t>_Shorts regular fit gris oscuro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partes-de-abajo /hm /tallas-pequenas </t>
+  </si>
+  <si>
+    <t>_Pantalón negro de mezcla de lino de piernas anchas H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>_Pantalón negro de vestir de mujer H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio en mezcla de lino color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla S_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /hm /tallas-extras </t>
+  </si>
+  <si>
+    <t>_Pantalón en mezcla de lino beige H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-medianas </t>
+  </si>
+  <si>
+    <t>_Pantalón amplio marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla M_8</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio blanco con rayas negras H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio en mezcla de lino gris jaspeado H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio pull-on verde oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio en mezcla de lino beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>BLTHM0835</t>
+  </si>
+  <si>
+    <t>_Joggers deportivo de ajuste regular negro de mujer H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>SQ4631157</t>
+  </si>
+  <si>
+    <t>_Pantalones de corte recto ajustado negro de mujer H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XXL_16</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio de vestir negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo piqué regular fit negro H&amp;M</t>
+  </si>
+  <si>
+    <t>SQ9102500</t>
+  </si>
+  <si>
+    <t>_Polo negro de ajuste regular Coolmax H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Camisa slim fit azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de popelina azul claro con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo slim fit beige claro con zipper H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver oversized fit crema de gran calidad H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer oversized crema/ The Rolling Stones H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo de algodón pima crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver loose fit negro/carbonara H&amp;M</t>
+  </si>
+  <si>
+    <t>Yilhm2153</t>
+  </si>
+  <si>
+    <t>_Pulóver de corte regular con cuello azul marino H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Polo de algodón verde salvia H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>_Pulóver de punto fino azul melange H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>_Pulóver holgado con estampado de estrellas beige H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Polo slim fit blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver Coolmax blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR107</t>
+  </si>
+  <si>
+    <t>calzado /hm</t>
+  </si>
+  <si>
+    <t>_Sandalias de tacón pequeño con tiras dorado H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 7_38</t>
+  </si>
+  <si>
+    <t>SQ3779640</t>
+  </si>
+  <si>
+    <t>_Sandalias bajas marrón estampado leopardo  H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>YNIR108</t>
+  </si>
+  <si>
+    <t>_Sandalias hawainas beige H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>Talla 8_4.5-9_41-42</t>
+  </si>
+  <si>
+    <t>YNIR95</t>
+  </si>
+  <si>
+    <t>_Sandalias planas con tiras cruzadas beige verdoso H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>Talla 5_36</t>
+  </si>
+  <si>
+    <t>SQ2897905</t>
+  </si>
+  <si>
+    <t>_Sandalias trenzadas burdeos H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>Talla 6_37</t>
+  </si>
+  <si>
+    <t>SQ4563484</t>
+  </si>
+  <si>
+    <t>_Sandalias prácticas beige con detalle de hebilla plateada H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>YNIR54</t>
+  </si>
+  <si>
+    <t>_Sandalias prácticas negro con detalle de hebilla plateada H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>tops</t>
+  </si>
+  <si>
+    <t>_Top de crochet morado con brillo DontCallMe</t>
+  </si>
+  <si>
+    <t>_Top de ribete blanco strapless PinkWoman</t>
+  </si>
+  <si>
+    <t>_Top acanalado sin mangas beige</t>
+  </si>
+  <si>
+    <t>_Top acanalado negro con lista a los lados Terranova</t>
+  </si>
+  <si>
+    <t>_Top de rayas verde y blancas con botones Terranova</t>
+  </si>
+  <si>
+    <t>_Top de rayas verdes y blancas con botones Terranova</t>
+  </si>
+  <si>
+    <t>_Top de rayas azul y blancas con botones Terranova</t>
+  </si>
+  <si>
+    <t>_Top de rayas negras y blancas con botones Terranova</t>
+  </si>
+  <si>
+    <t>_Top acanalado blanco y morado con ribete de encaje DontCallMe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top de tirantes finos verde claro </t>
+  </si>
+  <si>
+    <t>_Top de punto fino color rosa oscuro PinkWoman</t>
+  </si>
+  <si>
+    <t>_Top de tirantes con lazos estamapdo azul de cuadros Terranova</t>
+  </si>
+  <si>
+    <t>_Top de ribete verde claro strapless DontCallMe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top sin mangas marrón </t>
+  </si>
+  <si>
+    <t>_Top verde claro con nudo trasero Terranova</t>
+  </si>
+  <si>
+    <t>Talla M/L</t>
+  </si>
+  <si>
+    <t>_Top de ribete violeta strapless PinkWoman</t>
+  </si>
+  <si>
+    <t>_Top de ribete cherry strapless PinkWoman</t>
+  </si>
+  <si>
+    <t>_Top acanalado blanco con lista a los lados Terranova</t>
+  </si>
+  <si>
+    <t>_Top acanalado verde claro con lista a los lados Terranova</t>
+  </si>
+  <si>
+    <t>_Top acanalado rosa claro con lista a los lados Terranova</t>
+  </si>
+  <si>
+    <t>_Top de ribete negro strapless PinkWoman</t>
+  </si>
+  <si>
+    <t>_Top acanalado beige con ribete de encaje DontCallMe</t>
+  </si>
+  <si>
+    <t>_Top crochet de rayas beige claro y oscuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top acanalado beige con escote corazón y botones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top acanalado blanco de tirantes finos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talla S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top acanalado naranja de tirantes finos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top acanalado sin mangas gris melange </t>
+  </si>
+  <si>
+    <t>_Top acanalado sin mangas marrón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top deportivo de microfibra rosa chicle </t>
+  </si>
+  <si>
+    <t>_Top de algodón strapless verde salvia Terranova</t>
+  </si>
+  <si>
+    <t>_Top de algodón strapless rosa chicle Terranova</t>
+  </si>
+  <si>
+    <t>_Top de algodón strapless negro Terranova</t>
+  </si>
+  <si>
+    <t>_Top de algodón strapless amarillo Terranova</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -516,11 +960,11 @@
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -573,8 +1017,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,55 +1057,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,7 +1072,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,17 +1086,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,17 +1122,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,6 +1134,22 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -736,31 +1180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +1192,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +1234,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,13 +1282,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,67 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,25 +1426,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1047,10 +1478,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1079,147 +1508,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1615,18 +2059,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX691"/>
+  <dimension ref="A1:XEX690"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I114"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="P125" sqref="P125:P161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.7421875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1875" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" customWidth="1"/>
-    <col min="4" max="4" width="53.7734375" customWidth="1"/>
+    <col min="2" max="2" width="21.734375" customWidth="1"/>
+    <col min="3" max="3" width="40.1015625" customWidth="1"/>
+    <col min="4" max="4" width="14.4453125" customWidth="1"/>
     <col min="5" max="5" width="15.8828125" customWidth="1"/>
     <col min="6" max="6" width="11.8359375" customWidth="1"/>
     <col min="7" max="7" width="14.0390625" style="3" customWidth="1"/>
@@ -18076,7 +18520,6 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2"/>
       <c r="F2" s="3">
         <v>30</v>
       </c>
@@ -18091,6 +18534,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="3"/>
+      <c r="O2" s="3">
+        <f>F2</f>
+        <v>30</v>
+      </c>
       <c r="P2"/>
       <c r="Q2" s="3"/>
       <c r="V2" s="3"/>
@@ -18108,7 +18555,6 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3"/>
       <c r="F3" s="3">
         <v>35</v>
       </c>
@@ -18123,6 +18569,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3"/>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O34" si="1">F3</f>
+        <v>35</v>
+      </c>
       <c r="P3"/>
       <c r="Q3" s="3"/>
       <c r="V3" s="3"/>
@@ -18140,7 +18590,6 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4"/>
       <c r="F4" s="3">
         <v>35</v>
       </c>
@@ -18155,6 +18604,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3"/>
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P4"/>
       <c r="Q4" s="3"/>
       <c r="V4" s="3"/>
@@ -18172,7 +18625,6 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5"/>
       <c r="F5" s="3">
         <v>35</v>
       </c>
@@ -18187,6 +18639,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3"/>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P5"/>
       <c r="Q5" s="3"/>
       <c r="V5" s="3"/>
@@ -18204,7 +18660,6 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6"/>
       <c r="F6" s="3">
         <v>35</v>
       </c>
@@ -18219,6 +18674,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="3"/>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P6"/>
       <c r="Q6" s="3"/>
       <c r="V6" s="3"/>
@@ -18236,7 +18695,6 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7"/>
       <c r="F7" s="3">
         <v>35</v>
       </c>
@@ -18251,6 +18709,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="3"/>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P7"/>
       <c r="Q7" s="3"/>
       <c r="V7" s="3"/>
@@ -18268,7 +18730,6 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8"/>
       <c r="F8" s="3">
         <v>35</v>
       </c>
@@ -18283,6 +18744,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="3"/>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P8"/>
       <c r="Q8" s="3"/>
       <c r="V8" s="3"/>
@@ -18300,7 +18765,6 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9"/>
       <c r="F9" s="3">
         <v>35</v>
       </c>
@@ -18315,6 +18779,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="3"/>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P9"/>
       <c r="Q9" s="3"/>
       <c r="V9" s="3"/>
@@ -18332,7 +18800,6 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10"/>
       <c r="F10" s="3">
         <v>35</v>
       </c>
@@ -18347,6 +18814,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="3"/>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P10"/>
       <c r="Q10" s="3"/>
       <c r="V10" s="3"/>
@@ -18364,7 +18835,6 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11"/>
       <c r="F11" s="3">
         <v>35</v>
       </c>
@@ -18379,6 +18849,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="3"/>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P11"/>
       <c r="Q11" s="3"/>
       <c r="V11" s="3"/>
@@ -18396,7 +18870,6 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12"/>
       <c r="F12" s="3">
         <v>35</v>
       </c>
@@ -18411,6 +18884,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="3"/>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P12"/>
       <c r="Q12" s="3"/>
       <c r="V12" s="3"/>
@@ -18428,7 +18905,6 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13"/>
       <c r="F13" s="3">
         <v>30</v>
       </c>
@@ -18443,6 +18919,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="3"/>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="P13"/>
       <c r="Q13" s="3"/>
       <c r="V13" s="3"/>
@@ -18460,7 +18940,6 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14"/>
       <c r="F14" s="3">
         <v>35</v>
       </c>
@@ -18475,6 +18954,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="3"/>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P14"/>
       <c r="Q14" s="3"/>
       <c r="V14" s="3"/>
@@ -18490,23 +18973,26 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15"/>
+        <v>31</v>
+      </c>
       <c r="F15" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3"/>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="P15"/>
       <c r="Q15" s="3"/>
       <c r="V15" s="3"/>
@@ -18524,7 +19010,6 @@
       <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16"/>
       <c r="F16" s="3">
         <v>35</v>
       </c>
@@ -18539,6 +19024,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="3"/>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P16"/>
       <c r="Q16" s="3"/>
       <c r="V16" s="3"/>
@@ -18556,7 +19045,6 @@
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17"/>
       <c r="F17" s="3">
         <v>30</v>
       </c>
@@ -18571,6 +19059,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="3"/>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="P17"/>
       <c r="Q17" s="3"/>
       <c r="V17" s="3"/>
@@ -18588,7 +19080,6 @@
       <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E18"/>
       <c r="F18" s="3">
         <v>40</v>
       </c>
@@ -18603,6 +19094,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="3"/>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="P18"/>
       <c r="Q18" s="3"/>
       <c r="V18" s="3"/>
@@ -18620,7 +19115,6 @@
       <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E19"/>
       <c r="F19" s="3">
         <v>45</v>
       </c>
@@ -18635,6 +19129,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="3"/>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="P19"/>
       <c r="Q19" s="3"/>
       <c r="V19" s="3"/>
@@ -18652,7 +19150,6 @@
       <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="E20"/>
       <c r="F20" s="3">
         <v>40</v>
       </c>
@@ -18667,6 +19164,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="3"/>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="P20"/>
       <c r="Q20" s="3"/>
       <c r="V20" s="3"/>
@@ -18684,7 +19185,6 @@
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21"/>
       <c r="F21" s="3">
         <v>35</v>
       </c>
@@ -18699,6 +19199,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="3"/>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P21"/>
       <c r="Q21" s="3"/>
       <c r="V21" s="3"/>
@@ -18716,7 +19220,6 @@
       <c r="D22" t="s">
         <v>42</v>
       </c>
-      <c r="E22"/>
       <c r="F22" s="3">
         <v>35</v>
       </c>
@@ -18731,6 +19234,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="3"/>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P22"/>
       <c r="Q22" s="3"/>
       <c r="V22" s="3"/>
@@ -18748,7 +19255,6 @@
       <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="E23"/>
       <c r="F23" s="3">
         <v>35</v>
       </c>
@@ -18763,6 +19269,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="3"/>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P23"/>
       <c r="Q23" s="3"/>
       <c r="V23" s="3"/>
@@ -18780,7 +19290,6 @@
       <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="E24"/>
       <c r="F24" s="3">
         <v>35</v>
       </c>
@@ -18795,6 +19304,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="3"/>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P24"/>
       <c r="Q24" s="3"/>
       <c r="V24" s="3"/>
@@ -18812,7 +19325,6 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25"/>
       <c r="F25" s="3">
         <v>25</v>
       </c>
@@ -18827,6 +19339,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="3"/>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="P25"/>
       <c r="Q25" s="3"/>
       <c r="V25" s="3"/>
@@ -18844,7 +19360,6 @@
       <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="E26"/>
       <c r="F26" s="3">
         <v>40</v>
       </c>
@@ -18859,6 +19374,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="3"/>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="P26"/>
       <c r="Q26" s="3"/>
       <c r="V26" s="3"/>
@@ -18876,7 +19395,6 @@
       <c r="D27" t="s">
         <v>49</v>
       </c>
-      <c r="E27"/>
       <c r="F27" s="3">
         <v>30</v>
       </c>
@@ -18891,6 +19409,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="3"/>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="P27"/>
       <c r="Q27" s="3"/>
       <c r="V27" s="3"/>
@@ -18908,7 +19430,6 @@
       <c r="D28" t="s">
         <v>42</v>
       </c>
-      <c r="E28"/>
       <c r="F28" s="3">
         <v>40</v>
       </c>
@@ -18923,6 +19444,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="3"/>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="P28"/>
       <c r="Q28" s="3"/>
       <c r="V28" s="3"/>
@@ -18940,7 +19465,6 @@
       <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="E29"/>
       <c r="F29" s="3">
         <v>40</v>
       </c>
@@ -18955,6 +19479,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="3"/>
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="P29"/>
       <c r="Q29" s="3"/>
       <c r="V29" s="3"/>
@@ -18972,7 +19500,6 @@
       <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="E30"/>
       <c r="F30" s="3">
         <v>35</v>
       </c>
@@ -18987,6 +19514,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="3"/>
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="P30"/>
       <c r="Q30" s="3"/>
       <c r="V30" s="3"/>
@@ -19004,7 +19535,6 @@
       <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="E31"/>
       <c r="F31" s="3">
         <v>30</v>
       </c>
@@ -19019,6 +19549,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="3"/>
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="P31"/>
       <c r="Q31" s="3"/>
       <c r="V31" s="3"/>
@@ -19036,7 +19570,6 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32"/>
       <c r="F32" s="3">
         <v>4</v>
       </c>
@@ -19051,6 +19584,10 @@
         <v>11</v>
       </c>
       <c r="L32" s="3"/>
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="P32"/>
       <c r="Q32" s="3"/>
       <c r="V32" s="3"/>
@@ -19068,7 +19605,6 @@
       <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E33"/>
       <c r="F33" s="3">
         <v>4</v>
       </c>
@@ -19083,6 +19619,10 @@
         <v>5</v>
       </c>
       <c r="L33" s="3"/>
+      <c r="O33" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="P33"/>
       <c r="Q33" s="3"/>
       <c r="V33" s="3"/>
@@ -19100,7 +19640,6 @@
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34"/>
       <c r="F34" s="3">
         <v>4</v>
       </c>
@@ -19115,6 +19654,10 @@
         <v>2</v>
       </c>
       <c r="L34" s="3"/>
+      <c r="O34" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="P34"/>
       <c r="Q34" s="3"/>
       <c r="V34" s="3"/>
@@ -19132,7 +19675,6 @@
       <c r="D35" t="s">
         <v>24</v>
       </c>
-      <c r="E35"/>
       <c r="F35" s="3">
         <v>4</v>
       </c>
@@ -19147,6 +19689,10 @@
         <v>7</v>
       </c>
       <c r="L35" s="3"/>
+      <c r="O35" s="3">
+        <f t="shared" ref="O35:O66" si="2">F35</f>
+        <v>4</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="U35" s="3"/>
     </row>
@@ -19163,7 +19709,6 @@
       <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36"/>
       <c r="F36" s="3">
         <v>4</v>
       </c>
@@ -19174,10 +19719,14 @@
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36:I47" si="1">G36-H36</f>
+        <f t="shared" ref="I36:I47" si="3">G36-H36</f>
         <v>6</v>
       </c>
       <c r="L36" s="3"/>
+      <c r="O36" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="U36" s="3"/>
     </row>
@@ -19194,7 +19743,6 @@
       <c r="D37" t="s">
         <v>76</v>
       </c>
-      <c r="E37"/>
       <c r="F37" s="3">
         <v>35</v>
       </c>
@@ -19205,10 +19753,14 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L37" s="3"/>
+      <c r="O37" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="P37" s="3"/>
       <c r="U37" s="3"/>
     </row>
@@ -19225,7 +19777,6 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38"/>
       <c r="F38" s="3">
         <v>35</v>
       </c>
@@ -19236,10 +19787,14 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L38" s="3"/>
+      <c r="O38" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="P38" s="3"/>
       <c r="U38" s="3"/>
     </row>
@@ -19256,7 +19811,6 @@
       <c r="D39" t="s">
         <v>72</v>
       </c>
-      <c r="E39"/>
       <c r="F39" s="3">
         <v>40</v>
       </c>
@@ -19267,10 +19821,14 @@
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L39" s="3"/>
+      <c r="O39" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="P39" s="3"/>
       <c r="U39" s="3"/>
     </row>
@@ -19287,7 +19845,6 @@
       <c r="D40" t="s">
         <v>28</v>
       </c>
-      <c r="E40"/>
       <c r="F40" s="3">
         <v>35</v>
       </c>
@@ -19298,10 +19855,14 @@
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L40" s="3"/>
+      <c r="O40" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="P40" s="3"/>
       <c r="U40" s="3"/>
     </row>
@@ -19318,7 +19879,6 @@
       <c r="D41" t="s">
         <v>82</v>
       </c>
-      <c r="E41"/>
       <c r="F41" s="3">
         <v>30</v>
       </c>
@@ -19329,10 +19889,14 @@
         <v>0</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L41" s="3"/>
+      <c r="O41" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="P41" s="3"/>
       <c r="U41" s="3"/>
     </row>
@@ -19349,7 +19913,6 @@
       <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="E42"/>
       <c r="F42" s="3">
         <v>18</v>
       </c>
@@ -19360,10 +19923,14 @@
         <v>0</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L42" s="3"/>
+      <c r="O42" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="P42" s="3"/>
       <c r="U42" s="3"/>
     </row>
@@ -19380,7 +19947,6 @@
       <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="E43"/>
       <c r="F43" s="3">
         <v>20</v>
       </c>
@@ -19391,10 +19957,14 @@
         <v>0</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L43" s="3"/>
+      <c r="O43" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="P43" s="3"/>
       <c r="U43" s="3"/>
     </row>
@@ -19411,7 +19981,6 @@
       <c r="D44" t="s">
         <v>72</v>
       </c>
-      <c r="E44"/>
       <c r="F44" s="3">
         <v>18</v>
       </c>
@@ -19422,8 +19991,12 @@
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P44"/>
     </row>
@@ -19440,7 +20013,6 @@
       <c r="D45" t="s">
         <v>28</v>
       </c>
-      <c r="E45"/>
       <c r="F45" s="3">
         <v>18</v>
       </c>
@@ -19451,8 +20023,12 @@
         <v>0</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P45"/>
     </row>
@@ -19469,7 +20045,6 @@
       <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E46"/>
       <c r="F46" s="3">
         <v>18</v>
       </c>
@@ -19480,8 +20055,12 @@
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P46"/>
     </row>
@@ -19498,7 +20077,6 @@
       <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="E47"/>
       <c r="F47" s="3">
         <v>18</v>
       </c>
@@ -19509,8 +20087,12 @@
         <v>0</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P47"/>
     </row>
@@ -19527,7 +20109,6 @@
       <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="E48"/>
       <c r="F48" s="3">
         <v>18</v>
       </c>
@@ -19538,8 +20119,12 @@
         <v>0</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" ref="I48:I61" si="2">G48-H48</f>
-        <v>1</v>
+        <f t="shared" ref="I48:I61" si="4">G48-H48</f>
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P48"/>
     </row>
@@ -19556,7 +20141,6 @@
       <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="E49"/>
       <c r="F49" s="3">
         <v>30</v>
       </c>
@@ -19567,8 +20151,12 @@
         <v>0</v>
       </c>
       <c r="I49" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O49" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P49"/>
     </row>
@@ -19585,7 +20173,6 @@
       <c r="D50" t="s">
         <v>24</v>
       </c>
-      <c r="E50"/>
       <c r="F50" s="3">
         <v>15</v>
       </c>
@@ -19596,8 +20183,12 @@
         <v>0</v>
       </c>
       <c r="I50" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P50"/>
     </row>
@@ -19614,7 +20205,6 @@
       <c r="D51" t="s">
         <v>28</v>
       </c>
-      <c r="E51"/>
       <c r="F51" s="3">
         <v>20</v>
       </c>
@@ -19625,8 +20215,12 @@
         <v>0</v>
       </c>
       <c r="I51" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P51"/>
     </row>
@@ -19643,7 +20237,6 @@
       <c r="D52" t="s">
         <v>28</v>
       </c>
-      <c r="E52"/>
       <c r="F52" s="3">
         <v>15</v>
       </c>
@@ -19654,8 +20247,12 @@
         <v>0</v>
       </c>
       <c r="I52" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P52"/>
     </row>
@@ -19672,7 +20269,6 @@
       <c r="D53" t="s">
         <v>82</v>
       </c>
-      <c r="E53"/>
       <c r="F53" s="3">
         <v>20</v>
       </c>
@@ -19683,8 +20279,12 @@
         <v>0</v>
       </c>
       <c r="I53" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P53"/>
     </row>
@@ -19701,7 +20301,6 @@
       <c r="D54" t="s">
         <v>31</v>
       </c>
-      <c r="E54"/>
       <c r="F54" s="3">
         <v>35</v>
       </c>
@@ -19712,8 +20311,12 @@
         <v>0</v>
       </c>
       <c r="I54" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O54" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="P54"/>
     </row>
@@ -19730,7 +20333,6 @@
       <c r="D55" t="s">
         <v>28</v>
       </c>
-      <c r="E55"/>
       <c r="F55" s="3">
         <v>20</v>
       </c>
@@ -19741,8 +20343,12 @@
         <v>0</v>
       </c>
       <c r="I55" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P55"/>
     </row>
@@ -19759,7 +20365,6 @@
       <c r="D56" t="s">
         <v>72</v>
       </c>
-      <c r="E56"/>
       <c r="F56" s="3">
         <v>25</v>
       </c>
@@ -19770,8 +20375,12 @@
         <v>0</v>
       </c>
       <c r="I56" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P56"/>
     </row>
@@ -19788,7 +20397,6 @@
       <c r="D57" t="s">
         <v>24</v>
       </c>
-      <c r="E57"/>
       <c r="F57" s="3">
         <v>18</v>
       </c>
@@ -19799,8 +20407,12 @@
         <v>0</v>
       </c>
       <c r="I57" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P57"/>
     </row>
@@ -19817,7 +20429,6 @@
       <c r="D58" t="s">
         <v>31</v>
       </c>
-      <c r="E58"/>
       <c r="F58" s="3">
         <v>18</v>
       </c>
@@ -19828,8 +20439,12 @@
         <v>0</v>
       </c>
       <c r="I58" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P58"/>
     </row>
@@ -19846,7 +20461,6 @@
       <c r="D59" t="s">
         <v>24</v>
       </c>
-      <c r="E59"/>
       <c r="F59" s="3">
         <v>20</v>
       </c>
@@ -19857,8 +20471,12 @@
         <v>0</v>
       </c>
       <c r="I59" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P59"/>
     </row>
@@ -19875,7 +20493,6 @@
       <c r="D60" t="s">
         <v>72</v>
       </c>
-      <c r="E60"/>
       <c r="F60" s="3">
         <v>25</v>
       </c>
@@ -19886,8 +20503,12 @@
         <v>0</v>
       </c>
       <c r="I60" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P60"/>
     </row>
@@ -19904,7 +20525,6 @@
       <c r="D61" t="s">
         <v>28</v>
       </c>
-      <c r="E61"/>
       <c r="F61" s="3">
         <v>25</v>
       </c>
@@ -19915,8 +20535,12 @@
         <v>0</v>
       </c>
       <c r="I61" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P61"/>
     </row>
@@ -19933,7 +20557,6 @@
       <c r="D62" t="s">
         <v>31</v>
       </c>
-      <c r="E62"/>
       <c r="F62" s="3">
         <v>20</v>
       </c>
@@ -19944,8 +20567,12 @@
         <v>0</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" ref="I62:I79" si="3">G62-H62</f>
-        <v>1</v>
+        <f t="shared" ref="I62:I79" si="5">G62-H62</f>
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="P62"/>
     </row>
@@ -19962,7 +20589,6 @@
       <c r="D63" t="s">
         <v>82</v>
       </c>
-      <c r="E63"/>
       <c r="F63" s="3">
         <v>20</v>
       </c>
@@ -19973,8 +20599,12 @@
         <v>0</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="P63"/>
     </row>
@@ -19991,7 +20621,6 @@
       <c r="D64" t="s">
         <v>72</v>
       </c>
-      <c r="E64"/>
       <c r="F64" s="3">
         <v>22</v>
       </c>
@@ -20002,8 +20631,12 @@
         <v>0</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="P64"/>
     </row>
@@ -20020,7 +20653,6 @@
       <c r="D65" t="s">
         <v>24</v>
       </c>
-      <c r="E65"/>
       <c r="F65" s="3">
         <v>22</v>
       </c>
@@ -20031,8 +20663,12 @@
         <v>0</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="P65"/>
     </row>
@@ -20049,7 +20685,6 @@
       <c r="D66" t="s">
         <v>110</v>
       </c>
-      <c r="E66"/>
       <c r="F66" s="3">
         <v>18</v>
       </c>
@@ -20060,8 +20695,12 @@
         <v>0</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="P66"/>
     </row>
@@ -20078,7 +20717,6 @@
       <c r="D67" t="s">
         <v>31</v>
       </c>
-      <c r="E67"/>
       <c r="F67" s="3">
         <v>20</v>
       </c>
@@ -20089,8 +20727,12 @@
         <v>0</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" ref="O67:O98" si="6">F67</f>
+        <v>20</v>
       </c>
       <c r="P67"/>
     </row>
@@ -20107,7 +20749,6 @@
       <c r="D68" t="s">
         <v>72</v>
       </c>
-      <c r="E68"/>
       <c r="F68" s="3">
         <v>20</v>
       </c>
@@ -20118,8 +20759,12 @@
         <v>0</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="P68"/>
     </row>
@@ -20136,7 +20781,6 @@
       <c r="D69" t="s">
         <v>24</v>
       </c>
-      <c r="E69"/>
       <c r="F69" s="3">
         <v>20</v>
       </c>
@@ -20147,8 +20791,12 @@
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="P69"/>
     </row>
@@ -20165,7 +20813,6 @@
       <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="E70"/>
       <c r="F70" s="3">
         <v>20</v>
       </c>
@@ -20176,8 +20823,12 @@
         <v>0</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="P70"/>
     </row>
@@ -20194,7 +20845,6 @@
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="E71"/>
       <c r="F71" s="3">
         <v>20</v>
       </c>
@@ -20205,8 +20855,12 @@
         <v>0</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="P71"/>
     </row>
@@ -20223,7 +20877,6 @@
       <c r="D72" t="s">
         <v>28</v>
       </c>
-      <c r="E72"/>
       <c r="F72" s="3">
         <v>18</v>
       </c>
@@ -20234,8 +20887,12 @@
         <v>0</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P72"/>
     </row>
@@ -20252,7 +20909,6 @@
       <c r="D73" t="s">
         <v>72</v>
       </c>
-      <c r="E73"/>
       <c r="F73" s="3">
         <v>22</v>
       </c>
@@ -20263,8 +20919,12 @@
         <v>0</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="P73"/>
     </row>
@@ -20281,7 +20941,6 @@
       <c r="D74" t="s">
         <v>82</v>
       </c>
-      <c r="E74"/>
       <c r="F74" s="3">
         <v>18</v>
       </c>
@@ -20292,8 +20951,12 @@
         <v>0</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P74"/>
     </row>
@@ -20310,7 +20973,6 @@
       <c r="D75" t="s">
         <v>72</v>
       </c>
-      <c r="E75"/>
       <c r="F75" s="3">
         <v>20</v>
       </c>
@@ -20321,8 +20983,12 @@
         <v>0</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="P75"/>
     </row>
@@ -20339,7 +21005,6 @@
       <c r="D76" t="s">
         <v>28</v>
       </c>
-      <c r="E76"/>
       <c r="F76" s="3">
         <v>30</v>
       </c>
@@ -20350,8 +21015,12 @@
         <v>0</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="P76"/>
     </row>
@@ -20368,7 +21037,6 @@
       <c r="D77" t="s">
         <v>28</v>
       </c>
-      <c r="E77"/>
       <c r="F77" s="3">
         <v>30</v>
       </c>
@@ -20379,8 +21047,12 @@
         <v>0</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="P77"/>
     </row>
@@ -20397,7 +21069,6 @@
       <c r="D78" t="s">
         <v>31</v>
       </c>
-      <c r="E78"/>
       <c r="F78" s="3">
         <v>15</v>
       </c>
@@ -20408,8 +21079,12 @@
         <v>0</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P78"/>
     </row>
@@ -20426,7 +21101,6 @@
       <c r="D79" t="s">
         <v>28</v>
       </c>
-      <c r="E79"/>
       <c r="F79" s="3">
         <v>15</v>
       </c>
@@ -20437,8 +21111,12 @@
         <v>0</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P79"/>
     </row>
@@ -20455,7 +21133,6 @@
       <c r="D80" t="s">
         <v>24</v>
       </c>
-      <c r="E80"/>
       <c r="F80" s="3">
         <v>15</v>
       </c>
@@ -20466,8 +21143,12 @@
         <v>0</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" ref="I80:I90" si="4">G80-H80</f>
+        <f t="shared" ref="I80:I90" si="7">G80-H80</f>
         <v>2</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P80"/>
     </row>
@@ -20484,7 +21165,6 @@
       <c r="D81" t="s">
         <v>125</v>
       </c>
-      <c r="E81"/>
       <c r="F81" s="3">
         <v>15</v>
       </c>
@@ -20495,8 +21175,12 @@
         <v>0</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P81"/>
     </row>
@@ -20513,7 +21197,6 @@
       <c r="D82" t="s">
         <v>24</v>
       </c>
-      <c r="E82"/>
       <c r="F82" s="3">
         <v>15</v>
       </c>
@@ -20524,8 +21207,12 @@
         <v>0</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P82"/>
     </row>
@@ -20542,7 +21229,6 @@
       <c r="D83" t="s">
         <v>82</v>
       </c>
-      <c r="E83"/>
       <c r="F83" s="3">
         <v>15</v>
       </c>
@@ -20553,8 +21239,12 @@
         <v>0</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P83"/>
     </row>
@@ -20571,7 +21261,6 @@
       <c r="D84" t="s">
         <v>129</v>
       </c>
-      <c r="E84"/>
       <c r="F84" s="3">
         <v>18</v>
       </c>
@@ -20582,8 +21271,12 @@
         <v>0</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P84"/>
     </row>
@@ -20600,7 +21293,6 @@
       <c r="D85" t="s">
         <v>131</v>
       </c>
-      <c r="E85"/>
       <c r="F85" s="3">
         <v>18</v>
       </c>
@@ -20611,8 +21303,12 @@
         <v>0</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P85"/>
     </row>
@@ -20629,7 +21325,6 @@
       <c r="D86" t="s">
         <v>82</v>
       </c>
-      <c r="E86"/>
       <c r="F86" s="3">
         <v>18</v>
       </c>
@@ -20640,8 +21335,12 @@
         <v>0</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P86"/>
     </row>
@@ -20658,7 +21357,6 @@
       <c r="D87" t="s">
         <v>131</v>
       </c>
-      <c r="E87"/>
       <c r="F87" s="3">
         <v>18</v>
       </c>
@@ -20669,8 +21367,12 @@
         <v>0</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P87"/>
     </row>
@@ -20687,7 +21389,6 @@
       <c r="D88" t="s">
         <v>135</v>
       </c>
-      <c r="E88"/>
       <c r="F88" s="3">
         <v>18</v>
       </c>
@@ -20698,8 +21399,12 @@
         <v>0</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P88"/>
     </row>
@@ -20716,7 +21421,6 @@
       <c r="D89" t="s">
         <v>28</v>
       </c>
-      <c r="E89"/>
       <c r="F89" s="3">
         <v>15</v>
       </c>
@@ -20727,8 +21431,12 @@
         <v>0</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="P89"/>
     </row>
@@ -20745,7 +21453,6 @@
       <c r="D90" t="s">
         <v>138</v>
       </c>
-      <c r="E90"/>
       <c r="F90" s="3">
         <v>18</v>
       </c>
@@ -20756,8 +21463,12 @@
         <v>0</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" ref="I90:I114" si="5">G90-H90</f>
-        <v>1</v>
+        <f t="shared" ref="I90:I114" si="8">G90-H90</f>
+        <v>1</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P90"/>
     </row>
@@ -20774,7 +21485,6 @@
       <c r="D91" t="s">
         <v>31</v>
       </c>
-      <c r="E91"/>
       <c r="F91" s="3">
         <v>18</v>
       </c>
@@ -20785,8 +21495,12 @@
         <v>0</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P91"/>
     </row>
@@ -20803,7 +21517,6 @@
       <c r="D92" t="s">
         <v>28</v>
       </c>
-      <c r="E92"/>
       <c r="F92" s="3">
         <v>18</v>
       </c>
@@ -20814,8 +21527,12 @@
         <v>0</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P92"/>
     </row>
@@ -20832,7 +21549,6 @@
       <c r="D93" t="s">
         <v>24</v>
       </c>
-      <c r="E93"/>
       <c r="F93" s="3">
         <v>18</v>
       </c>
@@ -20843,8 +21559,12 @@
         <v>0</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P93"/>
     </row>
@@ -20861,7 +21581,6 @@
       <c r="D94" t="s">
         <v>143</v>
       </c>
-      <c r="E94"/>
       <c r="F94" s="3">
         <v>18</v>
       </c>
@@ -20872,8 +21591,12 @@
         <v>0</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P94"/>
     </row>
@@ -20890,7 +21613,6 @@
       <c r="D95" t="s">
         <v>145</v>
       </c>
-      <c r="E95"/>
       <c r="F95" s="3">
         <v>18</v>
       </c>
@@ -20901,8 +21623,12 @@
         <v>0</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P95"/>
     </row>
@@ -20919,7 +21645,6 @@
       <c r="D96" t="s">
         <v>147</v>
       </c>
-      <c r="E96"/>
       <c r="F96" s="3">
         <v>18</v>
       </c>
@@ -20930,8 +21655,12 @@
         <v>0</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="P96"/>
     </row>
@@ -20948,7 +21677,6 @@
       <c r="D97" t="s">
         <v>24</v>
       </c>
-      <c r="E97"/>
       <c r="F97" s="3">
         <v>40</v>
       </c>
@@ -20959,8 +21687,12 @@
         <v>0</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O97" s="3">
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="P97"/>
     </row>
@@ -20977,7 +21709,6 @@
       <c r="D98" t="s">
         <v>24</v>
       </c>
-      <c r="E98"/>
       <c r="F98" s="3">
         <v>35</v>
       </c>
@@ -20988,8 +21719,12 @@
         <v>0</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="P98"/>
     </row>
@@ -21006,7 +21741,6 @@
       <c r="D99" t="s">
         <v>24</v>
       </c>
-      <c r="E99"/>
       <c r="F99" s="3">
         <v>40</v>
       </c>
@@ -21017,8 +21751,12 @@
         <v>0</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" ref="O99:O130" si="9">F99</f>
+        <v>40</v>
       </c>
       <c r="P99"/>
     </row>
@@ -21035,7 +21773,6 @@
       <c r="D100" t="s">
         <v>72</v>
       </c>
-      <c r="E100"/>
       <c r="F100" s="3">
         <v>35</v>
       </c>
@@ -21046,8 +21783,12 @@
         <v>0</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="3">
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
       <c r="P100"/>
     </row>
@@ -21064,7 +21805,6 @@
       <c r="D101" t="s">
         <v>28</v>
       </c>
-      <c r="E101"/>
       <c r="F101" s="3">
         <v>40</v>
       </c>
@@ -21075,8 +21815,12 @@
         <v>0</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="9"/>
+        <v>40</v>
       </c>
       <c r="P101"/>
     </row>
@@ -21093,7 +21837,6 @@
       <c r="D102" t="s">
         <v>28</v>
       </c>
-      <c r="E102"/>
       <c r="F102" s="3">
         <v>35</v>
       </c>
@@ -21104,8 +21847,12 @@
         <v>0</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
       <c r="P102"/>
     </row>
@@ -21122,7 +21869,6 @@
       <c r="D103" t="s">
         <v>72</v>
       </c>
-      <c r="E103"/>
       <c r="F103" s="3">
         <v>30</v>
       </c>
@@ -21133,8 +21879,12 @@
         <v>0</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P103"/>
     </row>
@@ -21151,7 +21901,6 @@
       <c r="D104" t="s">
         <v>82</v>
       </c>
-      <c r="E104"/>
       <c r="F104" s="3">
         <v>30</v>
       </c>
@@ -21162,8 +21911,12 @@
         <v>0</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P104"/>
     </row>
@@ -21180,7 +21933,6 @@
       <c r="D105" t="s">
         <v>72</v>
       </c>
-      <c r="E105"/>
       <c r="F105" s="3">
         <v>30</v>
       </c>
@@ -21191,8 +21943,12 @@
         <v>0</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P105"/>
     </row>
@@ -21209,7 +21965,6 @@
       <c r="D106" t="s">
         <v>31</v>
       </c>
-      <c r="E106"/>
       <c r="F106" s="3">
         <v>35</v>
       </c>
@@ -21220,8 +21975,12 @@
         <v>0</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
       <c r="P106"/>
     </row>
@@ -21238,7 +21997,6 @@
       <c r="D107" t="s">
         <v>110</v>
       </c>
-      <c r="E107"/>
       <c r="F107" s="3">
         <v>25</v>
       </c>
@@ -21249,8 +22007,12 @@
         <v>0</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O107" s="3">
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="P107"/>
     </row>
@@ -21267,7 +22029,6 @@
       <c r="D108" t="s">
         <v>31</v>
       </c>
-      <c r="E108"/>
       <c r="F108" s="3">
         <v>35</v>
       </c>
@@ -21278,8 +22039,12 @@
         <v>0</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O108" s="3">
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
       <c r="P108"/>
     </row>
@@ -21296,7 +22061,6 @@
       <c r="D109" t="s">
         <v>82</v>
       </c>
-      <c r="E109"/>
       <c r="F109" s="3">
         <v>25</v>
       </c>
@@ -21307,8 +22071,12 @@
         <v>0</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O109" s="3">
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="P109"/>
     </row>
@@ -21325,7 +22093,6 @@
       <c r="D110" t="s">
         <v>28</v>
       </c>
-      <c r="E110"/>
       <c r="F110" s="3">
         <v>25</v>
       </c>
@@ -21336,8 +22103,12 @@
         <v>0</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O110" s="3">
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="P110"/>
     </row>
@@ -21354,7 +22125,6 @@
       <c r="D111" t="s">
         <v>31</v>
       </c>
-      <c r="E111"/>
       <c r="F111" s="3">
         <v>30</v>
       </c>
@@ -21365,8 +22135,12 @@
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O111" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P111"/>
     </row>
@@ -21383,7 +22157,6 @@
       <c r="D112" t="s">
         <v>82</v>
       </c>
-      <c r="E112"/>
       <c r="F112" s="3">
         <v>30</v>
       </c>
@@ -21394,25 +22167,28 @@
         <v>0</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O112" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P112"/>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="8">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
         <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113"/>
+        <v>72</v>
+      </c>
       <c r="F113" s="3">
         <v>30</v>
       </c>
@@ -21423,270 +22199,3686 @@
         <v>0</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O113" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P113"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="8">
-        <v>3253</v>
-      </c>
-      <c r="B114" t="s">
-        <v>86</v>
+        <v>3254</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114"/>
+        <v>165</v>
+      </c>
       <c r="F114" s="3">
         <v>30</v>
       </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="I114:I119" si="10">G114-H114</f>
+        <v>1</v>
+      </c>
+      <c r="O114" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
       </c>
       <c r="P114"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="8"/>
-      <c r="B115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="A115" s="8">
+        <v>3255</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" t="s">
+        <v>167</v>
+      </c>
+      <c r="F115" s="3">
+        <v>30</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
       <c r="P115"/>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="8"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="8">
+        <v>3256</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" t="s">
+        <v>165</v>
+      </c>
+      <c r="F116" s="3">
+        <v>30</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O116" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
       <c r="P116"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="8"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="8">
+        <v>3257</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="3">
+        <v>18</v>
+      </c>
+      <c r="G117" s="4">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O117" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P117"/>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="8"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="8">
+        <v>3258</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="3">
+        <v>18</v>
+      </c>
+      <c r="G118" s="4">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="O118" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P118"/>
     </row>
     <row r="119" spans="1:16">
-      <c r="A119" s="8"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="8">
+        <v>3259</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119" s="3">
+        <v>4</v>
+      </c>
+      <c r="G119" s="4">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O119" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
       <c r="P119"/>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="8"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="8">
+        <v>3260</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" t="s">
+        <v>174</v>
+      </c>
+      <c r="D120" t="s">
+        <v>175</v>
+      </c>
+      <c r="F120" s="3">
+        <v>18</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <f t="shared" ref="I120:I139" si="11">G120-H120</f>
+        <v>1</v>
+      </c>
+      <c r="O120" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P120"/>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="8"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="8">
+        <v>3261</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" s="3">
+        <v>18</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O121" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P121"/>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="8"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="8">
+        <v>3262</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="3">
+        <v>18</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O122" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P122"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="8"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="8">
+        <v>3263</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="3">
+        <v>18</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O123" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P123"/>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="8"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="3">
+        <v>10</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O124" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
       <c r="P124"/>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="8"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="8">
+        <v>3265</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+      <c r="F125" s="3">
+        <v>15</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O125" s="3">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
       <c r="P125"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="8"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="8">
+        <v>3266</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="3">
+        <v>20</v>
+      </c>
+      <c r="G126" s="4">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O126" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
       <c r="P126"/>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="8"/>
+      <c r="A127" s="8">
+        <v>3267</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="3">
+        <v>18</v>
+      </c>
+      <c r="G127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O127" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P127"/>
     </row>
     <row r="128" spans="1:16">
-      <c r="A128" s="8"/>
+      <c r="A128" s="8">
+        <v>3268</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" t="s">
+        <v>183</v>
+      </c>
+      <c r="D128" t="s">
+        <v>110</v>
+      </c>
+      <c r="F128" s="3">
+        <v>18</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O128" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P128"/>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="8"/>
+      <c r="A129" s="8">
+        <v>3269</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="3">
+        <v>18</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O129" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
       <c r="P129"/>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="8"/>
-      <c r="P130"/>
+      <c r="A130" s="8">
+        <v>3270</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+      <c r="F130" s="3">
+        <v>18</v>
+      </c>
+      <c r="G130" s="4">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O130" s="3">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="P130" s="16"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="8"/>
-      <c r="P131" s="16">
-        <f t="shared" ref="P86:P154" si="6">G131</f>
+      <c r="A131" s="8">
+        <v>3271</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="3">
+        <v>18</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1</v>
+      </c>
+      <c r="H131">
         <v>0</v>
       </c>
+      <c r="I131" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O131" s="3">
+        <f t="shared" ref="O131:O162" si="12">F131</f>
+        <v>18</v>
+      </c>
+      <c r="P131" s="16"/>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="8"/>
-      <c r="P132" s="16">
-        <f t="shared" si="6"/>
+      <c r="A132" s="8">
+        <v>3272</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" t="s">
+        <v>187</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="3">
+        <v>20</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1</v>
+      </c>
+      <c r="H132">
         <v>0</v>
       </c>
+      <c r="I132" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O132" s="3">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="P132" s="16"/>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="8"/>
-      <c r="P133" s="16">
-        <f t="shared" si="6"/>
+      <c r="A133" s="8">
+        <v>3273</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="3">
+        <v>18</v>
+      </c>
+      <c r="G133" s="4">
+        <v>1</v>
+      </c>
+      <c r="H133">
         <v>0</v>
       </c>
+      <c r="I133" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O133" s="3">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="P133" s="16"/>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="8"/>
-      <c r="P134" s="16">
-        <f t="shared" si="6"/>
+      <c r="A134" s="8">
+        <v>3274</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="3">
+        <v>18</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="H134">
         <v>0</v>
       </c>
+      <c r="I134" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O134" s="3">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="P134" s="16"/>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" s="8"/>
-      <c r="P135" s="16">
-        <f t="shared" si="6"/>
+      <c r="A135" s="8">
+        <v>3275</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="3">
+        <v>15</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="H135">
         <v>0</v>
       </c>
+      <c r="I135" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O135" s="3">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="P135" s="16"/>
     </row>
     <row r="136" spans="1:16">
-      <c r="A136" s="8"/>
-      <c r="P136" s="16">
-        <f t="shared" si="6"/>
+      <c r="A136" s="8">
+        <v>3276</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="3">
+        <v>18</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136">
         <v>0</v>
       </c>
+      <c r="I136" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O136" s="3">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="P136" s="16"/>
     </row>
-    <row r="137" spans="16:16">
-      <c r="P137" s="16">
-        <f t="shared" si="6"/>
+    <row r="137" spans="1:16">
+      <c r="A137" s="8">
+        <v>3277</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="3">
+        <v>20</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1</v>
+      </c>
+      <c r="H137">
         <v>0</v>
       </c>
+      <c r="I137" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O137" s="3">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="P137" s="16"/>
     </row>
-    <row r="138" spans="16:16">
-      <c r="P138" s="16">
-        <f t="shared" si="6"/>
+    <row r="138" spans="1:16">
+      <c r="A138" s="8">
+        <v>3278</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>192</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="3">
+        <v>20</v>
+      </c>
+      <c r="G138" s="4">
+        <v>3</v>
+      </c>
+      <c r="H138">
         <v>0</v>
       </c>
+      <c r="I138" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="O138" s="3">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="P138" s="16"/>
     </row>
-    <row r="139" spans="16:16">
-      <c r="P139" s="16">
-        <f t="shared" si="6"/>
+    <row r="139" spans="1:16">
+      <c r="A139" s="8">
+        <v>3279</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="3">
+        <v>18</v>
+      </c>
+      <c r="G139" s="4">
+        <v>2</v>
+      </c>
+      <c r="H139">
         <v>0</v>
       </c>
+      <c r="I139" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O139" s="3">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="P139" s="16"/>
     </row>
-    <row r="140" spans="16:16">
-      <c r="P140" s="16">
-        <f t="shared" si="6"/>
+    <row r="140" spans="1:16">
+      <c r="A140" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" s="3">
+        <v>35</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1</v>
+      </c>
+      <c r="H140">
         <v>0</v>
       </c>
+      <c r="I140" s="4">
+        <f>G140-H140</f>
+        <v>1</v>
+      </c>
+      <c r="O140" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="P140" s="16"/>
     </row>
-    <row r="141" spans="16:16">
-      <c r="P141" s="16">
-        <f t="shared" si="6"/>
+    <row r="141" spans="1:16">
+      <c r="A141" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D141" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" s="3">
+        <v>35</v>
+      </c>
+      <c r="G141" s="4">
+        <v>1</v>
+      </c>
+      <c r="H141">
         <v>0</v>
       </c>
+      <c r="I141" s="4">
+        <f>G141-H141</f>
+        <v>1</v>
+      </c>
+      <c r="O141" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="P141" s="16"/>
     </row>
-    <row r="142" spans="16:16">
-      <c r="P142" s="16">
-        <f t="shared" si="6"/>
+    <row r="142" spans="1:16">
+      <c r="A142" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>199</v>
+      </c>
+      <c r="D142" t="s">
+        <v>49</v>
+      </c>
+      <c r="F142" s="3">
+        <v>35</v>
+      </c>
+      <c r="G142" s="4">
+        <v>1</v>
+      </c>
+      <c r="H142">
         <v>0</v>
       </c>
+      <c r="I142" s="4">
+        <f>G142-H142</f>
+        <v>1</v>
+      </c>
+      <c r="O142" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="P142" s="16"/>
     </row>
-    <row r="143" spans="16:16">
-      <c r="P143" s="16">
-        <f t="shared" si="6"/>
+    <row r="143" spans="1:16">
+      <c r="A143" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" t="s">
+        <v>49</v>
+      </c>
+      <c r="F143" s="3">
+        <v>50</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143">
         <v>0</v>
       </c>
+      <c r="I143" s="4">
+        <f>G143-H143</f>
+        <v>1</v>
+      </c>
+      <c r="O143" s="3">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="P143" s="16"/>
     </row>
-    <row r="144" spans="16:16">
-      <c r="P144" s="16">
-        <f t="shared" si="6"/>
+    <row r="144" spans="1:16">
+      <c r="A144" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" s="3">
+        <v>50</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1</v>
+      </c>
+      <c r="H144">
         <v>0</v>
       </c>
+      <c r="I144" s="4">
+        <f t="shared" ref="I144:I183" si="13">G144-H144</f>
+        <v>1</v>
+      </c>
+      <c r="O144" s="3">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="P144" s="16"/>
     </row>
-    <row r="145" spans="16:16">
-      <c r="P145" s="16">
-        <f t="shared" si="6"/>
+    <row r="145" spans="1:16">
+      <c r="A145" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" t="s">
+        <v>49</v>
+      </c>
+      <c r="F145" s="3">
+        <v>30</v>
+      </c>
+      <c r="G145" s="4">
+        <v>1</v>
+      </c>
+      <c r="H145">
         <v>0</v>
       </c>
+      <c r="I145" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O145" s="3">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="P145" s="16"/>
     </row>
-    <row r="146" spans="16:16">
-      <c r="P146" s="16">
-        <f t="shared" si="6"/>
+    <row r="146" spans="1:16">
+      <c r="A146" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="3">
+        <v>35</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1</v>
+      </c>
+      <c r="H146">
         <v>0</v>
       </c>
+      <c r="I146" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O146" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="P146" s="16"/>
     </row>
-    <row r="147" spans="16:16">
-      <c r="P147" s="16">
-        <f t="shared" si="6"/>
+    <row r="147" spans="1:16">
+      <c r="A147" s="8">
+        <v>3280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>209</v>
+      </c>
+      <c r="D147" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" s="3">
+        <v>25</v>
+      </c>
+      <c r="G147" s="4">
+        <v>2</v>
+      </c>
+      <c r="H147">
         <v>0</v>
       </c>
+      <c r="I147" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O147" s="3">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="P147" s="16"/>
     </row>
-    <row r="148" spans="16:16">
-      <c r="P148" s="16">
-        <f t="shared" si="6"/>
+    <row r="148" spans="1:16">
+      <c r="A148" s="8">
+        <v>3281</v>
+      </c>
+      <c r="B148" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" t="s">
+        <v>210</v>
+      </c>
+      <c r="D148" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="3">
+        <v>25</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H148">
         <v>0</v>
       </c>
+      <c r="I148" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O148" s="3">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="P148" s="16"/>
     </row>
-    <row r="149" spans="16:16">
-      <c r="P149" s="16">
-        <f t="shared" si="6"/>
+    <row r="149" spans="1:16">
+      <c r="A149" s="8">
+        <v>3282</v>
+      </c>
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F149" s="3">
+        <v>30</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1</v>
+      </c>
+      <c r="H149">
         <v>0</v>
       </c>
+      <c r="I149" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O149" s="3">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="P149" s="16"/>
     </row>
-    <row r="150" spans="16:16">
-      <c r="P150" s="16">
-        <f t="shared" si="6"/>
+    <row r="150" spans="1:16">
+      <c r="A150" s="8">
+        <v>3283</v>
+      </c>
+      <c r="B150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" t="s">
+        <v>110</v>
+      </c>
+      <c r="F150" s="3">
+        <v>25</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150">
         <v>0</v>
       </c>
+      <c r="I150" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O150" s="3">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="P150" s="16"/>
     </row>
-    <row r="151" spans="16:16">
-      <c r="P151" s="16">
-        <f t="shared" si="6"/>
+    <row r="151" spans="1:16">
+      <c r="A151" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" t="s">
+        <v>214</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="3">
+        <v>22</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1</v>
+      </c>
+      <c r="H151">
         <v>0</v>
       </c>
+      <c r="I151" s="4">
+        <v>0</v>
+      </c>
+      <c r="O151" s="3">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="P151" s="16"/>
     </row>
-    <row r="152" spans="16:16">
-      <c r="P152" s="16">
-        <f t="shared" si="6"/>
+    <row r="152" spans="1:16">
+      <c r="A152" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" t="s">
+        <v>216</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" s="3">
+        <v>28</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1</v>
+      </c>
+      <c r="H152">
         <v>0</v>
       </c>
+      <c r="I152" s="4">
+        <v>0</v>
+      </c>
+      <c r="O152" s="3">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="P152" s="16"/>
     </row>
-    <row r="153" spans="16:16">
-      <c r="P153" s="16">
-        <f t="shared" si="6"/>
+    <row r="153" spans="1:16">
+      <c r="A153" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" t="s">
+        <v>218</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" s="3">
+        <v>25</v>
+      </c>
+      <c r="G153" s="4">
+        <v>1</v>
+      </c>
+      <c r="H153">
         <v>0</v>
       </c>
+      <c r="I153" s="4">
+        <v>0</v>
+      </c>
+      <c r="O153" s="3">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="P153" s="16"/>
     </row>
-    <row r="154" spans="16:16">
-      <c r="P154" s="16">
-        <f t="shared" si="6"/>
+    <row r="154" spans="1:15">
+      <c r="A154" s="8">
+        <v>3287</v>
+      </c>
+      <c r="B154" t="s">
+        <v>219</v>
+      </c>
+      <c r="C154" t="s">
+        <v>220</v>
+      </c>
+      <c r="D154" t="s">
+        <v>165</v>
+      </c>
+      <c r="F154" s="3">
+        <v>30</v>
+      </c>
+      <c r="G154" s="4">
+        <v>1</v>
+      </c>
+      <c r="H154">
         <v>0</v>
       </c>
+      <c r="I154" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O154" s="3">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="691" spans="8:8">
-      <c r="H691" t="s">
+    <row r="155" spans="1:15">
+      <c r="A155" s="8">
+        <v>3288</v>
+      </c>
+      <c r="B155" t="s">
+        <v>219</v>
+      </c>
+      <c r="C155" t="s">
+        <v>221</v>
+      </c>
+      <c r="D155" t="s">
+        <v>165</v>
+      </c>
+      <c r="F155" s="3">
+        <v>35</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O155" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="8">
+        <v>3289</v>
+      </c>
+      <c r="B156" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" t="s">
+        <v>223</v>
+      </c>
+      <c r="F156" s="3">
+        <v>40</v>
+      </c>
+      <c r="G156" s="4">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O156" s="3">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="8">
+        <v>3290</v>
+      </c>
+      <c r="B157" t="s">
+        <v>224</v>
+      </c>
+      <c r="C157" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" t="s">
+        <v>82</v>
+      </c>
+      <c r="F157" s="3">
+        <v>30</v>
+      </c>
+      <c r="G157" s="4">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O157" s="3">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="8">
+        <v>3291</v>
+      </c>
+      <c r="B158" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158" t="s">
+        <v>228</v>
+      </c>
+      <c r="F158" s="3">
+        <v>35</v>
+      </c>
+      <c r="G158" s="4">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O158" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="8">
+        <v>3292</v>
+      </c>
+      <c r="B159" t="s">
         <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>229</v>
+      </c>
+      <c r="D159" t="s">
+        <v>165</v>
+      </c>
+      <c r="F159" s="3">
+        <v>35</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O159" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" t="s">
+        <v>230</v>
+      </c>
+      <c r="D160" t="s">
+        <v>165</v>
+      </c>
+      <c r="F160" s="3">
+        <v>40</v>
+      </c>
+      <c r="G160" s="4">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O160" s="3">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="8">
+        <v>3294</v>
+      </c>
+      <c r="B161" t="s">
+        <v>224</v>
+      </c>
+      <c r="C161" t="s">
+        <v>231</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="3">
+        <v>30</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O161" s="3">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="8">
+        <v>3295</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>232</v>
+      </c>
+      <c r="D162" t="s">
+        <v>223</v>
+      </c>
+      <c r="F162" s="3">
+        <v>35</v>
+      </c>
+      <c r="G162" s="4">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O162" s="3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>234</v>
+      </c>
+      <c r="D163" t="s">
+        <v>72</v>
+      </c>
+      <c r="F163" s="3">
+        <v>30</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" s="4">
+        <v>0</v>
+      </c>
+      <c r="O163" s="3">
+        <f t="shared" ref="O163:O178" si="14">F163</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" t="s">
+        <v>224</v>
+      </c>
+      <c r="C164" t="s">
+        <v>236</v>
+      </c>
+      <c r="D164" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" s="3">
+        <v>35</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" s="4">
+        <v>0</v>
+      </c>
+      <c r="O164" s="3">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="8">
+        <v>3298</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>238</v>
+      </c>
+      <c r="D165" t="s">
+        <v>165</v>
+      </c>
+      <c r="F165" s="3">
+        <v>40</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O165" s="3">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="8">
+        <v>3299</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>239</v>
+      </c>
+      <c r="D166" t="s">
+        <v>82</v>
+      </c>
+      <c r="F166" s="3">
+        <v>25</v>
+      </c>
+      <c r="G166" s="4">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O166" s="3">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" t="s">
+        <v>241</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="3">
+        <v>25</v>
+      </c>
+      <c r="G167" s="4">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" s="4">
+        <v>0</v>
+      </c>
+      <c r="O167" s="3">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="8">
+        <v>3301</v>
+      </c>
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s">
+        <v>242</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="3">
+        <v>25</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O168" s="3">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="8">
+        <v>3302</v>
+      </c>
+      <c r="B169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" t="s">
+        <v>82</v>
+      </c>
+      <c r="F169" s="3">
+        <v>35</v>
+      </c>
+      <c r="G169" s="4">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O169" s="3">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="8">
+        <v>3303</v>
+      </c>
+      <c r="B170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" t="s">
+        <v>244</v>
+      </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="3">
+        <v>35</v>
+      </c>
+      <c r="G170" s="4">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O170" s="3">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="8">
+        <v>3304</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
+        <v>245</v>
+      </c>
+      <c r="D171" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171" s="3">
+        <v>30</v>
+      </c>
+      <c r="G171" s="4">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O171" s="3">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="8">
+        <v>3305</v>
+      </c>
+      <c r="B172" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" t="s">
+        <v>246</v>
+      </c>
+      <c r="D172" t="s">
+        <v>82</v>
+      </c>
+      <c r="F172" s="3">
+        <v>20</v>
+      </c>
+      <c r="G172" s="4">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O172" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="8">
+        <v>3306</v>
+      </c>
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" t="s">
+        <v>247</v>
+      </c>
+      <c r="D173" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" s="3">
+        <v>35</v>
+      </c>
+      <c r="G173" s="4">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O173" s="3">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="8">
+        <v>3307</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
+      </c>
+      <c r="D174" t="s">
+        <v>110</v>
+      </c>
+      <c r="F174" s="3">
+        <v>20</v>
+      </c>
+      <c r="G174" s="4">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O174" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>250</v>
+      </c>
+      <c r="D175" t="s">
+        <v>82</v>
+      </c>
+      <c r="F175" s="3">
+        <v>35</v>
+      </c>
+      <c r="G175" s="4">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175" s="4">
+        <v>0</v>
+      </c>
+      <c r="O175" s="3">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="8">
+        <v>3309</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>251</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" s="3">
+        <v>25</v>
+      </c>
+      <c r="G176" s="4">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O176" s="3">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" s="8">
+        <v>3310</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="s">
+        <v>252</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="F177" s="3">
+        <v>20</v>
+      </c>
+      <c r="G177" s="4">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O177" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" s="8">
+        <v>3311</v>
+      </c>
+      <c r="B178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" t="s">
+        <v>253</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="3">
+        <v>20</v>
+      </c>
+      <c r="G178" s="4">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" s="4">
+        <v>0</v>
+      </c>
+      <c r="O178" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="8">
+        <v>3312</v>
+      </c>
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" t="s">
+        <v>254</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="F179" s="3">
+        <v>25</v>
+      </c>
+      <c r="G179" s="4">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O179" s="3">
+        <f t="shared" ref="O179:O210" si="15">F179</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" s="8">
+        <v>3313</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>255</v>
+      </c>
+      <c r="D180" t="s">
+        <v>82</v>
+      </c>
+      <c r="F180" s="3">
+        <v>20</v>
+      </c>
+      <c r="G180" s="4">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O180" s="3">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" t="s">
+        <v>258</v>
+      </c>
+      <c r="D181" t="s">
+        <v>259</v>
+      </c>
+      <c r="F181" s="3">
+        <v>40</v>
+      </c>
+      <c r="G181" s="4">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181" s="4">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O181" s="3">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B182" t="s">
+        <v>257</v>
+      </c>
+      <c r="C182" t="s">
+        <v>261</v>
+      </c>
+      <c r="D182" t="s">
+        <v>76</v>
+      </c>
+      <c r="F182" s="3">
+        <v>30</v>
+      </c>
+      <c r="G182" s="4">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" s="4">
+        <v>0</v>
+      </c>
+      <c r="O182" s="3">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B183" t="s">
+        <v>257</v>
+      </c>
+      <c r="C183" t="s">
+        <v>263</v>
+      </c>
+      <c r="D183" t="s">
+        <v>264</v>
+      </c>
+      <c r="F183" s="3">
+        <v>18</v>
+      </c>
+      <c r="G183" s="4">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" s="4">
+        <v>0</v>
+      </c>
+      <c r="O183" s="3">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B184" t="s">
+        <v>257</v>
+      </c>
+      <c r="C184" t="s">
+        <v>266</v>
+      </c>
+      <c r="D184" t="s">
+        <v>267</v>
+      </c>
+      <c r="F184" s="3">
+        <v>35</v>
+      </c>
+      <c r="G184" s="4">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" s="4">
+        <v>0</v>
+      </c>
+      <c r="O184" s="3">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" t="s">
+        <v>257</v>
+      </c>
+      <c r="C185" t="s">
+        <v>269</v>
+      </c>
+      <c r="D185" t="s">
+        <v>270</v>
+      </c>
+      <c r="F185" s="3">
+        <v>35</v>
+      </c>
+      <c r="G185" s="4">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" s="4">
+        <v>0</v>
+      </c>
+      <c r="O185" s="3">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C186" t="s">
+        <v>272</v>
+      </c>
+      <c r="D186" t="s">
+        <v>76</v>
+      </c>
+      <c r="F186" s="3">
+        <v>35</v>
+      </c>
+      <c r="G186" s="4">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" s="4">
+        <v>0</v>
+      </c>
+      <c r="O186" s="3">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" t="s">
+        <v>274</v>
+      </c>
+      <c r="F187" s="3">
+        <v>35</v>
+      </c>
+      <c r="G187" s="4">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187" s="4">
+        <v>0</v>
+      </c>
+      <c r="O187" s="3">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" s="2">
+        <v>3315</v>
+      </c>
+      <c r="B188" t="s">
+        <v>275</v>
+      </c>
+      <c r="C188" t="s">
+        <v>276</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="3">
+        <v>10</v>
+      </c>
+      <c r="G188" s="4">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" s="4">
+        <v>1</v>
+      </c>
+      <c r="O188" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" s="2">
+        <v>3316</v>
+      </c>
+      <c r="B189" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="3">
+        <v>10</v>
+      </c>
+      <c r="G189" s="4">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" s="4">
+        <v>1</v>
+      </c>
+      <c r="O189" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" s="2">
+        <v>3317</v>
+      </c>
+      <c r="B190" t="s">
+        <v>275</v>
+      </c>
+      <c r="C190" t="s">
+        <v>278</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" s="3">
+        <v>12</v>
+      </c>
+      <c r="G190" s="4">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" s="4">
+        <v>1</v>
+      </c>
+      <c r="O190" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" s="2">
+        <v>3318</v>
+      </c>
+      <c r="B191" t="s">
+        <v>275</v>
+      </c>
+      <c r="C191" t="s">
+        <v>279</v>
+      </c>
+      <c r="D191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" s="3">
+        <v>10</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" s="4">
+        <v>1</v>
+      </c>
+      <c r="O191" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" s="2">
+        <v>3319</v>
+      </c>
+      <c r="B192" t="s">
+        <v>275</v>
+      </c>
+      <c r="C192" t="s">
+        <v>280</v>
+      </c>
+      <c r="D192" t="s">
+        <v>72</v>
+      </c>
+      <c r="F192" s="3">
+        <v>12</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" s="4">
+        <v>1</v>
+      </c>
+      <c r="O192" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" s="2">
+        <v>3320</v>
+      </c>
+      <c r="B193" t="s">
+        <v>275</v>
+      </c>
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+      <c r="D193" t="s">
+        <v>24</v>
+      </c>
+      <c r="F193" s="3">
+        <v>12</v>
+      </c>
+      <c r="G193" s="4">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" s="4">
+        <v>1</v>
+      </c>
+      <c r="O193" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" s="2">
+        <v>3321</v>
+      </c>
+      <c r="B194" t="s">
+        <v>275</v>
+      </c>
+      <c r="C194" t="s">
+        <v>282</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+      <c r="F194" s="3">
+        <v>12</v>
+      </c>
+      <c r="G194" s="4">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" s="4">
+        <v>2</v>
+      </c>
+      <c r="O194" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" s="2">
+        <v>3322</v>
+      </c>
+      <c r="B195" t="s">
+        <v>275</v>
+      </c>
+      <c r="C195" t="s">
+        <v>283</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" s="3">
+        <v>12</v>
+      </c>
+      <c r="G195" s="4">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" s="4">
+        <v>1</v>
+      </c>
+      <c r="O195" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="2">
+        <v>3323</v>
+      </c>
+      <c r="B196" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" t="s">
+        <v>283</v>
+      </c>
+      <c r="D196" t="s">
+        <v>72</v>
+      </c>
+      <c r="F196" s="3">
+        <v>12</v>
+      </c>
+      <c r="G196" s="4">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" s="4">
+        <v>2</v>
+      </c>
+      <c r="O196" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" s="2">
+        <v>3324</v>
+      </c>
+      <c r="B197" t="s">
+        <v>275</v>
+      </c>
+      <c r="C197" t="s">
+        <v>284</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197" s="3">
+        <v>10</v>
+      </c>
+      <c r="G197" s="4">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197" s="4">
+        <v>1</v>
+      </c>
+      <c r="O197" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="A198" s="2">
+        <v>3325</v>
+      </c>
+      <c r="B198" t="s">
+        <v>275</v>
+      </c>
+      <c r="C198" t="s">
+        <v>278</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" s="3">
+        <v>10</v>
+      </c>
+      <c r="G198" s="4">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198" s="4">
+        <v>1</v>
+      </c>
+      <c r="O198" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="2">
+        <v>3326</v>
+      </c>
+      <c r="B199" t="s">
+        <v>275</v>
+      </c>
+      <c r="C199" t="s">
+        <v>285</v>
+      </c>
+      <c r="D199" t="s">
+        <v>72</v>
+      </c>
+      <c r="F199" s="3">
+        <v>10</v>
+      </c>
+      <c r="G199" s="4">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199" s="4">
+        <v>1</v>
+      </c>
+      <c r="O199" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="2">
+        <v>3327</v>
+      </c>
+      <c r="B200" t="s">
+        <v>275</v>
+      </c>
+      <c r="C200" t="s">
+        <v>286</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" s="3">
+        <v>12</v>
+      </c>
+      <c r="G200" s="4">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" s="4">
+        <v>1</v>
+      </c>
+      <c r="O200" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" s="2">
+        <v>3328</v>
+      </c>
+      <c r="B201" t="s">
+        <v>275</v>
+      </c>
+      <c r="C201" t="s">
+        <v>287</v>
+      </c>
+      <c r="D201" t="s">
+        <v>72</v>
+      </c>
+      <c r="F201" s="3">
+        <v>10</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" s="4">
+        <v>1</v>
+      </c>
+      <c r="O201" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="2">
+        <v>3329</v>
+      </c>
+      <c r="B202" t="s">
+        <v>275</v>
+      </c>
+      <c r="C202" t="s">
+        <v>288</v>
+      </c>
+      <c r="D202" t="s">
+        <v>31</v>
+      </c>
+      <c r="F202" s="3">
+        <v>10</v>
+      </c>
+      <c r="G202" s="4">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202" s="4">
+        <v>2</v>
+      </c>
+      <c r="O202" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="2">
+        <v>3330</v>
+      </c>
+      <c r="B203" t="s">
+        <v>275</v>
+      </c>
+      <c r="C203" t="s">
+        <v>289</v>
+      </c>
+      <c r="D203" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="3">
+        <v>10</v>
+      </c>
+      <c r="G203" s="4">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203" s="4">
+        <v>1</v>
+      </c>
+      <c r="O203" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="2">
+        <v>3331</v>
+      </c>
+      <c r="B204" t="s">
+        <v>275</v>
+      </c>
+      <c r="C204" t="s">
+        <v>290</v>
+      </c>
+      <c r="D204" t="s">
+        <v>291</v>
+      </c>
+      <c r="F204" s="3">
+        <v>10</v>
+      </c>
+      <c r="G204" s="4">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" s="4">
+        <v>1</v>
+      </c>
+      <c r="O204" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="2">
+        <v>3332</v>
+      </c>
+      <c r="B205" t="s">
+        <v>275</v>
+      </c>
+      <c r="C205" t="s">
+        <v>282</v>
+      </c>
+      <c r="D205" t="s">
+        <v>72</v>
+      </c>
+      <c r="F205" s="3">
+        <v>12</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" s="4">
+        <v>1</v>
+      </c>
+      <c r="O205" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B206" t="s">
+        <v>275</v>
+      </c>
+      <c r="C206" t="s">
+        <v>292</v>
+      </c>
+      <c r="D206" t="s">
+        <v>31</v>
+      </c>
+      <c r="F206" s="3">
+        <v>10</v>
+      </c>
+      <c r="G206" s="4">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1</v>
+      </c>
+      <c r="O206" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="A207" s="2">
+        <v>3334</v>
+      </c>
+      <c r="B207" t="s">
+        <v>275</v>
+      </c>
+      <c r="C207" t="s">
+        <v>293</v>
+      </c>
+      <c r="D207" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" s="3">
+        <v>10</v>
+      </c>
+      <c r="G207" s="4">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" s="4">
+        <v>1</v>
+      </c>
+      <c r="O207" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208" s="2">
+        <v>3335</v>
+      </c>
+      <c r="B208" t="s">
+        <v>275</v>
+      </c>
+      <c r="C208" t="s">
+        <v>294</v>
+      </c>
+      <c r="D208" t="s">
+        <v>24</v>
+      </c>
+      <c r="F208" s="3">
+        <v>10</v>
+      </c>
+      <c r="G208" s="4">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" s="4">
+        <v>1</v>
+      </c>
+      <c r="O208" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209" s="2">
+        <v>3336</v>
+      </c>
+      <c r="B209" t="s">
+        <v>275</v>
+      </c>
+      <c r="C209" t="s">
+        <v>295</v>
+      </c>
+      <c r="D209" t="s">
+        <v>24</v>
+      </c>
+      <c r="F209" s="3">
+        <v>10</v>
+      </c>
+      <c r="G209" s="4">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" s="4">
+        <v>1</v>
+      </c>
+      <c r="O209" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="2">
+        <v>3337</v>
+      </c>
+      <c r="B210" t="s">
+        <v>275</v>
+      </c>
+      <c r="C210" t="s">
+        <v>295</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="F210" s="3">
+        <v>10</v>
+      </c>
+      <c r="G210" s="4">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" s="4">
+        <v>1</v>
+      </c>
+      <c r="O210" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" s="2">
+        <v>3338</v>
+      </c>
+      <c r="B211" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" t="s">
+        <v>296</v>
+      </c>
+      <c r="D211" t="s">
+        <v>72</v>
+      </c>
+      <c r="F211" s="3">
+        <v>10</v>
+      </c>
+      <c r="G211" s="4">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211" s="4">
+        <v>1</v>
+      </c>
+      <c r="O211" s="3">
+        <f t="shared" ref="O211:O230" si="16">F211</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="2">
+        <v>3339</v>
+      </c>
+      <c r="B212" t="s">
+        <v>275</v>
+      </c>
+      <c r="C212" t="s">
+        <v>297</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+      <c r="F212" s="3">
+        <v>10</v>
+      </c>
+      <c r="G212" s="4">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" s="4">
+        <v>1</v>
+      </c>
+      <c r="O212" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="2">
+        <v>3340</v>
+      </c>
+      <c r="B213" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" t="s">
+        <v>298</v>
+      </c>
+      <c r="D213" t="s">
+        <v>31</v>
+      </c>
+      <c r="F213" s="3">
+        <v>10</v>
+      </c>
+      <c r="G213" s="4">
+        <v>3</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" s="4">
+        <v>3</v>
+      </c>
+      <c r="O213" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" s="2">
+        <v>3341</v>
+      </c>
+      <c r="B214" t="s">
+        <v>275</v>
+      </c>
+      <c r="C214" t="s">
+        <v>299</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" s="3">
+        <v>10</v>
+      </c>
+      <c r="G214" s="4">
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" s="4">
+        <v>2</v>
+      </c>
+      <c r="O214" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="2">
+        <v>3342</v>
+      </c>
+      <c r="B215" t="s">
+        <v>275</v>
+      </c>
+      <c r="C215" t="s">
+        <v>300</v>
+      </c>
+      <c r="D215" t="s">
+        <v>31</v>
+      </c>
+      <c r="F215" s="3">
+        <v>10</v>
+      </c>
+      <c r="G215" s="4">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" s="4">
+        <v>1</v>
+      </c>
+      <c r="O215" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="2">
+        <v>3343</v>
+      </c>
+      <c r="B216" t="s">
+        <v>275</v>
+      </c>
+      <c r="C216" t="s">
+        <v>300</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="F216" s="3">
+        <v>10</v>
+      </c>
+      <c r="G216" s="4">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216" s="4">
+        <v>1</v>
+      </c>
+      <c r="O216" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="2">
+        <v>3344</v>
+      </c>
+      <c r="B217" t="s">
+        <v>275</v>
+      </c>
+      <c r="C217" t="s">
+        <v>301</v>
+      </c>
+      <c r="D217" t="s">
+        <v>302</v>
+      </c>
+      <c r="F217" s="3">
+        <v>10</v>
+      </c>
+      <c r="G217" s="4">
+        <v>2</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" s="4">
+        <v>2</v>
+      </c>
+      <c r="O217" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="2">
+        <v>3345</v>
+      </c>
+      <c r="B218" t="s">
+        <v>275</v>
+      </c>
+      <c r="C218" t="s">
+        <v>303</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" s="3">
+        <v>10</v>
+      </c>
+      <c r="G218" s="4">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218" s="4">
+        <v>1</v>
+      </c>
+      <c r="O218" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="2">
+        <v>3346</v>
+      </c>
+      <c r="B219" t="s">
+        <v>275</v>
+      </c>
+      <c r="C219" t="s">
+        <v>303</v>
+      </c>
+      <c r="D219" t="s">
+        <v>31</v>
+      </c>
+      <c r="F219" s="3">
+        <v>10</v>
+      </c>
+      <c r="G219" s="4">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219" s="4">
+        <v>1</v>
+      </c>
+      <c r="O219" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="2">
+        <v>3347</v>
+      </c>
+      <c r="B220" t="s">
+        <v>275</v>
+      </c>
+      <c r="C220" t="s">
+        <v>304</v>
+      </c>
+      <c r="D220" t="s">
+        <v>31</v>
+      </c>
+      <c r="F220" s="3">
+        <v>10</v>
+      </c>
+      <c r="G220" s="4">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220" s="4">
+        <v>2</v>
+      </c>
+      <c r="O220" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="2">
+        <v>3348</v>
+      </c>
+      <c r="B221" t="s">
+        <v>275</v>
+      </c>
+      <c r="C221" t="s">
+        <v>305</v>
+      </c>
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" s="3">
+        <v>10</v>
+      </c>
+      <c r="G221" s="4">
+        <v>3</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221" s="4">
+        <v>3</v>
+      </c>
+      <c r="O221" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" s="2">
+        <v>3349</v>
+      </c>
+      <c r="B222" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" t="s">
+        <v>305</v>
+      </c>
+      <c r="D222" t="s">
+        <v>82</v>
+      </c>
+      <c r="F222" s="3">
+        <v>10</v>
+      </c>
+      <c r="G222" s="4">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222" s="4">
+        <v>1</v>
+      </c>
+      <c r="O222" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="2">
+        <v>3350</v>
+      </c>
+      <c r="B223" t="s">
+        <v>275</v>
+      </c>
+      <c r="C223" t="s">
+        <v>306</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="F223" s="3">
+        <v>10</v>
+      </c>
+      <c r="G223" s="4">
+        <v>3</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223" s="4">
+        <v>3</v>
+      </c>
+      <c r="O223" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="2">
+        <v>3351</v>
+      </c>
+      <c r="B224" t="s">
+        <v>275</v>
+      </c>
+      <c r="C224" t="s">
+        <v>307</v>
+      </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" s="3">
+        <v>10</v>
+      </c>
+      <c r="G224" s="4">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224" s="4">
+        <v>1</v>
+      </c>
+      <c r="O224" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="2">
+        <v>3352</v>
+      </c>
+      <c r="B225" t="s">
+        <v>275</v>
+      </c>
+      <c r="C225" t="s">
+        <v>307</v>
+      </c>
+      <c r="D225" t="s">
+        <v>72</v>
+      </c>
+      <c r="F225" s="3">
+        <v>10</v>
+      </c>
+      <c r="G225" s="4">
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" s="4">
+        <v>2</v>
+      </c>
+      <c r="O225" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="2">
+        <v>3353</v>
+      </c>
+      <c r="B226" t="s">
+        <v>275</v>
+      </c>
+      <c r="C226" t="s">
+        <v>308</v>
+      </c>
+      <c r="D226" t="s">
+        <v>72</v>
+      </c>
+      <c r="F226" s="3">
+        <v>10</v>
+      </c>
+      <c r="G226" s="4">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226" s="4">
+        <v>1</v>
+      </c>
+      <c r="O226" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="2">
+        <v>3354</v>
+      </c>
+      <c r="B227" t="s">
+        <v>275</v>
+      </c>
+      <c r="C227" t="s">
+        <v>308</v>
+      </c>
+      <c r="D227" t="s">
+        <v>24</v>
+      </c>
+      <c r="F227" s="3">
+        <v>10</v>
+      </c>
+      <c r="G227" s="4">
+        <v>5</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227" s="4">
+        <v>5</v>
+      </c>
+      <c r="O227" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" s="2">
+        <v>3355</v>
+      </c>
+      <c r="B228" t="s">
+        <v>275</v>
+      </c>
+      <c r="C228" t="s">
+        <v>309</v>
+      </c>
+      <c r="D228" t="s">
+        <v>72</v>
+      </c>
+      <c r="F228" s="3">
+        <v>10</v>
+      </c>
+      <c r="G228" s="4">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228" s="4">
+        <v>1</v>
+      </c>
+      <c r="O228" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" s="2">
+        <v>3356</v>
+      </c>
+      <c r="B229" t="s">
+        <v>275</v>
+      </c>
+      <c r="C229" t="s">
+        <v>310</v>
+      </c>
+      <c r="D229" t="s">
+        <v>72</v>
+      </c>
+      <c r="F229" s="3">
+        <v>10</v>
+      </c>
+      <c r="G229" s="4">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229" s="4">
+        <v>1</v>
+      </c>
+      <c r="O229" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="2">
+        <v>3357</v>
+      </c>
+      <c r="B230" t="s">
+        <v>275</v>
+      </c>
+      <c r="C230" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" s="3">
+        <v>10</v>
+      </c>
+      <c r="G230" s="4">
+        <v>2</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230" s="4">
+        <v>2</v>
+      </c>
+      <c r="O230" s="3">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="6:7">
+      <c r="F231" s="3"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="6:7">
+      <c r="F232" s="3"/>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="6:7">
+      <c r="F233" s="3"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="6:7">
+      <c r="F234" s="3"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="6:7">
+      <c r="F235" s="3"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="6:7">
+      <c r="F236" s="3"/>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="6:7">
+      <c r="F237" s="3"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="6:7">
+      <c r="F238" s="3"/>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="7:7">
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="7:7">
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="7:7">
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" spans="7:7">
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="7:7">
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="7:7">
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" spans="7:7">
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" spans="7:7">
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="7:7">
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="7:7">
+      <c r="G248" s="4"/>
+    </row>
+    <row r="690" spans="8:8">
+      <c r="H690" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="12580"/>
+    <workbookView windowWidth="28800" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2061,8 +2061,8 @@
   <sheetPr/>
   <dimension ref="A1:XEX690"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="P125" sqref="P125:P161"/>
+    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12580"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="387">
   <si>
     <t>Code</t>
   </si>
@@ -298,7 +298,7 @@
     <t>_Top sin mangas en punto arrugado negro H&amp;M</t>
   </si>
   <si>
-    <t>_Blusa con escote V blanco con estampado de limones H&amp;M</t>
+    <t>_Blusa con escote V blanco con estampado de limones H&amp;M (entrado)</t>
   </si>
   <si>
     <t>_Top sin mangas en punto acanalado beige oscuro H&amp;M</t>
@@ -947,6 +947,231 @@
   </si>
   <si>
     <t>_Top de algodón strapless amarillo Terranova</t>
+  </si>
+  <si>
+    <t>_Top lencero rojo vino con ribete de encaje</t>
+  </si>
+  <si>
+    <t>_Top de tirantes fino terracota PinkWoman</t>
+  </si>
+  <si>
+    <t>_Top de algodón violeta</t>
+  </si>
+  <si>
+    <t>_Top triangular corto negro de tirantes finos</t>
+  </si>
+  <si>
+    <t>_Top sin mangas acanalado de microfibra beige oscuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top Florida azul oscuro </t>
+  </si>
+  <si>
+    <t>_Top sin mangas blanco de algodón con detalle de mariposa</t>
+  </si>
+  <si>
+    <t>_Top negro estilo corsé PinkWoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top camiseta gris melange </t>
+  </si>
+  <si>
+    <t>_Top strapless negro con rayas blancas No Way</t>
+  </si>
+  <si>
+    <t>_Top de cuadros beige con detalle de lazo delantero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top de algodón sin mangas amarillo </t>
+  </si>
+  <si>
+    <t>_Top camiseta de algodón amarillo</t>
+  </si>
+  <si>
+    <t>_Top deportivo de microfibra azul estampado</t>
+  </si>
+  <si>
+    <t>_Top deportivo de microfibra con espalda cruzada azul estampado</t>
+  </si>
+  <si>
+    <t>_Top anudado en cuello con escote pronunciado marrón</t>
+  </si>
+  <si>
+    <t>Talla XS/S</t>
+  </si>
+  <si>
+    <t>_Top anudado en cuello con escote pronunciado naranja</t>
+  </si>
+  <si>
+    <t>_Top acanalado de tirantes amarillo WomanPink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Top strapless acanalado amarillo </t>
+  </si>
+  <si>
+    <t>_Top de algodón acanalado amarillo</t>
+  </si>
+  <si>
+    <t>_Top acanalado azul Colsie</t>
+  </si>
+  <si>
+    <t>_Top sin mangas acanalado blanco</t>
+  </si>
+  <si>
+    <t>_Top desmangado blanco Feeling Good</t>
+  </si>
+  <si>
+    <t>_Top corto con ribete de encaje gris melange</t>
+  </si>
+  <si>
+    <t>_Top naranja 0 de un solo hombro</t>
+  </si>
+  <si>
+    <t>_Top strapless beige con estampado negro Kendall &amp; Kylie</t>
+  </si>
+  <si>
+    <t>_Top de tirantes finos con botones negro</t>
+  </si>
+  <si>
+    <t>_Top de tirantes finos con botones rosa fucsia</t>
+  </si>
+  <si>
+    <t>_Top strapless azul malva Terranova</t>
+  </si>
+  <si>
+    <t>_Top de un solo hombro acanalado blanco</t>
+  </si>
+  <si>
+    <t>_Top negro con nudo trasero Terranova</t>
+  </si>
+  <si>
+    <t>_Top acanalado con ribete de encaje y tirantes finos amarillo</t>
+  </si>
+  <si>
+    <t>_Top acanalado con escote de corazón azul polvoriento</t>
+  </si>
+  <si>
+    <t>_Top de tirantes finos de algodón gris jaspeado</t>
+  </si>
+  <si>
+    <t>Talla XXS</t>
+  </si>
+  <si>
+    <t>_Top de tirantes finos de algodón violeta</t>
+  </si>
+  <si>
+    <t>_Top de tirantes finos de algodón lila</t>
+  </si>
+  <si>
+    <t>_Top corto cruzado color crema</t>
+  </si>
+  <si>
+    <t>_Top de acanalado con patrón rosa durazno</t>
+  </si>
+  <si>
+    <t>_Top de crochet de rayas beige y marrón anudado al cuello</t>
+  </si>
+  <si>
+    <t>_Top corto cruzado color beige</t>
+  </si>
+  <si>
+    <t>_Top de crochet marrón</t>
+  </si>
+  <si>
+    <t>_Top negro corto acanalado de tirantes finos</t>
+  </si>
+  <si>
+    <t>_Top desmangado con detalle corrugado rosa barbie</t>
+  </si>
+  <si>
+    <t>_Top espalda afuera con detalle corrugado beige oscuro</t>
+  </si>
+  <si>
+    <t>_Top desmangado New York beige oscuro</t>
+  </si>
+  <si>
+    <t>_Top de espalda afuera con cuello y botones delantero marrón</t>
+  </si>
+  <si>
+    <t>_Pantalón de algodón blanco con rayas azulesz H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón con cinturón blanco H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Leggins acampanados color crema H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones pointelle blancos H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio sin cierre beige H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones de mezcla de lino recto beige claro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha color crema estampado H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha color crema estampado cebra H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha blanco con rayas beige H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha beige con rayas negras y marrón H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha crema con rayas negras H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón con cordón en mezcla de lino borgoña H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones cortos marrón oscuro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones cortos color terracota H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón con cordón de algodón marrón oscuro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>YILHM2859</t>
+  </si>
+  <si>
+    <t>_Pantaloneta con cordón de mezcla de lino color crema H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalón recto en mezcla de lino gris oscuro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones cortos negros H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones de corte ancho negros H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones de sarga con cordón animal print H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones de corte ancho crema estampado de flores negras H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones de pierna ancha de lino blanco estampado negro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantalones con cordón de pierna ancha negros H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Chaleco de traje a medida beige claro melange H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Top negro decorado con botones de conchas H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Pantaloneta de mezcla de lino beige claro H&amp;M (entrado)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -958,13 +1183,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1017,6 +1242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1026,17 +1259,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,10 +1274,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1063,16 +1290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,7 +1314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,6 +1328,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1108,17 +1349,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1134,22 +1375,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1180,7 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,7 +1423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,13 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,19 +1531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,61 +1561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,6 +1574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,12 +1651,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1476,15 +1714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1502,24 +1731,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,142 +1753,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1683,16 +1908,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,28 +1926,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,10 +2284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX690"/>
+  <dimension ref="A1:XEX687"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="35" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313:E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -20215,8 +20440,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3">
         <f t="shared" si="2"/>
@@ -22422,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" ref="I120:I139" si="11">G120-H120</f>
+        <f t="shared" ref="I120:I143" si="11">G120-H120</f>
         <v>1</v>
       </c>
       <c r="O120" s="3">
@@ -23062,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="4">
-        <f>G140-H140</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O140" s="3">
@@ -23094,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="4">
-        <f>G141-H141</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O141" s="3">
@@ -23126,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="4">
-        <f>G142-H142</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O142" s="3">
@@ -23158,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="4">
-        <f>G143-H143</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O143" s="3">
@@ -25814,71 +26038,2192 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="6:7">
-      <c r="F231" s="3"/>
-      <c r="G231" s="4"/>
-    </row>
-    <row r="232" spans="6:7">
-      <c r="F232" s="3"/>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" spans="6:7">
-      <c r="F233" s="3"/>
-      <c r="G233" s="4"/>
-    </row>
-    <row r="234" spans="6:7">
-      <c r="F234" s="3"/>
-      <c r="G234" s="4"/>
-    </row>
-    <row r="235" spans="6:7">
-      <c r="F235" s="3"/>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="6:7">
-      <c r="F236" s="3"/>
-      <c r="G236" s="4"/>
-    </row>
-    <row r="237" spans="6:7">
-      <c r="F237" s="3"/>
-      <c r="G237" s="4"/>
-    </row>
-    <row r="238" spans="6:7">
-      <c r="F238" s="3"/>
-      <c r="G238" s="4"/>
-    </row>
-    <row r="239" spans="7:7">
-      <c r="G239" s="4"/>
-    </row>
-    <row r="240" spans="7:7">
-      <c r="G240" s="4"/>
-    </row>
-    <row r="241" spans="7:7">
-      <c r="G241" s="4"/>
-    </row>
-    <row r="242" spans="7:7">
-      <c r="G242" s="4"/>
-    </row>
-    <row r="243" spans="7:7">
-      <c r="G243" s="4"/>
-    </row>
-    <row r="244" spans="7:7">
-      <c r="G244" s="4"/>
-    </row>
-    <row r="245" spans="7:7">
-      <c r="G245" s="4"/>
-    </row>
-    <row r="246" spans="7:7">
-      <c r="G246" s="4"/>
-    </row>
-    <row r="247" spans="7:7">
-      <c r="G247" s="4"/>
-    </row>
-    <row r="248" spans="7:7">
-      <c r="G248" s="4"/>
-    </row>
-    <row r="690" spans="8:8">
-      <c r="H690" t="s">
+    <row r="231" spans="1:9">
+      <c r="A231" s="2">
+        <v>3358</v>
+      </c>
+      <c r="B231" t="s">
+        <v>275</v>
+      </c>
+      <c r="C231" t="s">
         <v>311</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231" s="3">
+        <v>10</v>
+      </c>
+      <c r="G231" s="4">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="2">
+        <v>3359</v>
+      </c>
+      <c r="B232" t="s">
+        <v>275</v>
+      </c>
+      <c r="C232" t="s">
+        <v>312</v>
+      </c>
+      <c r="D232" t="s">
+        <v>24</v>
+      </c>
+      <c r="F232" s="3">
+        <v>10</v>
+      </c>
+      <c r="G232" s="4">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="2">
+        <v>3360</v>
+      </c>
+      <c r="B233" t="s">
+        <v>275</v>
+      </c>
+      <c r="C233" t="s">
+        <v>313</v>
+      </c>
+      <c r="D233" t="s">
+        <v>82</v>
+      </c>
+      <c r="F233" s="3">
+        <v>10</v>
+      </c>
+      <c r="G233" s="4">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="2">
+        <v>3361</v>
+      </c>
+      <c r="B234" t="s">
+        <v>275</v>
+      </c>
+      <c r="C234" t="s">
+        <v>314</v>
+      </c>
+      <c r="D234" t="s">
+        <v>223</v>
+      </c>
+      <c r="F234" s="3">
+        <v>10</v>
+      </c>
+      <c r="G234" s="4">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="2">
+        <v>3362</v>
+      </c>
+      <c r="B235" t="s">
+        <v>275</v>
+      </c>
+      <c r="C235" t="s">
+        <v>315</v>
+      </c>
+      <c r="D235" t="s">
+        <v>24</v>
+      </c>
+      <c r="F235" s="3">
+        <v>10</v>
+      </c>
+      <c r="G235" s="4">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="2">
+        <v>3363</v>
+      </c>
+      <c r="B236" t="s">
+        <v>275</v>
+      </c>
+      <c r="C236" t="s">
+        <v>316</v>
+      </c>
+      <c r="D236" t="s">
+        <v>82</v>
+      </c>
+      <c r="F236" s="3">
+        <v>10</v>
+      </c>
+      <c r="G236" s="4">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="2">
+        <v>3364</v>
+      </c>
+      <c r="B237" t="s">
+        <v>275</v>
+      </c>
+      <c r="C237" t="s">
+        <v>317</v>
+      </c>
+      <c r="D237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" s="3">
+        <v>10</v>
+      </c>
+      <c r="G237" s="4">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="2">
+        <v>3365</v>
+      </c>
+      <c r="B238" t="s">
+        <v>275</v>
+      </c>
+      <c r="C238" t="s">
+        <v>318</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="F238" s="3">
+        <v>10</v>
+      </c>
+      <c r="G238" s="4">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="2">
+        <v>3366</v>
+      </c>
+      <c r="B239" t="s">
+        <v>275</v>
+      </c>
+      <c r="C239" t="s">
+        <v>319</v>
+      </c>
+      <c r="D239" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" s="3">
+        <v>10</v>
+      </c>
+      <c r="G239" s="4">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="2">
+        <v>3367</v>
+      </c>
+      <c r="B240" t="s">
+        <v>275</v>
+      </c>
+      <c r="C240" t="s">
+        <v>320</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="F240" s="3">
+        <v>10</v>
+      </c>
+      <c r="G240" s="4">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="2">
+        <v>3368</v>
+      </c>
+      <c r="B241" t="s">
+        <v>275</v>
+      </c>
+      <c r="C241" t="s">
+        <v>321</v>
+      </c>
+      <c r="D241" t="s">
+        <v>31</v>
+      </c>
+      <c r="F241" s="3">
+        <v>10</v>
+      </c>
+      <c r="G241" s="4">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="2">
+        <v>3369</v>
+      </c>
+      <c r="B242" t="s">
+        <v>275</v>
+      </c>
+      <c r="C242" t="s">
+        <v>322</v>
+      </c>
+      <c r="D242" t="s">
+        <v>223</v>
+      </c>
+      <c r="F242" s="3">
+        <v>10</v>
+      </c>
+      <c r="G242" s="4">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="2">
+        <v>3370</v>
+      </c>
+      <c r="B243" t="s">
+        <v>275</v>
+      </c>
+      <c r="C243" t="s">
+        <v>323</v>
+      </c>
+      <c r="D243" t="s">
+        <v>24</v>
+      </c>
+      <c r="F243" s="3">
+        <v>10</v>
+      </c>
+      <c r="G243" s="4">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="2">
+        <v>3371</v>
+      </c>
+      <c r="B244" t="s">
+        <v>275</v>
+      </c>
+      <c r="C244" t="s">
+        <v>324</v>
+      </c>
+      <c r="D244" t="s">
+        <v>31</v>
+      </c>
+      <c r="F244" s="3">
+        <v>10</v>
+      </c>
+      <c r="G244" s="4">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="2">
+        <v>3372</v>
+      </c>
+      <c r="B245" t="s">
+        <v>275</v>
+      </c>
+      <c r="C245" t="s">
+        <v>325</v>
+      </c>
+      <c r="D245" t="s">
+        <v>72</v>
+      </c>
+      <c r="F245" s="3">
+        <v>10</v>
+      </c>
+      <c r="G245" s="4">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="2">
+        <v>3373</v>
+      </c>
+      <c r="B246" t="s">
+        <v>275</v>
+      </c>
+      <c r="C246" t="s">
+        <v>326</v>
+      </c>
+      <c r="D246" t="s">
+        <v>327</v>
+      </c>
+      <c r="F246" s="3">
+        <v>10</v>
+      </c>
+      <c r="G246" s="4">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="2">
+        <v>3374</v>
+      </c>
+      <c r="B247" t="s">
+        <v>275</v>
+      </c>
+      <c r="C247" t="s">
+        <v>328</v>
+      </c>
+      <c r="D247" t="s">
+        <v>327</v>
+      </c>
+      <c r="F247" s="3">
+        <v>10</v>
+      </c>
+      <c r="G247" s="4">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="2">
+        <v>3375</v>
+      </c>
+      <c r="B248" t="s">
+        <v>275</v>
+      </c>
+      <c r="C248" t="s">
+        <v>329</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="F248" s="3">
+        <v>10</v>
+      </c>
+      <c r="G248" s="4">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="2">
+        <v>3376</v>
+      </c>
+      <c r="B249" t="s">
+        <v>275</v>
+      </c>
+      <c r="C249" t="s">
+        <v>330</v>
+      </c>
+      <c r="D249" t="s">
+        <v>24</v>
+      </c>
+      <c r="F249" s="3">
+        <v>10</v>
+      </c>
+      <c r="G249" s="4">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="2">
+        <v>3377</v>
+      </c>
+      <c r="B250" t="s">
+        <v>275</v>
+      </c>
+      <c r="C250" t="s">
+        <v>331</v>
+      </c>
+      <c r="D250" t="s">
+        <v>24</v>
+      </c>
+      <c r="F250" s="3">
+        <v>10</v>
+      </c>
+      <c r="G250" s="4">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="2">
+        <v>3378</v>
+      </c>
+      <c r="B251" t="s">
+        <v>275</v>
+      </c>
+      <c r="C251" t="s">
+        <v>332</v>
+      </c>
+      <c r="D251" t="s">
+        <v>72</v>
+      </c>
+      <c r="F251" s="3">
+        <v>10</v>
+      </c>
+      <c r="G251" s="4">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="2">
+        <v>3379</v>
+      </c>
+      <c r="B252" t="s">
+        <v>275</v>
+      </c>
+      <c r="C252" t="s">
+        <v>333</v>
+      </c>
+      <c r="D252" t="s">
+        <v>82</v>
+      </c>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3">
+        <v>10</v>
+      </c>
+      <c r="G252" s="4">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="2">
+        <v>3380</v>
+      </c>
+      <c r="B253" t="s">
+        <v>275</v>
+      </c>
+      <c r="C253" t="s">
+        <v>334</v>
+      </c>
+      <c r="D253" t="s">
+        <v>72</v>
+      </c>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3">
+        <v>10</v>
+      </c>
+      <c r="G253" s="4">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="2">
+        <v>3381</v>
+      </c>
+      <c r="B254" t="s">
+        <v>275</v>
+      </c>
+      <c r="C254" t="s">
+        <v>335</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3">
+        <v>10</v>
+      </c>
+      <c r="G254" s="4">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="2">
+        <v>3382</v>
+      </c>
+      <c r="B255" t="s">
+        <v>275</v>
+      </c>
+      <c r="C255" t="s">
+        <v>336</v>
+      </c>
+      <c r="D255" t="s">
+        <v>72</v>
+      </c>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3">
+        <v>10</v>
+      </c>
+      <c r="G255" s="4">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="2">
+        <v>3383</v>
+      </c>
+      <c r="B256" t="s">
+        <v>275</v>
+      </c>
+      <c r="C256" t="s">
+        <v>337</v>
+      </c>
+      <c r="D256" t="s">
+        <v>24</v>
+      </c>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3">
+        <v>10</v>
+      </c>
+      <c r="G256" s="4">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="2">
+        <v>3384</v>
+      </c>
+      <c r="B257" t="s">
+        <v>275</v>
+      </c>
+      <c r="C257" t="s">
+        <v>338</v>
+      </c>
+      <c r="D257" t="s">
+        <v>24</v>
+      </c>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3">
+        <v>10</v>
+      </c>
+      <c r="G257" s="4">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="2">
+        <v>3385</v>
+      </c>
+      <c r="B258" t="s">
+        <v>275</v>
+      </c>
+      <c r="C258" t="s">
+        <v>338</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3">
+        <v>10</v>
+      </c>
+      <c r="G258" s="4">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="2">
+        <v>3386</v>
+      </c>
+      <c r="B259" t="s">
+        <v>275</v>
+      </c>
+      <c r="C259" t="s">
+        <v>339</v>
+      </c>
+      <c r="D259" t="s">
+        <v>24</v>
+      </c>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3">
+        <v>10</v>
+      </c>
+      <c r="G259" s="4">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="2">
+        <v>3387</v>
+      </c>
+      <c r="B260" t="s">
+        <v>275</v>
+      </c>
+      <c r="C260" t="s">
+        <v>339</v>
+      </c>
+      <c r="D260" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3">
+        <v>10</v>
+      </c>
+      <c r="G260" s="4">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="2">
+        <v>3388</v>
+      </c>
+      <c r="B261" t="s">
+        <v>275</v>
+      </c>
+      <c r="C261" t="s">
+        <v>340</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3">
+        <v>10</v>
+      </c>
+      <c r="G261" s="4">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="2">
+        <v>3389</v>
+      </c>
+      <c r="B262" t="s">
+        <v>275</v>
+      </c>
+      <c r="C262" t="s">
+        <v>341</v>
+      </c>
+      <c r="D262" t="s">
+        <v>31</v>
+      </c>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3">
+        <v>10</v>
+      </c>
+      <c r="G262" s="4">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="2">
+        <v>3390</v>
+      </c>
+      <c r="B263" t="s">
+        <v>275</v>
+      </c>
+      <c r="C263" t="s">
+        <v>342</v>
+      </c>
+      <c r="D263" t="s">
+        <v>327</v>
+      </c>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3">
+        <v>10</v>
+      </c>
+      <c r="G263" s="4">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="2">
+        <v>3391</v>
+      </c>
+      <c r="B264" t="s">
+        <v>275</v>
+      </c>
+      <c r="C264" t="s">
+        <v>343</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3">
+        <v>10</v>
+      </c>
+      <c r="G264" s="4">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="2">
+        <v>3392</v>
+      </c>
+      <c r="B265" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265" t="s">
+        <v>344</v>
+      </c>
+      <c r="D265" t="s">
+        <v>31</v>
+      </c>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3">
+        <v>10</v>
+      </c>
+      <c r="G265" s="4">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="2">
+        <v>3393</v>
+      </c>
+      <c r="B266" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" t="s">
+        <v>345</v>
+      </c>
+      <c r="D266" t="s">
+        <v>31</v>
+      </c>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3">
+        <v>10</v>
+      </c>
+      <c r="G266" s="4">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="2">
+        <v>3394</v>
+      </c>
+      <c r="B267" t="s">
+        <v>275</v>
+      </c>
+      <c r="C267" t="s">
+        <v>345</v>
+      </c>
+      <c r="D267" t="s">
+        <v>346</v>
+      </c>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3">
+        <v>10</v>
+      </c>
+      <c r="G267" s="4">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="2">
+        <v>3395</v>
+      </c>
+      <c r="B268" t="s">
+        <v>275</v>
+      </c>
+      <c r="C268" t="s">
+        <v>345</v>
+      </c>
+      <c r="D268" t="s">
+        <v>72</v>
+      </c>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3">
+        <v>10</v>
+      </c>
+      <c r="G268" s="4">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="2">
+        <v>3396</v>
+      </c>
+      <c r="B269" t="s">
+        <v>275</v>
+      </c>
+      <c r="C269" t="s">
+        <v>347</v>
+      </c>
+      <c r="D269" t="s">
+        <v>24</v>
+      </c>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3">
+        <v>10</v>
+      </c>
+      <c r="G269" s="4">
+        <v>3</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="2">
+        <v>3397</v>
+      </c>
+      <c r="B270" t="s">
+        <v>275</v>
+      </c>
+      <c r="C270" t="s">
+        <v>348</v>
+      </c>
+      <c r="D270" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3">
+        <v>10</v>
+      </c>
+      <c r="G270" s="4">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="2">
+        <v>3398</v>
+      </c>
+      <c r="B271" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271" t="s">
+        <v>349</v>
+      </c>
+      <c r="D271" t="s">
+        <v>327</v>
+      </c>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3">
+        <v>10</v>
+      </c>
+      <c r="G271" s="4">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="2">
+        <v>3399</v>
+      </c>
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272" t="s">
+        <v>350</v>
+      </c>
+      <c r="D272" t="s">
+        <v>31</v>
+      </c>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3">
+        <v>10</v>
+      </c>
+      <c r="G272" s="4">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="2">
+        <v>3400</v>
+      </c>
+      <c r="B273" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" t="s">
+        <v>351</v>
+      </c>
+      <c r="D273" t="s">
+        <v>31</v>
+      </c>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3">
+        <v>10</v>
+      </c>
+      <c r="G273" s="4">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="2">
+        <v>3401</v>
+      </c>
+      <c r="B274" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" t="s">
+        <v>352</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3">
+        <v>10</v>
+      </c>
+      <c r="G274" s="4">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="2">
+        <v>3402</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+      <c r="C275" t="s">
+        <v>353</v>
+      </c>
+      <c r="D275" t="s">
+        <v>24</v>
+      </c>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3">
+        <v>10</v>
+      </c>
+      <c r="G275" s="4">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="2">
+        <v>3403</v>
+      </c>
+      <c r="B276" t="s">
+        <v>275</v>
+      </c>
+      <c r="C276" t="s">
+        <v>354</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3">
+        <v>10</v>
+      </c>
+      <c r="G276" s="4">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="2">
+        <v>3404</v>
+      </c>
+      <c r="B277" t="s">
+        <v>275</v>
+      </c>
+      <c r="C277" t="s">
+        <v>355</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3">
+        <v>10</v>
+      </c>
+      <c r="G277" s="4">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="2">
+        <v>3405</v>
+      </c>
+      <c r="B278" t="s">
+        <v>275</v>
+      </c>
+      <c r="C278" t="s">
+        <v>356</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3">
+        <v>10</v>
+      </c>
+      <c r="G278" s="4">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="2">
+        <v>3406</v>
+      </c>
+      <c r="B279" t="s">
+        <v>275</v>
+      </c>
+      <c r="C279" t="s">
+        <v>356</v>
+      </c>
+      <c r="D279" t="s">
+        <v>24</v>
+      </c>
+      <c r="F279" s="3">
+        <v>10</v>
+      </c>
+      <c r="G279" s="4">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="2">
+        <v>3407</v>
+      </c>
+      <c r="B280" t="s">
+        <v>275</v>
+      </c>
+      <c r="C280" t="s">
+        <v>357</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="F280" s="3">
+        <v>10</v>
+      </c>
+      <c r="G280" s="4">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="2">
+        <v>3408</v>
+      </c>
+      <c r="B281" t="s">
+        <v>275</v>
+      </c>
+      <c r="C281" t="s">
+        <v>358</v>
+      </c>
+      <c r="D281" t="s">
+        <v>31</v>
+      </c>
+      <c r="F281" s="3">
+        <v>10</v>
+      </c>
+      <c r="G281" s="4">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="2">
+        <v>3409</v>
+      </c>
+      <c r="B282" t="s">
+        <v>226</v>
+      </c>
+      <c r="C282" t="s">
+        <v>359</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="F282" s="3">
+        <v>30</v>
+      </c>
+      <c r="G282" s="4">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="2">
+        <v>3410</v>
+      </c>
+      <c r="B283" t="s">
+        <v>224</v>
+      </c>
+      <c r="C283" t="s">
+        <v>360</v>
+      </c>
+      <c r="D283" t="s">
+        <v>31</v>
+      </c>
+      <c r="F283" s="3">
+        <v>40</v>
+      </c>
+      <c r="G283" s="4">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="2">
+        <v>3411</v>
+      </c>
+      <c r="B284" t="s">
+        <v>224</v>
+      </c>
+      <c r="C284" t="s">
+        <v>361</v>
+      </c>
+      <c r="D284" t="s">
+        <v>31</v>
+      </c>
+      <c r="F284" s="3">
+        <v>25</v>
+      </c>
+      <c r="G284" s="4">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="2">
+        <v>3412</v>
+      </c>
+      <c r="B285" t="s">
+        <v>226</v>
+      </c>
+      <c r="C285" t="s">
+        <v>362</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" s="3">
+        <v>30</v>
+      </c>
+      <c r="G285" s="4">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="2">
+        <v>3413</v>
+      </c>
+      <c r="B286" t="s">
+        <v>224</v>
+      </c>
+      <c r="C286" t="s">
+        <v>363</v>
+      </c>
+      <c r="D286" t="s">
+        <v>82</v>
+      </c>
+      <c r="F286" s="3">
+        <v>35</v>
+      </c>
+      <c r="G286" s="4">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="2">
+        <v>3414</v>
+      </c>
+      <c r="B287" t="s">
+        <v>163</v>
+      </c>
+      <c r="C287" t="s">
+        <v>364</v>
+      </c>
+      <c r="D287" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" s="3">
+        <v>35</v>
+      </c>
+      <c r="G287" s="4">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="2">
+        <v>3415</v>
+      </c>
+      <c r="B288" t="s">
+        <v>163</v>
+      </c>
+      <c r="C288" t="s">
+        <v>365</v>
+      </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="F288" s="3">
+        <v>30</v>
+      </c>
+      <c r="G288" s="4">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="2">
+        <v>3416</v>
+      </c>
+      <c r="B289" t="s">
+        <v>226</v>
+      </c>
+      <c r="C289" t="s">
+        <v>366</v>
+      </c>
+      <c r="D289" t="s">
+        <v>228</v>
+      </c>
+      <c r="F289" s="3">
+        <v>30</v>
+      </c>
+      <c r="G289" s="4">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="2">
+        <v>3417</v>
+      </c>
+      <c r="B290" t="s">
+        <v>163</v>
+      </c>
+      <c r="C290" t="s">
+        <v>367</v>
+      </c>
+      <c r="D290" t="s">
+        <v>72</v>
+      </c>
+      <c r="F290" s="3">
+        <v>30</v>
+      </c>
+      <c r="G290" s="4">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="2">
+        <v>3418</v>
+      </c>
+      <c r="B291" t="s">
+        <v>163</v>
+      </c>
+      <c r="C291" t="s">
+        <v>368</v>
+      </c>
+      <c r="D291" t="s">
+        <v>72</v>
+      </c>
+      <c r="F291" s="3">
+        <v>30</v>
+      </c>
+      <c r="G291" s="4">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="2">
+        <v>3419</v>
+      </c>
+      <c r="B292" t="s">
+        <v>163</v>
+      </c>
+      <c r="C292" t="s">
+        <v>369</v>
+      </c>
+      <c r="D292" t="s">
+        <v>24</v>
+      </c>
+      <c r="F292" s="3">
+        <v>30</v>
+      </c>
+      <c r="G292" s="4">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="2">
+        <v>3420</v>
+      </c>
+      <c r="B293" t="s">
+        <v>163</v>
+      </c>
+      <c r="C293" t="s">
+        <v>370</v>
+      </c>
+      <c r="D293" t="s">
+        <v>72</v>
+      </c>
+      <c r="F293" s="3">
+        <v>40</v>
+      </c>
+      <c r="G293" s="4">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="2">
+        <v>3421</v>
+      </c>
+      <c r="B294" t="s">
+        <v>163</v>
+      </c>
+      <c r="C294" t="s">
+        <v>370</v>
+      </c>
+      <c r="D294" t="s">
+        <v>346</v>
+      </c>
+      <c r="F294" s="3">
+        <v>40</v>
+      </c>
+      <c r="G294" s="4">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="2">
+        <v>3422</v>
+      </c>
+      <c r="B295" t="s">
+        <v>163</v>
+      </c>
+      <c r="C295" t="s">
+        <v>371</v>
+      </c>
+      <c r="D295" t="s">
+        <v>24</v>
+      </c>
+      <c r="F295" s="3">
+        <v>30</v>
+      </c>
+      <c r="G295" s="4">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="2">
+        <v>3423</v>
+      </c>
+      <c r="B296" t="s">
+        <v>163</v>
+      </c>
+      <c r="C296" t="s">
+        <v>371</v>
+      </c>
+      <c r="D296" t="s">
+        <v>72</v>
+      </c>
+      <c r="F296" s="3">
+        <v>30</v>
+      </c>
+      <c r="G296" s="4">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="2">
+        <v>3424</v>
+      </c>
+      <c r="B297" t="s">
+        <v>163</v>
+      </c>
+      <c r="C297" t="s">
+        <v>372</v>
+      </c>
+      <c r="D297" t="s">
+        <v>24</v>
+      </c>
+      <c r="F297" s="3">
+        <v>30</v>
+      </c>
+      <c r="G297" s="4">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="2">
+        <v>3425</v>
+      </c>
+      <c r="B298" t="s">
+        <v>224</v>
+      </c>
+      <c r="C298" t="s">
+        <v>372</v>
+      </c>
+      <c r="D298" t="s">
+        <v>31</v>
+      </c>
+      <c r="F298" s="3">
+        <v>30</v>
+      </c>
+      <c r="G298" s="4">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="2">
+        <v>3426</v>
+      </c>
+      <c r="B299" t="s">
+        <v>163</v>
+      </c>
+      <c r="C299" t="s">
+        <v>373</v>
+      </c>
+      <c r="D299" t="s">
+        <v>72</v>
+      </c>
+      <c r="F299" s="3">
+        <v>30</v>
+      </c>
+      <c r="G299" s="4">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B300" t="s">
+        <v>163</v>
+      </c>
+      <c r="C300" t="s">
+        <v>375</v>
+      </c>
+      <c r="D300" t="s">
+        <v>24</v>
+      </c>
+      <c r="F300" s="3">
+        <v>35</v>
+      </c>
+      <c r="G300" s="4">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="2">
+        <v>3428</v>
+      </c>
+      <c r="B301" t="s">
+        <v>163</v>
+      </c>
+      <c r="C301" t="s">
+        <v>376</v>
+      </c>
+      <c r="D301" t="s">
+        <v>24</v>
+      </c>
+      <c r="F301" s="3">
+        <v>35</v>
+      </c>
+      <c r="G301" s="4">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="2">
+        <v>3429</v>
+      </c>
+      <c r="B302" t="s">
+        <v>163</v>
+      </c>
+      <c r="C302" t="s">
+        <v>377</v>
+      </c>
+      <c r="D302" t="s">
+        <v>72</v>
+      </c>
+      <c r="F302" s="3">
+        <v>30</v>
+      </c>
+      <c r="G302" s="4">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="2">
+        <v>3430</v>
+      </c>
+      <c r="B303" t="s">
+        <v>224</v>
+      </c>
+      <c r="C303" t="s">
+        <v>378</v>
+      </c>
+      <c r="D303" t="s">
+        <v>110</v>
+      </c>
+      <c r="F303" s="3">
+        <v>30</v>
+      </c>
+      <c r="G303" s="4">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="2">
+        <v>3431</v>
+      </c>
+      <c r="B304" t="s">
+        <v>226</v>
+      </c>
+      <c r="C304" t="s">
+        <v>379</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="F304" s="3">
+        <v>30</v>
+      </c>
+      <c r="G304" s="4">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="2">
+        <v>3432</v>
+      </c>
+      <c r="B305" t="s">
+        <v>226</v>
+      </c>
+      <c r="C305" t="s">
+        <v>380</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="F305" s="3">
+        <v>30</v>
+      </c>
+      <c r="G305" s="4">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="2">
+        <v>3433</v>
+      </c>
+      <c r="B306" t="s">
+        <v>224</v>
+      </c>
+      <c r="C306" t="s">
+        <v>380</v>
+      </c>
+      <c r="D306" t="s">
+        <v>31</v>
+      </c>
+      <c r="F306" s="3">
+        <v>30</v>
+      </c>
+      <c r="G306" s="4">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="2">
+        <v>3434</v>
+      </c>
+      <c r="B307" t="s">
+        <v>163</v>
+      </c>
+      <c r="C307" t="s">
+        <v>381</v>
+      </c>
+      <c r="D307" t="s">
+        <v>72</v>
+      </c>
+      <c r="F307" s="3">
+        <v>35</v>
+      </c>
+      <c r="G307" s="4">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="2">
+        <v>3435</v>
+      </c>
+      <c r="B308" t="s">
+        <v>163</v>
+      </c>
+      <c r="C308" t="s">
+        <v>382</v>
+      </c>
+      <c r="D308" t="s">
+        <v>72</v>
+      </c>
+      <c r="F308" s="3">
+        <v>30</v>
+      </c>
+      <c r="G308" s="4">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="2">
+        <v>3436</v>
+      </c>
+      <c r="B309" t="s">
+        <v>86</v>
+      </c>
+      <c r="C309" t="s">
+        <v>94</v>
+      </c>
+      <c r="D309" t="s">
+        <v>24</v>
+      </c>
+      <c r="F309" s="3">
+        <v>20</v>
+      </c>
+      <c r="G309" s="4">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="2">
+        <v>3437</v>
+      </c>
+      <c r="B310" t="s">
+        <v>84</v>
+      </c>
+      <c r="C310" t="s">
+        <v>383</v>
+      </c>
+      <c r="D310" t="s">
+        <v>28</v>
+      </c>
+      <c r="F310" s="3">
+        <v>30</v>
+      </c>
+      <c r="G310" s="4">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="2">
+        <v>3439</v>
+      </c>
+      <c r="B311" t="s">
+        <v>84</v>
+      </c>
+      <c r="C311" t="s">
+        <v>384</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="F311" s="3">
+        <v>30</v>
+      </c>
+      <c r="G311" s="4">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="2">
+        <v>3441</v>
+      </c>
+      <c r="B312" t="s">
+        <v>163</v>
+      </c>
+      <c r="C312" t="s">
+        <v>385</v>
+      </c>
+      <c r="D312" t="s">
+        <v>24</v>
+      </c>
+      <c r="F312" s="3">
+        <v>35</v>
+      </c>
+      <c r="G312" s="4">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="7:7">
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="7:7">
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315" spans="7:7">
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316" spans="7:7">
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317" spans="7:7">
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318" spans="7:7">
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="7:7">
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="7:7">
+      <c r="G320" s="4"/>
+    </row>
+    <row r="687" spans="8:8">
+      <c r="H687" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="28800" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$312</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="393">
   <si>
     <t>Code</t>
   </si>
@@ -82,7 +85,7 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>hombres /hm /hm /tallas-pequenas</t>
+    <t>hombres /hm /tallas-pequenas</t>
   </si>
   <si>
     <t>_Camisa de manga corta de corte regular beige con rayas H&amp;M</t>
@@ -94,7 +97,7 @@
     <t>_Camisa con efecto crochet color crema H&amp;M</t>
   </si>
   <si>
-    <t>hombres /hm /hm /tallas-medianas</t>
+    <t>hombres /hm /tallas-medianas</t>
   </si>
   <si>
     <t>_Camisa texturizada regular fit color crema H&amp;M</t>
@@ -103,7 +106,7 @@
     <t>Talla M</t>
   </si>
   <si>
-    <t xml:space="preserve">hombres /hm /hm /tallas-extras </t>
+    <t>hombres /hm /tallas-grandes</t>
   </si>
   <si>
     <t>_Camisa de manga corta en mezcla de lino color crema H&amp;M</t>
@@ -130,405 +133,411 @@
     <t>_Camisa de manga corta regular fit color crema H&amp;M</t>
   </si>
   <si>
+    <t>Tops /hm /tallas-grandes</t>
+  </si>
+  <si>
+    <t>_Camisa de mujer de lino blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>Accesorios /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Bolso XOXO</t>
+  </si>
+  <si>
+    <t>Talla mediano</t>
+  </si>
+  <si>
+    <t>_Bolso de playa de listas carmelitas y negras</t>
+  </si>
+  <si>
+    <t>Accesorios /tallas-grandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Bolso grande carmelita </t>
+  </si>
+  <si>
+    <t>Talla grande</t>
+  </si>
+  <si>
+    <t>Accesorios /tallas-pequenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Bolso Nine West carmelita </t>
+  </si>
+  <si>
+    <t>Talla Pequeño</t>
+  </si>
+  <si>
+    <t>_Bolso Nine West blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Bolso de jute mediano con correa estamapada </t>
+  </si>
+  <si>
+    <t>_Bolso rosado mediano</t>
+  </si>
+  <si>
+    <t>_Bolso BEBÉ negro</t>
+  </si>
+  <si>
+    <t>_Bolso BEBÉ negro con detalle dorado</t>
+  </si>
+  <si>
+    <t>_Bolso negro con detalle dorado de mariposa</t>
+  </si>
+  <si>
+    <t>_Bolso elgante marrón con correas trenzadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Bolso pequeño de saco con detalle de agarre plástico </t>
+  </si>
+  <si>
+    <t>_Bolso Anne Klein rosa claro con estamapdo beige</t>
+  </si>
+  <si>
+    <t>YNIR91</t>
+  </si>
+  <si>
+    <t>bolsos /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>_Bolso cruzado de paja beige con correa negra H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR92</t>
+  </si>
+  <si>
+    <t>_Bolso de hombro color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>YNIR93</t>
+  </si>
+  <si>
+    <t>_Bolso bandolera pequeño negro de malla H&amp;M</t>
+  </si>
+  <si>
+    <t>lenceria /tallas-grandes</t>
+  </si>
+  <si>
+    <t>_Blumers estilo bikinis colores varios H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blúmer colaless estilo tanga de algodón con detalle de encaje negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blúmer colaless estilo tanga colores varios H&amp;M</t>
+  </si>
+  <si>
+    <t>lenceria /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>_Blúmer hipster de algodón colores varios H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XS</t>
+  </si>
+  <si>
+    <t>YNIR94</t>
+  </si>
+  <si>
+    <t>Calzado /hm</t>
+  </si>
+  <si>
+    <t>_Sandalias planas trenzadas conh tiras cruzadas marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 9_40</t>
+  </si>
+  <si>
+    <t>_Camisa de hombre de mangas largas en mezcla de lino azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de hombre de mangas largas de lino beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de sirsaca azul claro con rayas H&amp;M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tops /hm /tallas-extras </t>
   </si>
   <si>
-    <t>_Camisa de mujer de lino blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>Accesorios /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Bolso XOXO</t>
-  </si>
-  <si>
-    <t>Talla mediano</t>
-  </si>
-  <si>
-    <t>_Bolso de playa de listas carmelitas y negras</t>
+    <t>_Camisa de mezcla de lino marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL</t>
+  </si>
+  <si>
+    <t>_Pulóver d mujer de microfibra blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>Tops /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Top de algodón con vuelo crema estampado H&amp;M</t>
+  </si>
+  <si>
+    <t>Tops /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>_Camiseta negra de mujer acanalada H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camiseta color crema de mujer acanalada H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camiseta amarilla de mujer acanalada H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Camiseta azul marino de mujer acanalada H&amp;M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Camiseta rosa polvoriento de mujer acanalada H&amp;M </t>
+  </si>
+  <si>
+    <t>_Blusa transparente con cuello elevado negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top sin mangas en punto arrugado negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con escote V blanco con estampado de limones H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>_Top sin mangas en punto acanalado beige oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de viscosa con efecto arrugado blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de lino beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con ribete de vuelos negra H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de punto con cuello camisero crema con rayas negras H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top con cordón de ajuste color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de hombros afuera blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de hombros descubiertos acanalado blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de hombros afuera color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con mangas globo blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa en muselina de algodón blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top con detalle trenzado burdeo H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa de popelina con mangas globo blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con broderie inglés blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa en holgada con cuello V beige con rayas negras H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>Talla XXL</t>
+  </si>
+  <si>
+    <t>_Top con mangas globo azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con cuello mao azul con rayas blancas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con cuello mao blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top con escote cuello en V blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top con efecto arrugado marrón oscuro estamapado H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top sin mangas con basta burbuja blanca H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajes-de-bano /hm /tallas-medianas </t>
+  </si>
+  <si>
+    <t>_Traje de baño con relleno azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>_Traje de baño con relleno negro H&amp;M</t>
+  </si>
+  <si>
+    <t>trajes-de-bano /hm /tallas-grandes</t>
+  </si>
+  <si>
+    <t>_Blúmer de bikini bottom negro H&amp;M</t>
+  </si>
+  <si>
+    <t>trajes-de-bano /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajes-de-bano /hm /tallas-pequenas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajes-de-bano /hm /tallas-extras  </t>
+  </si>
+  <si>
+    <t>_Blúmer de bikini bottom Cheeky negro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL_12</t>
+  </si>
+  <si>
+    <t>_Blúmer de bikini bottom azul claro con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blúmer de bikini bottom Cheeky blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de bikini con aros rojo H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 38D</t>
+  </si>
+  <si>
+    <t>_Top de bikini push-up negro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 38C</t>
+  </si>
+  <si>
+    <t>_Top de bikini acolchado negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de bikini animal print H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de bikini triangular con relleno negro estampado blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla S_8</t>
+  </si>
+  <si>
+    <t>_Blúmer de bikini bottom cheeky blanco estampado verde H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de bikini balconette negro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 36D</t>
+  </si>
+  <si>
+    <t>_Top de bikini de microfibra con relleno negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de bikini con relleno blanco con rayas azules H&amp;M</t>
+  </si>
+  <si>
+    <t>trajes-de-bano /hm</t>
+  </si>
+  <si>
+    <t>_Top de bikini acolchado negro con detalle dorado H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla M_10</t>
+  </si>
+  <si>
+    <t>_Top de bikini acolchado azul polvoriento con hebilla de carey H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XS_2</t>
+  </si>
+  <si>
+    <t>_Top de bikini acolchado con detalle de giro blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla M_12</t>
+  </si>
+  <si>
+    <t>_Camisa de hombre de mangas largas delino beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de sirsaca azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa resort en mezcla de lino blanco estampado de hojas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa en mezcla de lino beige grisáceo con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de lino slim fit azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo de punto fino beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa oversize en mezcla de lino azul H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de mangas cortas en mezcla de lino azul H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de mujer con bolsillos azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa resort holgada blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de mujer de lino blanca con rayas negras H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa cropped con lazo azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de mujer con escote en V satinada negra H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de mujer en mezcla de lino color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de mujer en mezcla de lino blanca H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
+  </si>
+  <si>
+    <t>_Shorts denim mom ultra alto azul oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla S_2</t>
+  </si>
+  <si>
+    <t>_Shorts denim alto azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XS_0</t>
+  </si>
+  <si>
+    <t>_Bermudas de mujer denim altos azul denim H&amp;M</t>
+  </si>
+  <si>
+    <t>_Sombrero bucket verde salvia H&amp;M</t>
+  </si>
+  <si>
+    <t>_Sombrero bucket negro H&amp;M</t>
   </si>
   <si>
     <t xml:space="preserve">Accesorios /tallas-extras </t>
   </si>
   <si>
-    <t xml:space="preserve">_Bolso grande carmelita </t>
-  </si>
-  <si>
-    <t>Talla grande</t>
-  </si>
-  <si>
-    <t>Accesorios /tallas-pequenas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Bolso Nine West carmelita </t>
-  </si>
-  <si>
-    <t>Talla Pequeño</t>
-  </si>
-  <si>
-    <t>_Bolso Nine West blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Bolso de jute mediano con correa estamapada </t>
-  </si>
-  <si>
-    <t>_Bolso rosado mediano</t>
-  </si>
-  <si>
-    <t>_Bolso BEBÉ negro</t>
-  </si>
-  <si>
-    <t>_Bolso BEBÉ negro con detalle dorado</t>
-  </si>
-  <si>
-    <t>_Bolso negro con detalle dorado de mariposa</t>
-  </si>
-  <si>
-    <t>_Bolso elgante marrón con correas trenzadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Bolso pequeño de saco con detalle de agarre plástico </t>
-  </si>
-  <si>
-    <t>_Bolso Anne Klein rosa claro con estamapdo beige</t>
-  </si>
-  <si>
-    <t>YNIR91</t>
-  </si>
-  <si>
-    <t>bolsos /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>_Bolso cruzado de paja beige con correa negra H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR92</t>
-  </si>
-  <si>
-    <t>_Bolso de hombro color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR93</t>
-  </si>
-  <si>
-    <t>_Bolso bandolera pequeño negro de malla H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lenceria /tallas-extras </t>
-  </si>
-  <si>
-    <t>_Blumers estilo bikinis colores varios H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blúmer colaless estilo tanga de algodón con detalle de encaje negro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blúmer colaless estilo tanga colores varios H&amp;M</t>
-  </si>
-  <si>
-    <t>lenceria /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>_Blúmer hipster de algodón colores varios H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XS</t>
-  </si>
-  <si>
-    <t>YNIR94</t>
-  </si>
-  <si>
-    <t>Calzado /hm</t>
-  </si>
-  <si>
-    <t>_Sandalias planas trenzadas conh tiras cruzadas marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 9_40</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Camisa de hombre de mangas largas en mezcla de lino azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de hombre de mangas largas de lino beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de sirsaca azul claro con rayas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mezcla de lino marrón H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>_Pulóver d mujer de microfibra blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Top de algodón con vuelo crema estampado H&amp;M</t>
-  </si>
-  <si>
-    <t>Tops /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>_Camiseta negra de mujer acanalada H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camiseta color crema de mujer acanalada H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camiseta amarilla de mujer acanalada H&amp;M (SIN FOTO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Camiseta azul marino de mujer acanalada H&amp;M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Camiseta rosa polvoriento de mujer acanalada H&amp;M </t>
-  </si>
-  <si>
-    <t>_Blusa transparente con cuello elevado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top sin mangas en punto arrugado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa con escote V blanco con estampado de limones H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Top sin mangas en punto acanalado beige oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de viscosa con efecto arrugado blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de lino beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa con ribete de vuelos negra H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de punto con cuello camisero crema con rayas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top con cordón de ajuste color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de hombros afuera blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de hombros descubiertos acanalado blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de hombros afuera color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa con mangas globo blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa en muselina de algodón blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top con detalle trenzado burdeo H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa de popelina con mangas globo blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa con broderie inglés blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa en holgada con cuello V beige con rayas negras H&amp;M (SIN FOTO)</t>
-  </si>
-  <si>
-    <t>Talla XXL</t>
-  </si>
-  <si>
-    <t>_Top con mangas globo azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa con cuello mao azul con rayas blancas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blusa con cuello mao blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top con escote cuello en V blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top con efecto arrugado marrón oscuro estamapado H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top sin mangas con basta burbuja blanca H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trajes-de-bano /hm /tallas-medianas </t>
-  </si>
-  <si>
-    <t>_Traje de baño con relleno azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>_Traje de baño con relleno negro H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trajes-de-bano /hm /tallas-extras  </t>
-  </si>
-  <si>
-    <t>_Blúmer de bikini bottom negro H&amp;M</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trajes-de-bano /hm /tallas-pequenas </t>
-  </si>
-  <si>
-    <t>_Blúmer de bikini bottom Cheeky negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL_12</t>
-  </si>
-  <si>
-    <t>_Blúmer de bikini bottom azul claro con rayas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Blúmer de bikini bottom Cheeky blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de bikini con aros rojo H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 38D</t>
-  </si>
-  <si>
-    <t>_Top de bikini push-up negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 38C</t>
-  </si>
-  <si>
-    <t>_Top de bikini acolchado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de bikini animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de bikini triangular con relleno negro estampado blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S_8</t>
-  </si>
-  <si>
-    <t>_Blúmer de bikini bottom cheeky blanco estampado verde H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de bikini balconette negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 36D</t>
-  </si>
-  <si>
-    <t>_Top de bikini de microfibra con relleno negro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top de bikini con relleno blanco con rayas azules H&amp;M</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /hm</t>
-  </si>
-  <si>
-    <t>_Top de bikini acolchado negro con detalle dorado H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla M_10</t>
-  </si>
-  <si>
-    <t>_Top de bikini acolchado azul polvoriento con hebilla de carey H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XS_2</t>
-  </si>
-  <si>
-    <t>_Top de bikini acolchado con detalle de giro blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla M_12</t>
-  </si>
-  <si>
-    <t>_Camisa de hombre de mangas largas delino beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de sirsaca azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa resort en mezcla de lino blanco estampado de hojas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa en mezcla de lino beige grisáceo con rayas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de lino slim fit azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Polo de punto fino beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa oversize en mezcla de lino azul H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mangas cortas en mezcla de lino azul H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mujer con bolsillos azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa resort holgada blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mujer de lino blanca con rayas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa cropped con lazo azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mujer con escote en V satinada negra H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mujer en mezcla de lino color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de mujer en mezcla de lino blanca H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
-  </si>
-  <si>
-    <t>_Shorts denim mom ultra alto azul oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S_2</t>
-  </si>
-  <si>
-    <t>_Shorts denim alto azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XS_0</t>
-  </si>
-  <si>
-    <t>_Bermudas de mujer denim altos azul denim H&amp;M</t>
-  </si>
-  <si>
-    <t>_Sombrero bucket verde salvia H&amp;M</t>
-  </si>
-  <si>
-    <t>_Sombrero bucket negro H&amp;M</t>
-  </si>
-  <si>
     <t>_Calcetines tobilleros negros H&amp;M</t>
   </si>
   <si>
@@ -625,7 +634,7 @@
     <t>YNIR102</t>
   </si>
   <si>
-    <t>bolsos /hm /hm /tallas-medianas</t>
+    <t>bolsos /hm</t>
   </si>
   <si>
     <t>_Bolso bandolera marrón oscuro H&amp;M</t>
@@ -634,13 +643,16 @@
     <t>YNIR103</t>
   </si>
   <si>
-    <t>_Bolso de hombro con patrón cocodrilo negro H&amp;M (SIN FOTO)</t>
+    <t>_Bolso de hombro con patrón cocodrilo negro H&amp;M</t>
   </si>
   <si>
     <t>YNIR104</t>
   </si>
   <si>
-    <t>_Bolso de mano negro con detalle de agarre dorado H&amp;M (SIN FOTO)</t>
+    <t>_Bolso de mano negro con detalle de agarre dorado H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hombres /hm /tallas-extras </t>
   </si>
   <si>
     <t>_Shorts de buzo regular fit azul claro H&amp;M</t>
@@ -655,31 +667,22 @@
     <t>_Shorts de buzo regular fit marrón H&amp;M</t>
   </si>
   <si>
-    <t>SQ0807835</t>
-  </si>
-  <si>
-    <t>_Shorts regular fit beige H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>YILHM3115</t>
-  </si>
-  <si>
-    <t>_Shorts de buzo regular fit beige de gran calidad H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>YILHM3119</t>
-  </si>
-  <si>
-    <t>_Shorts regular fit gris oscuro H&amp;M (entrado)</t>
+    <t>_Shorts regular fit beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts de buzo regular fit beige de gran calidad H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts regular fit gris oscuro H&amp;M</t>
   </si>
   <si>
     <t xml:space="preserve">partes-de-abajo /hm /tallas-pequenas </t>
   </si>
   <si>
-    <t>_Pantalón negro de mezcla de lino de piernas anchas H&amp;M (SIN FOTO)</t>
-  </si>
-  <si>
-    <t>_Pantalón negro de vestir de mujer H&amp;M (SIN FOTO)</t>
+    <t>_Pantalón negro de mezcla de lino de piernas anchas H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Pantalón negro de vestir de mujer H&amp;M </t>
   </si>
   <si>
     <t>_Pantalón amplio en mezcla de lino color crema H&amp;M</t>
@@ -688,10 +691,10 @@
     <t>Talla S_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /hm /tallas-extras </t>
-  </si>
-  <si>
-    <t>_Pantalón en mezcla de lino beige H&amp;M (SIN FOTO)</t>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-extras </t>
+  </si>
+  <si>
+    <t>_Pantalón en mezcla de lino beige H&amp;M</t>
   </si>
   <si>
     <t xml:space="preserve">Partes-de-abajo /hm /tallas-medianas </t>
@@ -709,6 +712,9 @@
     <t>_Pantalón amplio en mezcla de lino gris jaspeado H&amp;M</t>
   </si>
   <si>
+    <t>Partes-de-abajo /hm /tallas-grandes</t>
+  </si>
+  <si>
     <t>_Pantalón amplio pull-on verde oscuro H&amp;M</t>
   </si>
   <si>
@@ -718,7 +724,7 @@
     <t>BLTHM0835</t>
   </si>
   <si>
-    <t>_Joggers deportivo de ajuste regular negro de mujer H&amp;M (entrado)</t>
+    <t>_Joggers deportivo de ajuste regular negro de mujer H&amp;M</t>
   </si>
   <si>
     <t>SQ4631157</t>
@@ -739,7 +745,7 @@
     <t>SQ9102500</t>
   </si>
   <si>
-    <t>_Polo negro de ajuste regular Coolmax H&amp;M (entrado)</t>
+    <t>_Polo negro de ajuste regular Coolmax H&amp;M</t>
   </si>
   <si>
     <t>_Camisa slim fit azul claro H&amp;M</t>
@@ -766,16 +772,16 @@
     <t>Yilhm2153</t>
   </si>
   <si>
-    <t>_Pulóver de corte regular con cuello azul marino H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Polo de algodón verde salvia H&amp;M (SIN FOTO)</t>
-  </si>
-  <si>
-    <t>_Pulóver de punto fino azul melange H&amp;M (SIN FOTO)</t>
-  </si>
-  <si>
-    <t>_Pulóver holgado con estampado de estrellas beige H&amp;M (entrado)</t>
+    <t>_Pulóver de corte regular con cuello azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo de algodón verde salvia H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de punto fino azul melange H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver holgado con estampado de estrellas beige H&amp;M</t>
   </si>
   <si>
     <t>_Polo slim fit blanco H&amp;M</t>
@@ -799,13 +805,13 @@
     <t>SQ3779640</t>
   </si>
   <si>
-    <t>_Sandalias bajas marrón estampado leopardo  H&amp;M (entrado)</t>
+    <t>_Sandalias bajas marrón estampado leopardo  H&amp;M</t>
   </si>
   <si>
     <t>YNIR108</t>
   </si>
   <si>
-    <t>_Sandalias hawainas beige H&amp;M (entrado)</t>
+    <t>_Sandalias hawainas beige H&amp;M</t>
   </si>
   <si>
     <t>Talla 8_4.5-9_41-42</t>
@@ -814,7 +820,7 @@
     <t>YNIR95</t>
   </si>
   <si>
-    <t>_Sandalias planas con tiras cruzadas beige verdoso H&amp;M (entrado)</t>
+    <t>_Sandalias planas con tiras cruzadas beige verdoso H&amp;M</t>
   </si>
   <si>
     <t>Talla 5_36</t>
@@ -823,7 +829,7 @@
     <t>SQ2897905</t>
   </si>
   <si>
-    <t>_Sandalias trenzadas burdeos H&amp;M (entrado)</t>
+    <t>_Sandalias trenzadas burdeos H&amp;M</t>
   </si>
   <si>
     <t>Talla 6_37</t>
@@ -832,16 +838,16 @@
     <t>SQ4563484</t>
   </si>
   <si>
-    <t>_Sandalias prácticas beige con detalle de hebilla plateada H&amp;M (entrado)</t>
+    <t>_Sandalias prácticas beige con detalle de hebilla plateada H&amp;M</t>
   </si>
   <si>
     <t>YNIR54</t>
   </si>
   <si>
-    <t>_Sandalias prácticas negro con detalle de hebilla plateada H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>tops</t>
+    <t>_Sandalias prácticas negro con detalle de hebilla plateada H&amp;M</t>
+  </si>
+  <si>
+    <t>Tops /tallas-medianas</t>
   </si>
   <si>
     <t>_Top de crochet morado con brillo DontCallMe</t>
@@ -853,6 +859,9 @@
     <t>_Top acanalado sin mangas beige</t>
   </si>
   <si>
+    <t>Tops /tallas-pequenas</t>
+  </si>
+  <si>
     <t>_Top acanalado negro con lista a los lados Terranova</t>
   </si>
   <si>
@@ -880,12 +889,18 @@
     <t>_Top de tirantes con lazos estamapdo azul de cuadros Terranova</t>
   </si>
   <si>
+    <t>tops /tallas-grandes</t>
+  </si>
+  <si>
     <t>_Top de ribete verde claro strapless DontCallMe</t>
   </si>
   <si>
     <t xml:space="preserve">_Top sin mangas marrón </t>
   </si>
   <si>
+    <t>tops /tallas-grandes /tallas-medianas</t>
+  </si>
+  <si>
     <t>_Top verde claro con nudo trasero Terranova</t>
   </si>
   <si>
@@ -934,6 +949,9 @@
     <t>_Top acanalado sin mangas marrón</t>
   </si>
   <si>
+    <t xml:space="preserve">Tops /tallas-extras </t>
+  </si>
+  <si>
     <t xml:space="preserve">_Top deportivo de microfibra rosa chicle </t>
   </si>
   <si>
@@ -1096,82 +1114,85 @@
     <t>_Pantalón de algodón blanco con rayas azulesz H&amp;M (entrado)</t>
   </si>
   <si>
-    <t>_Pantalón con cinturón blanco H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Leggins acampanados color crema H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones pointelle blancos H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón amplio sin cierre beige H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones de mezcla de lino recto beige claro H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha color crema estampado H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha color crema estampado cebra H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha blanco con rayas beige H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha beige con rayas negras y marrón H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha crema con rayas negras H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón con cordón en mezcla de lino borgoña H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones cortos marrón oscuro H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones cortos color terracota H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón con cordón de algodón marrón oscuro H&amp;M (entrado)</t>
+    <t>_Pantalón con cinturón blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Leggins acampanados color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones pointelle blancos H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón amplio sin cierre beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones de mezcla de lino recto beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha color crema estampado H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha color crema estampado cebra H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha blanco con rayas beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha beige con rayas negras y marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón de pierna ancha crema con rayas negras H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón con cordón en mezcla de lino borgoña H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones cortos marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones cortos color terracota H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón con cordón de algodón marrón oscuro H&amp;M</t>
   </si>
   <si>
     <t>YILHM2859</t>
   </si>
   <si>
-    <t>_Pantaloneta con cordón de mezcla de lino color crema H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalón recto en mezcla de lino gris oscuro H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones cortos negros H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones de corte ancho negros H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones de sarga con cordón animal print H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones de corte ancho crema estampado de flores negras H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones de pierna ancha de lino blanco estampado negro H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantalones con cordón de pierna ancha negros H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Chaleco de traje a medida beige claro melange H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Top negro decorado con botones de conchas H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>_Pantaloneta de mezcla de lino beige claro H&amp;M (entrado)</t>
+    <t>_Pantaloneta con cordón de mezcla de lino color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón recto en mezcla de lino gris oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones cortos negros H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones de corte ancho negros H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones de sarga con cordón animal print H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones de corte ancho crema estampado de flores negras H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones de pierna ancha de lino blanco estampado negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones con cordón de pierna ancha negros H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con escote V blanco con estampado de limones H&amp;M</t>
+  </si>
+  <si>
+    <t>_Chaleco de traje a medida beige claro melange H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top negro decorado con botones de conchas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantaloneta de mezcla de lino beige claro H&amp;M</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1182,14 +1203,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1242,9 +1263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1258,8 +1278,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1275,7 +1309,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1284,12 +1326,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1297,9 +1354,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,50 +1377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,6 +1391,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1405,7 +1426,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,73 +1480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1510,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,55 +1576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,7 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,6 +1672,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1666,24 +1705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1695,21 +1716,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1740,6 +1746,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1753,118 +1774,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1873,7 +1894,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1885,10 +1906,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1935,10 +1956,10 @@
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2283,18 +2304,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XEX687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313:E323"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.7421875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.734375" customWidth="1"/>
-    <col min="3" max="3" width="40.1015625" customWidth="1"/>
+    <col min="2" max="2" width="35.1484375" customWidth="1"/>
+    <col min="3" max="3" width="68.3515625" customWidth="1"/>
     <col min="4" max="4" width="14.4453125" customWidth="1"/>
     <col min="5" max="5" width="15.8828125" customWidth="1"/>
     <col min="6" max="6" width="11.8359375" customWidth="1"/>
@@ -18732,7 +18755,7 @@
       <c r="XEW1" s="15"/>
       <c r="XEX1" s="15"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" hidden="1" spans="1:22">
       <c r="A2" s="8">
         <v>3141</v>
       </c>
@@ -18767,7 +18790,7 @@
       <c r="Q2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" hidden="1" spans="1:22">
       <c r="A3" s="8">
         <v>3142</v>
       </c>
@@ -18802,7 +18825,7 @@
       <c r="Q3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" hidden="1" spans="1:22">
       <c r="A4" s="8">
         <v>3143</v>
       </c>
@@ -18872,7 +18895,7 @@
       <c r="Q5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" hidden="1" spans="1:22">
       <c r="A6" s="8">
         <v>3145</v>
       </c>
@@ -18942,7 +18965,7 @@
       <c r="Q7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" hidden="1" spans="1:22">
       <c r="A8" s="8">
         <v>3147</v>
       </c>
@@ -18977,7 +19000,7 @@
       <c r="Q8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" hidden="1" spans="1:22">
       <c r="A9" s="8">
         <v>3148</v>
       </c>
@@ -19012,7 +19035,7 @@
       <c r="Q9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" hidden="1" spans="1:22">
       <c r="A10" s="8">
         <v>3149</v>
       </c>
@@ -19047,7 +19070,7 @@
       <c r="Q10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" hidden="1" spans="1:22">
       <c r="A11" s="8">
         <v>3150</v>
       </c>
@@ -19082,7 +19105,7 @@
       <c r="Q11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" hidden="1" spans="1:22">
       <c r="A12" s="8">
         <v>3151</v>
       </c>
@@ -19117,7 +19140,7 @@
       <c r="Q12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" hidden="1" spans="1:22">
       <c r="A13" s="8">
         <v>3152</v>
       </c>
@@ -19152,7 +19175,7 @@
       <c r="Q13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" hidden="1" spans="1:22">
       <c r="A14" s="8">
         <v>3153</v>
       </c>
@@ -19222,7 +19245,7 @@
       <c r="Q15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" hidden="1" spans="1:22">
       <c r="A16" s="8">
         <v>3155</v>
       </c>
@@ -19257,7 +19280,7 @@
       <c r="Q16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" hidden="1" spans="1:22">
       <c r="A17" s="8">
         <v>3156</v>
       </c>
@@ -19327,7 +19350,7 @@
       <c r="Q18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" hidden="1" spans="1:22">
       <c r="A19" s="8">
         <v>3158</v>
       </c>
@@ -19362,7 +19385,7 @@
       <c r="Q19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" hidden="1" spans="1:22">
       <c r="A20" s="8">
         <v>3159</v>
       </c>
@@ -19397,7 +19420,7 @@
       <c r="Q20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" hidden="1" spans="1:22">
       <c r="A21" s="8">
         <v>3160</v>
       </c>
@@ -19432,7 +19455,7 @@
       <c r="Q21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" hidden="1" spans="1:22">
       <c r="A22" s="8">
         <v>3161</v>
       </c>
@@ -19467,7 +19490,7 @@
       <c r="Q22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" hidden="1" spans="1:22">
       <c r="A23" s="8">
         <v>3162</v>
       </c>
@@ -19502,7 +19525,7 @@
       <c r="Q23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" hidden="1" spans="1:22">
       <c r="A24" s="8">
         <v>3163</v>
       </c>
@@ -19537,7 +19560,7 @@
       <c r="Q24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" hidden="1" spans="1:22">
       <c r="A25" s="8">
         <v>3164</v>
       </c>
@@ -19607,7 +19630,7 @@
       <c r="Q26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" hidden="1" spans="1:22">
       <c r="A27" s="8">
         <v>3166</v>
       </c>
@@ -19642,7 +19665,7 @@
       <c r="Q27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" hidden="1" spans="1:22">
       <c r="A28" s="8">
         <v>3167</v>
       </c>
@@ -19677,7 +19700,7 @@
       <c r="Q28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" hidden="1" spans="1:22">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -19712,7 +19735,7 @@
       <c r="Q29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" hidden="1" spans="1:22">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -19747,7 +19770,7 @@
       <c r="Q30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" hidden="1" spans="1:22">
       <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
@@ -19887,7 +19910,7 @@
       <c r="Q34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" hidden="1" spans="1:21">
       <c r="A35" s="8">
         <v>3174</v>
       </c>
@@ -19921,7 +19944,7 @@
       <c r="P35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" hidden="1" spans="1:21">
       <c r="A36" s="8">
         <v>3175</v>
       </c>
@@ -19955,7 +19978,7 @@
       <c r="P36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" hidden="1" spans="1:21">
       <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
@@ -19989,15 +20012,15 @@
       <c r="P37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" hidden="1" spans="1:21">
       <c r="A38" s="8">
         <v>3177</v>
       </c>
       <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -20023,7 +20046,7 @@
       <c r="P38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" hidden="1" spans="1:21">
       <c r="A39" s="8">
         <v>3178</v>
       </c>
@@ -20031,7 +20054,7 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -20057,15 +20080,15 @@
       <c r="P39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" hidden="1" spans="1:21">
       <c r="A40" s="8">
         <v>3179</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -20091,12 +20114,12 @@
       <c r="P40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" hidden="1" spans="1:21">
       <c r="A41" s="8">
         <v>3180</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -20159,7 +20182,7 @@
       <c r="P42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" hidden="1" spans="1:21">
       <c r="A43" s="8">
         <v>3182</v>
       </c>
@@ -20193,7 +20216,7 @@
       <c r="P43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" hidden="1" spans="1:16">
       <c r="A44" s="8">
         <v>3183</v>
       </c>
@@ -20225,7 +20248,7 @@
       </c>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" hidden="1" spans="1:16">
       <c r="A45" s="8">
         <v>3184</v>
       </c>
@@ -20257,7 +20280,7 @@
       </c>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" hidden="1" spans="1:16">
       <c r="A46" s="8">
         <v>3185</v>
       </c>
@@ -20289,7 +20312,7 @@
       </c>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" hidden="1" spans="1:16">
       <c r="A47" s="8">
         <v>3186</v>
       </c>
@@ -20385,7 +20408,7 @@
       </c>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" hidden="1" spans="1:16">
       <c r="A50" s="8">
         <v>3189</v>
       </c>
@@ -20417,7 +20440,7 @@
       </c>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" hidden="1" spans="1:16">
       <c r="A51" s="8">
         <v>3190</v>
       </c>
@@ -20448,7 +20471,7 @@
       </c>
       <c r="P51"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" hidden="1" spans="1:16">
       <c r="A52" s="8">
         <v>3191</v>
       </c>
@@ -20480,12 +20503,12 @@
       </c>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" hidden="1" spans="1:16">
       <c r="A53" s="8">
         <v>3192</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
         <v>96</v>
@@ -20544,7 +20567,7 @@
       </c>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" hidden="1" spans="1:16">
       <c r="A55" s="8">
         <v>3194</v>
       </c>
@@ -20576,7 +20599,7 @@
       </c>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" hidden="1" spans="1:16">
       <c r="A56" s="8">
         <v>3195</v>
       </c>
@@ -20608,7 +20631,7 @@
       </c>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" hidden="1" spans="1:16">
       <c r="A57" s="8">
         <v>3196</v>
       </c>
@@ -20672,7 +20695,7 @@
       </c>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" hidden="1" spans="1:16">
       <c r="A59" s="8">
         <v>3198</v>
       </c>
@@ -20704,7 +20727,7 @@
       </c>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" hidden="1" spans="1:16">
       <c r="A60" s="8">
         <v>3199</v>
       </c>
@@ -20736,7 +20759,7 @@
       </c>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" hidden="1" spans="1:16">
       <c r="A61" s="8">
         <v>3200</v>
       </c>
@@ -20800,12 +20823,12 @@
       </c>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" hidden="1" spans="1:16">
       <c r="A63" s="8">
         <v>3202</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
         <v>106</v>
@@ -20832,7 +20855,7 @@
       </c>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" hidden="1" spans="1:16">
       <c r="A64" s="8">
         <v>3203</v>
       </c>
@@ -20864,7 +20887,7 @@
       </c>
       <c r="P64"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" hidden="1" spans="1:16">
       <c r="A65" s="8">
         <v>3204</v>
       </c>
@@ -20896,12 +20919,12 @@
       </c>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" hidden="1" spans="1:16">
       <c r="A66" s="8">
         <v>3205</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
         <v>109</v>
@@ -20960,7 +20983,7 @@
       </c>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" hidden="1" spans="1:16">
       <c r="A68" s="8">
         <v>3207</v>
       </c>
@@ -20992,7 +21015,7 @@
       </c>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" hidden="1" spans="1:16">
       <c r="A69" s="8">
         <v>3208</v>
       </c>
@@ -21024,7 +21047,7 @@
       </c>
       <c r="P69"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" hidden="1" spans="1:16">
       <c r="A70" s="8">
         <v>3209</v>
       </c>
@@ -21088,7 +21111,7 @@
       </c>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" hidden="1" spans="1:16">
       <c r="A72" s="8">
         <v>3211</v>
       </c>
@@ -21120,7 +21143,7 @@
       </c>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" hidden="1" spans="1:16">
       <c r="A73" s="8">
         <v>3212</v>
       </c>
@@ -21152,12 +21175,12 @@
       </c>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" hidden="1" spans="1:16">
       <c r="A74" s="8">
         <v>3213</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>115</v>
@@ -21184,7 +21207,7 @@
       </c>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" hidden="1" spans="1:16">
       <c r="A75" s="8">
         <v>3214</v>
       </c>
@@ -21216,7 +21239,7 @@
       </c>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" hidden="1" spans="1:16">
       <c r="A76" s="8">
         <v>3215</v>
       </c>
@@ -21248,7 +21271,7 @@
       </c>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" hidden="1" spans="1:16">
       <c r="A77" s="8">
         <v>3216</v>
       </c>
@@ -21312,7 +21335,7 @@
       </c>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" hidden="1" spans="1:16">
       <c r="A79" s="8">
         <v>3218</v>
       </c>
@@ -21344,7 +21367,7 @@
       </c>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" hidden="1" spans="1:16">
       <c r="A80" s="8">
         <v>3219</v>
       </c>
@@ -21376,18 +21399,18 @@
       </c>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" hidden="1" spans="1:16">
       <c r="A81" s="8">
         <v>3220</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F81" s="3">
         <v>15</v>
@@ -21408,7 +21431,7 @@
       </c>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" hidden="1" spans="1:16">
       <c r="A82" s="8">
         <v>3221</v>
       </c>
@@ -21416,7 +21439,7 @@
         <v>123</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -21440,15 +21463,15 @@
       </c>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" hidden="1" spans="1:16">
       <c r="A83" s="8">
         <v>3222</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
         <v>82</v>
@@ -21472,18 +21495,18 @@
       </c>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" hidden="1" spans="1:16">
       <c r="A84" s="8">
         <v>3223</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F84" s="3">
         <v>18</v>
@@ -21512,10 +21535,10 @@
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F85" s="3">
         <v>18</v>
@@ -21536,15 +21559,15 @@
       </c>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" hidden="1" spans="1:16">
       <c r="A86" s="8">
         <v>3225</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
         <v>82</v>
@@ -21576,10 +21599,10 @@
         <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F87" s="3">
         <v>18</v>
@@ -21600,7 +21623,7 @@
       </c>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" hidden="1" spans="1:16">
       <c r="A88" s="8">
         <v>3227</v>
       </c>
@@ -21608,10 +21631,10 @@
         <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F88" s="3">
         <v>18</v>
@@ -21632,7 +21655,7 @@
       </c>
       <c r="P88"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" hidden="1" spans="1:16">
       <c r="A89" s="8">
         <v>3228</v>
       </c>
@@ -21640,7 +21663,7 @@
         <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
@@ -21672,10 +21695,10 @@
         <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F90" s="3">
         <v>18</v>
@@ -21704,7 +21727,7 @@
         <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -21728,7 +21751,7 @@
       </c>
       <c r="P91"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" hidden="1" spans="1:16">
       <c r="A92" s="8">
         <v>3231</v>
       </c>
@@ -21736,7 +21759,7 @@
         <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
@@ -21760,7 +21783,7 @@
       </c>
       <c r="P92"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" hidden="1" spans="1:16">
       <c r="A93" s="8">
         <v>3232</v>
       </c>
@@ -21768,7 +21791,7 @@
         <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -21792,18 +21815,18 @@
       </c>
       <c r="P93"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" hidden="1" spans="1:16">
       <c r="A94" s="8">
         <v>3233</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F94" s="3">
         <v>18</v>
@@ -21824,18 +21847,18 @@
       </c>
       <c r="P94"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" hidden="1" spans="1:16">
       <c r="A95" s="8">
         <v>3234</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F95" s="3">
         <v>18</v>
@@ -21856,18 +21879,18 @@
       </c>
       <c r="P95"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" hidden="1" spans="1:16">
       <c r="A96" s="8">
         <v>3235</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F96" s="3">
         <v>18</v>
@@ -21888,7 +21911,7 @@
       </c>
       <c r="P96"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" hidden="1" spans="1:16">
       <c r="A97" s="8">
         <v>3236</v>
       </c>
@@ -21896,7 +21919,7 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -21920,7 +21943,7 @@
       </c>
       <c r="P97"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" hidden="1" spans="1:16">
       <c r="A98" s="8">
         <v>3237</v>
       </c>
@@ -21928,7 +21951,7 @@
         <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -21952,7 +21975,7 @@
       </c>
       <c r="P98"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" hidden="1" spans="1:16">
       <c r="A99" s="8">
         <v>3238</v>
       </c>
@@ -21960,7 +21983,7 @@
         <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -21984,7 +22007,7 @@
       </c>
       <c r="P99"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" hidden="1" spans="1:16">
       <c r="A100" s="8">
         <v>3239</v>
       </c>
@@ -21992,7 +22015,7 @@
         <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
         <v>72</v>
@@ -22016,7 +22039,7 @@
       </c>
       <c r="P100"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" hidden="1" spans="1:16">
       <c r="A101" s="8">
         <v>3240</v>
       </c>
@@ -22024,7 +22047,7 @@
         <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
         <v>28</v>
@@ -22048,7 +22071,7 @@
       </c>
       <c r="P101"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" hidden="1" spans="1:16">
       <c r="A102" s="8">
         <v>3241</v>
       </c>
@@ -22056,7 +22079,7 @@
         <v>26</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D102" t="s">
         <v>28</v>
@@ -22080,7 +22103,7 @@
       </c>
       <c r="P102"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" hidden="1" spans="1:16">
       <c r="A103" s="8">
         <v>3242</v>
       </c>
@@ -22088,7 +22111,7 @@
         <v>86</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
         <v>72</v>
@@ -22112,15 +22135,15 @@
       </c>
       <c r="P103"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" hidden="1" spans="1:16">
       <c r="A104" s="8">
         <v>3243</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
         <v>82</v>
@@ -22144,7 +22167,7 @@
       </c>
       <c r="P104"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" hidden="1" spans="1:16">
       <c r="A105" s="8">
         <v>3244</v>
       </c>
@@ -22152,7 +22175,7 @@
         <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
         <v>72</v>
@@ -22184,7 +22207,7 @@
         <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -22208,15 +22231,15 @@
       </c>
       <c r="P106"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" hidden="1" spans="1:16">
       <c r="A107" s="8">
         <v>3246</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D107" t="s">
         <v>110</v>
@@ -22248,7 +22271,7 @@
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -22272,15 +22295,15 @@
       </c>
       <c r="P108"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" hidden="1" spans="1:16">
       <c r="A109" s="8">
         <v>3248</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D109" t="s">
         <v>82</v>
@@ -22304,7 +22327,7 @@
       </c>
       <c r="P109"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" hidden="1" spans="1:16">
       <c r="A110" s="8">
         <v>3249</v>
       </c>
@@ -22312,7 +22335,7 @@
         <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
@@ -22344,7 +22367,7 @@
         <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -22368,15 +22391,15 @@
       </c>
       <c r="P111"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" hidden="1" spans="1:16">
       <c r="A112" s="8">
         <v>3251</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D112" t="s">
         <v>82</v>
@@ -22400,7 +22423,7 @@
       </c>
       <c r="P112"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" hidden="1" spans="1:16">
       <c r="A113" s="8">
         <v>3253</v>
       </c>
@@ -22431,18 +22454,18 @@
       </c>
       <c r="P113"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" hidden="1" spans="1:16">
       <c r="A114" s="8">
         <v>3254</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F114" s="3">
         <v>30</v>
@@ -22463,18 +22486,18 @@
       </c>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" hidden="1" spans="1:16">
       <c r="A115" s="8">
         <v>3255</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F115" s="3">
         <v>30</v>
@@ -22495,18 +22518,18 @@
       </c>
       <c r="P115"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" hidden="1" spans="1:16">
       <c r="A116" s="8">
         <v>3256</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F116" s="3">
         <v>30</v>
@@ -22535,7 +22558,7 @@
         <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -22559,7 +22582,7 @@
       </c>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" hidden="1" spans="1:16">
       <c r="A118" s="8">
         <v>3258</v>
       </c>
@@ -22567,7 +22590,7 @@
         <v>40</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
@@ -22591,18 +22614,18 @@
       </c>
       <c r="P118"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" hidden="1" spans="1:16">
       <c r="A119" s="8">
         <v>3259</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F119" s="3">
         <v>4</v>
@@ -22623,18 +22646,18 @@
       </c>
       <c r="P119"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" hidden="1" spans="1:16">
       <c r="A120" s="8">
         <v>3260</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F120" s="3">
         <v>18</v>
@@ -22663,7 +22686,7 @@
         <v>38</v>
       </c>
       <c r="C121" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -22695,7 +22718,7 @@
         <v>38</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -22719,7 +22742,7 @@
       </c>
       <c r="P122"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" hidden="1" spans="1:16">
       <c r="A123" s="8">
         <v>3263</v>
       </c>
@@ -22727,7 +22750,7 @@
         <v>86</v>
       </c>
       <c r="C123" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -22751,7 +22774,7 @@
       </c>
       <c r="P123"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" hidden="1" spans="1:16">
       <c r="A124" s="8">
         <v>3264</v>
       </c>
@@ -22759,7 +22782,7 @@
         <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -22783,7 +22806,7 @@
       </c>
       <c r="P124"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" hidden="1" spans="1:16">
       <c r="A125" s="8">
         <v>3265</v>
       </c>
@@ -22791,7 +22814,7 @@
         <v>86</v>
       </c>
       <c r="C125" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D125" t="s">
         <v>72</v>
@@ -22815,7 +22838,7 @@
       </c>
       <c r="P125"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" hidden="1" spans="1:16">
       <c r="A126" s="8">
         <v>3266</v>
       </c>
@@ -22823,7 +22846,7 @@
         <v>84</v>
       </c>
       <c r="C126" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -22855,7 +22878,7 @@
         <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -22879,15 +22902,15 @@
       </c>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" hidden="1" spans="1:16">
       <c r="A128" s="8">
         <v>3268</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C128" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D128" t="s">
         <v>110</v>
@@ -22911,7 +22934,7 @@
       </c>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" hidden="1" spans="1:16">
       <c r="A129" s="8">
         <v>3269</v>
       </c>
@@ -22919,7 +22942,7 @@
         <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
@@ -22943,7 +22966,7 @@
       </c>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" hidden="1" spans="1:16">
       <c r="A130" s="8">
         <v>3270</v>
       </c>
@@ -22951,7 +22974,7 @@
         <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D130" t="s">
         <v>72</v>
@@ -22975,7 +22998,7 @@
       </c>
       <c r="P130" s="16"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" hidden="1" spans="1:16">
       <c r="A131" s="8">
         <v>3271</v>
       </c>
@@ -22983,7 +23006,7 @@
         <v>84</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D131" t="s">
         <v>28</v>
@@ -23007,7 +23030,7 @@
       </c>
       <c r="P131" s="16"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" hidden="1" spans="1:16">
       <c r="A132" s="8">
         <v>3272</v>
       </c>
@@ -23015,7 +23038,7 @@
         <v>86</v>
       </c>
       <c r="C132" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
@@ -23039,7 +23062,7 @@
       </c>
       <c r="P132" s="16"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" hidden="1" spans="1:16">
       <c r="A133" s="8">
         <v>3273</v>
       </c>
@@ -23047,7 +23070,7 @@
         <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
@@ -23079,7 +23102,7 @@
         <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D134" t="s">
         <v>31</v>
@@ -23103,7 +23126,7 @@
       </c>
       <c r="P134" s="16"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" hidden="1" spans="1:16">
       <c r="A135" s="8">
         <v>3275</v>
       </c>
@@ -23111,7 +23134,7 @@
         <v>86</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -23135,7 +23158,7 @@
       </c>
       <c r="P135" s="16"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" hidden="1" spans="1:16">
       <c r="A136" s="8">
         <v>3276</v>
       </c>
@@ -23143,7 +23166,7 @@
         <v>86</v>
       </c>
       <c r="C136" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
@@ -23167,7 +23190,7 @@
       </c>
       <c r="P136" s="16"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" hidden="1" spans="1:16">
       <c r="A137" s="8">
         <v>3277</v>
       </c>
@@ -23175,7 +23198,7 @@
         <v>84</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
@@ -23207,7 +23230,7 @@
         <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D138" t="s">
         <v>31</v>
@@ -23231,7 +23254,7 @@
       </c>
       <c r="P138" s="16"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" hidden="1" spans="1:16">
       <c r="A139" s="8">
         <v>3279</v>
       </c>
@@ -23239,7 +23262,7 @@
         <v>84</v>
       </c>
       <c r="C139" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
@@ -23263,15 +23286,15 @@
       </c>
       <c r="P139" s="16"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" hidden="1" spans="1:16">
       <c r="A140" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D140" t="s">
         <v>49</v>
@@ -23295,15 +23318,15 @@
       </c>
       <c r="P140" s="16"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" hidden="1" spans="1:16">
       <c r="A141" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D141" t="s">
         <v>49</v>
@@ -23327,15 +23350,15 @@
       </c>
       <c r="P141" s="16"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" hidden="1" spans="1:16">
       <c r="A142" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D142" t="s">
         <v>49</v>
@@ -23359,15 +23382,15 @@
       </c>
       <c r="P142" s="16"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" hidden="1" spans="1:16">
       <c r="A143" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D143" t="s">
         <v>49</v>
@@ -23391,15 +23414,15 @@
       </c>
       <c r="P143" s="16"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" hidden="1" spans="1:16">
       <c r="A144" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D144" t="s">
         <v>42</v>
@@ -23423,15 +23446,15 @@
       </c>
       <c r="P144" s="16"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" hidden="1" spans="1:16">
       <c r="A145" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B145" t="s">
         <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D145" t="s">
         <v>49</v>
@@ -23455,15 +23478,15 @@
       </c>
       <c r="P145" s="16"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" hidden="1" spans="1:16">
       <c r="A146" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
         <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D146" t="s">
         <v>49</v>
@@ -23487,15 +23510,15 @@
       </c>
       <c r="P146" s="16"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" hidden="1" spans="1:16">
       <c r="A147" s="8">
         <v>3280</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D147" t="s">
         <v>82</v>
@@ -23519,15 +23542,15 @@
       </c>
       <c r="P147" s="16"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" hidden="1" spans="1:16">
       <c r="A148" s="8">
         <v>3281</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C148" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D148" t="s">
         <v>82</v>
@@ -23551,15 +23574,15 @@
       </c>
       <c r="P148" s="16"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" hidden="1" spans="1:16">
       <c r="A149" s="8">
         <v>3282</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s">
         <v>82</v>
@@ -23583,15 +23606,15 @@
       </c>
       <c r="P149" s="16"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" hidden="1" spans="1:16">
       <c r="A150" s="8">
         <v>3283</v>
       </c>
       <c r="B150" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D150" t="s">
         <v>110</v>
@@ -23616,14 +23639,14 @@
       <c r="P150" s="16"/>
     </row>
     <row r="151" spans="1:16">
-      <c r="A151" s="8" t="s">
-        <v>213</v>
+      <c r="A151" s="8">
+        <v>7835</v>
       </c>
       <c r="B151" t="s">
         <v>29</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D151" t="s">
         <v>31</v>
@@ -23647,14 +23670,14 @@
       <c r="P151" s="16"/>
     </row>
     <row r="152" spans="1:16">
-      <c r="A152" s="8" t="s">
-        <v>215</v>
+      <c r="A152" s="8">
+        <v>3115</v>
       </c>
       <c r="B152" t="s">
         <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D152" t="s">
         <v>31</v>
@@ -23678,8 +23701,8 @@
       <c r="P152" s="16"/>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153" s="8" t="s">
-        <v>217</v>
+      <c r="A153" s="8">
+        <v>3119</v>
       </c>
       <c r="B153" t="s">
         <v>29</v>
@@ -23708,7 +23731,7 @@
       </c>
       <c r="P153" s="16"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" hidden="1" spans="1:15">
       <c r="A154" s="8">
         <v>3287</v>
       </c>
@@ -23719,7 +23742,7 @@
         <v>220</v>
       </c>
       <c r="D154" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F154" s="3">
         <v>30</v>
@@ -23739,7 +23762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" hidden="1" spans="1:15">
       <c r="A155" s="8">
         <v>3288</v>
       </c>
@@ -23750,7 +23773,7 @@
         <v>221</v>
       </c>
       <c r="D155" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F155" s="3">
         <v>35</v>
@@ -23770,7 +23793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" hidden="1" spans="1:15">
       <c r="A156" s="8">
         <v>3289</v>
       </c>
@@ -23801,7 +23824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" hidden="1" spans="1:15">
       <c r="A157" s="8">
         <v>3290</v>
       </c>
@@ -23832,7 +23855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" hidden="1" spans="1:15">
       <c r="A158" s="8">
         <v>3291</v>
       </c>
@@ -23863,18 +23886,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" hidden="1" spans="1:15">
       <c r="A159" s="8">
         <v>3292</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
         <v>229</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F159" s="3">
         <v>35</v>
@@ -23894,18 +23917,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" hidden="1" spans="1:15">
       <c r="A160" s="8">
         <v>3293</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
         <v>230</v>
       </c>
       <c r="D160" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F160" s="3">
         <v>40</v>
@@ -23930,10 +23953,10 @@
         <v>3294</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C161" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D161" t="s">
         <v>31</v>
@@ -23956,15 +23979,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" hidden="1" spans="1:15">
       <c r="A162" s="8">
         <v>3295</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D162" t="s">
         <v>223</v>
@@ -23987,15 +24010,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" hidden="1" spans="1:15">
       <c r="A163" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D163" t="s">
         <v>72</v>
@@ -24017,18 +24040,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" hidden="1" spans="1:15">
       <c r="A164" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B164" t="s">
         <v>224</v>
       </c>
       <c r="C164" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D164" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F164" s="3">
         <v>35</v>
@@ -24047,18 +24070,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" hidden="1" spans="1:15">
       <c r="A165" s="8">
         <v>3298</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F165" s="3">
         <v>40</v>
@@ -24078,15 +24101,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" hidden="1" spans="1:15">
       <c r="A166" s="8">
         <v>3299</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C166" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D166" t="s">
         <v>82</v>
@@ -24111,13 +24134,13 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B167" t="s">
         <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D167" t="s">
         <v>31</v>
@@ -24147,7 +24170,7 @@
         <v>29</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D168" t="s">
         <v>31</v>
@@ -24170,15 +24193,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" hidden="1" spans="1:15">
       <c r="A169" s="8">
         <v>3302</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D169" t="s">
         <v>82</v>
@@ -24209,7 +24232,7 @@
         <v>29</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D170" t="s">
         <v>31</v>
@@ -24240,7 +24263,7 @@
         <v>29</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D171" t="s">
         <v>31</v>
@@ -24263,15 +24286,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" hidden="1" spans="1:15">
       <c r="A172" s="8">
         <v>3305</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C172" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D172" t="s">
         <v>82</v>
@@ -24294,15 +24317,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" hidden="1" spans="1:15">
       <c r="A173" s="8">
         <v>3306</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D173" t="s">
         <v>82</v>
@@ -24325,15 +24348,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" hidden="1" spans="1:15">
       <c r="A174" s="8">
         <v>3307</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C174" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D174" t="s">
         <v>110</v>
@@ -24356,15 +24379,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" hidden="1" spans="1:15">
       <c r="A175" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C175" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D175" t="s">
         <v>82</v>
@@ -24394,7 +24417,7 @@
         <v>29</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D176" t="s">
         <v>31</v>
@@ -24417,7 +24440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" hidden="1" spans="1:15">
       <c r="A177" s="8">
         <v>3310</v>
       </c>
@@ -24425,7 +24448,7 @@
         <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D177" t="s">
         <v>24</v>
@@ -24456,7 +24479,7 @@
         <v>29</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D178" t="s">
         <v>31</v>
@@ -24486,7 +24509,7 @@
         <v>29</v>
       </c>
       <c r="C179" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D179" t="s">
         <v>31</v>
@@ -24509,15 +24532,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" hidden="1" spans="1:15">
       <c r="A180" s="8">
         <v>3313</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D180" t="s">
         <v>82</v>
@@ -24540,18 +24563,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" hidden="1" spans="1:15">
       <c r="A181" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D181" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F181" s="3">
         <v>40</v>
@@ -24571,15 +24594,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" hidden="1" spans="1:15">
       <c r="A182" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B182" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D182" t="s">
         <v>76</v>
@@ -24601,18 +24624,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" hidden="1" spans="1:15">
       <c r="A183" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B183" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F183" s="3">
         <v>18</v>
@@ -24631,18 +24654,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" hidden="1" spans="1:15">
       <c r="A184" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B184" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D184" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F184" s="3">
         <v>35</v>
@@ -24661,18 +24684,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" hidden="1" spans="1:15">
       <c r="A185" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B185" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D185" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F185" s="3">
         <v>35</v>
@@ -24691,15 +24714,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" hidden="1" spans="1:15">
       <c r="A186" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D186" t="s">
         <v>76</v>
@@ -24721,15 +24744,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" hidden="1" spans="1:15">
       <c r="A187" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B187" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F187" s="3">
         <v>35</v>
@@ -24748,15 +24771,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" hidden="1" spans="1:15">
       <c r="A188" s="2">
         <v>3315</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C188" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D188" t="s">
         <v>28</v>
@@ -24778,15 +24801,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" hidden="1" spans="1:15">
       <c r="A189" s="2">
         <v>3316</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C189" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D189" t="s">
         <v>28</v>
@@ -24808,15 +24831,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" hidden="1" spans="1:15">
       <c r="A190" s="2">
         <v>3317</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C190" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D190" t="s">
         <v>28</v>
@@ -24838,15 +24861,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" hidden="1" spans="1:15">
       <c r="A191" s="2">
         <v>3318</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C191" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D191" t="s">
         <v>24</v>
@@ -24868,15 +24891,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" hidden="1" spans="1:15">
       <c r="A192" s="2">
         <v>3319</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C192" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D192" t="s">
         <v>72</v>
@@ -24898,15 +24921,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" hidden="1" spans="1:15">
       <c r="A193" s="2">
         <v>3320</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C193" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D193" t="s">
         <v>24</v>
@@ -24928,15 +24951,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" hidden="1" spans="1:15">
       <c r="A194" s="2">
         <v>3321</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C194" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
@@ -24958,15 +24981,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" hidden="1" spans="1:15">
       <c r="A195" s="2">
         <v>3322</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C195" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D195" t="s">
         <v>24</v>
@@ -24988,15 +25011,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" hidden="1" spans="1:15">
       <c r="A196" s="2">
         <v>3323</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C196" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D196" t="s">
         <v>72</v>
@@ -25018,15 +25041,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" hidden="1" spans="1:15">
       <c r="A197" s="2">
         <v>3324</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D197" t="s">
         <v>28</v>
@@ -25048,15 +25071,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" hidden="1" spans="1:15">
       <c r="A198" s="2">
         <v>3325</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C198" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D198" t="s">
         <v>24</v>
@@ -25078,15 +25101,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" hidden="1" spans="1:15">
       <c r="A199" s="2">
         <v>3326</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C199" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D199" t="s">
         <v>72</v>
@@ -25108,15 +25131,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" hidden="1" spans="1:15">
       <c r="A200" s="2">
         <v>3327</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D200" t="s">
         <v>28</v>
@@ -25138,15 +25161,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" hidden="1" spans="1:15">
       <c r="A201" s="2">
         <v>3328</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C201" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D201" t="s">
         <v>72</v>
@@ -25173,10 +25196,10 @@
         <v>3329</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C202" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D202" t="s">
         <v>31</v>
@@ -25198,15 +25221,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" hidden="1" spans="1:15">
       <c r="A203" s="2">
         <v>3330</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D203" t="s">
         <v>24</v>
@@ -25233,13 +25256,13 @@
         <v>3331</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C204" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D204" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F204" s="3">
         <v>10</v>
@@ -25258,15 +25281,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" hidden="1" spans="1:15">
       <c r="A205" s="2">
         <v>3332</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C205" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D205" t="s">
         <v>72</v>
@@ -25293,10 +25316,10 @@
         <v>3333</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C206" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D206" t="s">
         <v>31</v>
@@ -25323,10 +25346,10 @@
         <v>3334</v>
       </c>
       <c r="B207" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C207" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D207" t="s">
         <v>31</v>
@@ -25348,15 +25371,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" hidden="1" spans="1:15">
       <c r="A208" s="2">
         <v>3335</v>
       </c>
       <c r="B208" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C208" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D208" t="s">
         <v>24</v>
@@ -25378,15 +25401,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" hidden="1" spans="1:15">
       <c r="A209" s="2">
         <v>3336</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C209" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D209" t="s">
         <v>24</v>
@@ -25408,15 +25431,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" hidden="1" spans="1:15">
       <c r="A210" s="2">
         <v>3337</v>
       </c>
       <c r="B210" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C210" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D210" t="s">
         <v>28</v>
@@ -25438,15 +25461,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" hidden="1" spans="1:15">
       <c r="A211" s="2">
         <v>3338</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C211" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D211" t="s">
         <v>72</v>
@@ -25468,15 +25491,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" hidden="1" spans="1:15">
       <c r="A212" s="2">
         <v>3339</v>
       </c>
       <c r="B212" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C212" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D212" t="s">
         <v>24</v>
@@ -25503,10 +25526,10 @@
         <v>3340</v>
       </c>
       <c r="B213" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C213" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D213" t="s">
         <v>31</v>
@@ -25528,15 +25551,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" hidden="1" spans="1:15">
       <c r="A214" s="2">
         <v>3341</v>
       </c>
       <c r="B214" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C214" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D214" t="s">
         <v>24</v>
@@ -25563,10 +25586,10 @@
         <v>3342</v>
       </c>
       <c r="B215" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C215" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D215" t="s">
         <v>31</v>
@@ -25588,15 +25611,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" hidden="1" spans="1:15">
       <c r="A216" s="2">
         <v>3343</v>
       </c>
       <c r="B216" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C216" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
@@ -25618,18 +25641,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" hidden="1" spans="1:15">
       <c r="A217" s="2">
         <v>3344</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C217" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D217" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F217" s="3">
         <v>10</v>
@@ -25648,15 +25671,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" hidden="1" spans="1:15">
       <c r="A218" s="2">
         <v>3345</v>
       </c>
       <c r="B218" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C218" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D218" t="s">
         <v>24</v>
@@ -25683,10 +25706,10 @@
         <v>3346</v>
       </c>
       <c r="B219" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D219" t="s">
         <v>31</v>
@@ -25713,10 +25736,10 @@
         <v>3347</v>
       </c>
       <c r="B220" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C220" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -25738,15 +25761,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" hidden="1" spans="1:15">
       <c r="A221" s="2">
         <v>3348</v>
       </c>
       <c r="B221" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C221" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D221" t="s">
         <v>24</v>
@@ -25768,15 +25791,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" hidden="1" spans="1:15">
       <c r="A222" s="2">
         <v>3349</v>
       </c>
       <c r="B222" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C222" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D222" t="s">
         <v>82</v>
@@ -25798,15 +25821,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" hidden="1" spans="1:15">
       <c r="A223" s="2">
         <v>3350</v>
       </c>
       <c r="B223" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C223" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
@@ -25828,15 +25851,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" hidden="1" spans="1:15">
       <c r="A224" s="2">
         <v>3351</v>
       </c>
       <c r="B224" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C224" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D224" t="s">
         <v>24</v>
@@ -25858,15 +25881,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" hidden="1" spans="1:15">
       <c r="A225" s="2">
         <v>3352</v>
       </c>
       <c r="B225" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D225" t="s">
         <v>72</v>
@@ -25888,15 +25911,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" hidden="1" spans="1:15">
       <c r="A226" s="2">
         <v>3353</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C226" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D226" t="s">
         <v>72</v>
@@ -25918,15 +25941,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" hidden="1" spans="1:15">
       <c r="A227" s="2">
         <v>3354</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C227" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D227" t="s">
         <v>24</v>
@@ -25948,15 +25971,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" hidden="1" spans="1:15">
       <c r="A228" s="2">
         <v>3355</v>
       </c>
       <c r="B228" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D228" t="s">
         <v>72</v>
@@ -25978,15 +26001,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" hidden="1" spans="1:15">
       <c r="A229" s="2">
         <v>3356</v>
       </c>
       <c r="B229" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C229" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D229" t="s">
         <v>72</v>
@@ -26008,15 +26031,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" hidden="1" spans="1:15">
       <c r="A230" s="2">
         <v>3357</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C230" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D230" t="s">
         <v>24</v>
@@ -26038,15 +26061,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" hidden="1" spans="1:9">
       <c r="A231" s="2">
         <v>3358</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C231" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D231" t="s">
         <v>24</v>
@@ -26064,15 +26087,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" hidden="1" spans="1:9">
       <c r="A232" s="2">
         <v>3359</v>
       </c>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C232" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D232" t="s">
         <v>24</v>
@@ -26090,15 +26113,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" hidden="1" spans="1:9">
       <c r="A233" s="2">
         <v>3360</v>
       </c>
       <c r="B233" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C233" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D233" t="s">
         <v>82</v>
@@ -26116,15 +26139,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" hidden="1" spans="1:9">
       <c r="A234" s="2">
         <v>3361</v>
       </c>
       <c r="B234" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C234" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D234" t="s">
         <v>223</v>
@@ -26142,15 +26165,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" hidden="1" spans="1:9">
       <c r="A235" s="2">
         <v>3362</v>
       </c>
       <c r="B235" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C235" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D235" t="s">
         <v>24</v>
@@ -26168,15 +26191,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" hidden="1" spans="1:9">
       <c r="A236" s="2">
         <v>3363</v>
       </c>
       <c r="B236" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C236" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D236" t="s">
         <v>82</v>
@@ -26194,15 +26217,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" hidden="1" spans="1:9">
       <c r="A237" s="2">
         <v>3364</v>
       </c>
       <c r="B237" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C237" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D237" t="s">
         <v>24</v>
@@ -26220,15 +26243,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" hidden="1" spans="1:9">
       <c r="A238" s="2">
         <v>3365</v>
       </c>
       <c r="B238" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C238" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D238" t="s">
         <v>28</v>
@@ -26246,15 +26269,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" hidden="1" spans="1:9">
       <c r="A239" s="2">
         <v>3366</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C239" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D239" t="s">
         <v>24</v>
@@ -26272,15 +26295,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" hidden="1" spans="1:9">
       <c r="A240" s="2">
         <v>3367</v>
       </c>
       <c r="B240" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C240" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D240" t="s">
         <v>28</v>
@@ -26303,10 +26326,10 @@
         <v>3368</v>
       </c>
       <c r="B241" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C241" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D241" t="s">
         <v>31</v>
@@ -26324,15 +26347,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" hidden="1" spans="1:9">
       <c r="A242" s="2">
         <v>3369</v>
       </c>
       <c r="B242" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C242" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D242" t="s">
         <v>223</v>
@@ -26350,15 +26373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" hidden="1" spans="1:9">
       <c r="A243" s="2">
         <v>3370</v>
       </c>
       <c r="B243" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C243" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D243" t="s">
         <v>24</v>
@@ -26381,10 +26404,10 @@
         <v>3371</v>
       </c>
       <c r="B244" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D244" t="s">
         <v>31</v>
@@ -26402,15 +26425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" hidden="1" spans="1:9">
       <c r="A245" s="2">
         <v>3372</v>
       </c>
       <c r="B245" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C245" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D245" t="s">
         <v>72</v>
@@ -26428,18 +26451,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" hidden="1" spans="1:9">
       <c r="A246" s="2">
         <v>3373</v>
       </c>
       <c r="B246" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C246" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D246" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F246" s="3">
         <v>10</v>
@@ -26454,18 +26477,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" hidden="1" spans="1:9">
       <c r="A247" s="2">
         <v>3374</v>
       </c>
       <c r="B247" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C247" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D247" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F247" s="3">
         <v>10</v>
@@ -26485,10 +26508,10 @@
         <v>3375</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C248" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D248" t="s">
         <v>31</v>
@@ -26506,15 +26529,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" hidden="1" spans="1:9">
       <c r="A249" s="2">
         <v>3376</v>
       </c>
       <c r="B249" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C249" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D249" t="s">
         <v>24</v>
@@ -26532,15 +26555,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" hidden="1" spans="1:9">
       <c r="A250" s="2">
         <v>3377</v>
       </c>
       <c r="B250" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C250" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D250" t="s">
         <v>24</v>
@@ -26558,15 +26581,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" hidden="1" spans="1:9">
       <c r="A251" s="2">
         <v>3378</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C251" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D251" t="s">
         <v>72</v>
@@ -26584,15 +26607,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" hidden="1" spans="1:9">
       <c r="A252" s="2">
         <v>3379</v>
       </c>
       <c r="B252" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C252" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D252" t="s">
         <v>82</v>
@@ -26611,15 +26634,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" hidden="1" spans="1:9">
       <c r="A253" s="2">
         <v>3380</v>
       </c>
       <c r="B253" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C253" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D253" t="s">
         <v>72</v>
@@ -26638,15 +26661,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" hidden="1" spans="1:9">
       <c r="A254" s="2">
         <v>3381</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C254" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D254" t="s">
         <v>28</v>
@@ -26665,15 +26688,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" hidden="1" spans="1:9">
       <c r="A255" s="2">
         <v>3382</v>
       </c>
       <c r="B255" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C255" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D255" t="s">
         <v>72</v>
@@ -26692,15 +26715,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" hidden="1" spans="1:9">
       <c r="A256" s="2">
         <v>3383</v>
       </c>
       <c r="B256" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C256" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D256" t="s">
         <v>24</v>
@@ -26719,15 +26742,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" hidden="1" spans="1:9">
       <c r="A257" s="2">
         <v>3384</v>
       </c>
       <c r="B257" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C257" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D257" t="s">
         <v>24</v>
@@ -26746,15 +26769,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" hidden="1" spans="1:9">
       <c r="A258" s="2">
         <v>3385</v>
       </c>
       <c r="B258" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C258" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D258" t="s">
         <v>28</v>
@@ -26773,15 +26796,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" hidden="1" spans="1:9">
       <c r="A259" s="2">
         <v>3386</v>
       </c>
       <c r="B259" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C259" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D259" t="s">
         <v>24</v>
@@ -26805,10 +26828,10 @@
         <v>3387</v>
       </c>
       <c r="B260" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C260" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D260" t="s">
         <v>31</v>
@@ -26827,15 +26850,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" hidden="1" spans="1:9">
       <c r="A261" s="2">
         <v>3388</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C261" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D261" t="s">
         <v>28</v>
@@ -26859,10 +26882,10 @@
         <v>3389</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C262" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D262" t="s">
         <v>31</v>
@@ -26881,18 +26904,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" hidden="1" spans="1:9">
       <c r="A263" s="2">
         <v>3390</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C263" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D263" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E263" s="3"/>
       <c r="F263" s="3">
@@ -26908,15 +26931,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" hidden="1" spans="1:9">
       <c r="A264" s="2">
         <v>3391</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C264" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D264" t="s">
         <v>28</v>
@@ -26940,10 +26963,10 @@
         <v>3392</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C265" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D265" t="s">
         <v>31</v>
@@ -26967,10 +26990,10 @@
         <v>3393</v>
       </c>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C266" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D266" t="s">
         <v>31</v>
@@ -26989,18 +27012,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" hidden="1" spans="1:9">
       <c r="A267" s="2">
         <v>3394</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C267" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D267" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E267" s="3"/>
       <c r="F267" s="3">
@@ -27016,15 +27039,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" hidden="1" spans="1:9">
       <c r="A268" s="2">
         <v>3395</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C268" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D268" t="s">
         <v>72</v>
@@ -27043,15 +27066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" hidden="1" spans="1:9">
       <c r="A269" s="2">
         <v>3396</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C269" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D269" t="s">
         <v>24</v>
@@ -27070,15 +27093,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" hidden="1" spans="1:9">
       <c r="A270" s="2">
         <v>3397</v>
       </c>
       <c r="B270" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C270" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D270" t="s">
         <v>24</v>
@@ -27097,18 +27120,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" hidden="1" spans="1:9">
       <c r="A271" s="2">
         <v>3398</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C271" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D271" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E271" s="3"/>
       <c r="F271" s="3">
@@ -27129,10 +27152,10 @@
         <v>3399</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C272" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D272" t="s">
         <v>31</v>
@@ -27156,10 +27179,10 @@
         <v>3400</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C273" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D273" t="s">
         <v>31</v>
@@ -27178,15 +27201,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" hidden="1" spans="1:9">
       <c r="A274" s="2">
         <v>3401</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D274" t="s">
         <v>28</v>
@@ -27205,15 +27228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" hidden="1" spans="1:9">
       <c r="A275" s="2">
         <v>3402</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C275" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D275" t="s">
         <v>24</v>
@@ -27232,15 +27255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" hidden="1" spans="1:9">
       <c r="A276" s="2">
         <v>3403</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D276" t="s">
         <v>28</v>
@@ -27259,15 +27282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" hidden="1" spans="1:9">
       <c r="A277" s="2">
         <v>3404</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D277" t="s">
         <v>28</v>
@@ -27286,15 +27309,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" hidden="1" spans="1:9">
       <c r="A278" s="2">
         <v>3405</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D278" t="s">
         <v>28</v>
@@ -27313,15 +27336,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" hidden="1" spans="1:9">
       <c r="A279" s="2">
         <v>3406</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D279" t="s">
         <v>24</v>
@@ -27339,15 +27362,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" hidden="1" spans="1:9">
       <c r="A280" s="2">
         <v>3407</v>
       </c>
       <c r="B280" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C280" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D280" t="s">
         <v>28</v>
@@ -27370,10 +27393,10 @@
         <v>3408</v>
       </c>
       <c r="B281" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C281" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D281" t="s">
         <v>31</v>
@@ -27391,7 +27414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" hidden="1" spans="1:9">
       <c r="A282" s="2">
         <v>3409</v>
       </c>
@@ -27399,7 +27422,7 @@
         <v>226</v>
       </c>
       <c r="C282" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D282" t="s">
         <v>28</v>
@@ -27422,10 +27445,10 @@
         <v>3410</v>
       </c>
       <c r="B283" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C283" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D283" t="s">
         <v>31</v>
@@ -27448,10 +27471,10 @@
         <v>3411</v>
       </c>
       <c r="B284" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C284" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D284" t="s">
         <v>31</v>
@@ -27469,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" hidden="1" spans="1:9">
       <c r="A285" s="2">
         <v>3412</v>
       </c>
@@ -27477,7 +27500,7 @@
         <v>226</v>
       </c>
       <c r="C285" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D285" t="s">
         <v>28</v>
@@ -27495,7 +27518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" hidden="1" spans="1:9">
       <c r="A286" s="2">
         <v>3413</v>
       </c>
@@ -27503,7 +27526,7 @@
         <v>224</v>
       </c>
       <c r="C286" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D286" t="s">
         <v>82</v>
@@ -27521,15 +27544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" hidden="1" spans="1:9">
       <c r="A287" s="2">
         <v>3414</v>
       </c>
       <c r="B287" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C287" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D287" t="s">
         <v>24</v>
@@ -27547,15 +27570,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" hidden="1" spans="1:9">
       <c r="A288" s="2">
         <v>3415</v>
       </c>
       <c r="B288" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D288" t="s">
         <v>24</v>
@@ -27573,7 +27596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" hidden="1" spans="1:9">
       <c r="A289" s="2">
         <v>3416</v>
       </c>
@@ -27581,7 +27604,7 @@
         <v>226</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D289" t="s">
         <v>228</v>
@@ -27599,15 +27622,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" hidden="1" spans="1:9">
       <c r="A290" s="2">
         <v>3417</v>
       </c>
       <c r="B290" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C290" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D290" t="s">
         <v>72</v>
@@ -27625,15 +27648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" hidden="1" spans="1:9">
       <c r="A291" s="2">
         <v>3418</v>
       </c>
       <c r="B291" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C291" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D291" t="s">
         <v>72</v>
@@ -27651,15 +27674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" hidden="1" spans="1:9">
       <c r="A292" s="2">
         <v>3419</v>
       </c>
       <c r="B292" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C292" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D292" t="s">
         <v>24</v>
@@ -27677,15 +27700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" hidden="1" spans="1:9">
       <c r="A293" s="2">
         <v>3420</v>
       </c>
       <c r="B293" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C293" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D293" t="s">
         <v>72</v>
@@ -27703,18 +27726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" hidden="1" spans="1:9">
       <c r="A294" s="2">
         <v>3421</v>
       </c>
       <c r="B294" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C294" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D294" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F294" s="3">
         <v>40</v>
@@ -27729,15 +27752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" hidden="1" spans="1:9">
       <c r="A295" s="2">
         <v>3422</v>
       </c>
       <c r="B295" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C295" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D295" t="s">
         <v>24</v>
@@ -27755,15 +27778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" hidden="1" spans="1:9">
       <c r="A296" s="2">
         <v>3423</v>
       </c>
       <c r="B296" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C296" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D296" t="s">
         <v>72</v>
@@ -27781,15 +27804,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" hidden="1" spans="1:9">
       <c r="A297" s="2">
         <v>3424</v>
       </c>
       <c r="B297" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C297" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D297" t="s">
         <v>24</v>
@@ -27812,10 +27835,10 @@
         <v>3425</v>
       </c>
       <c r="B298" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C298" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D298" t="s">
         <v>31</v>
@@ -27833,15 +27856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" hidden="1" spans="1:9">
       <c r="A299" s="2">
         <v>3426</v>
       </c>
       <c r="B299" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C299" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D299" t="s">
         <v>72</v>
@@ -27859,15 +27882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" hidden="1" spans="1:9">
       <c r="A300" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B300" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C300" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D300" t="s">
         <v>24</v>
@@ -27885,15 +27908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" hidden="1" spans="1:9">
       <c r="A301" s="2">
         <v>3428</v>
       </c>
       <c r="B301" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C301" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D301" t="s">
         <v>24</v>
@@ -27911,15 +27934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" hidden="1" spans="1:9">
       <c r="A302" s="2">
         <v>3429</v>
       </c>
       <c r="B302" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C302" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D302" t="s">
         <v>72</v>
@@ -27937,7 +27960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" hidden="1" spans="1:9">
       <c r="A303" s="2">
         <v>3430</v>
       </c>
@@ -27945,7 +27968,7 @@
         <v>224</v>
       </c>
       <c r="C303" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D303" t="s">
         <v>110</v>
@@ -27963,7 +27986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" hidden="1" spans="1:9">
       <c r="A304" s="2">
         <v>3431</v>
       </c>
@@ -27971,7 +27994,7 @@
         <v>226</v>
       </c>
       <c r="C304" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D304" t="s">
         <v>28</v>
@@ -27989,7 +28012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" hidden="1" spans="1:9">
       <c r="A305" s="2">
         <v>3432</v>
       </c>
@@ -27997,7 +28020,7 @@
         <v>226</v>
       </c>
       <c r="C305" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D305" t="s">
         <v>28</v>
@@ -28020,10 +28043,10 @@
         <v>3433</v>
       </c>
       <c r="B306" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C306" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D306" t="s">
         <v>31</v>
@@ -28041,15 +28064,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" hidden="1" spans="1:9">
       <c r="A307" s="2">
         <v>3434</v>
       </c>
       <c r="B307" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C307" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D307" t="s">
         <v>72</v>
@@ -28067,15 +28090,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" hidden="1" spans="1:9">
       <c r="A308" s="2">
         <v>3435</v>
       </c>
       <c r="B308" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C308" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D308" t="s">
         <v>72</v>
@@ -28093,7 +28116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" hidden="1" spans="1:9">
       <c r="A309" s="2">
         <v>3436</v>
       </c>
@@ -28101,7 +28124,7 @@
         <v>86</v>
       </c>
       <c r="C309" t="s">
-        <v>94</v>
+        <v>388</v>
       </c>
       <c r="D309" t="s">
         <v>24</v>
@@ -28119,7 +28142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" hidden="1" spans="1:9">
       <c r="A310" s="2">
         <v>3437</v>
       </c>
@@ -28127,7 +28150,7 @@
         <v>84</v>
       </c>
       <c r="C310" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D310" t="s">
         <v>28</v>
@@ -28145,7 +28168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" hidden="1" spans="1:9">
       <c r="A311" s="2">
         <v>3439</v>
       </c>
@@ -28153,7 +28176,7 @@
         <v>84</v>
       </c>
       <c r="C311" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D311" t="s">
         <v>28</v>
@@ -28171,15 +28194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" hidden="1" spans="1:9">
       <c r="A312" s="2">
         <v>3441</v>
       </c>
       <c r="B312" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C312" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D312" t="s">
         <v>24</v>
@@ -28223,10 +28246,22 @@
     </row>
     <row r="687" spans="8:8">
       <c r="H687" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V312">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Talla 38C"/>
+        <filter val="Talla 36D"/>
+        <filter val="Talla grande"/>
+        <filter val="Talla M/L"/>
+        <filter val="Talla L"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="B1">
     <cfRule type="expression" dxfId="0" priority="91">
       <formula>$J1=0</formula>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12580"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1204,13 +1204,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1264,7 +1264,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,30 +1302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,26 +1316,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1347,6 +1347,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1354,15 +1362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1383,17 +1385,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,19 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,13 +1438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,7 +1480,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,79 +1540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,13 +1588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,24 +1672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1705,6 +1687,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1716,6 +1707,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,142 +1774,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1932,7 +1932,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1953,13 +1953,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2304,13 +2304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:XEX687"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18755,7 +18755,7 @@
       <c r="XEW1" s="15"/>
       <c r="XEX1" s="15"/>
     </row>
-    <row r="2" hidden="1" spans="1:22">
+    <row r="2" spans="1:22">
       <c r="A2" s="8">
         <v>3141</v>
       </c>
@@ -18790,7 +18790,7 @@
       <c r="Q2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" hidden="1" spans="1:22">
+    <row r="3" spans="1:22">
       <c r="A3" s="8">
         <v>3142</v>
       </c>
@@ -18825,7 +18825,7 @@
       <c r="Q3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" hidden="1" spans="1:22">
+    <row r="4" spans="1:22">
       <c r="A4" s="8">
         <v>3143</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="Q5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" hidden="1" spans="1:22">
+    <row r="6" spans="1:22">
       <c r="A6" s="8">
         <v>3145</v>
       </c>
@@ -18912,14 +18912,14 @@
         <v>35</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="3"/>
       <c r="O6" s="3">
@@ -18965,7 +18965,7 @@
       <c r="Q7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" hidden="1" spans="1:22">
+    <row r="8" spans="1:22">
       <c r="A8" s="8">
         <v>3147</v>
       </c>
@@ -19000,7 +19000,7 @@
       <c r="Q8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" hidden="1" spans="1:22">
+    <row r="9" spans="1:22">
       <c r="A9" s="8">
         <v>3148</v>
       </c>
@@ -19035,7 +19035,7 @@
       <c r="Q9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" hidden="1" spans="1:22">
+    <row r="10" spans="1:22">
       <c r="A10" s="8">
         <v>3149</v>
       </c>
@@ -19070,7 +19070,7 @@
       <c r="Q10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" hidden="1" spans="1:22">
+    <row r="11" spans="1:22">
       <c r="A11" s="8">
         <v>3150</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="Q11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" hidden="1" spans="1:22">
+    <row r="12" spans="1:22">
       <c r="A12" s="8">
         <v>3151</v>
       </c>
@@ -19122,14 +19122,14 @@
         <v>35</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3"/>
       <c r="O12" s="3">
@@ -19140,7 +19140,7 @@
       <c r="Q12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" hidden="1" spans="1:22">
+    <row r="13" spans="1:22">
       <c r="A13" s="8">
         <v>3152</v>
       </c>
@@ -19175,7 +19175,7 @@
       <c r="Q13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" hidden="1" spans="1:22">
+    <row r="14" spans="1:22">
       <c r="A14" s="8">
         <v>3153</v>
       </c>
@@ -19245,7 +19245,7 @@
       <c r="Q15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" hidden="1" spans="1:22">
+    <row r="16" spans="1:22">
       <c r="A16" s="8">
         <v>3155</v>
       </c>
@@ -19280,7 +19280,7 @@
       <c r="Q16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" hidden="1" spans="1:22">
+    <row r="17" spans="1:22">
       <c r="A17" s="8">
         <v>3156</v>
       </c>
@@ -19350,7 +19350,7 @@
       <c r="Q18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" hidden="1" spans="1:22">
+    <row r="19" spans="1:22">
       <c r="A19" s="8">
         <v>3158</v>
       </c>
@@ -19385,7 +19385,7 @@
       <c r="Q19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" hidden="1" spans="1:22">
+    <row r="20" spans="1:22">
       <c r="A20" s="8">
         <v>3159</v>
       </c>
@@ -19420,7 +19420,7 @@
       <c r="Q20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" hidden="1" spans="1:22">
+    <row r="21" spans="1:22">
       <c r="A21" s="8">
         <v>3160</v>
       </c>
@@ -19455,7 +19455,7 @@
       <c r="Q21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" hidden="1" spans="1:22">
+    <row r="22" spans="1:22">
       <c r="A22" s="8">
         <v>3161</v>
       </c>
@@ -19490,7 +19490,7 @@
       <c r="Q22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" hidden="1" spans="1:22">
+    <row r="23" spans="1:22">
       <c r="A23" s="8">
         <v>3162</v>
       </c>
@@ -19525,7 +19525,7 @@
       <c r="Q23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" hidden="1" spans="1:22">
+    <row r="24" spans="1:22">
       <c r="A24" s="8">
         <v>3163</v>
       </c>
@@ -19560,7 +19560,7 @@
       <c r="Q24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" hidden="1" spans="1:22">
+    <row r="25" spans="1:22">
       <c r="A25" s="8">
         <v>3164</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="Q26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" hidden="1" spans="1:22">
+    <row r="27" spans="1:22">
       <c r="A27" s="8">
         <v>3166</v>
       </c>
@@ -19665,7 +19665,7 @@
       <c r="Q27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" hidden="1" spans="1:22">
+    <row r="28" spans="1:22">
       <c r="A28" s="8">
         <v>3167</v>
       </c>
@@ -19700,7 +19700,7 @@
       <c r="Q28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" hidden="1" spans="1:22">
+    <row r="29" spans="1:22">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -19735,7 +19735,7 @@
       <c r="Q29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" hidden="1" spans="1:22">
+    <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
@@ -19770,7 +19770,7 @@
       <c r="Q30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" hidden="1" spans="1:22">
+    <row r="31" spans="1:22">
       <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
@@ -19910,7 +19910,7 @@
       <c r="Q34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" hidden="1" spans="1:21">
+    <row r="35" spans="1:21">
       <c r="A35" s="8">
         <v>3174</v>
       </c>
@@ -19944,7 +19944,7 @@
       <c r="P35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" hidden="1" spans="1:21">
+    <row r="36" spans="1:21">
       <c r="A36" s="8">
         <v>3175</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="P36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" hidden="1" spans="1:21">
+    <row r="37" spans="1:21">
       <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
@@ -20012,7 +20012,7 @@
       <c r="P37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" hidden="1" spans="1:21">
+    <row r="38" spans="1:21">
       <c r="A38" s="8">
         <v>3177</v>
       </c>
@@ -20046,7 +20046,7 @@
       <c r="P38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" hidden="1" spans="1:21">
+    <row r="39" spans="1:21">
       <c r="A39" s="8">
         <v>3178</v>
       </c>
@@ -20080,7 +20080,7 @@
       <c r="P39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" hidden="1" spans="1:21">
+    <row r="40" spans="1:21">
       <c r="A40" s="8">
         <v>3179</v>
       </c>
@@ -20114,7 +20114,7 @@
       <c r="P40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" hidden="1" spans="1:21">
+    <row r="41" spans="1:21">
       <c r="A41" s="8">
         <v>3180</v>
       </c>
@@ -20182,7 +20182,7 @@
       <c r="P42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" hidden="1" spans="1:21">
+    <row r="43" spans="1:21">
       <c r="A43" s="8">
         <v>3182</v>
       </c>
@@ -20216,7 +20216,7 @@
       <c r="P43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" hidden="1" spans="1:16">
+    <row r="44" spans="1:16">
       <c r="A44" s="8">
         <v>3183</v>
       </c>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="P44"/>
     </row>
-    <row r="45" hidden="1" spans="1:16">
+    <row r="45" spans="1:16">
       <c r="A45" s="8">
         <v>3184</v>
       </c>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="P45"/>
     </row>
-    <row r="46" hidden="1" spans="1:16">
+    <row r="46" spans="1:16">
       <c r="A46" s="8">
         <v>3185</v>
       </c>
@@ -20312,7 +20312,7 @@
       </c>
       <c r="P46"/>
     </row>
-    <row r="47" hidden="1" spans="1:16">
+    <row r="47" spans="1:16">
       <c r="A47" s="8">
         <v>3186</v>
       </c>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="P49"/>
     </row>
-    <row r="50" hidden="1" spans="1:16">
+    <row r="50" spans="1:16">
       <c r="A50" s="8">
         <v>3189</v>
       </c>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="P50"/>
     </row>
-    <row r="51" hidden="1" spans="1:16">
+    <row r="51" spans="1:16">
       <c r="A51" s="8">
         <v>3190</v>
       </c>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="P51"/>
     </row>
-    <row r="52" hidden="1" spans="1:16">
+    <row r="52" spans="1:16">
       <c r="A52" s="8">
         <v>3191</v>
       </c>
@@ -20503,7 +20503,7 @@
       </c>
       <c r="P52"/>
     </row>
-    <row r="53" hidden="1" spans="1:16">
+    <row r="53" spans="1:16">
       <c r="A53" s="8">
         <v>3192</v>
       </c>
@@ -20567,7 +20567,7 @@
       </c>
       <c r="P54"/>
     </row>
-    <row r="55" hidden="1" spans="1:16">
+    <row r="55" spans="1:16">
       <c r="A55" s="8">
         <v>3194</v>
       </c>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="P55"/>
     </row>
-    <row r="56" hidden="1" spans="1:16">
+    <row r="56" spans="1:16">
       <c r="A56" s="8">
         <v>3195</v>
       </c>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="P56"/>
     </row>
-    <row r="57" hidden="1" spans="1:16">
+    <row r="57" spans="1:16">
       <c r="A57" s="8">
         <v>3196</v>
       </c>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="P58"/>
     </row>
-    <row r="59" hidden="1" spans="1:16">
+    <row r="59" spans="1:16">
       <c r="A59" s="8">
         <v>3198</v>
       </c>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="P59"/>
     </row>
-    <row r="60" hidden="1" spans="1:16">
+    <row r="60" spans="1:16">
       <c r="A60" s="8">
         <v>3199</v>
       </c>
@@ -20759,7 +20759,7 @@
       </c>
       <c r="P60"/>
     </row>
-    <row r="61" hidden="1" spans="1:16">
+    <row r="61" spans="1:16">
       <c r="A61" s="8">
         <v>3200</v>
       </c>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="P62"/>
     </row>
-    <row r="63" hidden="1" spans="1:16">
+    <row r="63" spans="1:16">
       <c r="A63" s="8">
         <v>3202</v>
       </c>
@@ -20855,7 +20855,7 @@
       </c>
       <c r="P63"/>
     </row>
-    <row r="64" hidden="1" spans="1:16">
+    <row r="64" spans="1:16">
       <c r="A64" s="8">
         <v>3203</v>
       </c>
@@ -20887,7 +20887,7 @@
       </c>
       <c r="P64"/>
     </row>
-    <row r="65" hidden="1" spans="1:16">
+    <row r="65" spans="1:16">
       <c r="A65" s="8">
         <v>3204</v>
       </c>
@@ -20919,7 +20919,7 @@
       </c>
       <c r="P65"/>
     </row>
-    <row r="66" hidden="1" spans="1:16">
+    <row r="66" spans="1:16">
       <c r="A66" s="8">
         <v>3205</v>
       </c>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="P67"/>
     </row>
-    <row r="68" hidden="1" spans="1:16">
+    <row r="68" spans="1:16">
       <c r="A68" s="8">
         <v>3207</v>
       </c>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="P68"/>
     </row>
-    <row r="69" hidden="1" spans="1:16">
+    <row r="69" spans="1:16">
       <c r="A69" s="8">
         <v>3208</v>
       </c>
@@ -21047,7 +21047,7 @@
       </c>
       <c r="P69"/>
     </row>
-    <row r="70" hidden="1" spans="1:16">
+    <row r="70" spans="1:16">
       <c r="A70" s="8">
         <v>3209</v>
       </c>
@@ -21111,7 +21111,7 @@
       </c>
       <c r="P71"/>
     </row>
-    <row r="72" hidden="1" spans="1:16">
+    <row r="72" spans="1:16">
       <c r="A72" s="8">
         <v>3211</v>
       </c>
@@ -21143,7 +21143,7 @@
       </c>
       <c r="P72"/>
     </row>
-    <row r="73" hidden="1" spans="1:16">
+    <row r="73" spans="1:16">
       <c r="A73" s="8">
         <v>3212</v>
       </c>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="P73"/>
     </row>
-    <row r="74" hidden="1" spans="1:16">
+    <row r="74" spans="1:16">
       <c r="A74" s="8">
         <v>3213</v>
       </c>
@@ -21207,7 +21207,7 @@
       </c>
       <c r="P74"/>
     </row>
-    <row r="75" hidden="1" spans="1:16">
+    <row r="75" spans="1:16">
       <c r="A75" s="8">
         <v>3214</v>
       </c>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="P75"/>
     </row>
-    <row r="76" hidden="1" spans="1:16">
+    <row r="76" spans="1:16">
       <c r="A76" s="8">
         <v>3215</v>
       </c>
@@ -21271,7 +21271,7 @@
       </c>
       <c r="P76"/>
     </row>
-    <row r="77" hidden="1" spans="1:16">
+    <row r="77" spans="1:16">
       <c r="A77" s="8">
         <v>3216</v>
       </c>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="P78"/>
     </row>
-    <row r="79" hidden="1" spans="1:16">
+    <row r="79" spans="1:16">
       <c r="A79" s="8">
         <v>3218</v>
       </c>
@@ -21367,7 +21367,7 @@
       </c>
       <c r="P79"/>
     </row>
-    <row r="80" hidden="1" spans="1:16">
+    <row r="80" spans="1:16">
       <c r="A80" s="8">
         <v>3219</v>
       </c>
@@ -21399,7 +21399,7 @@
       </c>
       <c r="P80"/>
     </row>
-    <row r="81" hidden="1" spans="1:16">
+    <row r="81" spans="1:16">
       <c r="A81" s="8">
         <v>3220</v>
       </c>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="P81"/>
     </row>
-    <row r="82" hidden="1" spans="1:16">
+    <row r="82" spans="1:16">
       <c r="A82" s="8">
         <v>3221</v>
       </c>
@@ -21463,7 +21463,7 @@
       </c>
       <c r="P82"/>
     </row>
-    <row r="83" hidden="1" spans="1:16">
+    <row r="83" spans="1:16">
       <c r="A83" s="8">
         <v>3222</v>
       </c>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="P83"/>
     </row>
-    <row r="84" hidden="1" spans="1:16">
+    <row r="84" spans="1:16">
       <c r="A84" s="8">
         <v>3223</v>
       </c>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="P85"/>
     </row>
-    <row r="86" hidden="1" spans="1:16">
+    <row r="86" spans="1:16">
       <c r="A86" s="8">
         <v>3225</v>
       </c>
@@ -21623,7 +21623,7 @@
       </c>
       <c r="P87"/>
     </row>
-    <row r="88" hidden="1" spans="1:16">
+    <row r="88" spans="1:16">
       <c r="A88" s="8">
         <v>3227</v>
       </c>
@@ -21655,7 +21655,7 @@
       </c>
       <c r="P88"/>
     </row>
-    <row r="89" hidden="1" spans="1:16">
+    <row r="89" spans="1:16">
       <c r="A89" s="8">
         <v>3228</v>
       </c>
@@ -21751,7 +21751,7 @@
       </c>
       <c r="P91"/>
     </row>
-    <row r="92" hidden="1" spans="1:16">
+    <row r="92" spans="1:16">
       <c r="A92" s="8">
         <v>3231</v>
       </c>
@@ -21783,7 +21783,7 @@
       </c>
       <c r="P92"/>
     </row>
-    <row r="93" hidden="1" spans="1:16">
+    <row r="93" spans="1:16">
       <c r="A93" s="8">
         <v>3232</v>
       </c>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="P93"/>
     </row>
-    <row r="94" hidden="1" spans="1:16">
+    <row r="94" spans="1:16">
       <c r="A94" s="8">
         <v>3233</v>
       </c>
@@ -21847,7 +21847,7 @@
       </c>
       <c r="P94"/>
     </row>
-    <row r="95" hidden="1" spans="1:16">
+    <row r="95" spans="1:16">
       <c r="A95" s="8">
         <v>3234</v>
       </c>
@@ -21879,7 +21879,7 @@
       </c>
       <c r="P95"/>
     </row>
-    <row r="96" hidden="1" spans="1:16">
+    <row r="96" spans="1:16">
       <c r="A96" s="8">
         <v>3235</v>
       </c>
@@ -21911,7 +21911,7 @@
       </c>
       <c r="P96"/>
     </row>
-    <row r="97" hidden="1" spans="1:16">
+    <row r="97" spans="1:16">
       <c r="A97" s="8">
         <v>3236</v>
       </c>
@@ -21943,7 +21943,7 @@
       </c>
       <c r="P97"/>
     </row>
-    <row r="98" hidden="1" spans="1:16">
+    <row r="98" spans="1:16">
       <c r="A98" s="8">
         <v>3237</v>
       </c>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="P98"/>
     </row>
-    <row r="99" hidden="1" spans="1:16">
+    <row r="99" spans="1:16">
       <c r="A99" s="8">
         <v>3238</v>
       </c>
@@ -22007,7 +22007,7 @@
       </c>
       <c r="P99"/>
     </row>
-    <row r="100" hidden="1" spans="1:16">
+    <row r="100" spans="1:16">
       <c r="A100" s="8">
         <v>3239</v>
       </c>
@@ -22039,7 +22039,7 @@
       </c>
       <c r="P100"/>
     </row>
-    <row r="101" hidden="1" spans="1:16">
+    <row r="101" spans="1:16">
       <c r="A101" s="8">
         <v>3240</v>
       </c>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="P101"/>
     </row>
-    <row r="102" hidden="1" spans="1:16">
+    <row r="102" spans="1:16">
       <c r="A102" s="8">
         <v>3241</v>
       </c>
@@ -22103,7 +22103,7 @@
       </c>
       <c r="P102"/>
     </row>
-    <row r="103" hidden="1" spans="1:16">
+    <row r="103" spans="1:16">
       <c r="A103" s="8">
         <v>3242</v>
       </c>
@@ -22135,7 +22135,7 @@
       </c>
       <c r="P103"/>
     </row>
-    <row r="104" hidden="1" spans="1:16">
+    <row r="104" spans="1:16">
       <c r="A104" s="8">
         <v>3243</v>
       </c>
@@ -22167,7 +22167,7 @@
       </c>
       <c r="P104"/>
     </row>
-    <row r="105" hidden="1" spans="1:16">
+    <row r="105" spans="1:16">
       <c r="A105" s="8">
         <v>3244</v>
       </c>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="P106"/>
     </row>
-    <row r="107" hidden="1" spans="1:16">
+    <row r="107" spans="1:16">
       <c r="A107" s="8">
         <v>3246</v>
       </c>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="P108"/>
     </row>
-    <row r="109" hidden="1" spans="1:16">
+    <row r="109" spans="1:16">
       <c r="A109" s="8">
         <v>3248</v>
       </c>
@@ -22327,7 +22327,7 @@
       </c>
       <c r="P109"/>
     </row>
-    <row r="110" hidden="1" spans="1:16">
+    <row r="110" spans="1:16">
       <c r="A110" s="8">
         <v>3249</v>
       </c>
@@ -22391,7 +22391,7 @@
       </c>
       <c r="P111"/>
     </row>
-    <row r="112" hidden="1" spans="1:16">
+    <row r="112" spans="1:16">
       <c r="A112" s="8">
         <v>3251</v>
       </c>
@@ -22423,7 +22423,7 @@
       </c>
       <c r="P112"/>
     </row>
-    <row r="113" hidden="1" spans="1:16">
+    <row r="113" spans="1:16">
       <c r="A113" s="8">
         <v>3253</v>
       </c>
@@ -22454,7 +22454,7 @@
       </c>
       <c r="P113"/>
     </row>
-    <row r="114" hidden="1" spans="1:16">
+    <row r="114" spans="1:16">
       <c r="A114" s="8">
         <v>3254</v>
       </c>
@@ -22486,7 +22486,7 @@
       </c>
       <c r="P114"/>
     </row>
-    <row r="115" hidden="1" spans="1:16">
+    <row r="115" spans="1:16">
       <c r="A115" s="8">
         <v>3255</v>
       </c>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="P115"/>
     </row>
-    <row r="116" hidden="1" spans="1:16">
+    <row r="116" spans="1:16">
       <c r="A116" s="8">
         <v>3256</v>
       </c>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="P117"/>
     </row>
-    <row r="118" hidden="1" spans="1:16">
+    <row r="118" spans="1:16">
       <c r="A118" s="8">
         <v>3258</v>
       </c>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="P118"/>
     </row>
-    <row r="119" hidden="1" spans="1:16">
+    <row r="119" spans="1:16">
       <c r="A119" s="8">
         <v>3259</v>
       </c>
@@ -22646,7 +22646,7 @@
       </c>
       <c r="P119"/>
     </row>
-    <row r="120" hidden="1" spans="1:16">
+    <row r="120" spans="1:16">
       <c r="A120" s="8">
         <v>3260</v>
       </c>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="P122"/>
     </row>
-    <row r="123" hidden="1" spans="1:16">
+    <row r="123" spans="1:16">
       <c r="A123" s="8">
         <v>3263</v>
       </c>
@@ -22774,7 +22774,7 @@
       </c>
       <c r="P123"/>
     </row>
-    <row r="124" hidden="1" spans="1:16">
+    <row r="124" spans="1:16">
       <c r="A124" s="8">
         <v>3264</v>
       </c>
@@ -22806,7 +22806,7 @@
       </c>
       <c r="P124"/>
     </row>
-    <row r="125" hidden="1" spans="1:16">
+    <row r="125" spans="1:16">
       <c r="A125" s="8">
         <v>3265</v>
       </c>
@@ -22838,7 +22838,7 @@
       </c>
       <c r="P125"/>
     </row>
-    <row r="126" hidden="1" spans="1:16">
+    <row r="126" spans="1:16">
       <c r="A126" s="8">
         <v>3266</v>
       </c>
@@ -22902,7 +22902,7 @@
       </c>
       <c r="P127"/>
     </row>
-    <row r="128" hidden="1" spans="1:16">
+    <row r="128" spans="1:16">
       <c r="A128" s="8">
         <v>3268</v>
       </c>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="P128"/>
     </row>
-    <row r="129" hidden="1" spans="1:16">
+    <row r="129" spans="1:16">
       <c r="A129" s="8">
         <v>3269</v>
       </c>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="P129"/>
     </row>
-    <row r="130" hidden="1" spans="1:16">
+    <row r="130" spans="1:16">
       <c r="A130" s="8">
         <v>3270</v>
       </c>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="P130" s="16"/>
     </row>
-    <row r="131" hidden="1" spans="1:16">
+    <row r="131" spans="1:16">
       <c r="A131" s="8">
         <v>3271</v>
       </c>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="P131" s="16"/>
     </row>
-    <row r="132" hidden="1" spans="1:16">
+    <row r="132" spans="1:16">
       <c r="A132" s="8">
         <v>3272</v>
       </c>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="P132" s="16"/>
     </row>
-    <row r="133" hidden="1" spans="1:16">
+    <row r="133" spans="1:16">
       <c r="A133" s="8">
         <v>3273</v>
       </c>
@@ -23126,7 +23126,7 @@
       </c>
       <c r="P134" s="16"/>
     </row>
-    <row r="135" hidden="1" spans="1:16">
+    <row r="135" spans="1:16">
       <c r="A135" s="8">
         <v>3275</v>
       </c>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="P135" s="16"/>
     </row>
-    <row r="136" hidden="1" spans="1:16">
+    <row r="136" spans="1:16">
       <c r="A136" s="8">
         <v>3276</v>
       </c>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="P136" s="16"/>
     </row>
-    <row r="137" hidden="1" spans="1:16">
+    <row r="137" spans="1:16">
       <c r="A137" s="8">
         <v>3277</v>
       </c>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="P138" s="16"/>
     </row>
-    <row r="139" hidden="1" spans="1:16">
+    <row r="139" spans="1:16">
       <c r="A139" s="8">
         <v>3279</v>
       </c>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="P139" s="16"/>
     </row>
-    <row r="140" hidden="1" spans="1:16">
+    <row r="140" spans="1:16">
       <c r="A140" s="8" t="s">
         <v>196</v>
       </c>
@@ -23318,7 +23318,7 @@
       </c>
       <c r="P140" s="16"/>
     </row>
-    <row r="141" hidden="1" spans="1:16">
+    <row r="141" spans="1:16">
       <c r="A141" s="8" t="s">
         <v>198</v>
       </c>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="P141" s="16"/>
     </row>
-    <row r="142" hidden="1" spans="1:16">
+    <row r="142" spans="1:16">
       <c r="A142" s="8" t="s">
         <v>200</v>
       </c>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="P142" s="16"/>
     </row>
-    <row r="143" hidden="1" spans="1:16">
+    <row r="143" spans="1:16">
       <c r="A143" s="8" t="s">
         <v>202</v>
       </c>
@@ -23414,7 +23414,7 @@
       </c>
       <c r="P143" s="16"/>
     </row>
-    <row r="144" hidden="1" spans="1:16">
+    <row r="144" spans="1:16">
       <c r="A144" s="8" t="s">
         <v>204</v>
       </c>
@@ -23446,7 +23446,7 @@
       </c>
       <c r="P144" s="16"/>
     </row>
-    <row r="145" hidden="1" spans="1:16">
+    <row r="145" spans="1:16">
       <c r="A145" s="8" t="s">
         <v>207</v>
       </c>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="P145" s="16"/>
     </row>
-    <row r="146" hidden="1" spans="1:16">
+    <row r="146" spans="1:16">
       <c r="A146" s="8" t="s">
         <v>209</v>
       </c>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="P146" s="16"/>
     </row>
-    <row r="147" hidden="1" spans="1:16">
+    <row r="147" spans="1:16">
       <c r="A147" s="8">
         <v>3280</v>
       </c>
@@ -23542,7 +23542,7 @@
       </c>
       <c r="P147" s="16"/>
     </row>
-    <row r="148" hidden="1" spans="1:16">
+    <row r="148" spans="1:16">
       <c r="A148" s="8">
         <v>3281</v>
       </c>
@@ -23574,7 +23574,7 @@
       </c>
       <c r="P148" s="16"/>
     </row>
-    <row r="149" hidden="1" spans="1:16">
+    <row r="149" spans="1:16">
       <c r="A149" s="8">
         <v>3282</v>
       </c>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="P149" s="16"/>
     </row>
-    <row r="150" hidden="1" spans="1:16">
+    <row r="150" spans="1:16">
       <c r="A150" s="8">
         <v>3283</v>
       </c>
@@ -23731,7 +23731,7 @@
       </c>
       <c r="P153" s="16"/>
     </row>
-    <row r="154" hidden="1" spans="1:15">
+    <row r="154" spans="1:15">
       <c r="A154" s="8">
         <v>3287</v>
       </c>
@@ -23762,7 +23762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:15">
+    <row r="155" spans="1:15">
       <c r="A155" s="8">
         <v>3288</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:15">
+    <row r="156" spans="1:15">
       <c r="A156" s="8">
         <v>3289</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:15">
+    <row r="157" spans="1:15">
       <c r="A157" s="8">
         <v>3290</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:15">
+    <row r="158" spans="1:15">
       <c r="A158" s="8">
         <v>3291</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:15">
+    <row r="159" spans="1:15">
       <c r="A159" s="8">
         <v>3292</v>
       </c>
@@ -23917,7 +23917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:15">
+    <row r="160" spans="1:15">
       <c r="A160" s="8">
         <v>3293</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:15">
+    <row r="162" spans="1:15">
       <c r="A162" s="8">
         <v>3295</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:15">
+    <row r="163" spans="1:15">
       <c r="A163" s="8" t="s">
         <v>234</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:15">
+    <row r="164" spans="1:15">
       <c r="A164" s="8" t="s">
         <v>236</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:15">
+    <row r="165" spans="1:15">
       <c r="A165" s="8">
         <v>3298</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:15">
+    <row r="166" spans="1:15">
       <c r="A166" s="8">
         <v>3299</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:15">
+    <row r="169" spans="1:15">
       <c r="A169" s="8">
         <v>3302</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:15">
+    <row r="172" spans="1:15">
       <c r="A172" s="8">
         <v>3305</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:15">
+    <row r="173" spans="1:15">
       <c r="A173" s="8">
         <v>3306</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:15">
+    <row r="174" spans="1:15">
       <c r="A174" s="8">
         <v>3307</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:15">
+    <row r="175" spans="1:15">
       <c r="A175" s="8" t="s">
         <v>250</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:15">
+    <row r="177" spans="1:15">
       <c r="A177" s="8">
         <v>3310</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:15">
+    <row r="180" spans="1:15">
       <c r="A180" s="8">
         <v>3313</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:15">
+    <row r="181" spans="1:15">
       <c r="A181" s="8" t="s">
         <v>257</v>
       </c>
@@ -24594,7 +24594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:15">
+    <row r="182" spans="1:15">
       <c r="A182" s="8" t="s">
         <v>261</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:15">
+    <row r="183" spans="1:15">
       <c r="A183" s="8" t="s">
         <v>263</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:15">
+    <row r="184" spans="1:15">
       <c r="A184" s="2" t="s">
         <v>266</v>
       </c>
@@ -24684,7 +24684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:15">
+    <row r="185" spans="1:15">
       <c r="A185" s="2" t="s">
         <v>269</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:15">
+    <row r="186" spans="1:15">
       <c r="A186" s="2" t="s">
         <v>272</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:15">
+    <row r="187" spans="1:15">
       <c r="A187" s="2" t="s">
         <v>274</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:15">
+    <row r="188" spans="1:15">
       <c r="A188" s="2">
         <v>3315</v>
       </c>
@@ -24801,7 +24801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:15">
+    <row r="189" spans="1:15">
       <c r="A189" s="2">
         <v>3316</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:15">
+    <row r="190" spans="1:15">
       <c r="A190" s="2">
         <v>3317</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:15">
+    <row r="191" spans="1:15">
       <c r="A191" s="2">
         <v>3318</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:15">
+    <row r="192" spans="1:15">
       <c r="A192" s="2">
         <v>3319</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:15">
+    <row r="193" spans="1:15">
       <c r="A193" s="2">
         <v>3320</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:15">
+    <row r="194" spans="1:15">
       <c r="A194" s="2">
         <v>3321</v>
       </c>
@@ -24981,7 +24981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:15">
+    <row r="195" spans="1:15">
       <c r="A195" s="2">
         <v>3322</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:15">
+    <row r="196" spans="1:15">
       <c r="A196" s="2">
         <v>3323</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:15">
+    <row r="197" spans="1:15">
       <c r="A197" s="2">
         <v>3324</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:15">
+    <row r="198" spans="1:15">
       <c r="A198" s="2">
         <v>3325</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:15">
+    <row r="199" spans="1:15">
       <c r="A199" s="2">
         <v>3326</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:15">
+    <row r="200" spans="1:15">
       <c r="A200" s="2">
         <v>3327</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:15">
+    <row r="201" spans="1:15">
       <c r="A201" s="2">
         <v>3328</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:15">
+    <row r="203" spans="1:15">
       <c r="A203" s="2">
         <v>3330</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:15">
+    <row r="205" spans="1:15">
       <c r="A205" s="2">
         <v>3332</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:15">
+    <row r="208" spans="1:15">
       <c r="A208" s="2">
         <v>3335</v>
       </c>
@@ -25401,7 +25401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:15">
+    <row r="209" spans="1:15">
       <c r="A209" s="2">
         <v>3336</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:15">
+    <row r="210" spans="1:15">
       <c r="A210" s="2">
         <v>3337</v>
       </c>
@@ -25461,7 +25461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:15">
+    <row r="211" spans="1:15">
       <c r="A211" s="2">
         <v>3338</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:15">
+    <row r="212" spans="1:15">
       <c r="A212" s="2">
         <v>3339</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:15">
+    <row r="214" spans="1:15">
       <c r="A214" s="2">
         <v>3341</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:15">
+    <row r="216" spans="1:15">
       <c r="A216" s="2">
         <v>3343</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:15">
+    <row r="217" spans="1:15">
       <c r="A217" s="2">
         <v>3344</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:15">
+    <row r="218" spans="1:15">
       <c r="A218" s="2">
         <v>3345</v>
       </c>
@@ -25761,7 +25761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:15">
+    <row r="221" spans="1:15">
       <c r="A221" s="2">
         <v>3348</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:15">
+    <row r="222" spans="1:15">
       <c r="A222" s="2">
         <v>3349</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:15">
+    <row r="223" spans="1:15">
       <c r="A223" s="2">
         <v>3350</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:15">
+    <row r="224" spans="1:15">
       <c r="A224" s="2">
         <v>3351</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:15">
+    <row r="225" spans="1:15">
       <c r="A225" s="2">
         <v>3352</v>
       </c>
@@ -25911,7 +25911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:15">
+    <row r="226" spans="1:15">
       <c r="A226" s="2">
         <v>3353</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:15">
+    <row r="227" spans="1:15">
       <c r="A227" s="2">
         <v>3354</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:15">
+    <row r="228" spans="1:15">
       <c r="A228" s="2">
         <v>3355</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:15">
+    <row r="229" spans="1:15">
       <c r="A229" s="2">
         <v>3356</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:15">
+    <row r="230" spans="1:15">
       <c r="A230" s="2">
         <v>3357</v>
       </c>
@@ -26061,7 +26061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:9">
+    <row r="231" spans="1:9">
       <c r="A231" s="2">
         <v>3358</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:9">
+    <row r="232" spans="1:9">
       <c r="A232" s="2">
         <v>3359</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:9">
+    <row r="233" spans="1:9">
       <c r="A233" s="2">
         <v>3360</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:9">
+    <row r="234" spans="1:9">
       <c r="A234" s="2">
         <v>3361</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:9">
+    <row r="235" spans="1:9">
       <c r="A235" s="2">
         <v>3362</v>
       </c>
@@ -26191,7 +26191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:9">
+    <row r="236" spans="1:9">
       <c r="A236" s="2">
         <v>3363</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:9">
+    <row r="237" spans="1:9">
       <c r="A237" s="2">
         <v>3364</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:9">
+    <row r="238" spans="1:9">
       <c r="A238" s="2">
         <v>3365</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:9">
+    <row r="239" spans="1:9">
       <c r="A239" s="2">
         <v>3366</v>
       </c>
@@ -26295,7 +26295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:9">
+    <row r="240" spans="1:9">
       <c r="A240" s="2">
         <v>3367</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:9">
+    <row r="242" spans="1:9">
       <c r="A242" s="2">
         <v>3369</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:9">
+    <row r="243" spans="1:9">
       <c r="A243" s="2">
         <v>3370</v>
       </c>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:9">
+    <row r="245" spans="1:9">
       <c r="A245" s="2">
         <v>3372</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:9">
+    <row r="246" spans="1:9">
       <c r="A246" s="2">
         <v>3373</v>
       </c>
@@ -26477,7 +26477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:9">
+    <row r="247" spans="1:9">
       <c r="A247" s="2">
         <v>3374</v>
       </c>
@@ -26529,7 +26529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:9">
+    <row r="249" spans="1:9">
       <c r="A249" s="2">
         <v>3376</v>
       </c>
@@ -26555,7 +26555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:9">
+    <row r="250" spans="1:9">
       <c r="A250" s="2">
         <v>3377</v>
       </c>
@@ -26581,7 +26581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:9">
+    <row r="251" spans="1:9">
       <c r="A251" s="2">
         <v>3378</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:9">
+    <row r="252" spans="1:9">
       <c r="A252" s="2">
         <v>3379</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:9">
+    <row r="253" spans="1:9">
       <c r="A253" s="2">
         <v>3380</v>
       </c>
@@ -26661,7 +26661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:9">
+    <row r="254" spans="1:9">
       <c r="A254" s="2">
         <v>3381</v>
       </c>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:9">
+    <row r="255" spans="1:9">
       <c r="A255" s="2">
         <v>3382</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:9">
+    <row r="256" spans="1:9">
       <c r="A256" s="2">
         <v>3383</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:9">
+    <row r="257" spans="1:9">
       <c r="A257" s="2">
         <v>3384</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:9">
+    <row r="258" spans="1:9">
       <c r="A258" s="2">
         <v>3385</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:9">
+    <row r="259" spans="1:9">
       <c r="A259" s="2">
         <v>3386</v>
       </c>
@@ -26850,7 +26850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:9">
+    <row r="261" spans="1:9">
       <c r="A261" s="2">
         <v>3388</v>
       </c>
@@ -26904,7 +26904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:9">
+    <row r="263" spans="1:9">
       <c r="A263" s="2">
         <v>3390</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:9">
+    <row r="264" spans="1:9">
       <c r="A264" s="2">
         <v>3391</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:9">
+    <row r="267" spans="1:9">
       <c r="A267" s="2">
         <v>3394</v>
       </c>
@@ -27039,7 +27039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:9">
+    <row r="268" spans="1:9">
       <c r="A268" s="2">
         <v>3395</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:9">
+    <row r="269" spans="1:9">
       <c r="A269" s="2">
         <v>3396</v>
       </c>
@@ -27093,7 +27093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:9">
+    <row r="270" spans="1:9">
       <c r="A270" s="2">
         <v>3397</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:9">
+    <row r="271" spans="1:9">
       <c r="A271" s="2">
         <v>3398</v>
       </c>
@@ -27201,7 +27201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:9">
+    <row r="274" spans="1:9">
       <c r="A274" s="2">
         <v>3401</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:9">
+    <row r="275" spans="1:9">
       <c r="A275" s="2">
         <v>3402</v>
       </c>
@@ -27255,7 +27255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:9">
+    <row r="276" spans="1:9">
       <c r="A276" s="2">
         <v>3403</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:9">
+    <row r="277" spans="1:9">
       <c r="A277" s="2">
         <v>3404</v>
       </c>
@@ -27309,7 +27309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:9">
+    <row r="278" spans="1:9">
       <c r="A278" s="2">
         <v>3405</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:9">
+    <row r="279" spans="1:9">
       <c r="A279" s="2">
         <v>3406</v>
       </c>
@@ -27362,7 +27362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:9">
+    <row r="280" spans="1:9">
       <c r="A280" s="2">
         <v>3407</v>
       </c>
@@ -27414,7 +27414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:9">
+    <row r="282" spans="1:9">
       <c r="A282" s="2">
         <v>3409</v>
       </c>
@@ -27492,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:9">
+    <row r="285" spans="1:9">
       <c r="A285" s="2">
         <v>3412</v>
       </c>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:9">
+    <row r="286" spans="1:9">
       <c r="A286" s="2">
         <v>3413</v>
       </c>
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:9">
+    <row r="287" spans="1:9">
       <c r="A287" s="2">
         <v>3414</v>
       </c>
@@ -27570,7 +27570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:9">
+    <row r="288" spans="1:9">
       <c r="A288" s="2">
         <v>3415</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:9">
+    <row r="289" spans="1:9">
       <c r="A289" s="2">
         <v>3416</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:9">
+    <row r="290" spans="1:9">
       <c r="A290" s="2">
         <v>3417</v>
       </c>
@@ -27648,7 +27648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:9">
+    <row r="291" spans="1:9">
       <c r="A291" s="2">
         <v>3418</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:9">
+    <row r="292" spans="1:9">
       <c r="A292" s="2">
         <v>3419</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:9">
+    <row r="293" spans="1:9">
       <c r="A293" s="2">
         <v>3420</v>
       </c>
@@ -27726,7 +27726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:9">
+    <row r="294" spans="1:9">
       <c r="A294" s="2">
         <v>3421</v>
       </c>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:9">
+    <row r="295" spans="1:9">
       <c r="A295" s="2">
         <v>3422</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:9">
+    <row r="296" spans="1:9">
       <c r="A296" s="2">
         <v>3423</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:9">
+    <row r="297" spans="1:9">
       <c r="A297" s="2">
         <v>3424</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:9">
+    <row r="299" spans="1:9">
       <c r="A299" s="2">
         <v>3426</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:9">
+    <row r="300" spans="1:9">
       <c r="A300" s="2" t="s">
         <v>379</v>
       </c>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:9">
+    <row r="301" spans="1:9">
       <c r="A301" s="2">
         <v>3428</v>
       </c>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:9">
+    <row r="302" spans="1:9">
       <c r="A302" s="2">
         <v>3429</v>
       </c>
@@ -27960,7 +27960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:9">
+    <row r="303" spans="1:9">
       <c r="A303" s="2">
         <v>3430</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:9">
+    <row r="304" spans="1:9">
       <c r="A304" s="2">
         <v>3431</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:9">
+    <row r="305" spans="1:9">
       <c r="A305" s="2">
         <v>3432</v>
       </c>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:9">
+    <row r="307" spans="1:9">
       <c r="A307" s="2">
         <v>3434</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:9">
+    <row r="308" spans="1:9">
       <c r="A308" s="2">
         <v>3435</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:9">
+    <row r="309" spans="1:9">
       <c r="A309" s="2">
         <v>3436</v>
       </c>
@@ -28142,7 +28142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:9">
+    <row r="310" spans="1:9">
       <c r="A310" s="2">
         <v>3437</v>
       </c>
@@ -28168,7 +28168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:9">
+    <row r="311" spans="1:9">
       <c r="A311" s="2">
         <v>3439</v>
       </c>
@@ -28194,7 +28194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:9">
+    <row r="312" spans="1:9">
       <c r="A312" s="2">
         <v>3441</v>
       </c>
@@ -28251,15 +28251,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V312">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Talla 38C"/>
-        <filter val="Talla 36D"/>
-        <filter val="Talla grande"/>
-        <filter val="Talla M/L"/>
-        <filter val="Talla L"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -1203,14 +1203,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1264,6 +1264,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1271,40 +1285,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1323,6 +1315,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1332,31 +1332,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,9 +1354,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,8 +1376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,19 +1426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1486,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,115 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,30 +1672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1716,6 +1692,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1746,6 +1746,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1760,156 +1769,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1932,7 +1932,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1953,13 +1953,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2307,10 +2307,10 @@
   <sheetPr/>
   <dimension ref="A1:XEX687"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="M285" sqref="M285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -26061,7 +26061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:15">
       <c r="A231" s="2">
         <v>3358</v>
       </c>
@@ -26086,8 +26086,12 @@
       <c r="I231" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="O231" s="3">
+        <f t="shared" ref="O231:O262" si="17">F231</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" s="2">
         <v>3359</v>
       </c>
@@ -26112,8 +26116,12 @@
       <c r="I232" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="O232" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" s="2">
         <v>3360</v>
       </c>
@@ -26138,8 +26146,12 @@
       <c r="I233" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="O233" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" s="2">
         <v>3361</v>
       </c>
@@ -26164,8 +26176,12 @@
       <c r="I234" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="O234" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" s="2">
         <v>3362</v>
       </c>
@@ -26190,8 +26206,12 @@
       <c r="I235" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="O235" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" s="2">
         <v>3363</v>
       </c>
@@ -26216,8 +26236,12 @@
       <c r="I236" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="O236" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" s="2">
         <v>3364</v>
       </c>
@@ -26242,8 +26266,12 @@
       <c r="I237" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="O237" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" s="2">
         <v>3365</v>
       </c>
@@ -26268,8 +26296,12 @@
       <c r="I238" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="O238" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" s="2">
         <v>3366</v>
       </c>
@@ -26294,8 +26326,12 @@
       <c r="I239" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="O239" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" s="2">
         <v>3367</v>
       </c>
@@ -26320,8 +26356,12 @@
       <c r="I240" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="O240" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" s="2">
         <v>3368</v>
       </c>
@@ -26346,8 +26386,12 @@
       <c r="I241" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="O241" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" s="2">
         <v>3369</v>
       </c>
@@ -26372,8 +26416,12 @@
       <c r="I242" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="O242" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" s="2">
         <v>3370</v>
       </c>
@@ -26398,8 +26446,12 @@
       <c r="I243" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="O243" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" s="2">
         <v>3371</v>
       </c>
@@ -26424,8 +26476,12 @@
       <c r="I244" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="O244" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" s="2">
         <v>3372</v>
       </c>
@@ -26450,8 +26506,12 @@
       <c r="I245" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="O245" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" s="2">
         <v>3373</v>
       </c>
@@ -26476,8 +26536,12 @@
       <c r="I246" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="O246" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" s="2">
         <v>3374</v>
       </c>
@@ -26502,8 +26566,12 @@
       <c r="I247" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="O247" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" s="2">
         <v>3375</v>
       </c>
@@ -26528,8 +26596,12 @@
       <c r="I248" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="O248" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" s="2">
         <v>3376</v>
       </c>
@@ -26554,8 +26626,12 @@
       <c r="I249" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="O249" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" s="2">
         <v>3377</v>
       </c>
@@ -26580,8 +26656,12 @@
       <c r="I250" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="O250" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" s="2">
         <v>3378</v>
       </c>
@@ -26606,8 +26686,12 @@
       <c r="I251" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="O251" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" s="2">
         <v>3379</v>
       </c>
@@ -26633,8 +26717,12 @@
       <c r="I252" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="O252" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" s="2">
         <v>3380</v>
       </c>
@@ -26660,8 +26748,12 @@
       <c r="I253" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="O253" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" s="2">
         <v>3381</v>
       </c>
@@ -26687,8 +26779,12 @@
       <c r="I254" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="O254" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" s="2">
         <v>3382</v>
       </c>
@@ -26714,8 +26810,12 @@
       <c r="I255" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="O255" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" s="2">
         <v>3383</v>
       </c>
@@ -26741,8 +26841,12 @@
       <c r="I256" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="O256" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" s="2">
         <v>3384</v>
       </c>
@@ -26768,8 +26872,12 @@
       <c r="I257" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="O257" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" s="2">
         <v>3385</v>
       </c>
@@ -26795,8 +26903,12 @@
       <c r="I258" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="O258" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" s="2">
         <v>3386</v>
       </c>
@@ -26822,8 +26934,12 @@
       <c r="I259" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="O259" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" s="2">
         <v>3387</v>
       </c>
@@ -26849,8 +26965,12 @@
       <c r="I260" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="O260" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" s="2">
         <v>3388</v>
       </c>
@@ -26876,8 +26996,12 @@
       <c r="I261" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="O261" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" s="2">
         <v>3389</v>
       </c>
@@ -26903,8 +27027,12 @@
       <c r="I262" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="O262" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" s="2">
         <v>3390</v>
       </c>
@@ -26930,8 +27058,12 @@
       <c r="I263" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="O263" s="3">
+        <f t="shared" ref="O263:O294" si="18">F263</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" s="2">
         <v>3391</v>
       </c>
@@ -26957,8 +27089,12 @@
       <c r="I264" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="O264" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" s="2">
         <v>3392</v>
       </c>
@@ -26984,8 +27120,12 @@
       <c r="I265" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="O265" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" s="2">
         <v>3393</v>
       </c>
@@ -27011,8 +27151,12 @@
       <c r="I266" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="O266" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" s="2">
         <v>3394</v>
       </c>
@@ -27038,8 +27182,12 @@
       <c r="I267" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="O267" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" s="2">
         <v>3395</v>
       </c>
@@ -27065,8 +27213,12 @@
       <c r="I268" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="O268" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" s="2">
         <v>3396</v>
       </c>
@@ -27092,8 +27244,12 @@
       <c r="I269" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="O269" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" s="2">
         <v>3397</v>
       </c>
@@ -27119,8 +27275,12 @@
       <c r="I270" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="O270" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" s="2">
         <v>3398</v>
       </c>
@@ -27146,8 +27306,12 @@
       <c r="I271" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="O271" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" s="2">
         <v>3399</v>
       </c>
@@ -27173,8 +27337,12 @@
       <c r="I272" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="O272" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" s="2">
         <v>3400</v>
       </c>
@@ -27200,8 +27368,12 @@
       <c r="I273" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="O273" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" s="2">
         <v>3401</v>
       </c>
@@ -27227,8 +27399,12 @@
       <c r="I274" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="O274" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" s="2">
         <v>3402</v>
       </c>
@@ -27254,8 +27430,12 @@
       <c r="I275" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="O275" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" s="2">
         <v>3403</v>
       </c>
@@ -27281,8 +27461,12 @@
       <c r="I276" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="O276" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" s="2">
         <v>3404</v>
       </c>
@@ -27308,8 +27492,12 @@
       <c r="I277" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="O277" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" s="2">
         <v>3405</v>
       </c>
@@ -27335,8 +27523,12 @@
       <c r="I278" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="O278" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" s="2">
         <v>3406</v>
       </c>
@@ -27361,8 +27553,12 @@
       <c r="I279" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="O279" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" s="2">
         <v>3407</v>
       </c>
@@ -27387,8 +27583,12 @@
       <c r="I280" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="O280" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" s="2">
         <v>3408</v>
       </c>
@@ -27413,8 +27613,12 @@
       <c r="I281" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="O281" s="3">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" s="2">
         <v>3409</v>
       </c>
@@ -27439,8 +27643,12 @@
       <c r="I282" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="O282" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" s="2">
         <v>3410</v>
       </c>
@@ -27465,8 +27673,12 @@
       <c r="I283" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="O283" s="3">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" s="2">
         <v>3411</v>
       </c>
@@ -27491,8 +27703,12 @@
       <c r="I284" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="O284" s="3">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" s="2">
         <v>3412</v>
       </c>
@@ -27517,8 +27733,12 @@
       <c r="I285" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="O285" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" s="2">
         <v>3413</v>
       </c>
@@ -27543,8 +27763,12 @@
       <c r="I286" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="O286" s="3">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" s="2">
         <v>3414</v>
       </c>
@@ -27569,8 +27793,12 @@
       <c r="I287" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="O287" s="3">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" s="2">
         <v>3415</v>
       </c>
@@ -27595,8 +27823,12 @@
       <c r="I288" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="O288" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" s="2">
         <v>3416</v>
       </c>
@@ -27621,8 +27853,12 @@
       <c r="I289" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="O289" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" s="2">
         <v>3417</v>
       </c>
@@ -27647,8 +27883,12 @@
       <c r="I290" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="O290" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" s="2">
         <v>3418</v>
       </c>
@@ -27673,8 +27913,12 @@
       <c r="I291" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="O291" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" s="2">
         <v>3419</v>
       </c>
@@ -27699,8 +27943,12 @@
       <c r="I292" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="O292" s="3">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" s="2">
         <v>3420</v>
       </c>
@@ -27725,8 +27973,12 @@
       <c r="I293" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="O293" s="3">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" s="2">
         <v>3421</v>
       </c>
@@ -27751,8 +28003,12 @@
       <c r="I294" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="O294" s="3">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" s="2">
         <v>3422</v>
       </c>
@@ -27777,8 +28033,12 @@
       <c r="I295" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="O295" s="3">
+        <f t="shared" ref="O295:O312" si="19">F295</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" s="2">
         <v>3423</v>
       </c>
@@ -27803,8 +28063,12 @@
       <c r="I296" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="O296" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" s="2">
         <v>3424</v>
       </c>
@@ -27829,8 +28093,12 @@
       <c r="I297" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="O297" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" s="2">
         <v>3425</v>
       </c>
@@ -27855,8 +28123,12 @@
       <c r="I298" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="O298" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
       <c r="A299" s="2">
         <v>3426</v>
       </c>
@@ -27881,8 +28153,12 @@
       <c r="I299" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="O299" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
       <c r="A300" s="2" t="s">
         <v>379</v>
       </c>
@@ -27907,8 +28183,12 @@
       <c r="I300" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="O300" s="3">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
       <c r="A301" s="2">
         <v>3428</v>
       </c>
@@ -27933,8 +28213,12 @@
       <c r="I301" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="O301" s="3">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
       <c r="A302" s="2">
         <v>3429</v>
       </c>
@@ -27959,8 +28243,12 @@
       <c r="I302" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:9">
+      <c r="O302" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15">
       <c r="A303" s="2">
         <v>3430</v>
       </c>
@@ -27985,8 +28273,12 @@
       <c r="I303" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:9">
+      <c r="O303" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15">
       <c r="A304" s="2">
         <v>3431</v>
       </c>
@@ -28011,8 +28303,12 @@
       <c r="I304" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="O304" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15">
       <c r="A305" s="2">
         <v>3432</v>
       </c>
@@ -28037,8 +28333,12 @@
       <c r="I305" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="O305" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
       <c r="A306" s="2">
         <v>3433</v>
       </c>
@@ -28063,8 +28363,12 @@
       <c r="I306" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="O306" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
       <c r="A307" s="2">
         <v>3434</v>
       </c>
@@ -28089,8 +28393,12 @@
       <c r="I307" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:9">
+      <c r="O307" s="3">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
       <c r="A308" s="2">
         <v>3435</v>
       </c>
@@ -28115,8 +28423,12 @@
       <c r="I308" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:9">
+      <c r="O308" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
       <c r="A309" s="2">
         <v>3436</v>
       </c>
@@ -28141,8 +28453,12 @@
       <c r="I309" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:9">
+      <c r="O309" s="3">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
       <c r="A310" s="2">
         <v>3437</v>
       </c>
@@ -28167,8 +28483,12 @@
       <c r="I310" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:9">
+      <c r="O310" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
       <c r="A311" s="2">
         <v>3439</v>
       </c>
@@ -28193,8 +28513,12 @@
       <c r="I311" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:9">
+      <c r="O311" s="3">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
       <c r="A312" s="2">
         <v>3441</v>
       </c>
@@ -28218,6 +28542,10 @@
       </c>
       <c r="I312" s="4">
         <v>0</v>
+      </c>
+      <c r="O312" s="3">
+        <f t="shared" si="19"/>
+        <v>35</v>
       </c>
     </row>
     <row r="313" spans="7:7">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -1203,14 +1203,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1255,16 +1255,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,77 +1294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,10 +1315,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1381,6 +1336,30 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1393,7 +1372,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,24 +1426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1456,19 +1438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,7 +1468,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,25 +1558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,25 +1576,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,31 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,6 +1672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1683,39 +1692,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1746,11 +1722,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1769,153 +1760,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1929,16 +1929,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,13 +1947,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,13 +1959,16 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:XEX687"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="M285" sqref="M285"/>
     </sheetView>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="15740" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$137</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="204">
   <si>
     <t>Code</t>
   </si>
@@ -367,6 +367,267 @@
     <t>_Pantaloneta de mezcla de lino beige claro H&amp;M</t>
   </si>
   <si>
+    <t xml:space="preserve">Vestidos /tallas-pequenas  </t>
+  </si>
+  <si>
+    <t>_Vestido largo de tirantes finos azul oscuro estampado de hojas ONLY (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestidos /tallas-pequenas /tallas-grandes  </t>
+  </si>
+  <si>
+    <t>_ Vestido tipo camisa con botones negro Blooming (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de mangas largas rosa fucsia con estampado de rosas (entrado)</t>
+  </si>
+  <si>
+    <t>Vestido /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Mono de algodón amarillo claro con estampado de flores pequeñas Pimkie (entrado)</t>
+  </si>
+  <si>
+    <t>Talla S/M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestidos /tallas-grandes  </t>
+  </si>
+  <si>
+    <t>_Vestidfo rojo con mangas globo y lazo delantero (entrado)</t>
+  </si>
+  <si>
+    <t>_Mono de mangas largas negro con estampado triangular carmelita Zabai (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de mngas largas negro con estampado triangular carmelita Zabai (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido con escote en V verde con estampado de flores beige (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido /tallas-pequenas  </t>
+  </si>
+  <si>
+    <t>_Vestido  largo blanco con escote en V Anany (enrtado)</t>
+  </si>
+  <si>
+    <t>_Vestido azul oscuro estampado de flores blsncas pequeñas con botones (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido /tallas-grandes  </t>
+  </si>
+  <si>
+    <t>_Vestido estilo camisero en mezcla de lino beige con cinturón (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido rojo desmangado con detalle de cinturón (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido largo verde oscuro con detalle de cinturón (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido Frida Kahlo blanco con detalles en azul oscuro (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido con escote en V negro y verde con estampado de hojas (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de mangas globo color crema con flores negras (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido elegante desmangado rosa fucsia (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido mangas 3/4 rojo estampado de flores y detalle de lazo (entrado)</t>
+  </si>
+  <si>
+    <t>Talla S_2</t>
+  </si>
+  <si>
+    <t>_Vestido negro con escote y mangas globo (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido/tallas-extras  </t>
+  </si>
+  <si>
+    <t>_Vestido negro de algodón de mangas cortas (entrado)</t>
+  </si>
+  <si>
+    <t>Talla 3XL</t>
+  </si>
+  <si>
+    <t>_Vestido de escote en V rosa salmón con detalle de lazo (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido strapless verde lima claro de microfibra (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido beige con estampado en rosa de flores con mangas globo (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido color lila con vuelos (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido blanco desmangado con detalles de tiras (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Vestido azul oscuro estampado (entrado) </t>
+  </si>
+  <si>
+    <t>_Vestido blanco con mangas globo y detalle de lazo trasero (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido verde oscuro strapless satinado (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de microfibra sin mangas marrón oscuro (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido sin mangas azul con estampado de flores (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido satinado verde salvia con escote en V (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido blanco con bordados y detalle de cordón (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido corto negro de mangas 3/4 con cinto (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de un solo hombro con copa amarillo (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de flores verdes con lazo fino delantero y botones (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido texturizado verde salvia con lazo delantero (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido de mangas cortas con bordado de encaje rosa salmón (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido verde oscuro con bordado de encaje (entrado)</t>
+  </si>
+  <si>
+    <t>_Vestido blanco con tirantes finos y copa acolchada elastizado (entrado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido /hm /tallas-grandes  </t>
+  </si>
+  <si>
+    <t>_Vestido túnica beige animal print H&amp;M</t>
+  </si>
+  <si>
+    <t>Vestido /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>Hombres /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Joggers de vestir slim fit negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de mangas largas de microfibra negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalones bootcut beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL_14</t>
+  </si>
+  <si>
+    <t>_Pantalón pitillo gris claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pantalón pitillo beige H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Pantalón cigarette beige H&amp;M </t>
+  </si>
+  <si>
+    <t>Talla XL_16</t>
+  </si>
+  <si>
+    <t>_Pantalón hasta el tobillo elastizado gris melange H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>_Bermudas cargo loose fit gris oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombres /hm /tallas-grandes </t>
+  </si>
+  <si>
+    <t>_Shrots relax fit azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shrots relax fit verde salvia H&amp;M</t>
+  </si>
+  <si>
+    <t>Hombres /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>_Bermudas de piqué relax fit beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts chinos regular fit blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla S_33</t>
+  </si>
+  <si>
+    <t>Talla L_36</t>
+  </si>
+  <si>
+    <t>_Shorts con raya regular fit beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts denim relaxed azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla M_34</t>
+  </si>
+  <si>
+    <t>_Polo de punto fino regilar fit turquesa H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa resort negra estampado de hojas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa estilo polo resort color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa en mezcla de lino de mangas largas beige con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa de manga corta oversized beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa resort loose fit negra S25 H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa resort acanalada azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>_Camisa resort en tejido waffled verde caqui H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo de punto fino azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo slim fit negro con zipper H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo de algodón pima beige H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo regular fit blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Polo de punto fino blanco H&amp;M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -376,12 +637,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -427,23 +688,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,11 +734,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,14 +751,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,60 +781,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,9 +796,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,7 +865,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,61 +943,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,61 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,13 +997,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +1105,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -878,6 +1154,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -903,21 +1194,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -926,168 +1202,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1471,12 +1732,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX458"/>
+  <dimension ref="A1:XEX454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1485,11 +1746,11 @@
     <col min="2" max="2" width="35.1484375" customWidth="1"/>
     <col min="3" max="3" width="68.3515625" customWidth="1"/>
     <col min="4" max="4" width="14.4453125" customWidth="1"/>
-    <col min="5" max="5" width="15.8828125" customWidth="1"/>
+    <col min="5" max="5" width="7.8125" customWidth="1"/>
     <col min="6" max="6" width="11.8359375" customWidth="1"/>
-    <col min="7" max="7" width="14.0390625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.9296875" customWidth="1"/>
-    <col min="9" max="9" width="13.15625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.71875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" customWidth="1"/>
+    <col min="9" max="9" width="8.59375" style="4" customWidth="1"/>
     <col min="10" max="11" width="12.890625" style="4" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.1875"/>
@@ -20408,37 +20669,2193 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="7:7">
-      <c r="G84" s="4"/>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2">
+        <v>3446</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="3">
+        <v>30</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" ref="O84:O129" si="3">F84</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="85" spans="7:7">
-      <c r="G85" s="4"/>
+    <row r="85" spans="1:15">
+      <c r="A85" s="2">
+        <v>3447</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="3">
+        <v>20</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="86" spans="7:7">
-      <c r="G86" s="4"/>
+    <row r="86" spans="1:15">
+      <c r="A86" s="2">
+        <v>3448</v>
+      </c>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="3">
+        <v>30</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="87" spans="7:7">
-      <c r="G87" s="4"/>
+    <row r="87" spans="1:15">
+      <c r="A87" s="2">
+        <v>3449</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="3">
+        <v>30</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="88" spans="7:7">
-      <c r="G88" s="4"/>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2">
+        <v>3450</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="3">
+        <v>30</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="89" spans="7:7">
-      <c r="G89" s="4"/>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2">
+        <v>3451</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="3">
+        <v>40</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="90" spans="7:7">
-      <c r="G90" s="4"/>
+    <row r="90" spans="1:15">
+      <c r="A90" s="2">
+        <v>3452</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="3">
+        <v>40</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="91" spans="7:7">
-      <c r="G91" s="4"/>
+    <row r="91" spans="1:15">
+      <c r="A91" s="2">
+        <v>3453</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="3">
+        <v>30</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="458" spans="8:8">
-      <c r="H458" t="s">
+    <row r="92" spans="1:15">
+      <c r="A92" s="2">
+        <v>3454</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="3">
+        <v>35</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2">
+        <v>3455</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="3">
+        <v>25</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="2">
+        <v>3456</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="3">
+        <v>30</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="2">
+        <v>3457</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="3">
+        <v>30</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="2">
+        <v>3458</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="3">
+        <v>30</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="2">
+        <v>3459</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="3">
+        <v>40</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2">
+        <v>3460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="3">
+        <v>30</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="2">
+        <v>3461</v>
+      </c>
+      <c r="B99" t="s">
         <v>116</v>
+      </c>
+      <c r="C99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="3">
+        <v>25</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2">
+        <v>3462</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="3">
+        <v>35</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="2">
+        <v>3463</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F101" s="3">
+        <v>35</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="2">
+        <v>3464</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="3">
+        <v>20</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="2">
+        <v>3465</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="3">
+        <v>20</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="2">
+        <v>3466</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="3">
+        <v>20</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="2">
+        <v>3467</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="3">
+        <v>30</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="2">
+        <v>3468</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="3">
+        <v>20</v>
+      </c>
+      <c r="G106" s="4">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="2">
+        <v>3469</v>
+      </c>
+      <c r="B107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="3">
+        <v>30</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="2">
+        <v>3470</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="3">
+        <v>20</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="2">
+        <v>3471</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="3">
+        <v>25</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="2">
+        <v>3472</v>
+      </c>
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="3">
+        <v>35</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="2">
+        <v>3473</v>
+      </c>
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="3">
+        <v>35</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="2">
+        <v>3474</v>
+      </c>
+      <c r="B112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="3">
+        <v>30</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="2">
+        <v>3475</v>
+      </c>
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="3">
+        <v>35</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="O113" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="2">
+        <v>3476</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="3">
+        <v>35</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="2">
+        <v>3477</v>
+      </c>
+      <c r="B115" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="3">
+        <v>30</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="3">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="2">
+        <v>3478</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="3">
+        <v>40</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="O116" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="2">
+        <v>3479</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="3">
+        <v>35</v>
+      </c>
+      <c r="G117" s="4">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="2">
+        <v>3480</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="3">
+        <v>20</v>
+      </c>
+      <c r="G118" s="4">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="2">
+        <v>3481</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="3">
+        <v>35</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="O119" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="2">
+        <v>3482</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="3">
+        <v>35</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="2">
+        <v>3483</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="3">
+        <v>40</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="O121" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="2">
+        <v>3484</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="3">
+        <v>40</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0</v>
+      </c>
+      <c r="O122" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="2">
+        <v>3487</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="3">
+        <v>28</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1</v>
+      </c>
+      <c r="O123" s="3">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="2">
+        <v>3488</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="3">
+        <v>28</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1</v>
+      </c>
+      <c r="O124" s="3">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="2">
+        <v>3489</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="3">
+        <v>40</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1</v>
+      </c>
+      <c r="O125" s="3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="2">
+        <v>3490</v>
+      </c>
+      <c r="B126" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="3">
+        <v>20</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
+      <c r="O126" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="2">
+        <v>3491</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" t="s">
+        <v>172</v>
+      </c>
+      <c r="F127" s="3">
+        <v>35</v>
+      </c>
+      <c r="G127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1</v>
+      </c>
+      <c r="O127" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="2">
+        <v>3492</v>
+      </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="3">
+        <v>30</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2">
+        <v>3493</v>
+      </c>
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="3">
+        <v>30</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="2">
+        <v>3494</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="3">
+        <v>30</v>
+      </c>
+      <c r="G130" s="4">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="2">
+        <v>3495</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" t="s">
+        <v>172</v>
+      </c>
+      <c r="F131" s="3">
+        <v>35</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="2">
+        <v>3496</v>
+      </c>
+      <c r="B132" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="3">
+        <v>35</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2">
+        <v>3497</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="3">
+        <v>35</v>
+      </c>
+      <c r="G133" s="4">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="2">
+        <v>3498</v>
+      </c>
+      <c r="B134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" t="s">
+        <v>181</v>
+      </c>
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="3">
+        <v>35</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="2">
+        <v>3499</v>
+      </c>
+      <c r="B135" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" t="s">
+        <v>183</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="3">
+        <v>28</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="2">
+        <v>3500</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s">
+        <v>184</v>
+      </c>
+      <c r="D136" t="s">
+        <v>185</v>
+      </c>
+      <c r="F136" s="3">
+        <v>30</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="2">
+        <v>3501</v>
+      </c>
+      <c r="B137" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F137" s="3">
+        <v>30</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="2">
+        <v>3502</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" t="s">
+        <v>187</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="3">
+        <v>30</v>
+      </c>
+      <c r="G138" s="4">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2">
+        <v>3503</v>
+      </c>
+      <c r="B139" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" t="s">
+        <v>189</v>
+      </c>
+      <c r="F139" s="3">
+        <v>35</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="2">
+        <v>3504</v>
+      </c>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" t="s">
+        <v>190</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="3">
+        <v>25</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2">
+        <v>3505</v>
+      </c>
+      <c r="B141" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" t="s">
+        <v>191</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="3">
+        <v>35</v>
+      </c>
+      <c r="G141" s="4">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="2">
+        <v>3506</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" s="3">
+        <v>35</v>
+      </c>
+      <c r="G142" s="4">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2">
+        <v>3507</v>
+      </c>
+      <c r="B143" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="3">
+        <v>35</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2">
+        <v>3508</v>
+      </c>
+      <c r="B144" t="s">
+        <v>179</v>
+      </c>
+      <c r="C144" t="s">
+        <v>193</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="F144" s="3">
+        <v>35</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2">
+        <v>3510</v>
+      </c>
+      <c r="B145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" t="s">
+        <v>194</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="3">
+        <v>30</v>
+      </c>
+      <c r="G145" s="4">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2">
+        <v>3511</v>
+      </c>
+      <c r="B146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="3">
+        <v>30</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2">
+        <v>3512</v>
+      </c>
+      <c r="B147" t="s">
+        <v>182</v>
+      </c>
+      <c r="C147" t="s">
+        <v>196</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="3">
+        <v>35</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2">
+        <v>3513</v>
+      </c>
+      <c r="B148" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" t="s">
+        <v>197</v>
+      </c>
+      <c r="D148" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="3">
+        <v>35</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2">
+        <v>3514</v>
+      </c>
+      <c r="B149" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" t="s">
+        <v>198</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="3">
+        <v>30</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2">
+        <v>3515</v>
+      </c>
+      <c r="B150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" t="s">
+        <v>199</v>
+      </c>
+      <c r="D150" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="3">
+        <v>35</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2">
+        <v>3516</v>
+      </c>
+      <c r="B151" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" t="s">
+        <v>199</v>
+      </c>
+      <c r="D151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="3">
+        <v>35</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2">
+        <v>3517</v>
+      </c>
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="3">
+        <v>35</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2">
+        <v>3518</v>
+      </c>
+      <c r="B153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" t="s">
+        <v>201</v>
+      </c>
+      <c r="D153" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="3">
+        <v>30</v>
+      </c>
+      <c r="G153" s="4">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2">
+        <v>3519</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" t="s">
+        <v>201</v>
+      </c>
+      <c r="D154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" s="3">
+        <v>30</v>
+      </c>
+      <c r="G154" s="4">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2">
+        <v>3520</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="3">
+        <v>30</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2">
+        <v>3522</v>
+      </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="3">
+        <v>30</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>3523</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>3524</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="4:7">
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="4:7">
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="4:7">
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="4:7">
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="4:7">
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="4:7">
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="4:7">
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="4:7">
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" s="3"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="6:7">
+      <c r="F167" s="3"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="6:7">
+      <c r="F168" s="3"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="6:7">
+      <c r="F169" s="3"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="6:7">
+      <c r="F170" s="3"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="6:7">
+      <c r="F171" s="3"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="6:7">
+      <c r="F172" s="3"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="454" spans="8:8">
+      <c r="H454" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V83">
+  <autoFilter ref="A1:V137">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$55</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
   <si>
     <t>Code</t>
   </si>
@@ -85,292 +85,13 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>Tops /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>_Top lencero rojo vino con ribete de encaje</t>
-  </si>
-  <si>
-    <t>Talla S</t>
-  </si>
-  <si>
-    <t>_Top de tirantes fino terracota PinkWoman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tops /tallas-extras </t>
-  </si>
-  <si>
-    <t>_Top de algodón violeta</t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>_Top triangular corto negro de tirantes finos</t>
-  </si>
-  <si>
-    <t>Talla S_4</t>
-  </si>
-  <si>
-    <t>_Top sin mangas acanalado de microfibra beige oscuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Top Florida azul oscuro </t>
-  </si>
-  <si>
-    <t>_Top sin mangas blanco de algodón con detalle de mariposa</t>
-  </si>
-  <si>
-    <t>Tops /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Top negro estilo corsé PinkWoman</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Top camiseta gris melange </t>
-  </si>
-  <si>
-    <t>_Top strapless negro con rayas blancas No Way</t>
-  </si>
-  <si>
-    <t>tops /tallas-grandes</t>
-  </si>
-  <si>
-    <t>_Top de cuadros beige con detalle de lazo delantero</t>
-  </si>
-  <si>
-    <t>Talla L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Top de algodón sin mangas amarillo </t>
-  </si>
-  <si>
-    <t>_Top camiseta de algodón amarillo</t>
-  </si>
-  <si>
-    <t>_Top deportivo de microfibra azul estampado</t>
-  </si>
-  <si>
-    <t>_Top deportivo de microfibra con espalda cruzada azul estampado</t>
-  </si>
-  <si>
-    <t>Talla XS</t>
-  </si>
-  <si>
-    <t>_Top anudado en cuello con escote pronunciado marrón</t>
-  </si>
-  <si>
-    <t>Talla XS/S</t>
-  </si>
-  <si>
-    <t>_Top anudado en cuello con escote pronunciado naranja</t>
-  </si>
-  <si>
-    <t>_Top acanalado de tirantes amarillo WomanPink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Top strapless acanalado amarillo </t>
-  </si>
-  <si>
-    <t>_Top de algodón acanalado amarillo</t>
-  </si>
-  <si>
-    <t>_Top acanalado azul Colsie</t>
-  </si>
-  <si>
-    <t>_Top sin mangas acanalado blanco</t>
-  </si>
-  <si>
-    <t>_Top desmangado blanco Feeling Good</t>
-  </si>
-  <si>
-    <t>_Top corto con ribete de encaje gris melange</t>
-  </si>
-  <si>
-    <t>_Top naranja 0 de un solo hombro</t>
-  </si>
-  <si>
-    <t>_Top strapless beige con estampado negro Kendall &amp; Kylie</t>
-  </si>
-  <si>
-    <t>_Top de tirantes finos con botones negro</t>
-  </si>
-  <si>
-    <t>_Top de tirantes finos con botones rosa fucsia</t>
-  </si>
-  <si>
-    <t>_Top strapless azul malva Terranova</t>
-  </si>
-  <si>
-    <t>_Top de un solo hombro acanalado blanco</t>
-  </si>
-  <si>
-    <t>_Top negro con nudo trasero Terranova</t>
-  </si>
-  <si>
-    <t>_Top acanalado con ribete de encaje y tirantes finos amarillo</t>
-  </si>
-  <si>
-    <t>_Top acanalado con escote de corazón azul polvoriento</t>
-  </si>
-  <si>
-    <t>_Top de tirantes finos de algodón gris jaspeado</t>
-  </si>
-  <si>
-    <t>Talla XXS</t>
-  </si>
-  <si>
-    <t>_Top de tirantes finos de algodón violeta</t>
-  </si>
-  <si>
-    <t>_Top de tirantes finos de algodón lila</t>
-  </si>
-  <si>
-    <t>_Top corto cruzado color crema</t>
-  </si>
-  <si>
-    <t>_Top de acanalado con patrón rosa durazno</t>
-  </si>
-  <si>
-    <t>_Top de crochet de rayas beige y marrón anudado al cuello</t>
-  </si>
-  <si>
-    <t>_Top corto cruzado color beige</t>
-  </si>
-  <si>
-    <t>_Top de crochet marrón</t>
-  </si>
-  <si>
-    <t>_Top negro corto acanalado de tirantes finos</t>
-  </si>
-  <si>
-    <t>_Top desmangado con detalle corrugado rosa barbie</t>
-  </si>
-  <si>
-    <t>_Top espalda afuera con detalle corrugado beige oscuro</t>
-  </si>
-  <si>
-    <t>_Top desmangado New York beige oscuro</t>
-  </si>
-  <si>
-    <t>_Top de espalda afuera con cuello y botones delantero marrón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-medianas </t>
-  </si>
-  <si>
-    <t>_Pantalón de algodón blanco con rayas azulesz H&amp;M (entrado)</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>_Pantalón con cinturón blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Leggins acampanados color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones pointelle blancos H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-extras </t>
-  </si>
-  <si>
-    <t>_Pantalón amplio sin cierre beige H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
-  </si>
-  <si>
-    <t>_Pantalones de mezcla de lino recto beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha color crema estampado H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha color crema estampado cebra H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla M_8</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha blanco con rayas beige H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha beige con rayas negras y marrón H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón de pierna ancha crema con rayas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón con cordón en mezcla de lino borgoña H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones cortos marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones cortos color terracota H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón con cordón de algodón marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2859</t>
-  </si>
-  <si>
-    <t>_Pantaloneta con cordón de mezcla de lino color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalón recto en mezcla de lino gris oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones cortos negros H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones de corte ancho negros H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXL</t>
-  </si>
-  <si>
-    <t>_Pantalones de sarga con cordón animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones de corte ancho crema estampado de flores negras H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones de pierna ancha de lino blanco estampado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantalones con cordón de pierna ancha negros H&amp;M</t>
-  </si>
-  <si>
-    <t>Tops /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>_Blusa con escote V blanco con estampado de limones H&amp;M</t>
-  </si>
-  <si>
-    <t>Tops /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Chaleco de traje a medida beige claro melange H&amp;M</t>
-  </si>
-  <si>
-    <t>_Top negro decorado con botones de conchas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Pantaloneta de mezcla de lino beige claro H&amp;M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vestidos /tallas-pequenas  </t>
   </si>
   <si>
     <t>_Vestido largo de tirantes finos azul oscuro estampado de hojas ONLY (entrado)</t>
+  </si>
+  <si>
+    <t>Talla XS</t>
   </si>
   <si>
     <t xml:space="preserve">Vestidos /tallas-pequenas /tallas-grandes  </t>
@@ -379,7 +100,13 @@
     <t>_ Vestido tipo camisa con botones negro Blooming (entrado)</t>
   </si>
   <si>
+    <t>Talla L</t>
+  </si>
+  <si>
     <t>_Vestido de mangas largas rosa fucsia con estampado de rosas (entrado)</t>
+  </si>
+  <si>
+    <t>Talla S</t>
   </si>
   <si>
     <t>Vestido /tallas-medianas</t>
@@ -397,10 +124,16 @@
     <t>_Vestidfo rojo con mangas globo y lazo delantero (entrado)</t>
   </si>
   <si>
+    <t>Talla XL</t>
+  </si>
+  <si>
     <t>_Mono de mangas largas negro con estampado triangular carmelita Zabai (entrado)</t>
   </si>
   <si>
     <t>_Vestido de mngas largas negro con estampado triangular carmelita Zabai (entrado)</t>
+  </si>
+  <si>
+    <t>Talla XXL</t>
   </si>
   <si>
     <t>_Vestido con escote en V verde con estampado de flores beige (entrado)</t>
@@ -413,6 +146,9 @@
   </si>
   <si>
     <t>_Vestido azul oscuro estampado de flores blsncas pequeñas con botones (entrado)</t>
+  </si>
+  <si>
+    <t>Talla M</t>
   </si>
   <si>
     <t xml:space="preserve">Vestido /tallas-grandes  </t>
@@ -529,7 +265,13 @@
     <t>_Joggers de vestir slim fit negro H&amp;M</t>
   </si>
   <si>
+    <t>Tops /hm /tallas-medianas</t>
+  </si>
+  <si>
     <t>_Top de mangas largas de microfibra negro H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-extras </t>
   </si>
   <si>
     <t>_Pantalones bootcut beige claro H&amp;M</t>
@@ -538,7 +280,13 @@
     <t>Talla XL_14</t>
   </si>
   <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
+  </si>
+  <si>
     <t>_Pantalón pitillo gris claro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla S_4</t>
   </si>
   <si>
     <t>_Pantalón pitillo beige H&amp;M</t>
@@ -1732,12 +1480,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX454"/>
+  <dimension ref="A1:XEX372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18184,7 +17932,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>3358</v>
+        <v>3446</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -18196,7 +17944,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -18205,28 +17953,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O33" si="0">F2</f>
-        <v>10</v>
+        <f t="shared" ref="O2:O47" si="0">F2</f>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>3359</v>
+        <v>3447</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -18235,28 +17983,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>3360</v>
+        <v>3448</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -18265,28 +18013,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>3361</v>
+        <v>3449</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
         <v>30</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -18295,28 +18043,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>3362</v>
+        <v>3450</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -18325,28 +18073,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>3363</v>
+        <v>3451</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -18355,28 +18103,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>3364</v>
+        <v>3452</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -18385,28 +18133,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>3365</v>
+        <v>3453</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -18415,28 +18163,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>3366</v>
+        <v>3454</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -18445,28 +18193,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>3367</v>
+        <v>3455</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -18475,28 +18223,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>3368</v>
+        <v>3456</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -18505,28 +18253,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>3369</v>
+        <v>3457</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3">
         <v>30</v>
-      </c>
-      <c r="F13" s="3">
-        <v>10</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -18535,28 +18283,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>3370</v>
+        <v>3458</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -18565,28 +18313,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>3371</v>
+        <v>3459</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -18595,28 +18343,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>3372</v>
+        <v>3460</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -18625,28 +18373,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>3373</v>
+        <v>3461</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -18655,28 +18403,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>3374</v>
+        <v>3462</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -18685,28 +18433,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>3375</v>
+        <v>3463</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -18715,28 +18463,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>3376</v>
+        <v>3464</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -18745,28 +18493,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>3377</v>
+        <v>3465</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -18775,28 +18523,28 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>3378</v>
+        <v>3466</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F22" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -18805,29 +18553,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>3379</v>
+        <v>3467</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>24</v>
+      </c>
       <c r="F23" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -18836,29 +18583,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>3380</v>
+        <v>3468</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>29</v>
+      </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -18867,29 +18613,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>3381</v>
+        <v>3469</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F25" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -18898,29 +18643,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>3382</v>
+        <v>3470</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F26" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -18929,29 +18673,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>3383</v>
+        <v>3471</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>27</v>
+      </c>
       <c r="F27" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -18960,29 +18703,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>3384</v>
+        <v>3472</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F28" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -18991,29 +18733,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>3385</v>
+        <v>3473</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F29" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -19022,29 +18763,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>3386</v>
+        <v>3474</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F30" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -19053,29 +18793,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2">
-        <v>3387</v>
+        <v>3475</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F31" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -19084,29 +18823,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2">
-        <v>3388</v>
+        <v>3476</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F32" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -19115,29 +18853,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
-        <v>3389</v>
+        <v>3477</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F33" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -19146,29 +18883,28 @@
         <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2">
-        <v>3390</v>
+        <v>3478</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>29</v>
+      </c>
       <c r="F34" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -19177,29 +18913,28 @@
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" ref="O34:O65" si="1">F34</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2">
-        <v>3391</v>
+        <v>3479</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>29</v>
+      </c>
       <c r="F35" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -19208,29 +18943,28 @@
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2">
-        <v>3392</v>
+        <v>3480</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F36" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -19239,29 +18973,28 @@
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2">
-        <v>3393</v>
+        <v>3481</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>35</v>
+      </c>
       <c r="F37" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -19270,29 +19003,28 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2">
-        <v>3394</v>
+        <v>3482</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>29</v>
+      </c>
       <c r="F38" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -19301,29 +19033,28 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2">
-        <v>3395</v>
+        <v>3483</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F39" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -19332,60 +19063,58 @@
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2">
-        <v>3396</v>
+        <v>3484</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F40" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G40" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2">
-        <v>3397</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>69</v>
+        <v>3487</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>27</v>
+      </c>
       <c r="F41" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -19397,26 +19126,25 @@
         <v>1</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2">
-        <v>3398</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
+        <v>3488</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F42" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -19428,26 +19156,25 @@
         <v>1</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2">
-        <v>3399</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
+        <v>3489</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F43" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -19459,26 +19186,25 @@
         <v>1</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2">
-        <v>3400</v>
+        <v>3490</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>43</v>
+      </c>
       <c r="F44" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -19490,26 +19216,25 @@
         <v>1</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2">
-        <v>3401</v>
+        <v>3491</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>86</v>
+      </c>
       <c r="F45" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -19521,26 +19246,25 @@
         <v>1</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2">
-        <v>3402</v>
+        <v>3492</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>89</v>
+      </c>
       <c r="F46" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
@@ -19552,26 +19276,25 @@
         <v>1</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="O46:O74" si="1">F46</f>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2">
-        <v>3403</v>
+        <v>3493</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>89</v>
+      </c>
       <c r="F47" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
@@ -19584,25 +19307,24 @@
       </c>
       <c r="O47" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2">
-        <v>3404</v>
+        <v>3494</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>92</v>
+      </c>
       <c r="F48" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
@@ -19615,25 +19337,24 @@
       </c>
       <c r="O48" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2">
-        <v>3405</v>
+        <v>3495</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>86</v>
+      </c>
       <c r="F49" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
@@ -19646,24 +19367,24 @@
       </c>
       <c r="O49" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2">
-        <v>3406</v>
+        <v>3496</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
@@ -19676,24 +19397,24 @@
       </c>
       <c r="O50" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2">
-        <v>3407</v>
+        <v>3497</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
@@ -19706,24 +19427,24 @@
       </c>
       <c r="O51" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2">
-        <v>3408</v>
+        <v>3498</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
@@ -19736,24 +19457,24 @@
       </c>
       <c r="O52" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2">
-        <v>3409</v>
+        <v>3499</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F53" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
@@ -19762,28 +19483,28 @@
         <v>0</v>
       </c>
       <c r="I53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2">
-        <v>3410</v>
+        <v>3500</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F54" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="4">
         <v>1</v>
@@ -19792,28 +19513,28 @@
         <v>0</v>
       </c>
       <c r="I54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2">
-        <v>3411</v>
+        <v>3501</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F55" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -19822,25 +19543,25 @@
         <v>0</v>
       </c>
       <c r="I55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2">
-        <v>3412</v>
+        <v>3502</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F56" s="3">
         <v>30</v>
@@ -19852,7 +19573,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="3">
         <f t="shared" si="1"/>
@@ -19861,16 +19582,16 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2">
-        <v>3413</v>
+        <v>3503</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F57" s="3">
         <v>35</v>
@@ -19882,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="3">
         <f t="shared" si="1"/>
@@ -19891,19 +19612,19 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2">
-        <v>3414</v>
+        <v>3504</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F58" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G58" s="4">
         <v>1</v>
@@ -19912,28 +19633,28 @@
         <v>0</v>
       </c>
       <c r="I58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2">
-        <v>3415</v>
+        <v>3505</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F59" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -19942,28 +19663,28 @@
         <v>0</v>
       </c>
       <c r="I59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2">
-        <v>3416</v>
+        <v>3506</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F60" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G60" s="4">
         <v>1</v>
@@ -19972,28 +19693,28 @@
         <v>0</v>
       </c>
       <c r="I60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2">
-        <v>3417</v>
+        <v>3507</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F61" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -20002,28 +19723,28 @@
         <v>0</v>
       </c>
       <c r="I61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2">
-        <v>3418</v>
+        <v>3508</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F62" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
@@ -20032,25 +19753,25 @@
         <v>0</v>
       </c>
       <c r="I62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2">
-        <v>3419</v>
+        <v>3510</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F63" s="3">
         <v>30</v>
@@ -20062,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="3">
         <f t="shared" si="1"/>
@@ -20071,19 +19792,19 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2">
-        <v>3420</v>
+        <v>3511</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F64" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
@@ -20092,28 +19813,28 @@
         <v>0</v>
       </c>
       <c r="I64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2">
-        <v>3421</v>
+        <v>3512</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F65" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
@@ -20122,28 +19843,28 @@
         <v>0</v>
       </c>
       <c r="I65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2">
-        <v>3422</v>
+        <v>3513</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F66" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
@@ -20152,25 +19873,25 @@
         <v>0</v>
       </c>
       <c r="I66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O83" si="2">F66</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2">
-        <v>3423</v>
+        <v>3514</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F67" s="3">
         <v>30</v>
@@ -20182,28 +19903,28 @@
         <v>0</v>
       </c>
       <c r="I67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2">
-        <v>3424</v>
+        <v>3515</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F68" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
@@ -20212,28 +19933,28 @@
         <v>0</v>
       </c>
       <c r="I68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F69" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -20242,28 +19963,28 @@
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2">
-        <v>3426</v>
+        <v>3517</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F70" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
@@ -20272,28 +19993,28 @@
         <v>0</v>
       </c>
       <c r="I70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="2" t="s">
-        <v>100</v>
+      <c r="A71" s="2">
+        <v>3518</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F71" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G71" s="4">
         <v>1</v>
@@ -20302,28 +20023,28 @@
         <v>0</v>
       </c>
       <c r="I71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2">
-        <v>3428</v>
+        <v>3519</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F72" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G72" s="4">
         <v>1</v>
@@ -20332,25 +20053,25 @@
         <v>0</v>
       </c>
       <c r="I72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2">
-        <v>3429</v>
+        <v>3520</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F73" s="3">
         <v>30</v>
@@ -20362,25 +20083,25 @@
         <v>0</v>
       </c>
       <c r="I73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2">
-        <v>3430</v>
+        <v>3522</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="F74" s="3">
         <v>30</v>
@@ -20392,2470 +20113,90 @@
         <v>0</v>
       </c>
       <c r="I74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="2">
-        <v>3431</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="3">
-        <v>30</v>
-      </c>
-      <c r="G75" s="4">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-      <c r="O75" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="75" spans="6:7">
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="2">
-        <v>3432</v>
-      </c>
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="3">
-        <v>30</v>
-      </c>
-      <c r="G76" s="4">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="76" spans="6:7">
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="2">
-        <v>3433</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="3">
-        <v>30</v>
-      </c>
-      <c r="G77" s="4">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0</v>
-      </c>
-      <c r="O77" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="77" spans="6:7">
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="2">
-        <v>3434</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="3">
-        <v>35</v>
-      </c>
-      <c r="G78" s="4">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+    <row r="78" spans="6:7">
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="2">
-        <v>3435</v>
-      </c>
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="3">
-        <v>30</v>
-      </c>
-      <c r="G79" s="4">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="4">
-        <v>0</v>
-      </c>
-      <c r="O79" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="79" spans="6:7">
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="2">
-        <v>3436</v>
-      </c>
-      <c r="B80" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="3">
-        <v>20</v>
-      </c>
-      <c r="G80" s="4">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" s="4">
-        <v>0</v>
-      </c>
-      <c r="O80" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="80" spans="6:7">
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="2">
-        <v>3437</v>
-      </c>
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" s="3">
-        <v>30</v>
-      </c>
-      <c r="G81" s="4">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="81" spans="6:7">
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="2">
-        <v>3439</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>36</v>
-      </c>
-      <c r="F82" s="3">
-        <v>30</v>
-      </c>
-      <c r="G82" s="4">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="82" spans="6:7">
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="2">
-        <v>3441</v>
-      </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="3">
-        <v>35</v>
-      </c>
-      <c r="G83" s="4">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+    <row r="83" spans="6:7">
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="2">
-        <v>3446</v>
-      </c>
-      <c r="B84" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" s="3">
-        <v>30</v>
-      </c>
-      <c r="G84" s="4">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0</v>
-      </c>
-      <c r="O84" s="3">
-        <f t="shared" ref="O84:O129" si="3">F84</f>
-        <v>30</v>
-      </c>
+    <row r="84" spans="6:7">
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="2">
-        <v>3447</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="85" spans="6:7">
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="372" spans="8:8">
+      <c r="H372" t="s">
         <v>119</v>
-      </c>
-      <c r="D85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" s="3">
-        <v>20</v>
-      </c>
-      <c r="G85" s="4">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="4">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="2">
-        <v>3448</v>
-      </c>
-      <c r="B86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="3">
-        <v>30</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="2">
-        <v>3449</v>
-      </c>
-      <c r="B87" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="3">
-        <v>30</v>
-      </c>
-      <c r="G87" s="4">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="4">
-        <v>0</v>
-      </c>
-      <c r="O87" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="2">
-        <v>3450</v>
-      </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" t="s">
-        <v>125</v>
-      </c>
-      <c r="D88" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" s="3">
-        <v>30</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="O88" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="2">
-        <v>3451</v>
-      </c>
-      <c r="B89" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="3">
-        <v>40</v>
-      </c>
-      <c r="G89" s="4">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="2">
-        <v>3452</v>
-      </c>
-      <c r="B90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="3">
-        <v>40</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" s="4">
-        <v>0</v>
-      </c>
-      <c r="O90" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="2">
-        <v>3453</v>
-      </c>
-      <c r="B91" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="3">
-        <v>30</v>
-      </c>
-      <c r="G91" s="4">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" s="4">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="2">
-        <v>3454</v>
-      </c>
-      <c r="B92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="3">
-        <v>35</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0</v>
-      </c>
-      <c r="O92" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="2">
-        <v>3455</v>
-      </c>
-      <c r="B93" t="s">
-        <v>121</v>
-      </c>
-      <c r="C93" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" t="s">
-        <v>36</v>
-      </c>
-      <c r="F93" s="3">
-        <v>25</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="4">
-        <v>0</v>
-      </c>
-      <c r="O93" s="3">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="2">
-        <v>3456</v>
-      </c>
-      <c r="B94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" s="3">
-        <v>30</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="2">
-        <v>3457</v>
-      </c>
-      <c r="B95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95" s="3">
-        <v>30</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" s="4">
-        <v>0</v>
-      </c>
-      <c r="O95" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="2">
-        <v>3458</v>
-      </c>
-      <c r="B96" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" s="3">
-        <v>30</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" s="4">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="2">
-        <v>3459</v>
-      </c>
-      <c r="B97" t="s">
-        <v>129</v>
-      </c>
-      <c r="C97" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" t="s">
-        <v>46</v>
-      </c>
-      <c r="F97" s="3">
-        <v>40</v>
-      </c>
-      <c r="G97" s="4">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" s="4">
-        <v>0</v>
-      </c>
-      <c r="O97" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="2">
-        <v>3460</v>
-      </c>
-      <c r="B98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="3">
-        <v>30</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
-      <c r="O98" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="2">
-        <v>3461</v>
-      </c>
-      <c r="B99" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="3">
-        <v>25</v>
-      </c>
-      <c r="G99" s="4">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="O99" s="3">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="2">
-        <v>3462</v>
-      </c>
-      <c r="B100" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" t="s">
-        <v>139</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="3">
-        <v>35</v>
-      </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="2">
-        <v>3463</v>
-      </c>
-      <c r="B101" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" t="s">
-        <v>141</v>
-      </c>
-      <c r="F101" s="3">
-        <v>35</v>
-      </c>
-      <c r="G101" s="4">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="2">
-        <v>3464</v>
-      </c>
-      <c r="B102" t="s">
-        <v>129</v>
-      </c>
-      <c r="C102" t="s">
-        <v>142</v>
-      </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="3">
-        <v>20</v>
-      </c>
-      <c r="G102" s="4">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" s="4">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="2">
-        <v>3465</v>
-      </c>
-      <c r="B103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" t="s">
-        <v>145</v>
-      </c>
-      <c r="F103" s="3">
-        <v>20</v>
-      </c>
-      <c r="G103" s="4">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="4">
-        <v>0</v>
-      </c>
-      <c r="O103" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="2">
-        <v>3466</v>
-      </c>
-      <c r="B104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" t="s">
-        <v>41</v>
-      </c>
-      <c r="F104" s="3">
-        <v>20</v>
-      </c>
-      <c r="G104" s="4">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104" s="4">
-        <v>0</v>
-      </c>
-      <c r="O104" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="2">
-        <v>3467</v>
-      </c>
-      <c r="B105" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" t="s">
-        <v>147</v>
-      </c>
-      <c r="D105" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105" s="3">
-        <v>30</v>
-      </c>
-      <c r="G105" s="4">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="O105" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="2">
-        <v>3468</v>
-      </c>
-      <c r="B106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="3">
-        <v>20</v>
-      </c>
-      <c r="G106" s="4">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" s="4">
-        <v>0</v>
-      </c>
-      <c r="O106" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="2">
-        <v>3469</v>
-      </c>
-      <c r="B107" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D107" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="3">
-        <v>30</v>
-      </c>
-      <c r="G107" s="4">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="O107" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="2">
-        <v>3470</v>
-      </c>
-      <c r="B108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" t="s">
-        <v>36</v>
-      </c>
-      <c r="F108" s="3">
-        <v>20</v>
-      </c>
-      <c r="G108" s="4">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="O108" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="2">
-        <v>3471</v>
-      </c>
-      <c r="B109" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" t="s">
-        <v>151</v>
-      </c>
-      <c r="D109" t="s">
-        <v>41</v>
-      </c>
-      <c r="F109" s="3">
-        <v>25</v>
-      </c>
-      <c r="G109" s="4">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="O109" s="3">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="2">
-        <v>3472</v>
-      </c>
-      <c r="B110" t="s">
-        <v>121</v>
-      </c>
-      <c r="C110" t="s">
-        <v>152</v>
-      </c>
-      <c r="D110" t="s">
-        <v>36</v>
-      </c>
-      <c r="F110" s="3">
-        <v>35</v>
-      </c>
-      <c r="G110" s="4">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="O110" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="2">
-        <v>3473</v>
-      </c>
-      <c r="B111" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" t="s">
-        <v>153</v>
-      </c>
-      <c r="D111" t="s">
-        <v>36</v>
-      </c>
-      <c r="F111" s="3">
-        <v>35</v>
-      </c>
-      <c r="G111" s="4">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="O111" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="2">
-        <v>3474</v>
-      </c>
-      <c r="B112" t="s">
-        <v>132</v>
-      </c>
-      <c r="C112" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="3">
-        <v>30</v>
-      </c>
-      <c r="G112" s="4">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="O112" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="2">
-        <v>3475</v>
-      </c>
-      <c r="B113" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" s="3">
-        <v>35</v>
-      </c>
-      <c r="G113" s="4">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" s="4">
-        <v>0</v>
-      </c>
-      <c r="O113" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="2">
-        <v>3476</v>
-      </c>
-      <c r="B114" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="3">
-        <v>35</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114" s="4">
-        <v>0</v>
-      </c>
-      <c r="O114" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="2">
-        <v>3477</v>
-      </c>
-      <c r="B115" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="3">
-        <v>30</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" s="4">
-        <v>0</v>
-      </c>
-      <c r="O115" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="2">
-        <v>3478</v>
-      </c>
-      <c r="B116" t="s">
-        <v>129</v>
-      </c>
-      <c r="C116" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="3">
-        <v>40</v>
-      </c>
-      <c r="G116" s="4">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116" s="4">
-        <v>0</v>
-      </c>
-      <c r="O116" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="2">
-        <v>3479</v>
-      </c>
-      <c r="B117" t="s">
-        <v>129</v>
-      </c>
-      <c r="C117" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="3">
-        <v>35</v>
-      </c>
-      <c r="G117" s="4">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117" s="4">
-        <v>0</v>
-      </c>
-      <c r="O117" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="2">
-        <v>3480</v>
-      </c>
-      <c r="B118" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" t="s">
-        <v>28</v>
-      </c>
-      <c r="F118" s="3">
-        <v>20</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118" s="4">
-        <v>0</v>
-      </c>
-      <c r="O118" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="2">
-        <v>3481</v>
-      </c>
-      <c r="B119" t="s">
-        <v>132</v>
-      </c>
-      <c r="C119" t="s">
-        <v>161</v>
-      </c>
-      <c r="D119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F119" s="3">
-        <v>35</v>
-      </c>
-      <c r="G119" s="4">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="4">
-        <v>0</v>
-      </c>
-      <c r="O119" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="2">
-        <v>3482</v>
-      </c>
-      <c r="B120" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" t="s">
-        <v>162</v>
-      </c>
-      <c r="D120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="3">
-        <v>35</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" s="4">
-        <v>0</v>
-      </c>
-      <c r="O120" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="2">
-        <v>3483</v>
-      </c>
-      <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" t="s">
-        <v>163</v>
-      </c>
-      <c r="D121" t="s">
-        <v>36</v>
-      </c>
-      <c r="F121" s="3">
-        <v>40</v>
-      </c>
-      <c r="G121" s="4">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" s="4">
-        <v>0</v>
-      </c>
-      <c r="O121" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="2">
-        <v>3484</v>
-      </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" t="s">
-        <v>164</v>
-      </c>
-      <c r="D122" t="s">
-        <v>36</v>
-      </c>
-      <c r="F122" s="3">
-        <v>40</v>
-      </c>
-      <c r="G122" s="4">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" s="4">
-        <v>0</v>
-      </c>
-      <c r="O122" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="2">
-        <v>3487</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D123" t="s">
-        <v>41</v>
-      </c>
-      <c r="F123" s="3">
-        <v>28</v>
-      </c>
-      <c r="G123" s="4">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123" s="4">
-        <v>1</v>
-      </c>
-      <c r="O123" s="3">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="2">
-        <v>3488</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" s="3">
-        <v>28</v>
-      </c>
-      <c r="G124" s="4">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" s="4">
-        <v>1</v>
-      </c>
-      <c r="O124" s="3">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="2">
-        <v>3489</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C125" t="s">
-        <v>169</v>
-      </c>
-      <c r="D125" t="s">
-        <v>36</v>
-      </c>
-      <c r="F125" s="3">
-        <v>40</v>
-      </c>
-      <c r="G125" s="4">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125" s="4">
-        <v>1</v>
-      </c>
-      <c r="O125" s="3">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="2">
-        <v>3490</v>
-      </c>
-      <c r="B126" t="s">
-        <v>112</v>
-      </c>
-      <c r="C126" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" t="s">
-        <v>36</v>
-      </c>
-      <c r="F126" s="3">
-        <v>20</v>
-      </c>
-      <c r="G126" s="4">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="4">
-        <v>1</v>
-      </c>
-      <c r="O126" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="2">
-        <v>3491</v>
-      </c>
-      <c r="B127" t="s">
-        <v>86</v>
-      </c>
-      <c r="C127" t="s">
-        <v>171</v>
-      </c>
-      <c r="D127" t="s">
-        <v>172</v>
-      </c>
-      <c r="F127" s="3">
-        <v>35</v>
-      </c>
-      <c r="G127" s="4">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127" s="4">
-        <v>1</v>
-      </c>
-      <c r="O127" s="3">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="2">
-        <v>3492</v>
-      </c>
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" t="s">
-        <v>173</v>
-      </c>
-      <c r="D128" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" s="3">
-        <v>30</v>
-      </c>
-      <c r="G128" s="4">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="2">
-        <v>3493</v>
-      </c>
-      <c r="B129" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" t="s">
-        <v>30</v>
-      </c>
-      <c r="F129" s="3">
-        <v>30</v>
-      </c>
-      <c r="G129" s="4">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="2">
-        <v>3494</v>
-      </c>
-      <c r="B130" t="s">
-        <v>86</v>
-      </c>
-      <c r="C130" t="s">
-        <v>175</v>
-      </c>
-      <c r="D130" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="3">
-        <v>30</v>
-      </c>
-      <c r="G130" s="4">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="2">
-        <v>3495</v>
-      </c>
-      <c r="B131" t="s">
-        <v>86</v>
-      </c>
-      <c r="C131" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" t="s">
-        <v>172</v>
-      </c>
-      <c r="F131" s="3">
-        <v>35</v>
-      </c>
-      <c r="G131" s="4">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="2">
-        <v>3496</v>
-      </c>
-      <c r="B132" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132" t="s">
-        <v>178</v>
-      </c>
-      <c r="D132" t="s">
-        <v>36</v>
-      </c>
-      <c r="F132" s="3">
-        <v>35</v>
-      </c>
-      <c r="G132" s="4">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="2">
-        <v>3497</v>
-      </c>
-      <c r="B133" t="s">
-        <v>179</v>
-      </c>
-      <c r="C133" t="s">
-        <v>180</v>
-      </c>
-      <c r="D133" t="s">
-        <v>28</v>
-      </c>
-      <c r="F133" s="3">
-        <v>35</v>
-      </c>
-      <c r="G133" s="4">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="2">
-        <v>3498</v>
-      </c>
-      <c r="B134" t="s">
-        <v>168</v>
-      </c>
-      <c r="C134" t="s">
-        <v>181</v>
-      </c>
-      <c r="D134" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="3">
-        <v>35</v>
-      </c>
-      <c r="G134" s="4">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="2">
-        <v>3499</v>
-      </c>
-      <c r="B135" t="s">
-        <v>182</v>
-      </c>
-      <c r="C135" t="s">
-        <v>183</v>
-      </c>
-      <c r="D135" t="s">
-        <v>24</v>
-      </c>
-      <c r="F135" s="3">
-        <v>28</v>
-      </c>
-      <c r="G135" s="4">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="2">
-        <v>3500</v>
-      </c>
-      <c r="B136" t="s">
-        <v>182</v>
-      </c>
-      <c r="C136" t="s">
-        <v>184</v>
-      </c>
-      <c r="D136" t="s">
-        <v>185</v>
-      </c>
-      <c r="F136" s="3">
-        <v>30</v>
-      </c>
-      <c r="G136" s="4">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="2">
-        <v>3501</v>
-      </c>
-      <c r="B137" t="s">
-        <v>179</v>
-      </c>
-      <c r="C137" t="s">
-        <v>184</v>
-      </c>
-      <c r="D137" t="s">
-        <v>186</v>
-      </c>
-      <c r="F137" s="3">
-        <v>30</v>
-      </c>
-      <c r="G137" s="4">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="2">
-        <v>3502</v>
-      </c>
-      <c r="B138" t="s">
-        <v>168</v>
-      </c>
-      <c r="C138" t="s">
-        <v>187</v>
-      </c>
-      <c r="D138" t="s">
-        <v>36</v>
-      </c>
-      <c r="F138" s="3">
-        <v>30</v>
-      </c>
-      <c r="G138" s="4">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="2">
-        <v>3503</v>
-      </c>
-      <c r="B139" t="s">
-        <v>168</v>
-      </c>
-      <c r="C139" t="s">
-        <v>188</v>
-      </c>
-      <c r="D139" t="s">
-        <v>189</v>
-      </c>
-      <c r="F139" s="3">
-        <v>35</v>
-      </c>
-      <c r="G139" s="4">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="2">
-        <v>3504</v>
-      </c>
-      <c r="B140" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" t="s">
-        <v>190</v>
-      </c>
-      <c r="D140" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="3">
-        <v>25</v>
-      </c>
-      <c r="G140" s="4">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="2">
-        <v>3505</v>
-      </c>
-      <c r="B141" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" t="s">
-        <v>191</v>
-      </c>
-      <c r="D141" t="s">
-        <v>24</v>
-      </c>
-      <c r="F141" s="3">
-        <v>35</v>
-      </c>
-      <c r="G141" s="4">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="2">
-        <v>3506</v>
-      </c>
-      <c r="B142" t="s">
-        <v>182</v>
-      </c>
-      <c r="C142" t="s">
-        <v>192</v>
-      </c>
-      <c r="D142" t="s">
-        <v>46</v>
-      </c>
-      <c r="F142" s="3">
-        <v>35</v>
-      </c>
-      <c r="G142" s="4">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="2">
-        <v>3507</v>
-      </c>
-      <c r="B143" t="s">
-        <v>168</v>
-      </c>
-      <c r="C143" t="s">
-        <v>191</v>
-      </c>
-      <c r="D143" t="s">
-        <v>36</v>
-      </c>
-      <c r="F143" s="3">
-        <v>35</v>
-      </c>
-      <c r="G143" s="4">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="2">
-        <v>3508</v>
-      </c>
-      <c r="B144" t="s">
-        <v>179</v>
-      </c>
-      <c r="C144" t="s">
-        <v>193</v>
-      </c>
-      <c r="D144" t="s">
-        <v>41</v>
-      </c>
-      <c r="F144" s="3">
-        <v>35</v>
-      </c>
-      <c r="G144" s="4">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="2">
-        <v>3510</v>
-      </c>
-      <c r="B145" t="s">
-        <v>179</v>
-      </c>
-      <c r="C145" t="s">
-        <v>194</v>
-      </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="F145" s="3">
-        <v>30</v>
-      </c>
-      <c r="G145" s="4">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="2">
-        <v>3511</v>
-      </c>
-      <c r="B146" t="s">
-        <v>168</v>
-      </c>
-      <c r="C146" t="s">
-        <v>195</v>
-      </c>
-      <c r="D146" t="s">
-        <v>36</v>
-      </c>
-      <c r="F146" s="3">
-        <v>30</v>
-      </c>
-      <c r="G146" s="4">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="2">
-        <v>3512</v>
-      </c>
-      <c r="B147" t="s">
-        <v>182</v>
-      </c>
-      <c r="C147" t="s">
-        <v>196</v>
-      </c>
-      <c r="D147" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" s="3">
-        <v>35</v>
-      </c>
-      <c r="G147" s="4">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="2">
-        <v>3513</v>
-      </c>
-      <c r="B148" t="s">
-        <v>168</v>
-      </c>
-      <c r="C148" t="s">
-        <v>197</v>
-      </c>
-      <c r="D148" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" s="3">
-        <v>35</v>
-      </c>
-      <c r="G148" s="4">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="2">
-        <v>3514</v>
-      </c>
-      <c r="B149" t="s">
-        <v>182</v>
-      </c>
-      <c r="C149" t="s">
-        <v>198</v>
-      </c>
-      <c r="D149" t="s">
-        <v>24</v>
-      </c>
-      <c r="F149" s="3">
-        <v>30</v>
-      </c>
-      <c r="G149" s="4">
-        <v>1</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="2">
-        <v>3515</v>
-      </c>
-      <c r="B150" t="s">
-        <v>179</v>
-      </c>
-      <c r="C150" t="s">
-        <v>199</v>
-      </c>
-      <c r="D150" t="s">
-        <v>41</v>
-      </c>
-      <c r="F150" s="3">
-        <v>35</v>
-      </c>
-      <c r="G150" s="4">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="2">
-        <v>3516</v>
-      </c>
-      <c r="B151" t="s">
-        <v>168</v>
-      </c>
-      <c r="C151" t="s">
-        <v>199</v>
-      </c>
-      <c r="D151" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151" s="3">
-        <v>35</v>
-      </c>
-      <c r="G151" s="4">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="2">
-        <v>3517</v>
-      </c>
-      <c r="B152" t="s">
-        <v>168</v>
-      </c>
-      <c r="C152" t="s">
-        <v>200</v>
-      </c>
-      <c r="D152" t="s">
-        <v>36</v>
-      </c>
-      <c r="F152" s="3">
-        <v>35</v>
-      </c>
-      <c r="G152" s="4">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="2">
-        <v>3518</v>
-      </c>
-      <c r="B153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C153" t="s">
-        <v>201</v>
-      </c>
-      <c r="D153" t="s">
-        <v>41</v>
-      </c>
-      <c r="F153" s="3">
-        <v>30</v>
-      </c>
-      <c r="G153" s="4">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="2">
-        <v>3519</v>
-      </c>
-      <c r="B154" t="s">
-        <v>182</v>
-      </c>
-      <c r="C154" t="s">
-        <v>201</v>
-      </c>
-      <c r="D154" t="s">
-        <v>24</v>
-      </c>
-      <c r="F154" s="3">
-        <v>30</v>
-      </c>
-      <c r="G154" s="4">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="2">
-        <v>3520</v>
-      </c>
-      <c r="B155" t="s">
-        <v>168</v>
-      </c>
-      <c r="C155" t="s">
-        <v>201</v>
-      </c>
-      <c r="D155" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="3">
-        <v>30</v>
-      </c>
-      <c r="G155" s="4">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="2">
-        <v>3522</v>
-      </c>
-      <c r="B156" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" t="s">
-        <v>202</v>
-      </c>
-      <c r="D156" t="s">
-        <v>36</v>
-      </c>
-      <c r="F156" s="3">
-        <v>30</v>
-      </c>
-      <c r="G156" s="4">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="2">
-        <v>3523</v>
-      </c>
-      <c r="D157" t="s">
-        <v>3</v>
-      </c>
-      <c r="F157" s="3"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="2">
-        <v>3524</v>
-      </c>
-      <c r="D158" t="s">
-        <v>3</v>
-      </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="4:7">
-      <c r="D159" t="s">
-        <v>3</v>
-      </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="4:7">
-      <c r="D160" t="s">
-        <v>3</v>
-      </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="4:7">
-      <c r="D161" t="s">
-        <v>3</v>
-      </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="4:7">
-      <c r="D162" t="s">
-        <v>3</v>
-      </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="4:7">
-      <c r="D163" t="s">
-        <v>3</v>
-      </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="4:7">
-      <c r="D164" t="s">
-        <v>3</v>
-      </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="4:7">
-      <c r="D165" t="s">
-        <v>3</v>
-      </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="4:7">
-      <c r="D166" t="s">
-        <v>3</v>
-      </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="6:7">
-      <c r="F167" s="3"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="6:7">
-      <c r="F168" s="3"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="6:7">
-      <c r="F169" s="3"/>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="6:7">
-      <c r="F170" s="3"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="6:7">
-      <c r="F171" s="3"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="6:7">
-      <c r="F172" s="3"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="6:6">
-      <c r="F173" s="3"/>
-    </row>
-    <row r="174" spans="6:6">
-      <c r="F174" s="3"/>
-    </row>
-    <row r="454" spans="8:8">
-      <c r="H454" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V137">
+  <autoFilter ref="A1:V55">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$74</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="161">
   <si>
     <t>Code</t>
   </si>
@@ -376,6 +376,129 @@
     <t>_Polo de punto fino blanco H&amp;M</t>
   </si>
   <si>
+    <t>Partes-de-abajo /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Shorts cortos con cordón de rayas azul marino y crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts vaporoso con cordón de ajuste marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>Partes-de-abajo /hm /tallas-grandes</t>
+  </si>
+  <si>
+    <t>_Shorts en mezcla de lino beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts de lino con cordón de ajuste beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts en mezcla de lino blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Falda enagua de satín rosa empolvado H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts bordado de flores blanco H&amp;M (SIN FOTO)</t>
+  </si>
+  <si>
+    <t>tops /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>_Crop top panal de abeja blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Gilet de punto con textura color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>tops /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>_Gilet de punto con textura burdeo H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XXS</t>
+  </si>
+  <si>
+    <t>_Crop top sin mangas acanalado azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Shorts sastre negro H&amp;M (entrado)</t>
+  </si>
+  <si>
+    <t>Talla L_12</t>
+  </si>
+  <si>
+    <t>_Top en punto de textura blanco  H&amp;M</t>
+  </si>
+  <si>
+    <t>tops /hm /tallas-grandes</t>
+  </si>
+  <si>
+    <t>_Camisa de mangas cortas azul claro con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa de vuelos rosa empolvado H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de corrugado de lazos verde empolvado claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa de algodón con ribete de vuelos blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa de mangas abulladas azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Blusa con mangas globo blanca H&amp;M</t>
+  </si>
+  <si>
+    <t>_Pulóver de mujer blanco con rayas rojas H&amp;M</t>
+  </si>
+  <si>
+    <t>_Body colaless en tejido crepé marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de tirantes con broderie inglés blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Gilet en punto texturizado blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de punto con cuello camisero beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top sin mangas de punto texturizado color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top sin mangas efecto crochet azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de tirantes panal de abeja negro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top de tirantes panal de abeja azul H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top sin mangas de microfibra marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>_Top corrugado con botones verde salvia ASOS</t>
+  </si>
+  <si>
+    <t>Talla M_8</t>
+  </si>
+  <si>
+    <t>_Shorts en mezcla de lino beige H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL_12</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -385,13 +508,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -436,16 +559,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,76 +598,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -544,6 +613,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -551,8 +635,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,16 +688,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +730,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +844,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,145 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,16 +976,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -879,9 +1002,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +1026,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -915,188 +1073,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1236,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1131,10 +1254,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,12 +1603,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX372"/>
+  <dimension ref="A1:XEX370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -20120,83 +20243,1033 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="6:7">
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
+    <row r="75" spans="1:9">
+      <c r="A75" s="2">
+        <v>3523</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="3">
+        <v>25</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="76" spans="6:7">
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
+    <row r="76" spans="1:9">
+      <c r="A76" s="2">
+        <v>3524</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="3">
+        <v>30</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="6:7">
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
+    <row r="77" spans="1:9">
+      <c r="A77" s="2">
+        <v>3525</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="3">
+        <v>25</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="6:7">
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
+    <row r="78" spans="1:9">
+      <c r="A78" s="2">
+        <v>3526</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="3">
+        <v>30</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="6:7">
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
+    <row r="79" spans="1:9">
+      <c r="A79" s="2">
+        <v>3527</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="3">
+        <v>25</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="6:7">
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
+    <row r="80" spans="1:9">
+      <c r="A80" s="2">
+        <v>3528</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="3">
+        <v>25</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="6:7">
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
+    <row r="81" spans="1:9">
+      <c r="A81" s="2">
+        <v>3529</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="3">
+        <v>35</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="6:7">
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
+    <row r="82" spans="1:9">
+      <c r="A82" s="2">
+        <v>3530</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="3">
+        <v>20</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="6:7">
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
+    <row r="83" spans="1:9">
+      <c r="A83" s="2">
+        <v>3531</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="3">
+        <v>20</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="6:7">
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2">
+        <v>3532</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="3">
+        <v>20</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="6:7">
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2">
+        <v>3533</v>
+      </c>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="3">
+        <v>20</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="6:7">
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
+    <row r="86" spans="1:9">
+      <c r="A86" s="2">
+        <v>3534</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="3">
+        <v>18</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="6:7">
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2">
+        <v>3535</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="3">
+        <v>25</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="6:7">
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2">
+        <v>3536</v>
+      </c>
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="3">
+        <v>20</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="6:7">
-      <c r="F89" s="3"/>
-      <c r="G89" s="4"/>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>3537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="3">
+        <v>25</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="6:7">
-      <c r="F90" s="3"/>
-      <c r="G90" s="4"/>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2">
+        <v>3538</v>
+      </c>
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="3">
+        <v>20</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="3"/>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2">
+        <v>3539</v>
+      </c>
+      <c r="B91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="3">
+        <v>20</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="6:6">
-      <c r="F92" s="3"/>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2">
+        <v>3540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="3">
+        <v>25</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="372" spans="8:8">
-      <c r="H372" t="s">
-        <v>119</v>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2">
+        <v>3542</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="3">
+        <v>25</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2">
+        <v>3543</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="3">
+        <v>20</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="2">
+        <v>3544</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="3">
+        <v>20</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="2">
+        <v>3545</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="3">
+        <v>20</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2">
+        <v>3546</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="3">
+        <v>20</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2">
+        <v>3547</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="3">
+        <v>20</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2">
+        <v>3548</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="3">
+        <v>25</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2">
+        <v>3549</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="3">
+        <v>20</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>3550</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="3">
+        <v>25</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>3551</v>
+      </c>
+      <c r="B102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="3">
+        <v>20</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>3552</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="3">
+        <v>20</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2">
+        <v>3554</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="3">
+        <v>20</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2">
+        <v>3555</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="3">
+        <v>20</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2">
+        <v>3556</v>
+      </c>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="3">
+        <v>30</v>
+      </c>
+      <c r="G106" s="4">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>3557</v>
+      </c>
+      <c r="C107" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>3558</v>
+      </c>
+      <c r="C108" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>3559</v>
+      </c>
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>3560</v>
+      </c>
+      <c r="C110" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>3561</v>
+      </c>
+      <c r="C111" t="s">
+        <v>159</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>3562</v>
+      </c>
+      <c r="C112" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>3563</v>
+      </c>
+      <c r="C113" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>3564</v>
+      </c>
+      <c r="C114" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>3565</v>
+      </c>
+      <c r="C115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>3566</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>3567</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>3568</v>
+      </c>
+      <c r="C118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>3569</v>
+      </c>
+      <c r="C119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>3570</v>
+      </c>
+      <c r="C120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>3571</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>3572</v>
+      </c>
+      <c r="C122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>3573</v>
+      </c>
+      <c r="C123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>3574</v>
+      </c>
+      <c r="C124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>3575</v>
+      </c>
+      <c r="C125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="370" spans="8:8">
+      <c r="H370" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V55">
+  <autoFilter ref="A1:V74">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>Code</t>
   </si>
@@ -85,301 +85,13 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t xml:space="preserve">Vestidos /tallas-pequenas  </t>
-  </si>
-  <si>
-    <t>_Vestido largo de tirantes finos azul oscuro estampado de hojas ONLY (entrado)</t>
-  </si>
-  <si>
-    <t>Talla XS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestidos /tallas-pequenas /tallas-grandes  </t>
-  </si>
-  <si>
-    <t>_ Vestido tipo camisa con botones negro Blooming (entrado)</t>
-  </si>
-  <si>
-    <t>Talla L</t>
-  </si>
-  <si>
-    <t>_Vestido de mangas largas rosa fucsia con estampado de rosas (entrado)</t>
-  </si>
-  <si>
-    <t>Talla S</t>
-  </si>
-  <si>
-    <t>Vestido /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Mono de algodón amarillo claro con estampado de flores pequeñas Pimkie (entrado)</t>
-  </si>
-  <si>
-    <t>Talla S/M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestidos /tallas-grandes  </t>
-  </si>
-  <si>
-    <t>_Vestidfo rojo con mangas globo y lazo delantero (entrado)</t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>_Mono de mangas largas negro con estampado triangular carmelita Zabai (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido de mngas largas negro con estampado triangular carmelita Zabai (entrado)</t>
-  </si>
-  <si>
-    <t>Talla XXL</t>
-  </si>
-  <si>
-    <t>_Vestido con escote en V verde con estampado de flores beige (entrado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido /tallas-pequenas  </t>
-  </si>
-  <si>
-    <t>_Vestido  largo blanco con escote en V Anany (enrtado)</t>
-  </si>
-  <si>
-    <t>_Vestido azul oscuro estampado de flores blsncas pequeñas con botones (entrado)</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido /tallas-grandes  </t>
-  </si>
-  <si>
-    <t>_Vestido estilo camisero en mezcla de lino beige con cinturón (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido rojo desmangado con detalle de cinturón (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido largo verde oscuro con detalle de cinturón (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido Frida Kahlo blanco con detalles en azul oscuro (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido con escote en V negro y verde con estampado de hojas (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido de mangas globo color crema con flores negras (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido elegante desmangado rosa fucsia (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido mangas 3/4 rojo estampado de flores y detalle de lazo (entrado)</t>
-  </si>
-  <si>
-    <t>Talla S_2</t>
-  </si>
-  <si>
-    <t>_Vestido negro con escote y mangas globo (entrado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido/tallas-extras  </t>
-  </si>
-  <si>
-    <t>_Vestido negro de algodón de mangas cortas (entrado)</t>
-  </si>
-  <si>
-    <t>Talla 3XL</t>
-  </si>
-  <si>
-    <t>_Vestido de escote en V rosa salmón con detalle de lazo (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido strapless verde lima claro de microfibra (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido beige con estampado en rosa de flores con mangas globo (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido color lila con vuelos (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido blanco desmangado con detalles de tiras (entrado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Vestido azul oscuro estampado (entrado) </t>
-  </si>
-  <si>
-    <t>_Vestido blanco con mangas globo y detalle de lazo trasero (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido verde oscuro strapless satinado (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido de microfibra sin mangas marrón oscuro (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido sin mangas azul con estampado de flores (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido satinado verde salvia con escote en V (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido blanco con bordados y detalle de cordón (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido corto negro de mangas 3/4 con cinto (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido de un solo hombro con copa amarillo (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido de flores verdes con lazo fino delantero y botones (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido texturizado verde salvia con lazo delantero (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido de mangas cortas con bordado de encaje rosa salmón (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido verde oscuro con bordado de encaje (entrado)</t>
-  </si>
-  <si>
-    <t>_Vestido blanco con tirantes finos y copa acolchada elastizado (entrado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido /hm /tallas-grandes  </t>
-  </si>
-  <si>
-    <t>_Vestido túnica beige animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>Vestido /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Hombres /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Joggers de vestir slim fit negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Tops /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>_Top de mangas largas de microfibra negro H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-extras </t>
-  </si>
-  <si>
-    <t>_Pantalones bootcut beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
-  </si>
-  <si>
-    <t>_Pantalón pitillo gris claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S_4</t>
-  </si>
-  <si>
-    <t>_Pantalón pitillo beige H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Pantalón cigarette beige H&amp;M </t>
-  </si>
-  <si>
-    <t>Talla XL_16</t>
-  </si>
-  <si>
-    <t>_Pantalón hasta el tobillo elastizado gris melange H&amp;M (SIN FOTO)</t>
-  </si>
-  <si>
-    <t>_Bermudas cargo loose fit gris oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hombres /hm /tallas-grandes </t>
-  </si>
-  <si>
-    <t>_Shrots relax fit azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>_Shrots relax fit verde salvia H&amp;M</t>
-  </si>
-  <si>
-    <t>Hombres /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>_Bermudas de piqué relax fit beige H&amp;M</t>
-  </si>
-  <si>
-    <t>_Shorts chinos regular fit blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S_33</t>
-  </si>
-  <si>
-    <t>Talla L_36</t>
-  </si>
-  <si>
-    <t>_Shorts con raya regular fit beige H&amp;M</t>
-  </si>
-  <si>
-    <t>_Shorts denim relaxed azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla M_34</t>
-  </si>
-  <si>
-    <t>_Polo de punto fino regilar fit turquesa H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa resort negra estampado de hojas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa estilo polo resort color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa en mezcla de lino de mangas largas beige con rayas H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa de manga corta oversized beige H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa resort loose fit negra S25 H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa resort acanalada azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>_Camisa resort en tejido waffled verde caqui H&amp;M</t>
-  </si>
-  <si>
-    <t>_Polo de punto fino azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>_Polo slim fit negro con zipper H&amp;M</t>
-  </si>
-  <si>
-    <t>_Polo de algodón pima beige H&amp;M</t>
-  </si>
-  <si>
-    <t>_Polo regular fit blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>_Polo de punto fino blanco H&amp;M</t>
-  </si>
-  <si>
     <t>Partes-de-abajo /hm /tallas-medianas</t>
   </si>
   <si>
     <t>_Shorts cortos con cordón de rayas azul marino y crema H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla M</t>
   </si>
   <si>
     <t>_Shorts vaporoso con cordón de ajuste marrón H&amp;M</t>
@@ -391,13 +103,25 @@
     <t>_Shorts en mezcla de lino beige claro H&amp;M</t>
   </si>
   <si>
+    <t>Talla XL</t>
+  </si>
+  <si>
     <t>_Shorts de lino con cordón de ajuste beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
   </si>
   <si>
     <t>_Shorts en mezcla de lino blanco H&amp;M</t>
   </si>
   <si>
+    <t>Talla S</t>
+  </si>
+  <si>
     <t>_Falda enagua de satín rosa empolvado H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XS</t>
   </si>
   <si>
     <t>_Shorts bordado de flores blanco H&amp;M (SIN FOTO)</t>
@@ -437,6 +161,9 @@
   </si>
   <si>
     <t>_Camisa de mangas cortas azul claro con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla L</t>
   </si>
   <si>
     <t>_Blusa de vuelos rosa empolvado H&amp;M</t>
@@ -494,9 +221,6 @@
   </si>
   <si>
     <t>Talla XL_12</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1603,12 +1327,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX370"/>
+  <dimension ref="A1:XEX297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18055,7 +17779,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>3446</v>
+        <v>3523</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -18067,37 +17791,37 @@
         <v>24</v>
       </c>
       <c r="F2" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O47" si="0">F2</f>
-        <v>30</v>
+        <f t="shared" ref="O2:O33" si="0">F2</f>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>3447</v>
+        <v>3524</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -18106,28 +17830,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>3448</v>
+        <v>3525</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -18136,25 +17860,25 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>3449</v>
+        <v>3526</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -18166,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="0"/>
@@ -18175,49 +17899,49 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2">
-        <v>3450</v>
+        <v>3527</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2">
-        <v>3451</v>
+        <v>3528</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -18226,28 +17950,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
-        <v>3452</v>
+        <v>3529</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -18256,28 +17980,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>3453</v>
+        <v>3530</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -18286,28 +18010,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>3454</v>
+        <v>3531</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -18316,28 +18040,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>3455</v>
+        <v>3532</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -18346,28 +18070,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>3456</v>
+        <v>3533</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -18376,58 +18100,58 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>3457</v>
+        <v>3534</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2">
-        <v>3458</v>
+        <v>3535</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -18440,24 +18164,24 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
-        <v>3459</v>
+        <v>3536</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -18466,28 +18190,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2">
-        <v>3460</v>
+        <v>3537</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -18496,28 +18220,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>3461</v>
+        <v>3538</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -18526,28 +18250,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>3462</v>
+        <v>3539</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -18556,28 +18280,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>3463</v>
+        <v>3540</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -18586,28 +18310,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>3464</v>
+        <v>3542</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -18616,25 +18340,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>3465</v>
+        <v>3543</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3">
         <v>20</v>
@@ -18646,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="0"/>
@@ -18655,16 +18379,16 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>3466</v>
+        <v>3544</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
         <v>20</v>
@@ -18676,7 +18400,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="0"/>
@@ -18685,19 +18409,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2">
-        <v>3467</v>
+        <v>3545</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -18706,25 +18430,25 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>3468</v>
+        <v>3546</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F24" s="3">
         <v>20</v>
@@ -18736,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="0"/>
@@ -18745,19 +18469,19 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>3469</v>
+        <v>3547</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -18766,28 +18490,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>3470</v>
+        <v>3548</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F26" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -18796,28 +18520,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>3471</v>
+        <v>3549</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -18826,28 +18550,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>3472</v>
+        <v>3550</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -18856,28 +18580,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>3473</v>
+        <v>3551</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F29" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -18886,58 +18610,58 @@
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>3474</v>
+        <v>3552</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2">
-        <v>3475</v>
+        <v>3554</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F31" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -18946,28 +18670,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2">
-        <v>3476</v>
+        <v>3555</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -18976,25 +18700,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
-        <v>3477</v>
+        <v>3556</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F33" s="3">
         <v>30</v>
@@ -19006,2270 +18730,928 @@
         <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="2">
-        <v>3478</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
+    <row r="34" spans="4:15">
       <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="3">
-        <v>40</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:O65" si="1">F34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="4">
+    </row>
+    <row r="35" spans="4:15">
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="O35" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O34" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="2">
-        <v>3479</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="3">
-        <v>35</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35">
+    <row r="36" spans="4:15">
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="4">
+    </row>
+    <row r="37" spans="4:15">
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O35" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="2">
-        <v>3480</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="3">
-        <v>20</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36">
+    <row r="38" spans="4:15">
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="4">
+    </row>
+    <row r="39" spans="4:15">
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="2">
-        <v>3481</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="3">
-        <v>35</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37">
+    <row r="40" spans="4:15">
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="4">
+    </row>
+    <row r="41" spans="4:15">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="2">
-        <v>3482</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="3">
-        <v>35</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38">
+    <row r="42" spans="15:15">
+      <c r="O42" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="4">
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O38" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="2">
-        <v>3483</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="3">
-        <v>40</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39">
+    <row r="44" spans="15:15">
+      <c r="O44" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="4">
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O39" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="2">
-        <v>3484</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="3">
-        <v>40</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40">
+    <row r="46" spans="15:15">
+      <c r="O46" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="2">
-        <v>3487</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="3">
-        <v>28</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="2">
-        <v>3488</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="3">
-        <v>28</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="2">
-        <v>3489</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="3">
-        <v>40</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="2">
-        <v>3490</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="3">
-        <v>20</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="2">
-        <v>3491</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="3">
-        <v>35</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="2">
-        <v>3492</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="3">
-        <v>30</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <f t="shared" ref="O46:O74" si="1">F46</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="2">
-        <v>3493</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="3">
-        <v>30</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
+    <row r="47" spans="15:15">
       <c r="O47" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="2">
-        <v>3494</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="3">
-        <v>30</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
+    <row r="48" spans="15:15">
       <c r="O48" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="2">
-        <v>3495</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49" s="3">
-        <v>35</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
+    <row r="49" spans="15:15">
       <c r="O49" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="2">
-        <v>3496</v>
-      </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="3">
-        <v>35</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1</v>
-      </c>
+    <row r="50" spans="15:15">
       <c r="O50" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="2">
-        <v>3497</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="3">
-        <v>35</v>
-      </c>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1</v>
-      </c>
+    <row r="51" spans="15:15">
       <c r="O51" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="2">
-        <v>3498</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="3">
-        <v>35</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
+    <row r="52" spans="15:15">
       <c r="O52" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="2">
-        <v>3499</v>
-      </c>
-      <c r="B53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="3">
-        <v>28</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1</v>
-      </c>
+    <row r="53" spans="15:15">
       <c r="O53" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="2">
-        <v>3500</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="3">
-        <v>30</v>
-      </c>
-      <c r="G54" s="4">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>1</v>
-      </c>
+    <row r="54" spans="15:15">
       <c r="O54" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="2">
-        <v>3501</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="3">
-        <v>30</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1</v>
-      </c>
+    <row r="55" spans="15:15">
       <c r="O55" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="2">
-        <v>3502</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="3">
-        <v>30</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
+    <row r="56" spans="15:15">
       <c r="O56" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="2">
-        <v>3503</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="3">
-        <v>35</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>1</v>
-      </c>
+    <row r="57" spans="15:15">
       <c r="O57" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="2">
-        <v>3504</v>
-      </c>
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="3">
-        <v>25</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1</v>
-      </c>
+    <row r="58" spans="15:15">
       <c r="O58" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="2">
-        <v>3505</v>
-      </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="3">
-        <v>35</v>
-      </c>
-      <c r="G59" s="4">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>1</v>
-      </c>
+    <row r="59" spans="15:15">
       <c r="O59" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="2">
-        <v>3506</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="3">
-        <v>35</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1</v>
-      </c>
+    <row r="60" spans="15:15">
       <c r="O60" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="2">
-        <v>3507</v>
-      </c>
-      <c r="B61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="3">
-        <v>35</v>
-      </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <v>1</v>
-      </c>
+    <row r="61" spans="15:15">
       <c r="O61" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="2">
-        <v>3508</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="3">
-        <v>35</v>
-      </c>
-      <c r="G62" s="4">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1</v>
-      </c>
+    <row r="62" spans="15:15">
       <c r="O62" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="2">
-        <v>3510</v>
-      </c>
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="3">
-        <v>30</v>
-      </c>
-      <c r="G63" s="4">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
+    <row r="63" spans="15:15">
       <c r="O63" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="2">
-        <v>3511</v>
-      </c>
-      <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="3">
-        <v>30</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>1</v>
-      </c>
+    <row r="64" spans="15:15">
       <c r="O64" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="2">
-        <v>3512</v>
-      </c>
-      <c r="B65" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="3">
-        <v>35</v>
-      </c>
-      <c r="G65" s="4">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>1</v>
-      </c>
+    <row r="65" spans="15:15">
       <c r="O65" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="2">
-        <v>3513</v>
-      </c>
-      <c r="B66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="3">
-        <v>35</v>
-      </c>
-      <c r="G66" s="4">
-        <v>1</v>
-      </c>
-      <c r="H66">
+    <row r="66" spans="15:15">
+      <c r="O66" s="3">
+        <f t="shared" ref="O66:O97" si="2">F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="4">
-        <v>1</v>
-      </c>
-      <c r="O66" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="2">
-        <v>3514</v>
-      </c>
-      <c r="B67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="3">
-        <v>30</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1</v>
-      </c>
-      <c r="H67">
+    <row r="67" spans="15:15">
+      <c r="O67" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="4">
-        <v>1</v>
-      </c>
-      <c r="O67" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="2">
-        <v>3515</v>
-      </c>
-      <c r="B68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="3">
-        <v>35</v>
-      </c>
-      <c r="G68" s="4">
-        <v>1</v>
-      </c>
-      <c r="H68">
+    <row r="68" spans="15:15">
+      <c r="O68" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="2">
-        <v>3516</v>
-      </c>
-      <c r="B69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="3">
-        <v>35</v>
-      </c>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
-      <c r="H69">
+    <row r="69" spans="15:15">
+      <c r="O69" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="4">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="2">
-        <v>3517</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" t="s">
-        <v>116</v>
-      </c>
-      <c r="D70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="3">
-        <v>35</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1</v>
-      </c>
-      <c r="H70">
+    <row r="70" spans="15:15">
+      <c r="O70" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="4">
-        <v>1</v>
-      </c>
-      <c r="O70" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="2">
-        <v>3518</v>
-      </c>
-      <c r="B71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="3">
-        <v>30</v>
-      </c>
-      <c r="G71" s="4">
-        <v>1</v>
-      </c>
-      <c r="H71">
+    <row r="71" spans="15:15">
+      <c r="O71" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="4">
-        <v>1</v>
-      </c>
-      <c r="O71" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="2">
-        <v>3519</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="3">
-        <v>30</v>
-      </c>
-      <c r="G72" s="4">
-        <v>1</v>
-      </c>
-      <c r="H72">
+    <row r="72" spans="15:15">
+      <c r="O72" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="4">
-        <v>1</v>
-      </c>
-      <c r="O72" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="2">
-        <v>3520</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="3">
-        <v>30</v>
-      </c>
-      <c r="G73" s="4">
-        <v>1</v>
-      </c>
-      <c r="H73">
+    <row r="73" spans="15:15">
+      <c r="O73" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="4">
-        <v>1</v>
-      </c>
-      <c r="O73" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="2">
-        <v>3522</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="3">
-        <v>30</v>
-      </c>
-      <c r="G74" s="4">
-        <v>1</v>
-      </c>
-      <c r="H74">
+    <row r="74" spans="15:15">
+      <c r="O74" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I74" s="4">
-        <v>1</v>
-      </c>
-      <c r="O74" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="2">
-        <v>3523</v>
-      </c>
-      <c r="B75" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="3">
-        <v>25</v>
-      </c>
-      <c r="G75" s="4">
-        <v>2</v>
-      </c>
-      <c r="H75">
+    <row r="75" spans="15:15">
+      <c r="O75" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I75" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="2">
-        <v>3524</v>
-      </c>
-      <c r="B76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" s="3">
-        <v>30</v>
-      </c>
-      <c r="G76" s="4">
-        <v>1</v>
-      </c>
-      <c r="H76">
+    <row r="76" spans="15:15">
+      <c r="O76" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="2">
-        <v>3525</v>
-      </c>
-      <c r="B77" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" s="3">
-        <v>25</v>
-      </c>
-      <c r="G77" s="4">
-        <v>1</v>
-      </c>
-      <c r="H77">
+    <row r="77" spans="15:15">
+      <c r="O77" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="2">
-        <v>3526</v>
-      </c>
-      <c r="B78" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F78" s="3">
-        <v>30</v>
-      </c>
-      <c r="G78" s="4">
-        <v>1</v>
-      </c>
-      <c r="H78">
+    <row r="78" spans="15:15">
+      <c r="O78" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I78" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="2">
-        <v>3527</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="3">
-        <v>25</v>
-      </c>
-      <c r="G79" s="4">
-        <v>2</v>
-      </c>
-      <c r="H79">
+    <row r="79" spans="15:15">
+      <c r="O79" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I79" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="2">
-        <v>3528</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="3">
-        <v>25</v>
-      </c>
-      <c r="G80" s="4">
-        <v>1</v>
-      </c>
-      <c r="H80">
+    <row r="80" spans="15:15">
+      <c r="O80" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I80" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="2">
-        <v>3529</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="3">
-        <v>35</v>
-      </c>
-      <c r="G81" s="4">
-        <v>1</v>
-      </c>
-      <c r="H81">
+    <row r="81" spans="15:15">
+      <c r="O81" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I81" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="2">
-        <v>3530</v>
-      </c>
-      <c r="B82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="3">
-        <v>20</v>
-      </c>
-      <c r="G82" s="4">
-        <v>1</v>
-      </c>
-      <c r="H82">
+    <row r="82" spans="15:15">
+      <c r="O82" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I82" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="2">
-        <v>3531</v>
-      </c>
-      <c r="B83" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="3">
-        <v>20</v>
-      </c>
-      <c r="G83" s="4">
-        <v>1</v>
-      </c>
-      <c r="H83">
+    <row r="83" spans="15:15">
+      <c r="O83" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I83" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="2">
-        <v>3532</v>
-      </c>
-      <c r="B84" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="3">
-        <v>20</v>
-      </c>
-      <c r="G84" s="4">
-        <v>1</v>
-      </c>
-      <c r="H84">
+    <row r="84" spans="15:15">
+      <c r="O84" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I84" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="2">
-        <v>3533</v>
-      </c>
-      <c r="B85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" t="s">
-        <v>133</v>
-      </c>
-      <c r="F85" s="3">
-        <v>20</v>
-      </c>
-      <c r="G85" s="4">
-        <v>1</v>
-      </c>
-      <c r="H85">
+    <row r="85" spans="15:15">
+      <c r="O85" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I85" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="2">
-        <v>3534</v>
-      </c>
-      <c r="B86" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" t="s">
-        <v>134</v>
-      </c>
-      <c r="D86" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="3">
-        <v>18</v>
-      </c>
-      <c r="G86" s="4">
-        <v>2</v>
-      </c>
-      <c r="H86">
+    <row r="86" spans="15:15">
+      <c r="O86" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I86" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="2">
-        <v>3535</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" t="s">
-        <v>136</v>
-      </c>
-      <c r="F87" s="3">
-        <v>25</v>
-      </c>
-      <c r="G87" s="4">
-        <v>1</v>
-      </c>
-      <c r="H87">
+    <row r="87" spans="15:15">
+      <c r="O87" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I87" s="4">
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="2">
-        <v>3536</v>
-      </c>
-      <c r="B88" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" t="s">
-        <v>43</v>
-      </c>
-      <c r="F88" s="3">
-        <v>20</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1</v>
-      </c>
-      <c r="H88">
+    <row r="89" spans="15:15">
+      <c r="O89" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I88" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="2">
-        <v>3537</v>
-      </c>
-      <c r="B89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" s="3">
-        <v>25</v>
-      </c>
-      <c r="G89" s="4">
-        <v>1</v>
-      </c>
-      <c r="H89">
+    <row r="90" spans="15:15">
+      <c r="O90" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I89" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="2">
-        <v>3538</v>
-      </c>
-      <c r="B90" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" t="s">
-        <v>140</v>
-      </c>
-      <c r="D90" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="3">
-        <v>20</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="H90">
+    <row r="91" spans="15:15">
+      <c r="O91" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I90" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="2">
-        <v>3539</v>
-      </c>
-      <c r="B91" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="3">
-        <v>20</v>
-      </c>
-      <c r="G91" s="4">
-        <v>1</v>
-      </c>
-      <c r="H91">
+    <row r="92" spans="15:15">
+      <c r="O92" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I91" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="2">
-        <v>3540</v>
-      </c>
-      <c r="B92" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="3">
-        <v>25</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1</v>
-      </c>
-      <c r="H92">
+    <row r="93" spans="15:15">
+      <c r="O93" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I92" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="2">
-        <v>3542</v>
-      </c>
-      <c r="B93" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="3">
-        <v>25</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1</v>
-      </c>
-      <c r="H93">
+    <row r="94" spans="15:15">
+      <c r="O94" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I93" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="2">
-        <v>3543</v>
-      </c>
-      <c r="B94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" t="s">
-        <v>144</v>
-      </c>
-      <c r="D94" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="3">
-        <v>20</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1</v>
-      </c>
-      <c r="H94">
+    <row r="95" spans="15:15">
+      <c r="O95" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I94" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="2">
-        <v>3544</v>
-      </c>
-      <c r="B95" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" s="3">
-        <v>20</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1</v>
-      </c>
-      <c r="H95">
+    <row r="96" spans="15:15">
+      <c r="O96" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I95" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="2">
-        <v>3545</v>
-      </c>
-      <c r="B96" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" s="3">
-        <v>20</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1</v>
-      </c>
-      <c r="H96">
+    <row r="97" spans="15:15">
+      <c r="O97" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I96" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="2">
-        <v>3546</v>
-      </c>
-      <c r="B97" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="3">
-        <v>20</v>
-      </c>
-      <c r="G97" s="4">
-        <v>1</v>
-      </c>
-      <c r="H97">
+    <row r="98" spans="15:15">
+      <c r="O98" s="3">
+        <f t="shared" ref="O98:O129" si="3">F98</f>
         <v>0</v>
       </c>
-      <c r="I97" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="2">
-        <v>3547</v>
-      </c>
-      <c r="B98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="3">
-        <v>20</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1</v>
-      </c>
-      <c r="H98">
+    <row r="99" spans="15:15">
+      <c r="O99" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I98" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="2">
-        <v>3548</v>
-      </c>
-      <c r="B99" t="s">
-        <v>131</v>
-      </c>
-      <c r="C99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D99" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="3">
-        <v>25</v>
-      </c>
-      <c r="G99" s="4">
-        <v>1</v>
-      </c>
-      <c r="H99">
+    <row r="100" spans="15:15">
+      <c r="O100" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I99" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="2">
-        <v>3549</v>
-      </c>
-      <c r="B100" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" t="s">
-        <v>43</v>
-      </c>
-      <c r="F100" s="3">
-        <v>20</v>
-      </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="H100">
+    <row r="101" spans="15:15">
+      <c r="O101" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I100" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="2">
-        <v>3550</v>
-      </c>
-      <c r="B101" t="s">
-        <v>131</v>
-      </c>
-      <c r="C101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="3">
-        <v>25</v>
-      </c>
-      <c r="G101" s="4">
-        <v>1</v>
-      </c>
-      <c r="H101">
+    <row r="102" spans="15:15">
+      <c r="O102" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I101" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="2">
-        <v>3551</v>
-      </c>
-      <c r="B102" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" s="3">
-        <v>20</v>
-      </c>
-      <c r="G102" s="4">
-        <v>1</v>
-      </c>
-      <c r="H102">
+    <row r="103" spans="15:15">
+      <c r="O103" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I102" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="2">
-        <v>3552</v>
-      </c>
-      <c r="B103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C103" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" s="3">
-        <v>20</v>
-      </c>
-      <c r="G103" s="4">
-        <v>2</v>
-      </c>
-      <c r="H103">
+    <row r="104" spans="15:15">
+      <c r="O104" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I103" s="4">
-        <v>2</v>
-      </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="2">
-        <v>3554</v>
-      </c>
-      <c r="B104" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" t="s">
-        <v>154</v>
-      </c>
-      <c r="D104" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="3">
-        <v>20</v>
-      </c>
-      <c r="G104" s="4">
-        <v>1</v>
-      </c>
-      <c r="H104">
+    <row r="105" spans="15:15">
+      <c r="O105" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I104" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="2">
-        <v>3555</v>
-      </c>
-      <c r="B105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" t="s">
-        <v>155</v>
-      </c>
-      <c r="D105" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="3">
-        <v>20</v>
-      </c>
-      <c r="G105" s="4">
-        <v>1</v>
-      </c>
-      <c r="H105">
+    <row r="106" spans="15:15">
+      <c r="O106" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I105" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="2">
-        <v>3556</v>
-      </c>
-      <c r="B106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" s="3">
-        <v>30</v>
-      </c>
-      <c r="G106" s="4">
-        <v>1</v>
-      </c>
-      <c r="H106">
+    <row r="107" spans="15:15">
+      <c r="O107" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I106" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="2">
-        <v>3557</v>
-      </c>
-      <c r="C107" t="s">
-        <v>159</v>
-      </c>
-      <c r="D107" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" s="3"/>
+    <row r="108" spans="15:15">
+      <c r="O108" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="2">
-        <v>3558</v>
-      </c>
-      <c r="C108" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="3"/>
+    <row r="109" spans="15:15">
+      <c r="O109" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
-        <v>3559</v>
-      </c>
-      <c r="C109" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" t="s">
-        <v>3</v>
+    <row r="110" spans="15:15">
+      <c r="O110" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
-        <v>3560</v>
-      </c>
-      <c r="C110" t="s">
-        <v>159</v>
-      </c>
-      <c r="D110" t="s">
-        <v>3</v>
+    <row r="111" spans="15:15">
+      <c r="O111" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
-        <v>3561</v>
-      </c>
-      <c r="C111" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111" t="s">
-        <v>3</v>
+    <row r="112" spans="15:15">
+      <c r="O112" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
-        <v>3562</v>
-      </c>
-      <c r="C112" t="s">
-        <v>159</v>
-      </c>
-      <c r="D112" t="s">
-        <v>3</v>
+    <row r="113" spans="15:15">
+      <c r="O113" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
-        <v>3563</v>
-      </c>
-      <c r="C113" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" t="s">
-        <v>3</v>
+    <row r="114" spans="15:15">
+      <c r="O114" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
-        <v>3564</v>
-      </c>
-      <c r="C114" t="s">
-        <v>159</v>
-      </c>
-      <c r="D114" t="s">
-        <v>3</v>
+    <row r="115" spans="15:15">
+      <c r="O115" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2">
-        <v>3565</v>
-      </c>
-      <c r="C115" t="s">
-        <v>159</v>
+    <row r="116" spans="15:15">
+      <c r="O116" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2">
-        <v>3566</v>
-      </c>
-      <c r="C116" t="s">
-        <v>159</v>
+    <row r="117" spans="15:15">
+      <c r="O117" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2">
-        <v>3567</v>
-      </c>
-      <c r="C117" t="s">
-        <v>159</v>
+    <row r="118" spans="15:15">
+      <c r="O118" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2">
-        <v>3568</v>
-      </c>
-      <c r="C118" t="s">
-        <v>159</v>
+    <row r="119" spans="15:15">
+      <c r="O119" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2">
-        <v>3569</v>
-      </c>
-      <c r="C119" t="s">
-        <v>159</v>
+    <row r="120" spans="15:15">
+      <c r="O120" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2">
-        <v>3570</v>
-      </c>
-      <c r="C120" t="s">
-        <v>159</v>
+    <row r="121" spans="15:15">
+      <c r="O121" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2">
-        <v>3571</v>
-      </c>
-      <c r="C121" t="s">
-        <v>159</v>
+    <row r="122" spans="15:15">
+      <c r="O122" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2">
-        <v>3572</v>
-      </c>
-      <c r="C122" t="s">
-        <v>159</v>
+    <row r="123" spans="15:15">
+      <c r="O123" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2">
-        <v>3573</v>
-      </c>
-      <c r="C123" t="s">
-        <v>159</v>
+    <row r="124" spans="15:15">
+      <c r="O124" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2">
-        <v>3574</v>
-      </c>
-      <c r="C124" t="s">
-        <v>159</v>
+    <row r="125" spans="15:15">
+      <c r="O125" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2">
-        <v>3575</v>
-      </c>
-      <c r="C125" t="s">
-        <v>159</v>
+    <row r="126" spans="15:15">
+      <c r="O126" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2">
-        <v>3576</v>
+    <row r="127" spans="15:15">
+      <c r="O127" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2">
-        <v>3577</v>
+    <row r="128" spans="15:15">
+      <c r="O128" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
-      <c r="H370" t="s">
-        <v>160</v>
+    <row r="129" spans="15:15">
+      <c r="O129" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="3">
+        <f t="shared" ref="O130:O161" si="4">F130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" s="3">
+        <f t="shared" ref="O162:O180" si="5">F162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="8:8">
+      <c r="H297" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V74">
+  <autoFilter ref="A1:V1">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$144</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
   <si>
     <t>Code</t>
   </si>
@@ -85,334 +85,346 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>LTA160</t>
+    <t>LTA194</t>
   </si>
   <si>
     <t>Hombres /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>Camisa en tejido texturizado azul marino H&amp;M</t>
+    <t>Camisa de mangas largas gris jaspeado H&amp;M</t>
   </si>
   <si>
     <t>Talla M</t>
   </si>
   <si>
-    <t>LTA161</t>
+    <t>LTA195</t>
   </si>
   <si>
-    <t>hombres /hm /tallas-pequenas</t>
+    <t>Joggers de hombre negro H&amp;M</t>
   </si>
   <si>
-    <t>Camisa stretch slim fit azul marino  H&amp;M</t>
+    <t>LTA196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombres /hm /tallas-grandes </t>
+  </si>
+  <si>
+    <t>Pulóver con textura slim fit negro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL</t>
+  </si>
+  <si>
+    <t>LTA197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombres /hm /tallas extra-grandes </t>
+  </si>
+  <si>
+    <t>Pulóver de hombre regular fit gris melange H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XXL</t>
+  </si>
+  <si>
+    <t>LTA198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tops /hm /tallas-grandes </t>
+  </si>
+  <si>
+    <t>Pulóver de mujer oversized negro/Jane´s Addiction H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla L</t>
+  </si>
+  <si>
+    <t>LTA199</t>
+  </si>
+  <si>
+    <t>Pantalón cargo gris oscuro con zipper H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA200</t>
+  </si>
+  <si>
+    <t>Pantalón de popelina relaxed fit azul oscuro cuadrillé H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA201</t>
+  </si>
+  <si>
+    <t>Jeans loose azul denim claro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL_38x32</t>
+  </si>
+  <si>
+    <t>LTA202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vestidos /tallas-medianas </t>
+  </si>
+  <si>
+    <t>Vestido strapless verde limón PLT</t>
+  </si>
+  <si>
+    <t>Talla M_6</t>
+  </si>
+  <si>
+    <t>LTA203</t>
+  </si>
+  <si>
+    <t>vestidos /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>Talla S_2</t>
+  </si>
+  <si>
+    <t>LTA204</t>
+  </si>
+  <si>
+    <t>Vestido satinado terracota con estampado animal print y vuelos PLT</t>
+  </si>
+  <si>
+    <t>LTA205</t>
+  </si>
+  <si>
+    <t>Vestido strapless terracota con abertura al lado PLT</t>
+  </si>
+  <si>
+    <t>LTA206</t>
+  </si>
+  <si>
+    <t>Vestido en mezcla de lino con mangas farol blanco PLT</t>
+  </si>
+  <si>
+    <t>LTA207</t>
+  </si>
+  <si>
+    <t>Talla XS_0</t>
+  </si>
+  <si>
+    <t>LTA208</t>
+  </si>
+  <si>
+    <t>Vestido de tirantes fino con adorno de rosa blanco PLT</t>
+  </si>
+  <si>
+    <t>LTA209</t>
+  </si>
+  <si>
+    <t>vestidos /tallas-grandes</t>
+  </si>
+  <si>
+    <t>Vestido strapless negro corrugado PLT</t>
+  </si>
+  <si>
+    <t>Talla XL_12</t>
+  </si>
+  <si>
+    <t>LTA210</t>
+  </si>
+  <si>
+    <t>Vestido negro con cuello alto y falda tipo puff ball PLT</t>
+  </si>
+  <si>
+    <t>LTA211</t>
+  </si>
+  <si>
+    <t>Vestido negro strapless texturizado PLT</t>
+  </si>
+  <si>
+    <t>Talla L_10</t>
+  </si>
+  <si>
+    <t>LTA212</t>
+  </si>
+  <si>
+    <t>Vestido estilo polo azul marino PINK</t>
+  </si>
+  <si>
+    <t>LTA213</t>
+  </si>
+  <si>
+    <t>LTA214</t>
+  </si>
+  <si>
+    <t>Talla S</t>
+  </si>
+  <si>
+    <t>LTA215</t>
+  </si>
+  <si>
+    <t>LTA216</t>
   </si>
   <si>
     <t>Talla XS</t>
   </si>
   <si>
-    <t>LTA162</t>
+    <t>LTA217</t>
   </si>
   <si>
-    <t>Pantalón chinos de algodón slim fit negro H&amp;M</t>
+    <t>Vestido rosa empolvado acanalado PINK</t>
   </si>
   <si>
-    <t>Talla M_32</t>
+    <t>LTA218</t>
   </si>
   <si>
-    <t>LTA163</t>
+    <t>Vestido color crema acanalado PINK</t>
   </si>
   <si>
-    <t xml:space="preserve">Hombres /hm /tallas-grandes </t>
+    <t>LTA219</t>
   </si>
   <si>
-    <t>Pantalón de traje slim fit azul marino H&amp;M</t>
+    <t>Pulóver blanco de rayas negras Bella Roma H&amp;M</t>
   </si>
   <si>
-    <t>Talla L_34</t>
-  </si>
-  <si>
-    <t>LTA164</t>
+    <t>LTA220</t>
   </si>
   <si>
     <t>Partes-de-abajo /hm /tallas-medianas</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeans  slim mom negro jaspeado H&amp;M </t>
+    <t>Pantaloneta negra con estampado de hojas blancas H&amp;M</t>
   </si>
   <si>
-    <t>Talla M_6</t>
+    <t>LTA221</t>
   </si>
   <si>
-    <t>LTA165</t>
+    <t>tops /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>Pulóver estampado con estilo vintage negro/Korn H&amp;M</t>
+    <t>Top camiseta acanalada blanca Forever 21</t>
   </si>
   <si>
-    <t>LTA166</t>
+    <t>LTA222</t>
   </si>
   <si>
-    <t>Camisa slim fit de microfibra blanca H&amp;M</t>
+    <t>tops /hm /tallas-pequenas</t>
   </si>
   <si>
-    <t>LTA167</t>
+    <t>Pulóver ajustado de microfibra blanco H&amp;M</t>
   </si>
   <si>
-    <t>Camisa guayabera estampada lila claro MTV H&amp;M</t>
+    <t>LTA223</t>
   </si>
   <si>
-    <t>Talla L</t>
+    <t>LTA224</t>
   </si>
   <si>
-    <t>LTA168</t>
+    <t>Top de un hombro con volantes negro H&amp;M</t>
   </si>
   <si>
-    <t xml:space="preserve">Hombres /hm /tallas extra-grandes </t>
+    <t>LTA225</t>
   </si>
   <si>
-    <t>Joggers cargo de nylon beige H&amp;M</t>
+    <t>Blusa corrugada marrón con estampado floreado H&amp;M</t>
   </si>
   <si>
-    <t>Talla XXL</t>
+    <t>LTA226</t>
   </si>
   <si>
-    <t>LTA169</t>
+    <t>LTA227</t>
   </si>
   <si>
-    <t>Pantalón cargo relaxed fit verde caqui H&amp;M</t>
+    <t>Blusa de gasa con vuelos crema floral H&amp;M</t>
   </si>
   <si>
-    <t>Talla S</t>
+    <t>LTA228</t>
   </si>
   <si>
-    <t>LTA170</t>
+    <t>Camiseta desmangada en mezcla de lino roja H&amp;M</t>
   </si>
   <si>
-    <t>Pantalón cargo slim fit verde caqui H&amp;M</t>
+    <t>LTA229</t>
   </si>
   <si>
-    <t>Talla XL</t>
+    <t>Blusa de chiffon animal print H&amp;M</t>
   </si>
   <si>
-    <t>LTA171</t>
+    <t>LTA230</t>
   </si>
   <si>
-    <t>Pulóver con brillantes slim fit negro H&amp;M</t>
+    <t>Blusa oversized estampado leopardo H&amp;M</t>
   </si>
   <si>
-    <t>LTA172</t>
+    <t>LTA231</t>
   </si>
   <si>
-    <t>Polo slim fit negro H&amp;M</t>
+    <t>LTA232</t>
   </si>
   <si>
-    <t>LTA173</t>
+    <t>Top con mangas globos blanco con rayas negras H&amp;M</t>
   </si>
   <si>
-    <t>LTA174</t>
+    <t>LTA233</t>
   </si>
   <si>
-    <t>Pulóver negro lavado H&amp;M</t>
+    <t>Top de mangas largas con cuello alto animal print H&amp;M</t>
   </si>
   <si>
-    <t>LTA175</t>
+    <t>Talla XXS</t>
   </si>
   <si>
-    <t>Polo piqué regular fit negro H&amp;M</t>
+    <t>LTA234</t>
   </si>
   <si>
-    <t>LTA176</t>
+    <t>Blusa de crepé con manga globo blanca H&amp;M</t>
   </si>
   <si>
-    <t>Polo slim fit azul marino H&amp;M</t>
+    <t>LTA235</t>
   </si>
   <si>
-    <t>LTA177</t>
+    <t>Top collared con zipper gris H&amp;M</t>
   </si>
   <si>
-    <t>LTA178</t>
+    <t>LTA236</t>
   </si>
   <si>
-    <t>Pantalón de hombre de vestir slim fit gris melange H&amp;M</t>
+    <t>Camisa de algodón blanco H&amp;M</t>
   </si>
   <si>
-    <t>LTA179</t>
+    <t>LTA237</t>
   </si>
   <si>
-    <t>Pantalón cargo gris claro H&amp;M</t>
+    <t>Top de mangas largas negro brillante H&amp;M</t>
   </si>
   <si>
-    <t>LTA180</t>
+    <t>LTA238</t>
   </si>
   <si>
-    <t>Pantalón con raya regular fit negro H&amp;M</t>
+    <t>Body high de algodón verde H&amp;M</t>
   </si>
   <si>
-    <t>LTA181</t>
+    <t>LTA239</t>
   </si>
   <si>
-    <t>Pulóver slim fit blanco H&amp;M</t>
+    <t>LTA240</t>
   </si>
   <si>
-    <t>LTA182</t>
+    <t>Top de mangas largas de microfibra gris H&amp;M</t>
   </si>
   <si>
-    <t>Pulóver acanalado slim fit color crema H&amp;M</t>
+    <t>LTA241</t>
   </si>
   <si>
-    <t>LTA183</t>
+    <t>Pulóver crop top negro y b lanco con estrella H&amp;M</t>
   </si>
   <si>
-    <t>Pulóver beige de gran calidad H&amp;M</t>
+    <t>LTA242</t>
   </si>
   <si>
-    <t>LTA184</t>
+    <t>Chaleco de traje beige jaspeado H&amp;M</t>
   </si>
   <si>
-    <t>Pulóver blanco de ajuste regular H&amp;M</t>
+    <t>LTA243</t>
   </si>
   <si>
-    <t>LTA185</t>
+    <t>LTA244</t>
   </si>
   <si>
-    <t>LTA186</t>
-  </si>
-  <si>
-    <t>Polo slim fit negro acanalado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA187</t>
-  </si>
-  <si>
-    <t>Pantalones de vestir skinny negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA188</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA189</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA190</t>
-  </si>
-  <si>
-    <t>Pulóver oversized de algodón negro de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA191</t>
-  </si>
-  <si>
-    <t>Camisa resort acanalada negra H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA192</t>
-  </si>
-  <si>
-    <t>Shorts relaxed azul denim claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL_38</t>
-  </si>
-  <si>
-    <t>LTA193</t>
-  </si>
-  <si>
-    <t>YNIR72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsos /hm </t>
-  </si>
-  <si>
-    <t>Bolso cruzado negro con detalles dorados H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla pequeno</t>
-  </si>
-  <si>
-    <t>YNIR124</t>
-  </si>
-  <si>
-    <t>calzado /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Sandalias mules estilo mocasín negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 10_41</t>
-  </si>
-  <si>
-    <t>YNIR125</t>
-  </si>
-  <si>
-    <t>calzado /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Sandalias balerinas con diseño de rejilla beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 6_37</t>
-  </si>
-  <si>
-    <t>YNIR126</t>
-  </si>
-  <si>
-    <t>Talla 8_39</t>
-  </si>
-  <si>
-    <t>YNIR127</t>
-  </si>
-  <si>
-    <t>Sandalias balerinas de mezclilla H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 5_36</t>
-  </si>
-  <si>
-    <t>YNIR128</t>
-  </si>
-  <si>
-    <t>YNIR129</t>
-  </si>
-  <si>
-    <t>calzado /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Sandalias trenzadas burdeos H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 7_38</t>
-  </si>
-  <si>
-    <t>YNIR130</t>
-  </si>
-  <si>
-    <t>Sandalias hawaianas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 11.5-12_45-46</t>
-  </si>
-  <si>
-    <t>YNIR16</t>
-  </si>
-  <si>
-    <t>Balerinas beige oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR131</t>
-  </si>
-  <si>
-    <t>Mocasines en tejido cepillado marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR132</t>
-  </si>
-  <si>
-    <t>Balerinas trenzadas beige claro H&amp;M</t>
+    <t>LTA245</t>
   </si>
 </sst>
 </file>
@@ -421,13 +433,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -472,45 +484,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,22 +501,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,16 +545,54 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,24 +606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +618,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -643,31 +655,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +703,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,37 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +781,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,43 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,11 +901,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,6 +930,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,45 +988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -971,168 +998,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,37 +1158,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1516,12 +1528,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX190"/>
+  <dimension ref="A1:XEX144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17980,7 +17992,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -17992,8 +18004,8 @@
         <v>1</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O32" si="0">F2</f>
-        <v>30</v>
+        <f t="shared" ref="O2:O18" si="0">F2</f>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -18001,13 +18013,13 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="9">
         <v>30</v>
@@ -18028,19 +18040,19 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -18053,54 +18065,54 @@
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -18109,28 +18121,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -18143,24 +18155,24 @@
       </c>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -18173,24 +18185,24 @@
       </c>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -18203,24 +18215,24 @@
       </c>
       <c r="O9" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -18233,24 +18245,24 @@
       </c>
       <c r="O10" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -18263,24 +18275,24 @@
       </c>
       <c r="O11" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -18293,24 +18305,24 @@
       </c>
       <c r="O12" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -18323,33 +18335,33 @@
       </c>
       <c r="O13" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9">
         <v>25</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="0"/>
@@ -18358,16 +18370,16 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
       </c>
       <c r="F15" s="9">
         <v>25</v>
@@ -18388,49 +18400,49 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F16" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F17" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -18443,54 +18455,54 @@
       </c>
       <c r="O17" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F18" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F19" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -18502,25 +18514,25 @@
         <v>1</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="O19:O50" si="1">F19</f>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F20" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -18532,25 +18544,25 @@
         <v>1</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F21" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -18562,25 +18574,25 @@
         <v>1</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F22" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -18592,25 +18604,25 @@
         <v>1</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F23" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -18622,25 +18634,25 @@
         <v>1</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F24" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -18652,25 +18664,25 @@
         <v>1</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F25" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -18682,55 +18694,55 @@
         <v>1</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F26" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F27" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -18742,25 +18754,25 @@
         <v>1</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F28" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -18769,28 +18781,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -18802,25 +18814,25 @@
         <v>1</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F30" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -18832,22 +18844,22 @@
         <v>1</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F31" s="9">
         <v>18</v>
@@ -18862,19 +18874,19 @@
         <v>1</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -18892,25 +18904,25 @@
         <v>1</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F33" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -18922,25 +18934,25 @@
         <v>1</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" ref="O33:O64" si="1">F33</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="F34" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -18953,24 +18965,24 @@
       </c>
       <c r="O34" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F35" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -18983,24 +18995,24 @@
       </c>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F36" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -19013,54 +19025,54 @@
       </c>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="F37" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F38" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -19073,24 +19085,24 @@
       </c>
       <c r="O38" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F39" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -19103,24 +19115,24 @@
       </c>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="F40" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -19133,24 +19145,24 @@
       </c>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F41" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -19163,24 +19175,24 @@
       </c>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="F42" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -19189,28 +19201,28 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F43" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -19223,24 +19235,24 @@
       </c>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="F44" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -19249,28 +19261,28 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="F45" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -19283,24 +19295,24 @@
       </c>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F46" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -19313,129 +19325,233 @@
       </c>
       <c r="O46" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="47" spans="4:15">
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="F47" s="9">
+        <v>25</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
       </c>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="9">
+        <v>20</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="4:15">
-      <c r="D48" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>1</v>
       </c>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="9">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="4:15">
-      <c r="D49" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1</v>
       </c>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="9">
+        <v>25</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="15:15">
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
       <c r="O50" s="9">
         <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="O51" s="9">
+        <f t="shared" ref="O51:O82" si="2">F51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="15:15">
-      <c r="O51" s="9">
-        <f t="shared" si="1"/>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="O52" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="15:15">
-      <c r="O52" s="9">
-        <f t="shared" si="1"/>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="O53" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="15:15">
-      <c r="O53" s="9">
-        <f t="shared" si="1"/>
+    <row r="54" spans="6:15">
+      <c r="F54" s="9"/>
+      <c r="O54" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="15:15">
-      <c r="O54" s="9">
-        <f t="shared" si="1"/>
+    <row r="55" spans="6:15">
+      <c r="F55" s="9"/>
+      <c r="O55" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="15:15">
-      <c r="O55" s="9">
-        <f t="shared" si="1"/>
+    <row r="56" spans="6:15">
+      <c r="F56" s="9"/>
+      <c r="O56" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="15:15">
-      <c r="O56" s="9">
-        <f t="shared" si="1"/>
+    <row r="57" spans="6:15">
+      <c r="F57" s="9"/>
+      <c r="O57" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="15:15">
-      <c r="O57" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="15:15">
+    <row r="58" spans="6:15">
+      <c r="F58" s="9"/>
       <c r="O58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" s="9">
-        <f t="shared" ref="O65:O96" si="2">F65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19543,91 +19659,91 @@
     </row>
     <row r="83" spans="15:15">
       <c r="O83" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O83:O114" si="3">F83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" s="9">
-        <f t="shared" ref="O97:O128" si="3">F97</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19735,91 +19851,91 @@
     </row>
     <row r="115" spans="15:15">
       <c r="O115" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O115:O144" si="4">F115</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" s="9">
-        <f t="shared" ref="O129:O160" si="4">F129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19913,284 +20029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="15:15">
-      <c r="O145" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="15:15">
-      <c r="O146" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="15:15">
-      <c r="O147" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="15:15">
-      <c r="O148" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="15:15">
-      <c r="O149" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="15:15">
-      <c r="O150" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="15:15">
-      <c r="O151" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="15:15">
-      <c r="O152" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="15:15">
-      <c r="O153" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="15:15">
-      <c r="O154" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="15:15">
-      <c r="O155" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="15:15">
-      <c r="O156" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="15:15">
-      <c r="O157" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="15:15">
-      <c r="O158" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="15:15">
-      <c r="O159" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="15:15">
-      <c r="O160" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="15:15">
-      <c r="O161" s="9">
-        <f t="shared" ref="O161:O190" si="5">F161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="15:15">
-      <c r="O162" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="15:15">
-      <c r="O163" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="15:15">
-      <c r="O164" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="15:15">
-      <c r="O165" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="15:15">
-      <c r="O166" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="15:15">
-      <c r="O167" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="15:15">
-      <c r="O168" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="15:15">
-      <c r="O169" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="15:15">
-      <c r="O170" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="15:15">
-      <c r="O171" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="15:15">
-      <c r="O172" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="15:15">
-      <c r="O173" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="15:15">
-      <c r="O174" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="15:15">
-      <c r="O175" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="15:15">
-      <c r="O176" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="15:15">
-      <c r="O177" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="15:15">
-      <c r="O178" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="15:15">
-      <c r="O179" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="15:15">
-      <c r="O180" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="15:15">
-      <c r="O181" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="15:15">
-      <c r="O182" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="15:15">
-      <c r="O183" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="15:15">
-      <c r="O184" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="15:15">
-      <c r="O185" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="15:15">
-      <c r="O186" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="15:15">
-      <c r="O187" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="15:15">
-      <c r="O188" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="15:15">
-      <c r="O189" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="15:15">
-      <c r="O190" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:V4">
+  <autoFilter ref="A1:V144">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$94</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Code</t>
   </si>
@@ -85,346 +85,94 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>LTA194</t>
+    <t>LTA265</t>
   </si>
   <si>
-    <t>Hombres /hm /tallas-medianas</t>
+    <t>vestidos /tallas-pequenas</t>
   </si>
   <si>
-    <t>Camisa de mangas largas gris jaspeado H&amp;M</t>
+    <t>Vestido playero healter tejido de moda color blanco</t>
+  </si>
+  <si>
+    <t>Talla S</t>
+  </si>
+  <si>
+    <t>LTA266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vestidos /tallas-medianas </t>
   </si>
   <si>
     <t>Talla M</t>
   </si>
   <si>
-    <t>LTA195</t>
+    <t>LTA267</t>
   </si>
   <si>
-    <t>Joggers de hombre negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hombres /hm /tallas-grandes </t>
-  </si>
-  <si>
-    <t>Pulóver con textura slim fit negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>LTA197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hombres /hm /tallas extra-grandes </t>
-  </si>
-  <si>
-    <t>Pulóver de hombre regular fit gris melange H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXL</t>
-  </si>
-  <si>
-    <t>LTA198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tops /hm /tallas-grandes </t>
-  </si>
-  <si>
-    <t>Pulóver de mujer oversized negro/Jane´s Addiction H&amp;M</t>
+    <t>vestidos /tallas-grandes</t>
   </si>
   <si>
     <t>Talla L</t>
   </si>
   <si>
-    <t>LTA199</t>
+    <t>LTA268</t>
   </si>
   <si>
-    <t>Pantalón cargo gris oscuro con zipper H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA200</t>
-  </si>
-  <si>
-    <t>Pantalón de popelina relaxed fit azul oscuro cuadrillé H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA201</t>
-  </si>
-  <si>
-    <t>Jeans loose azul denim claro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL_38x32</t>
-  </si>
-  <si>
-    <t>LTA202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vestidos /tallas-medianas </t>
-  </si>
-  <si>
-    <t>Vestido strapless verde limón PLT</t>
-  </si>
-  <si>
-    <t>Talla M_6</t>
-  </si>
-  <si>
-    <t>LTA203</t>
-  </si>
-  <si>
-    <t>vestidos /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Talla S_2</t>
-  </si>
-  <si>
-    <t>LTA204</t>
-  </si>
-  <si>
-    <t>Vestido satinado terracota con estampado animal print y vuelos PLT</t>
-  </si>
-  <si>
-    <t>LTA205</t>
-  </si>
-  <si>
-    <t>Vestido strapless terracota con abertura al lado PLT</t>
-  </si>
-  <si>
-    <t>LTA206</t>
-  </si>
-  <si>
-    <t>Vestido en mezcla de lino con mangas farol blanco PLT</t>
-  </si>
-  <si>
-    <t>LTA207</t>
-  </si>
-  <si>
-    <t>Talla XS_0</t>
-  </si>
-  <si>
-    <t>LTA208</t>
-  </si>
-  <si>
-    <t>Vestido de tirantes fino con adorno de rosa blanco PLT</t>
-  </si>
-  <si>
-    <t>LTA209</t>
-  </si>
-  <si>
-    <t>vestidos /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Vestido strapless negro corrugado PLT</t>
-  </si>
-  <si>
-    <t>Talla XL_12</t>
-  </si>
-  <si>
-    <t>LTA210</t>
-  </si>
-  <si>
-    <t>Vestido negro con cuello alto y falda tipo puff ball PLT</t>
-  </si>
-  <si>
-    <t>LTA211</t>
-  </si>
-  <si>
-    <t>Vestido negro strapless texturizado PLT</t>
-  </si>
-  <si>
-    <t>Talla L_10</t>
-  </si>
-  <si>
-    <t>LTA212</t>
-  </si>
-  <si>
-    <t>Vestido estilo polo azul marino PINK</t>
-  </si>
-  <si>
-    <t>LTA213</t>
-  </si>
-  <si>
-    <t>LTA214</t>
-  </si>
-  <si>
-    <t>Talla S</t>
-  </si>
-  <si>
-    <t>LTA215</t>
-  </si>
-  <si>
-    <t>LTA216</t>
+    <t>Vestido playero de manga larga tejido</t>
   </si>
   <si>
     <t>Talla XS</t>
   </si>
   <si>
-    <t>LTA217</t>
+    <t>LTA269</t>
   </si>
   <si>
-    <t>Vestido rosa empolvado acanalado PINK</t>
+    <t>LTA270</t>
   </si>
   <si>
-    <t>LTA218</t>
+    <t>LTA271</t>
   </si>
   <si>
-    <t>Vestido color crema acanalado PINK</t>
+    <t>LTA272</t>
   </si>
   <si>
-    <t>LTA219</t>
+    <t>Vestido playero de ganchillo caqui</t>
   </si>
   <si>
-    <t>Pulóver blanco de rayas negras Bella Roma H&amp;M</t>
+    <t>LTA273</t>
   </si>
   <si>
-    <t>LTA220</t>
+    <t>trajes-de-bano /tallas-pequenas</t>
   </si>
   <si>
-    <t>Partes-de-abajo /hm /tallas-medianas</t>
+    <t>Traje de baño de manga larga y short</t>
   </si>
   <si>
-    <t>Pantaloneta negra con estampado de hojas blancas H&amp;M</t>
+    <t>LTA274</t>
   </si>
   <si>
-    <t>LTA221</t>
+    <t>trajes-de-bano /tallas-medianas</t>
   </si>
   <si>
-    <t>tops /hm /tallas-medianas</t>
+    <t>LTA275</t>
   </si>
   <si>
-    <t>Top camiseta acanalada blanca Forever 21</t>
+    <t>trajes-de-bano /tallas-grandes</t>
   </si>
   <si>
-    <t>LTA222</t>
+    <t>LTA276</t>
   </si>
   <si>
-    <t>tops /hm /tallas-pequenas</t>
+    <t>LTA277</t>
   </si>
   <si>
-    <t>Pulóver ajustado de microfibra blanco H&amp;M</t>
+    <t>Set de tres piezas de traje de baño en tendencia</t>
   </si>
   <si>
-    <t>LTA223</t>
+    <t>LTA278</t>
   </si>
   <si>
-    <t>LTA224</t>
-  </si>
-  <si>
-    <t>Top de un hombro con volantes negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA225</t>
-  </si>
-  <si>
-    <t>Blusa corrugada marrón con estampado floreado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA226</t>
-  </si>
-  <si>
-    <t>LTA227</t>
-  </si>
-  <si>
-    <t>Blusa de gasa con vuelos crema floral H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA228</t>
-  </si>
-  <si>
-    <t>Camiseta desmangada en mezcla de lino roja H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA229</t>
-  </si>
-  <si>
-    <t>Blusa de chiffon animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA230</t>
-  </si>
-  <si>
-    <t>Blusa oversized estampado leopardo H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA231</t>
-  </si>
-  <si>
-    <t>LTA232</t>
-  </si>
-  <si>
-    <t>Top con mangas globos blanco con rayas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA233</t>
-  </si>
-  <si>
-    <t>Top de mangas largas con cuello alto animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXS</t>
-  </si>
-  <si>
-    <t>LTA234</t>
-  </si>
-  <si>
-    <t>Blusa de crepé con manga globo blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA235</t>
-  </si>
-  <si>
-    <t>Top collared con zipper gris H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA236</t>
-  </si>
-  <si>
-    <t>Camisa de algodón blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA237</t>
-  </si>
-  <si>
-    <t>Top de mangas largas negro brillante H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA238</t>
-  </si>
-  <si>
-    <t>Body high de algodón verde H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA239</t>
-  </si>
-  <si>
-    <t>LTA240</t>
-  </si>
-  <si>
-    <t>Top de mangas largas de microfibra gris H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA241</t>
-  </si>
-  <si>
-    <t>Pulóver crop top negro y b lanco con estrella H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA242</t>
-  </si>
-  <si>
-    <t>Chaleco de traje beige jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA243</t>
-  </si>
-  <si>
-    <t>LTA244</t>
-  </si>
-  <si>
-    <t>LTA245</t>
+    <t>LTA279</t>
   </si>
 </sst>
 </file>
@@ -432,14 +180,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -492,16 +240,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,23 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,23 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,14 +310,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +347,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,29 +370,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,31 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +439,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,127 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,11 +673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,30 +720,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -998,147 +728,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,31 +912,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,19 +1276,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX144"/>
+  <dimension ref="A1:XEX94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51:D53"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.7421875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.1484375" customWidth="1"/>
-    <col min="3" max="3" width="68.3515625" customWidth="1"/>
+    <col min="3" max="3" width="48.2421875" customWidth="1"/>
     <col min="4" max="4" width="14.4453125" customWidth="1"/>
     <col min="5" max="5" width="7.8125" customWidth="1"/>
     <col min="6" max="6" width="11.8359375" customWidth="1"/>
@@ -17978,7 +17726,7 @@
       <c r="XEW1" s="14"/>
       <c r="XEX1" s="14"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -17991,1567 +17739,861 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9">
-        <v>35</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>20.95</v>
+      </c>
+      <c r="N2">
+        <v>31.425</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O18" si="0">F2</f>
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="P2" s="4">
+        <v>9.05</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="9">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>20.95</v>
+      </c>
+      <c r="N3">
+        <v>31.425</v>
+      </c>
+      <c r="O3" s="9">
         <v>30</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9">
-        <f t="shared" si="0"/>
+      <c r="P3" s="4">
+        <v>9.05</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9">
-        <v>25</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>20.95</v>
+      </c>
+      <c r="N4">
+        <v>31.425</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="P4" s="4">
+        <v>9.05</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9">
-        <v>18</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>14.79</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>20.79</v>
+      </c>
+      <c r="N5">
+        <v>31.185</v>
+      </c>
+      <c r="O5" s="9">
+        <v>30</v>
+      </c>
+      <c r="P5" s="4">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>14.79</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>20.79</v>
+      </c>
+      <c r="N6">
+        <v>31.185</v>
+      </c>
+      <c r="O6" s="9">
+        <v>30</v>
+      </c>
+      <c r="P6" s="4">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>14.79</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>20.79</v>
+      </c>
+      <c r="N7">
+        <v>31.185</v>
+      </c>
+      <c r="O7" s="9">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>14.79</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>20.79</v>
+      </c>
+      <c r="N8">
+        <v>31.185</v>
+      </c>
+      <c r="O8" s="9">
+        <v>30</v>
+      </c>
+      <c r="P8" s="4">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>14.63</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>20.63</v>
+      </c>
+      <c r="N9">
+        <v>30.945</v>
+      </c>
+      <c r="O9" s="9">
+        <v>30</v>
+      </c>
+      <c r="P9" s="4">
+        <v>9.37</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>17.1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>23.1</v>
+      </c>
+      <c r="N10">
+        <v>34.65</v>
+      </c>
+      <c r="O10" s="9">
+        <v>30</v>
+      </c>
+      <c r="P10" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>17.1</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>23.1</v>
+      </c>
+      <c r="N11">
+        <v>34.65</v>
+      </c>
+      <c r="O11" s="9">
+        <v>30</v>
+      </c>
+      <c r="P11" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>17.1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>23.1</v>
+      </c>
+      <c r="N12">
+        <v>34.65</v>
+      </c>
+      <c r="O12" s="9">
+        <v>30</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>17.1</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>23.1</v>
+      </c>
+      <c r="N13">
+        <v>34.65</v>
+      </c>
+      <c r="O13" s="9">
+        <v>30</v>
+      </c>
+      <c r="P13" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>17.38</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>23.38</v>
+      </c>
+      <c r="N14">
+        <v>35.07</v>
+      </c>
+      <c r="O14" s="9">
+        <v>30</v>
+      </c>
+      <c r="P14" s="4">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>17.38</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>23.38</v>
+      </c>
+      <c r="N15">
+        <v>35.07</v>
+      </c>
+      <c r="O15" s="9">
+        <v>30</v>
+      </c>
+      <c r="P15" s="4">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>17.38</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>23.38</v>
+      </c>
+      <c r="N16">
+        <v>35.07</v>
+      </c>
+      <c r="O16" s="9">
+        <v>30</v>
+      </c>
+      <c r="P16" s="4">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15">
+      <c r="O17" s="9">
+        <f t="shared" ref="O2:O32" si="0">F17</f>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="9">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="9">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9">
-        <v>35</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="9">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="9">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="9">
-        <v>35</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="9">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="9">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
+    <row r="18" spans="15:15">
       <c r="O18" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9">
-        <v>30</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19">
+    <row r="19" spans="15:15">
+      <c r="O19" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" ref="O19:O50" si="1">F19</f>
-        <v>30</v>
-      </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="9">
-        <v>30</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20">
+    <row r="20" spans="15:15">
+      <c r="O20" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="9">
-        <v>30</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21">
+    <row r="21" spans="15:15">
+      <c r="O21" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="9">
-        <v>30</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22">
+    <row r="22" spans="15:15">
+      <c r="O22" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="9">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23">
+    <row r="23" spans="15:15">
+      <c r="O23" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="9">
-        <v>30</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24">
+    <row r="24" spans="15:15">
+      <c r="O24" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="9">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25">
+    <row r="25" spans="15:15">
+      <c r="O25" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="9">
-        <v>30</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
-      <c r="H26">
+    <row r="26" spans="15:15">
+      <c r="O26" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="9">
-        <v>20</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27">
+    <row r="27" spans="15:15">
+      <c r="O27" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="9">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28">
+    <row r="28" spans="15:15">
+      <c r="O28" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="9">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29">
+    <row r="29" spans="15:15">
+      <c r="O29" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="9">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="9">
-        <v>18</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30">
+    <row r="30" spans="15:15">
+      <c r="O30" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="9">
-        <v>18</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31">
+    <row r="31" spans="15:15">
+      <c r="O31" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="9">
-        <v>20</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32">
+    <row r="32" spans="15:15">
+      <c r="O32" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="9">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="9">
-        <v>25</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33">
+    <row r="33" spans="15:15">
+      <c r="O33" s="9">
+        <f t="shared" ref="O33:O64" si="1">F33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="9">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="9">
-        <v>25</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
+    <row r="34" spans="15:15">
       <c r="O34" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="9">
-        <v>20</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
+    <row r="35" spans="15:15">
       <c r="O35" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="9">
-        <v>20</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
+    <row r="36" spans="15:15">
       <c r="O36" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="9">
-        <v>20</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>2</v>
-      </c>
+    <row r="37" spans="15:15">
       <c r="O37" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="9">
-        <v>25</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
+    <row r="38" spans="15:15">
       <c r="O38" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="9">
-        <v>25</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
+    <row r="39" spans="15:15">
       <c r="O39" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="9">
-        <v>20</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
+    <row r="40" spans="15:15">
       <c r="O40" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="9">
-        <v>18</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
+    <row r="41" spans="15:15">
       <c r="O41" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="9">
-        <v>20</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
+    <row r="42" spans="15:15">
       <c r="O42" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="9">
-        <v>20</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
+    <row r="43" spans="15:15">
       <c r="O43" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="9">
-        <v>25</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
+    <row r="44" spans="15:15">
       <c r="O44" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="9">
-        <v>25</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1</v>
-      </c>
+    <row r="45" spans="15:15">
       <c r="O45" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="9">
-        <v>18</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
+    <row r="46" spans="15:15">
       <c r="O46" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="9">
-        <v>25</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
+    <row r="47" spans="15:15">
       <c r="O47" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="9">
-        <v>20</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
+    <row r="48" spans="15:15">
       <c r="O48" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="9">
-        <v>15</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
+    <row r="49" spans="15:15">
       <c r="O49" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="9">
-        <v>25</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
+    <row r="50" spans="15:15">
       <c r="O50" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="9"/>
+    <row r="51" spans="15:15">
       <c r="O51" s="9">
-        <f t="shared" ref="O51:O82" si="2">F51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="9"/>
+    <row r="52" spans="15:15">
       <c r="O52" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="9"/>
+    <row r="53" spans="15:15">
       <c r="O53" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:15">
-      <c r="F54" s="9"/>
+    <row r="54" spans="15:15">
       <c r="O54" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:15">
-      <c r="F55" s="9"/>
+    <row r="55" spans="15:15">
       <c r="O55" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:15">
-      <c r="F56" s="9"/>
+    <row r="56" spans="15:15">
       <c r="O56" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:15">
-      <c r="F57" s="9"/>
+    <row r="57" spans="15:15">
       <c r="O57" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:15">
-      <c r="F58" s="9"/>
+    <row r="58" spans="15:15">
       <c r="O58" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O65:O94" si="2">F65</f>
         <v>0</v>
       </c>
     </row>
@@ -19659,378 +18701,78 @@
     </row>
     <row r="83" spans="15:15">
       <c r="O83" s="9">
-        <f t="shared" ref="O83:O114" si="3">F83</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="15:15">
-      <c r="O95" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="15:15">
-      <c r="O96" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="15:15">
-      <c r="O97" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="15:15">
-      <c r="O98" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="15:15">
-      <c r="O99" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="15:15">
-      <c r="O100" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="15:15">
-      <c r="O101" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="15:15">
-      <c r="O102" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="15:15">
-      <c r="O103" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="15:15">
-      <c r="O104" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="15:15">
-      <c r="O105" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="15:15">
-      <c r="O106" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="15:15">
-      <c r="O107" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="15:15">
-      <c r="O108" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="15:15">
-      <c r="O109" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="15:15">
-      <c r="O110" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="15:15">
-      <c r="O111" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="15:15">
-      <c r="O112" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="15:15">
-      <c r="O113" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="15:15">
-      <c r="O114" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="15:15">
-      <c r="O115" s="9">
-        <f t="shared" ref="O115:O144" si="4">F115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="15:15">
-      <c r="O116" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="15:15">
-      <c r="O117" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="15:15">
-      <c r="O118" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="15:15">
-      <c r="O119" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="15:15">
-      <c r="O120" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="15:15">
-      <c r="O121" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="15:15">
-      <c r="O122" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="15:15">
-      <c r="O123" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="15:15">
-      <c r="O124" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="15:15">
-      <c r="O125" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="15:15">
-      <c r="O126" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="15:15">
-      <c r="O127" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="15:15">
-      <c r="O128" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="15:15">
-      <c r="O129" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="15:15">
-      <c r="O130" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="15:15">
-      <c r="O131" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="15:15">
-      <c r="O132" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="15:15">
-      <c r="O133" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="15:15">
-      <c r="O134" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="15:15">
-      <c r="O135" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="15:15">
-      <c r="O136" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="15:15">
-      <c r="O137" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="15:15">
-      <c r="O138" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="15:15">
-      <c r="O139" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="15:15">
-      <c r="O140" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="15:15">
-      <c r="O141" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="15:15">
-      <c r="O142" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="15:15">
-      <c r="O143" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="15:15">
-      <c r="O144" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V144">
+  <autoFilter ref="A1:V94">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Code</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>LTA279</t>
+  </si>
+  <si>
+    <t>LTA250</t>
+  </si>
+  <si>
+    <t>accesorios</t>
+  </si>
+  <si>
+    <t>Cinto fino Negro</t>
+  </si>
+  <si>
+    <t>Talla Unitalla</t>
+  </si>
+  <si>
+    <t>LTA248</t>
+  </si>
+  <si>
+    <t>Cinto fino Carmelita</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1299,7 @@
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18303,471 +18321,535 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="17" spans="15:15">
+    <row r="17" customHeight="1" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>6.45</v>
+      </c>
+      <c r="N17">
+        <v>9.675</v>
+      </c>
       <c r="O17" s="9">
-        <f t="shared" ref="O2:O32" si="0">F17</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="P17" s="4">
+        <v>5.55</v>
       </c>
     </row>
-    <row r="18" spans="15:15">
+    <row r="18" customHeight="1" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>6.45</v>
+      </c>
+      <c r="N18">
+        <v>9.675</v>
+      </c>
       <c r="O18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="P18" s="4">
+        <v>5.55</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" s="9">
-        <f t="shared" si="0"/>
+        <f>F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" s="9">
-        <f t="shared" si="0"/>
+        <f>F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" s="9">
-        <f t="shared" si="0"/>
+        <f>F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" s="9">
-        <f t="shared" si="0"/>
+        <f>F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" s="9">
-        <f t="shared" si="0"/>
+        <f>F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" s="9">
-        <f t="shared" si="0"/>
+        <f>F24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" s="9">
-        <f t="shared" si="0"/>
+        <f>F25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" s="9">
-        <f t="shared" si="0"/>
+        <f>F26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" s="9">
-        <f t="shared" si="0"/>
+        <f>F27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" s="9">
-        <f t="shared" si="0"/>
+        <f>F28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" s="9">
-        <f t="shared" si="0"/>
+        <f>F29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" s="9">
-        <f t="shared" si="0"/>
+        <f>F30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" s="9">
-        <f t="shared" si="0"/>
+        <f>F31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" s="9">
-        <f t="shared" si="0"/>
+        <f>F32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" s="9">
-        <f t="shared" ref="O33:O64" si="1">F33</f>
+        <f t="shared" ref="O33:O64" si="0">F33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" s="9">
-        <f t="shared" ref="O65:O94" si="2">F65</f>
+        <f t="shared" ref="O65:O94" si="1">F65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -198,14 +198,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -267,30 +267,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,18 +296,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,39 +351,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,19 +371,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,19 +427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,55 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,25 +553,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +706,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -717,6 +726,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,156 +764,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,7 +904,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,37 +924,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,7 +1299,7 @@
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17744,7 +17744,7 @@
       <c r="XEW1" s="14"/>
       <c r="XEX1" s="14"/>
     </row>
-    <row r="2" customHeight="1" spans="1:16">
+    <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -17757,33 +17757,18 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9">
+        <f>O2</f>
+        <v>30</v>
+      </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>20.95</v>
-      </c>
-      <c r="N2">
-        <v>31.425</v>
-      </c>
       <c r="O2" s="9">
         <v>30</v>
       </c>
-      <c r="P2" s="4">
-        <v>9.05</v>
-      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
+    <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -17796,33 +17781,18 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F18" si="0">O3</f>
+        <v>30</v>
+      </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>20.95</v>
-      </c>
-      <c r="N3">
-        <v>31.425</v>
-      </c>
       <c r="O3" s="9">
         <v>30</v>
       </c>
-      <c r="P3" s="4">
-        <v>9.05</v>
-      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -17835,33 +17805,18 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>20.95</v>
-      </c>
-      <c r="N4">
-        <v>31.425</v>
-      </c>
       <c r="O4" s="9">
         <v>30</v>
       </c>
-      <c r="P4" s="4">
-        <v>9.05</v>
-      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:16">
+    <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -17874,33 +17829,18 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>14.79</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>20.79</v>
-      </c>
-      <c r="N5">
-        <v>31.185</v>
-      </c>
       <c r="O5" s="9">
         <v>30</v>
       </c>
-      <c r="P5" s="4">
-        <v>9.21</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:16">
+    <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -17913,33 +17853,18 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>14.79</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>20.79</v>
-      </c>
-      <c r="N6">
-        <v>31.185</v>
-      </c>
       <c r="O6" s="9">
         <v>30</v>
       </c>
-      <c r="P6" s="4">
-        <v>9.21</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:16">
+    <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -17952,33 +17877,18 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>14.79</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>20.79</v>
-      </c>
-      <c r="N7">
-        <v>31.185</v>
-      </c>
       <c r="O7" s="9">
         <v>30</v>
       </c>
-      <c r="P7" s="4">
-        <v>9.21</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:16">
+    <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -17991,33 +17901,18 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>14.79</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>20.79</v>
-      </c>
-      <c r="N8">
-        <v>31.185</v>
-      </c>
       <c r="O8" s="9">
         <v>30</v>
       </c>
-      <c r="P8" s="4">
-        <v>9.21</v>
-      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:16">
+    <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -18030,32 +17925,18 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>14.63</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>20.63</v>
-      </c>
-      <c r="N9">
-        <v>30.945</v>
-      </c>
       <c r="O9" s="9">
         <v>30</v>
       </c>
-      <c r="P9" s="4">
-        <v>9.37</v>
-      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:16">
+    <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -18068,32 +17949,18 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>17.1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>23.1</v>
-      </c>
-      <c r="N10">
-        <v>34.65</v>
-      </c>
       <c r="O10" s="9">
         <v>30</v>
       </c>
-      <c r="P10" s="4">
-        <v>6.9</v>
-      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:16">
+    <row r="11" customHeight="1" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -18106,32 +17973,18 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3">
-        <v>17.1</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>23.1</v>
-      </c>
-      <c r="N11">
-        <v>34.65</v>
-      </c>
       <c r="O11" s="9">
         <v>30</v>
       </c>
-      <c r="P11" s="4">
-        <v>6.9</v>
-      </c>
     </row>
-    <row r="12" customHeight="1" spans="1:16">
+    <row r="12" customHeight="1" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -18144,32 +17997,18 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>17.1</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>23.1</v>
-      </c>
-      <c r="N12">
-        <v>34.65</v>
-      </c>
       <c r="O12" s="9">
         <v>30</v>
       </c>
-      <c r="P12" s="4">
-        <v>6.9</v>
-      </c>
     </row>
-    <row r="13" customHeight="1" spans="1:16">
+    <row r="13" customHeight="1" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -18182,32 +18021,18 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>17.1</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>23.1</v>
-      </c>
-      <c r="N13">
-        <v>34.65</v>
-      </c>
       <c r="O13" s="9">
         <v>30</v>
       </c>
-      <c r="P13" s="4">
-        <v>6.9</v>
-      </c>
     </row>
-    <row r="14" customHeight="1" spans="1:16">
+    <row r="14" customHeight="1" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -18220,32 +18045,18 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>17.38</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>23.38</v>
-      </c>
-      <c r="N14">
-        <v>35.07</v>
-      </c>
       <c r="O14" s="9">
         <v>30</v>
       </c>
-      <c r="P14" s="4">
-        <v>6.62</v>
-      </c>
     </row>
-    <row r="15" customHeight="1" spans="1:16">
+    <row r="15" customHeight="1" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -18258,32 +18069,18 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>17.38</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>23.38</v>
-      </c>
-      <c r="N15">
-        <v>35.07</v>
-      </c>
       <c r="O15" s="9">
         <v>30</v>
       </c>
-      <c r="P15" s="4">
-        <v>6.62</v>
-      </c>
     </row>
-    <row r="16" customHeight="1" spans="1:16">
+    <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -18296,32 +18093,18 @@
       <c r="D16" t="s">
         <v>28</v>
       </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
-        <v>17.38</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>23.38</v>
-      </c>
-      <c r="N16">
-        <v>35.07</v>
-      </c>
       <c r="O16" s="9">
         <v>30</v>
       </c>
-      <c r="P16" s="4">
-        <v>6.62</v>
-      </c>
     </row>
-    <row r="17" customHeight="1" spans="1:16">
+    <row r="17" customHeight="1" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -18334,32 +18117,18 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>6.45</v>
-      </c>
-      <c r="N17">
-        <v>9.675</v>
-      </c>
       <c r="O17" s="9">
         <v>12</v>
       </c>
-      <c r="P17" s="4">
-        <v>5.55</v>
-      </c>
     </row>
-    <row r="18" customHeight="1" spans="1:16">
+    <row r="18" customHeight="1" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -18372,484 +18141,470 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="J18" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>6.45</v>
-      </c>
-      <c r="N18">
-        <v>9.675</v>
-      </c>
       <c r="O18" s="9">
         <v>12</v>
-      </c>
-      <c r="P18" s="4">
-        <v>5.55</v>
       </c>
     </row>
     <row r="19" spans="15:15">
       <c r="O19" s="9">
-        <f>F19</f>
+        <f t="shared" ref="O19:O32" si="1">F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="15:15">
       <c r="O20" s="9">
-        <f>F20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="15:15">
       <c r="O21" s="9">
-        <f>F21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="15:15">
       <c r="O22" s="9">
-        <f>F22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="15:15">
       <c r="O23" s="9">
-        <f>F23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="15:15">
       <c r="O24" s="9">
-        <f>F24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="15:15">
       <c r="O25" s="9">
-        <f>F25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" s="9">
-        <f>F26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" s="9">
-        <f>F27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="15:15">
       <c r="O28" s="9">
-        <f>F28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="15:15">
       <c r="O29" s="9">
-        <f>F29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30" s="9">
-        <f>F30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="15:15">
       <c r="O31" s="9">
-        <f>F31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="15:15">
       <c r="O32" s="9">
-        <f>F32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="15:15">
       <c r="O33" s="9">
-        <f t="shared" ref="O33:O64" si="0">F33</f>
+        <f t="shared" ref="O33:O64" si="2">F33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="15:15">
       <c r="O34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="15:15">
       <c r="O36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="15:15">
       <c r="O37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="15:15">
       <c r="O38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="15:15">
       <c r="O40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="15:15">
       <c r="O41" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="15:15">
       <c r="O42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="15:15">
       <c r="O43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="15:15">
       <c r="O44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="15:15">
       <c r="O45" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="15:15">
       <c r="O46" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="15:15">
       <c r="O48" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" s="9">
-        <f t="shared" ref="O65:O94" si="1">F65</f>
+        <f t="shared" ref="O65:O94" si="3">F65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="12580"/>
+    <workbookView windowWidth="15720" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
   <si>
     <t>Code</t>
   </si>
@@ -85,112 +85,307 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>LTA265</t>
+    <t>LTA261</t>
   </si>
   <si>
-    <t>vestidos /tallas-pequenas</t>
+    <t xml:space="preserve">calzado </t>
   </si>
   <si>
-    <t>Vestido playero healter tejido de moda color blanco</t>
+    <t>Sandalias negras trenzadas H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 6_37</t>
+  </si>
+  <si>
+    <t>LTA264</t>
+  </si>
+  <si>
+    <t>Talla 9_40</t>
+  </si>
+  <si>
+    <t>LTA263</t>
+  </si>
+  <si>
+    <t>Talla 8_39</t>
+  </si>
+  <si>
+    <t>LTA258</t>
+  </si>
+  <si>
+    <t>Sandalias prácticas de gran comodidad beige con detalles plateados H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA259</t>
+  </si>
+  <si>
+    <t>Talla 11_42</t>
+  </si>
+  <si>
+    <t>LTA257</t>
+  </si>
+  <si>
+    <t>Sandalias prácticas de gran comodidad negra con detalles dorados H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA280</t>
+  </si>
+  <si>
+    <t>Talla 7_38</t>
+  </si>
+  <si>
+    <t>LTA249</t>
+  </si>
+  <si>
+    <t>Loafers beige de gamusa y suela chunky H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla 9_42</t>
+  </si>
+  <si>
+    <t>LTA253</t>
+  </si>
+  <si>
+    <t>Slingbacks de punta fina de animal print</t>
+  </si>
+  <si>
+    <t>LTA254</t>
+  </si>
+  <si>
+    <t>Chunky sneakers azul con detalles en grises</t>
+  </si>
+  <si>
+    <t>LTA255</t>
+  </si>
+  <si>
+    <t>LTA256</t>
+  </si>
+  <si>
+    <t>Talla 10_41</t>
+  </si>
+  <si>
+    <t>Calzado</t>
+  </si>
+  <si>
+    <t>Sandalias prácticas de gran comodidad negra con detalles dorados</t>
+  </si>
+  <si>
+    <t>LTA281</t>
+  </si>
+  <si>
+    <t>bolsos</t>
+  </si>
+  <si>
+    <t>Bolso mediano color crema con bolsillos H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla mediano</t>
+  </si>
+  <si>
+    <t>LTA282</t>
+  </si>
+  <si>
+    <t>Bolso shopper grande color crema y detalles negros H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla grande</t>
+  </si>
+  <si>
+    <t>LTA283</t>
+  </si>
+  <si>
+    <t>Bolso tote bag con correa decorartiva negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA284</t>
+  </si>
+  <si>
+    <t>Bolso shopper  marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolso cruzado de rafia beige H&amp;M </t>
+  </si>
+  <si>
+    <t>Talla pequeno</t>
+  </si>
+  <si>
+    <t>LTA286</t>
+  </si>
+  <si>
+    <t>Bolso cruzado con hebilla dorada negro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla Mediano</t>
+  </si>
+  <si>
+    <t>LTA287</t>
+  </si>
+  <si>
+    <t>Bolso shopper de rafia beige H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla Grande</t>
+  </si>
+  <si>
+    <t>LTA288</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>Anteojos de sol estilo aviador marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla unitalla</t>
+  </si>
+  <si>
+    <t>LTA289</t>
+  </si>
+  <si>
+    <t>Anteojos de sol ovalados negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA290</t>
+  </si>
+  <si>
+    <t>Anteojos de sol ovalados marrón estilo carey H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla Unitalla</t>
+  </si>
+  <si>
+    <t>LTA291</t>
+  </si>
+  <si>
+    <t>Anteojos negros H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA292</t>
+  </si>
+  <si>
+    <t>Anteojos negros con detalles dorados H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA293</t>
+  </si>
+  <si>
+    <t>Anteojos de sol rectangulares negro/dorado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA294</t>
+  </si>
+  <si>
+    <t>Anteojos de sol ovalados plateados/negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteojos de sol ovalados dorado/marrón </t>
+  </si>
+  <si>
+    <t>LTA296</t>
+  </si>
+  <si>
+    <t>Tops /hm /hm /tallas-grades</t>
+  </si>
+  <si>
+    <t>Camisa de mujer en mezcla de lino blanca/rayas beige H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XL</t>
+  </si>
+  <si>
+    <t>LTA297</t>
+  </si>
+  <si>
+    <t>Talla L</t>
+  </si>
+  <si>
+    <t>LTA298</t>
+  </si>
+  <si>
+    <t>Tops /hm /hombres /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>Camisa de mujer en mezcla de lino blanca/rayas azules H&amp;M</t>
   </si>
   <si>
     <t>Talla S</t>
   </si>
   <si>
-    <t>LTA266</t>
+    <t>LTA299</t>
   </si>
   <si>
-    <t xml:space="preserve">vestidos /tallas-medianas </t>
+    <t>Talla XS</t>
+  </si>
+  <si>
+    <t>LTA300</t>
+  </si>
+  <si>
+    <t>Tops /hm /hm /tallas-medianas</t>
   </si>
   <si>
     <t>Talla M</t>
   </si>
   <si>
-    <t>LTA267</t>
+    <t>LTA301</t>
   </si>
   <si>
-    <t>vestidos /tallas-grandes</t>
+    <t>Partes-de-abajo /hm /tallas-pequenas</t>
   </si>
   <si>
-    <t>Talla L</t>
+    <t>Jeans de mujer de anchos azul denim H&amp;M</t>
   </si>
   <si>
-    <t>LTA268</t>
+    <t>Talla S_2</t>
   </si>
   <si>
-    <t>Vestido playero de manga larga tejido</t>
+    <t>LTA302</t>
   </si>
   <si>
-    <t>Talla XS</t>
+    <t>Talla S_4</t>
   </si>
   <si>
-    <t>LTA269</t>
+    <t>LTA303</t>
   </si>
   <si>
-    <t>LTA270</t>
+    <t>Talla XS_0</t>
   </si>
   <si>
-    <t>LTA271</t>
+    <t>LTA304</t>
   </si>
   <si>
-    <t>LTA272</t>
+    <t>Jeans de mujer de anchos azul denim claro H&amp;M</t>
   </si>
   <si>
-    <t>Vestido playero de ganchillo caqui</t>
+    <t>LTA305</t>
   </si>
   <si>
-    <t>LTA273</t>
+    <t>Partes-de-abajo /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>trajes-de-bano /tallas-pequenas</t>
+    <t>Talla M_6</t>
   </si>
   <si>
-    <t>Traje de baño de manga larga y short</t>
+    <t>LTA306</t>
   </si>
   <si>
-    <t>LTA274</t>
+    <t>Talla M_8</t>
   </si>
   <si>
-    <t>trajes-de-bano /tallas-medianas</t>
+    <t>LTA307</t>
   </si>
   <si>
-    <t>LTA275</t>
+    <t>LTA308</t>
   </si>
   <si>
-    <t>trajes-de-bano /tallas-grandes</t>
+    <t>Partes-de-abajo /hm /tallas-grandes</t>
   </si>
   <si>
-    <t>LTA276</t>
-  </si>
-  <si>
-    <t>LTA277</t>
-  </si>
-  <si>
-    <t>Set de tres piezas de traje de baño en tendencia</t>
-  </si>
-  <si>
-    <t>LTA278</t>
-  </si>
-  <si>
-    <t>LTA279</t>
-  </si>
-  <si>
-    <t>LTA250</t>
-  </si>
-  <si>
-    <t>accesorios</t>
-  </si>
-  <si>
-    <t>Cinto fino Negro</t>
-  </si>
-  <si>
-    <t>Talla Unitalla</t>
-  </si>
-  <si>
-    <t>LTA248</t>
-  </si>
-  <si>
-    <t>Cinto fino Carmelita</t>
+    <t>Talla L_10</t>
   </si>
 </sst>
 </file>
@@ -198,14 +393,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -258,6 +453,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -267,17 +476,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,9 +500,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,14 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,9 +553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +562,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,32 +583,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -421,7 +616,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,145 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,19 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,11 +901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,30 +933,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -764,147 +941,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,37 +1119,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,10 +1491,10 @@
   <sheetPr/>
   <dimension ref="A1:XEX94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F18"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17744,7 +17939,7 @@
       <c r="XEW1" s="14"/>
       <c r="XEX1" s="14"/>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -17758,853 +17953,1590 @@
         <v>25</v>
       </c>
       <c r="F2" s="9">
-        <f>O2</f>
         <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2</f>
+        <v>2</v>
       </c>
       <c r="O2" s="9">
         <v>30</v>
       </c>
+      <c r="P2" s="4">
+        <v>15.01</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F18" si="0">O3</f>
         <v>30</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
       <c r="O3" s="9">
         <v>30</v>
       </c>
+      <c r="P3" s="4">
+        <v>15.01</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
       <c r="O4" s="9">
         <v>30</v>
       </c>
+      <c r="P4" s="4">
+        <v>15.01</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5" s="9">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="P5" s="4">
+        <v>12.53</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:15">
+    <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
       <c r="O6" s="9">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="P6" s="4">
+        <v>12.53</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:15">
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
       <c r="O7" s="9">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="P7" s="4">
+        <v>16.51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" s="9">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f>G8</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="9">
+        <v>55</v>
+      </c>
+      <c r="P9" s="4">
+        <v>21.51</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="9">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="9">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" s="9">
+        <v>50</v>
+      </c>
+      <c r="P11" s="4">
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" s="9">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4">
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="9">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" s="9">
+        <v>50</v>
+      </c>
+      <c r="P13" s="4">
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" s="9">
+        <v>35</v>
+      </c>
+      <c r="P14" s="4">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="9">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15" s="9">
+        <v>40</v>
+      </c>
+      <c r="P15" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" s="9">
+        <v>60</v>
+      </c>
+      <c r="P16" s="4">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" s="9">
+        <v>60</v>
+      </c>
+      <c r="P17" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="9">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18" s="9">
+        <v>40</v>
+      </c>
+      <c r="P18" s="4">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="9">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" s="9">
+        <v>35</v>
+      </c>
+      <c r="P19" s="4">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="9">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" s="9">
+        <v>40</v>
+      </c>
+      <c r="P20" s="4">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="9">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="9">
+        <v>40</v>
+      </c>
+      <c r="P21" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="9">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" s="9">
+        <v>20</v>
+      </c>
+      <c r="P22" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="9">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23" s="9">
+        <v>25</v>
+      </c>
+      <c r="P23" s="4">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="9">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="O24" s="9">
+        <f>F24</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="9">
+        <v>18</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="O25" s="9">
+        <f t="shared" ref="O25:O61" si="0">F25</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="9">
+        <v>18</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="O26" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="O27" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="9">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="O28" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="9">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="O29" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="9">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="O30" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="O8" s="9">
+    </row>
+    <row r="31" customHeight="1" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="O31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="O9" s="9">
+    </row>
+    <row r="32" customHeight="1" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="O32" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="9">
+    </row>
+    <row r="33" customHeight="1" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="O33" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="O11" s="9">
+    </row>
+    <row r="34" customHeight="1" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="O34" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" s="9">
-        <v>30</v>
-      </c>
     </row>
-    <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="9">
+    <row r="35" customHeight="1" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="9">
+        <v>40</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="O35" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="O13" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9">
+    <row r="36" customHeight="1" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="9">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="O36" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G14" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:15">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="9">
+        <v>40</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="O37" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="9">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3">
         <v>2</v>
       </c>
-      <c r="O14" s="9">
-        <v>30</v>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="O38" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="9">
+    <row r="39" customHeight="1" spans="1:15">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="9">
+        <v>40</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="O39" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="O15" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="9">
+    <row r="40" customHeight="1" spans="1:15">
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="9">
+        <v>40</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="O40" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="O16" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="9">
+    <row r="41" customHeight="1" spans="1:15">
+      <c r="A41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="9">
+        <v>40</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="O41" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="O17" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="9">
+    <row r="42" customHeight="1" spans="1:15">
+      <c r="A42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="9">
+        <v>40</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="O42" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="O18" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="15:15">
-      <c r="O19" s="9">
-        <f t="shared" ref="O19:O32" si="1">F19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="15:15">
-      <c r="O20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="15:15">
-      <c r="O21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="15:15">
-      <c r="O22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="15:15">
-      <c r="O23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="15:15">
-      <c r="O24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="15:15">
-      <c r="O25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="15:15">
-      <c r="O26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="15:15">
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="15:15">
-      <c r="O28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="15:15">
-      <c r="O29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="15:15">
-      <c r="O30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="15:15">
-      <c r="O31" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="15:15">
-      <c r="O32" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="15:15">
-      <c r="O33" s="9">
-        <f t="shared" ref="O33:O64" si="2">F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="15:15">
-      <c r="O34" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="15:15">
-      <c r="O35" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15">
-      <c r="O36" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15">
-      <c r="O38" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="15:15">
-      <c r="O39" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="15:15">
-      <c r="O40" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="15:15">
-      <c r="O41" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="15:15">
-      <c r="O43" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="43" spans="6:15">
+      <c r="F43" s="9"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="15:15">
-      <c r="O44" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O44" s="9"/>
     </row>
     <row r="45" spans="15:15">
-      <c r="O45" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O45" s="9"/>
     </row>
     <row r="46" spans="15:15">
-      <c r="O46" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O46" s="9"/>
     </row>
     <row r="47" spans="15:15">
-      <c r="O47" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="15:15">
-      <c r="O48" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="15:15">
-      <c r="O49" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="15:15">
-      <c r="O50" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="15:15">
-      <c r="O51" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="15:15">
-      <c r="O52" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O52" s="9"/>
     </row>
     <row r="53" spans="15:15">
-      <c r="O53" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O53" s="9"/>
     </row>
     <row r="54" spans="15:15">
-      <c r="O54" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O54" s="9"/>
     </row>
     <row r="55" spans="15:15">
-      <c r="O55" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O55" s="9"/>
     </row>
     <row r="56" spans="15:15">
-      <c r="O56" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O56" s="9"/>
     </row>
     <row r="57" spans="15:15">
-      <c r="O57" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O57" s="9"/>
     </row>
     <row r="58" spans="15:15">
-      <c r="O58" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O58" s="9"/>
     </row>
     <row r="59" spans="15:15">
-      <c r="O59" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O59" s="9"/>
     </row>
     <row r="60" spans="15:15">
-      <c r="O60" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O60" s="9"/>
     </row>
     <row r="61" spans="15:15">
-      <c r="O61" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O61" s="9"/>
     </row>
     <row r="62" spans="15:15">
-      <c r="O62" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O62" s="9"/>
     </row>
     <row r="63" spans="15:15">
-      <c r="O63" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O63" s="9"/>
     </row>
     <row r="64" spans="15:15">
-      <c r="O64" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O64" s="9"/>
     </row>
     <row r="65" spans="15:15">
-      <c r="O65" s="9">
-        <f t="shared" ref="O65:O94" si="3">F65</f>
-        <v>0</v>
-      </c>
+      <c r="O65" s="9"/>
     </row>
     <row r="66" spans="15:15">
-      <c r="O66" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O66" s="9"/>
     </row>
     <row r="67" spans="15:15">
-      <c r="O67" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O67" s="9"/>
     </row>
     <row r="68" spans="15:15">
-      <c r="O68" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O68" s="9"/>
     </row>
     <row r="69" spans="15:15">
-      <c r="O69" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O69" s="9"/>
     </row>
     <row r="70" spans="15:15">
-      <c r="O70" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O70" s="9"/>
     </row>
     <row r="71" spans="15:15">
-      <c r="O71" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O71" s="9"/>
     </row>
     <row r="72" spans="15:15">
-      <c r="O72" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O72" s="9"/>
     </row>
     <row r="73" spans="15:15">
-      <c r="O73" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O73" s="9"/>
     </row>
     <row r="74" spans="15:15">
-      <c r="O74" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O74" s="9"/>
     </row>
     <row r="75" spans="15:15">
-      <c r="O75" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O75" s="9"/>
     </row>
     <row r="76" spans="15:15">
-      <c r="O76" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O76" s="9"/>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O65:O94" si="1">F77</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -1491,10 +1491,10 @@
   <sheetPr/>
   <dimension ref="A1:XEX94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10:H42"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17939,7 +17939,7 @@
       <c r="XEW1" s="14"/>
       <c r="XEX1" s="14"/>
     </row>
-    <row r="2" customHeight="1" spans="1:16">
+    <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -17968,11 +17968,8 @@
       <c r="O2" s="9">
         <v>30</v>
       </c>
-      <c r="P2" s="4">
-        <v>15.01</v>
-      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
+    <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -18005,11 +18002,8 @@
       <c r="O3" s="9">
         <v>30</v>
       </c>
-      <c r="P3" s="4">
-        <v>15.01</v>
-      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -18042,11 +18036,8 @@
       <c r="O4" s="9">
         <v>30</v>
       </c>
-      <c r="P4" s="4">
-        <v>15.01</v>
-      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:16">
+    <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -18079,11 +18070,8 @@
       <c r="O5" s="9">
         <v>35</v>
       </c>
-      <c r="P5" s="4">
-        <v>12.53</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:16">
+    <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -18116,11 +18104,8 @@
       <c r="O6" s="9">
         <v>35</v>
       </c>
-      <c r="P6" s="4">
-        <v>12.53</v>
-      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:16">
+    <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -18153,9 +18138,6 @@
       <c r="O7" s="9">
         <v>35</v>
       </c>
-      <c r="P7" s="4">
-        <v>16.51</v>
-      </c>
     </row>
     <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="2" t="s">
@@ -18183,9 +18165,11 @@
         <f>G8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:16">
+    <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -18218,11 +18202,8 @@
       <c r="O9" s="9">
         <v>55</v>
       </c>
-      <c r="P9" s="4">
-        <v>21.51</v>
-      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:16">
+    <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -18255,11 +18236,8 @@
       <c r="O10" s="9">
         <v>40</v>
       </c>
-      <c r="P10" s="4">
-        <v>10.5</v>
-      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:16">
+    <row r="11" customHeight="1" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -18292,11 +18270,8 @@
       <c r="O11" s="9">
         <v>50</v>
       </c>
-      <c r="P11" s="4">
-        <v>24.01</v>
-      </c>
     </row>
-    <row r="12" customHeight="1" spans="1:16">
+    <row r="12" customHeight="1" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -18329,11 +18304,8 @@
       <c r="O12" s="9">
         <v>50</v>
       </c>
-      <c r="P12" s="4">
-        <v>24.01</v>
-      </c>
     </row>
-    <row r="13" customHeight="1" spans="1:16">
+    <row r="13" customHeight="1" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -18366,11 +18338,8 @@
       <c r="O13" s="9">
         <v>50</v>
       </c>
-      <c r="P13" s="4">
-        <v>24.01</v>
-      </c>
     </row>
-    <row r="14" customHeight="1" spans="1:16">
+    <row r="14" customHeight="1" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -18403,11 +18372,8 @@
       <c r="O14" s="9">
         <v>35</v>
       </c>
-      <c r="P14" s="4">
-        <v>16.51</v>
-      </c>
     </row>
-    <row r="15" customHeight="1" spans="1:16">
+    <row r="15" customHeight="1" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -18440,11 +18406,8 @@
       <c r="O15" s="9">
         <v>40</v>
       </c>
-      <c r="P15" s="4">
-        <v>10.5</v>
-      </c>
     </row>
-    <row r="16" customHeight="1" spans="1:16">
+    <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -18477,11 +18440,8 @@
       <c r="O16" s="9">
         <v>60</v>
       </c>
-      <c r="P16" s="4">
-        <v>24.75</v>
-      </c>
     </row>
-    <row r="17" customHeight="1" spans="1:16">
+    <row r="17" customHeight="1" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -18514,11 +18474,8 @@
       <c r="O17" s="9">
         <v>60</v>
       </c>
-      <c r="P17" s="4">
-        <v>21</v>
-      </c>
     </row>
-    <row r="18" customHeight="1" spans="1:16">
+    <row r="18" customHeight="1" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -18551,11 +18508,8 @@
       <c r="O18" s="9">
         <v>40</v>
       </c>
-      <c r="P18" s="4">
-        <v>14.25</v>
-      </c>
     </row>
-    <row r="19" customHeight="1" spans="1:16">
+    <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -18588,11 +18542,8 @@
       <c r="O19" s="9">
         <v>35</v>
       </c>
-      <c r="P19" s="4">
-        <v>11.51</v>
-      </c>
     </row>
-    <row r="20" customHeight="1" spans="1:16">
+    <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -18625,11 +18576,8 @@
       <c r="O20" s="9">
         <v>40</v>
       </c>
-      <c r="P20" s="4">
-        <v>6.75</v>
-      </c>
     </row>
-    <row r="21" customHeight="1" spans="1:16">
+    <row r="21" customHeight="1" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -18662,11 +18610,8 @@
       <c r="O21" s="9">
         <v>40</v>
       </c>
-      <c r="P21" s="4">
-        <v>10.5</v>
-      </c>
     </row>
-    <row r="22" customHeight="1" spans="1:16">
+    <row r="22" customHeight="1" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -18699,11 +18644,8 @@
       <c r="O22" s="9">
         <v>20</v>
       </c>
-      <c r="P22" s="4">
-        <v>7.5</v>
-      </c>
     </row>
-    <row r="23" customHeight="1" spans="1:16">
+    <row r="23" customHeight="1" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>74</v>
       </c>
@@ -18735,9 +18677,6 @@
       <c r="N23"/>
       <c r="O23" s="9">
         <v>25</v>
-      </c>
-      <c r="P23" s="4">
-        <v>8.25</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:15">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="12580"/>
+    <workbookView windowWidth="28800" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,13 +394,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -454,46 +454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,6 +462,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,11 +482,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,8 +498,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +509,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,22 +554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,6 +571,21 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -616,13 +616,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,67 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,73 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +754,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -877,15 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -897,21 +906,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,11 +936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,142 +964,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,25 +1119,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,7 +1149,7 @@
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,17 +1491,17 @@
   <sheetPr/>
   <dimension ref="A1:XEX94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.7421875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.1484375" customWidth="1"/>
-    <col min="3" max="3" width="48.2421875" customWidth="1"/>
+    <col min="3" max="3" width="65.4375" customWidth="1"/>
     <col min="4" max="4" width="14.4453125" customWidth="1"/>
     <col min="5" max="5" width="7.8125" customWidth="1"/>
     <col min="6" max="6" width="11.8359375" customWidth="1"/>
@@ -17994,11 +17994,6 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="O3" s="9">
         <v>30</v>
       </c>
@@ -18028,11 +18023,6 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4" s="9">
         <v>30</v>
       </c>
@@ -18062,11 +18052,6 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5" s="9">
         <v>35</v>
       </c>
@@ -18096,11 +18081,6 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6" s="9">
         <v>35</v>
       </c>
@@ -18130,11 +18110,6 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="O7" s="9">
         <v>35</v>
       </c>
@@ -18194,11 +18169,6 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
       <c r="O9" s="9">
         <v>55</v>
       </c>
@@ -18228,11 +18198,6 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
       <c r="O10" s="9">
         <v>40</v>
       </c>
@@ -18262,11 +18227,6 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
       <c r="O11" s="9">
         <v>50</v>
       </c>
@@ -18296,11 +18256,6 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
       <c r="O12" s="9">
         <v>50</v>
       </c>
@@ -18330,11 +18285,6 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
       <c r="O13" s="9">
         <v>50</v>
       </c>
@@ -18364,11 +18314,6 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
       <c r="O14" s="9">
         <v>35</v>
       </c>
@@ -18398,11 +18343,6 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
       <c r="O15" s="9">
         <v>40</v>
       </c>
@@ -18432,11 +18372,6 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
       <c r="O16" s="9">
         <v>60</v>
       </c>
@@ -18466,11 +18401,6 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
       <c r="O17" s="9">
         <v>60</v>
       </c>
@@ -18500,11 +18430,6 @@
       <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
       <c r="O18" s="9">
         <v>40</v>
       </c>
@@ -18534,11 +18459,6 @@
       <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
       <c r="O19" s="9">
         <v>35</v>
       </c>
@@ -18568,11 +18488,6 @@
       <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
       <c r="O20" s="9">
         <v>40</v>
       </c>
@@ -18602,11 +18517,6 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
       <c r="O21" s="9">
         <v>40</v>
       </c>
@@ -18636,11 +18546,6 @@
       <c r="I22" s="3">
         <v>4</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
       <c r="O22" s="9">
         <v>20</v>
       </c>
@@ -18670,11 +18575,6 @@
       <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
       <c r="O23" s="9">
         <v>25</v>
       </c>
@@ -18704,7 +18604,6 @@
       <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="O24" s="9">
         <f>F24</f>
         <v>25</v>
@@ -18735,7 +18634,6 @@
       <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="3"/>
       <c r="O25" s="9">
         <f t="shared" ref="O25:O61" si="0">F25</f>
         <v>18</v>
@@ -18766,7 +18664,6 @@
       <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="3"/>
       <c r="O26" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18797,7 +18694,6 @@
       <c r="I27" s="3">
         <v>1</v>
       </c>
-      <c r="J27" s="3"/>
       <c r="O27" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18828,7 +18724,6 @@
       <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="3"/>
       <c r="O28" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18859,7 +18754,6 @@
       <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3"/>
       <c r="O29" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18890,7 +18784,6 @@
       <c r="I30" s="3">
         <v>1</v>
       </c>
-      <c r="J30" s="3"/>
       <c r="O30" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18921,7 +18814,6 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
-      <c r="J31" s="3"/>
       <c r="O31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18952,7 +18844,6 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
-      <c r="J32" s="3"/>
       <c r="O32" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18983,7 +18874,6 @@
       <c r="I33" s="3">
         <v>1</v>
       </c>
-      <c r="J33" s="3"/>
       <c r="O33" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19014,7 +18904,6 @@
       <c r="I34" s="3">
         <v>2</v>
       </c>
-      <c r="J34" s="3"/>
       <c r="O34" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19045,7 +18934,6 @@
       <c r="I35" s="3">
         <v>2</v>
       </c>
-      <c r="J35" s="3"/>
       <c r="O35" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19076,7 +18964,6 @@
       <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="J36" s="3"/>
       <c r="O36" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19107,7 +18994,6 @@
       <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="3"/>
       <c r="O37" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19138,7 +19024,6 @@
       <c r="I38" s="3">
         <v>2</v>
       </c>
-      <c r="J38" s="3"/>
       <c r="O38" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19169,7 +19054,6 @@
       <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="J39" s="3"/>
       <c r="O39" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19200,7 +19084,6 @@
       <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="3"/>
       <c r="O40" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19231,7 +19114,6 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="3"/>
       <c r="O41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19262,7 +19144,6 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
-      <c r="J42" s="3"/>
       <c r="O42" s="9">
         <f t="shared" si="0"/>
         <v>40</v>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="128">
   <si>
     <t>Code</t>
   </si>
@@ -85,307 +85,322 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>LTA261</t>
+    <t>LTA309</t>
   </si>
   <si>
-    <t xml:space="preserve">calzado </t>
+    <t xml:space="preserve">Hombres /hm /tallas-grandes </t>
   </si>
   <si>
-    <t>Sandalias negras trenzadas H&amp;M</t>
+    <t>Pulóver de punto texturizado negro H&amp;M</t>
   </si>
   <si>
-    <t>Talla 6_37</t>
+    <t>Talla L</t>
   </si>
   <si>
-    <t>LTA264</t>
+    <t>LTA310</t>
   </si>
   <si>
-    <t>Talla 9_40</t>
+    <t>Pulóver de punto texturizado color crema H&amp;M</t>
   </si>
   <si>
-    <t>LTA263</t>
+    <t>LTA311</t>
   </si>
   <si>
-    <t>Talla 8_39</t>
+    <t>hombres /hm /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>LTA258</t>
+    <t>Talla M</t>
   </si>
   <si>
-    <t>Sandalias prácticas de gran comodidad beige con detalles plateados H&amp;M</t>
+    <t>LTA312</t>
   </si>
   <si>
-    <t>LTA259</t>
+    <t>hombres /hm /hm /tallas-pequenas</t>
   </si>
   <si>
-    <t>Talla 11_42</t>
+    <t>Polo de algodón pima crema H&amp;M</t>
   </si>
   <si>
-    <t>LTA257</t>
+    <t>Talla XS</t>
   </si>
   <si>
-    <t>Sandalias prácticas de gran comodidad negra con detalles dorados H&amp;M</t>
+    <t>LTA313</t>
   </si>
   <si>
-    <t>LTA280</t>
+    <t>Partes-de-abajo /hm /tallas-pequenas</t>
   </si>
   <si>
-    <t>Talla 7_38</t>
+    <t>Leggings flared gris jaspeado H&amp;M</t>
   </si>
   <si>
-    <t>LTA249</t>
+    <t>LTA314</t>
   </si>
   <si>
-    <t>Loafers beige de gamusa y suela chunky H&amp;M</t>
+    <t>Talla S</t>
   </si>
   <si>
-    <t>Talla 9_42</t>
+    <t>LTA315</t>
   </si>
   <si>
-    <t>LTA253</t>
+    <t>Partes-de-abajo /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>Slingbacks de punta fina de animal print</t>
+    <t>LTA316</t>
   </si>
   <si>
-    <t>LTA254</t>
+    <t>Hombres /hm /tallas-grandes</t>
   </si>
   <si>
-    <t>Chunky sneakers azul con detalles en grises</t>
+    <t>Pantalón de vestir en lino beige oscuro H&amp;M</t>
   </si>
   <si>
-    <t>LTA255</t>
+    <t>Talla XL_44</t>
   </si>
   <si>
-    <t>LTA256</t>
+    <t>LTA317</t>
   </si>
   <si>
-    <t>Talla 10_41</t>
+    <t>Talla M_32</t>
   </si>
   <si>
-    <t>Calzado</t>
+    <t>LTA318</t>
   </si>
   <si>
-    <t>Sandalias prácticas de gran comodidad negra con detalles dorados</t>
+    <t>Talla M_33</t>
   </si>
   <si>
-    <t>LTA281</t>
+    <t>LTA319</t>
+  </si>
+  <si>
+    <t>Talla S_30</t>
+  </si>
+  <si>
+    <t>LTA320</t>
+  </si>
+  <si>
+    <t>Tops /hm /hm /tallas-grades</t>
+  </si>
+  <si>
+    <t>Top en punto waffled beige H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA321</t>
+  </si>
+  <si>
+    <t>Tops /hm /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>LTA322</t>
+  </si>
+  <si>
+    <t>Tops /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>LTA323</t>
+  </si>
+  <si>
+    <t>Polo en punto calado blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
+  </si>
+  <si>
+    <t>Maxi falda beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA325</t>
+  </si>
+  <si>
+    <t>Gilet sastre de traje verde caqui oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA326</t>
+  </si>
+  <si>
+    <t>Tops /hm /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>LTA327</t>
+  </si>
+  <si>
+    <t>Gilet sastre de traje blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA328</t>
+  </si>
+  <si>
+    <t>Camisa resort con efecto arrugado negra H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA329</t>
   </si>
   <si>
     <t>bolsos</t>
   </si>
   <si>
-    <t>Bolso mediano color crema con bolsillos H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla mediano</t>
-  </si>
-  <si>
-    <t>LTA282</t>
-  </si>
-  <si>
-    <t>Bolso shopper grande color crema y detalles negros H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla grande</t>
-  </si>
-  <si>
-    <t>LTA283</t>
-  </si>
-  <si>
-    <t>Bolso tote bag con correa decorartiva negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA284</t>
-  </si>
-  <si>
-    <t>Bolso shopper  marrón H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolso cruzado de rafia beige H&amp;M </t>
-  </si>
-  <si>
-    <t>Talla pequeno</t>
-  </si>
-  <si>
-    <t>LTA286</t>
-  </si>
-  <si>
-    <t>Bolso cruzado con hebilla dorada negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla Mediano</t>
-  </si>
-  <si>
-    <t>LTA287</t>
-  </si>
-  <si>
-    <t>Bolso shopper de rafia beige H&amp;M</t>
+    <t>Bolsa shopper de lona negra H&amp;M</t>
   </si>
   <si>
     <t>Talla Grande</t>
   </si>
   <si>
-    <t>LTA288</t>
+    <t>LTA330</t>
   </si>
   <si>
-    <t>Accesorios</t>
+    <t>Maxi falda negra H&amp;M</t>
   </si>
   <si>
-    <t>Anteojos de sol estilo aviador marrón H&amp;M</t>
+    <t>LTA331</t>
   </si>
   <si>
-    <t>Talla unitalla</t>
+    <t>Falda slip crepé roja H&amp;M</t>
   </si>
   <si>
-    <t>LTA289</t>
+    <t>LTA332</t>
   </si>
   <si>
-    <t>Anteojos de sol ovalados negro H&amp;M</t>
+    <t>Camisa texturizada de manga corta color crema H&amp;M</t>
   </si>
   <si>
-    <t>LTA290</t>
+    <t>LTA333</t>
   </si>
   <si>
-    <t>Anteojos de sol ovalados marrón estilo carey H&amp;M</t>
+    <t>LTA334</t>
   </si>
   <si>
-    <t>Talla Unitalla</t>
+    <t>Camisa de punto de manga cortas negra H&amp;M</t>
   </si>
   <si>
-    <t>LTA291</t>
+    <t>LTA335</t>
   </si>
   <si>
-    <t>Anteojos negros H&amp;M</t>
+    <t>LTA336</t>
   </si>
   <si>
-    <t>LTA292</t>
+    <t>Partes-de-abajo /hm /tallas-grandes</t>
   </si>
   <si>
-    <t>Anteojos negros con detalles dorados H&amp;M</t>
+    <t>Falda en crepé satín negro H&amp;M</t>
   </si>
   <si>
-    <t>LTA293</t>
+    <t>LTA337</t>
   </si>
   <si>
-    <t>Anteojos de sol rectangulares negro/dorado H&amp;M</t>
+    <t>LTA338</t>
   </si>
   <si>
-    <t>LTA294</t>
+    <t>Falda midi verde H&amp;M</t>
   </si>
   <si>
-    <t>Anteojos de sol ovalados plateados/negro H&amp;M</t>
+    <t>LTA339</t>
   </si>
   <si>
-    <t>LTA295</t>
+    <t>LTA340</t>
   </si>
   <si>
-    <t xml:space="preserve">Anteojos de sol ovalados dorado/marrón </t>
+    <t>LTA341</t>
   </si>
   <si>
-    <t>LTA296</t>
+    <t>Camisa texturizada regular fit negra H&amp;M</t>
   </si>
   <si>
-    <t>Tops /hm /hm /tallas-grades</t>
+    <t>LTA342</t>
   </si>
   <si>
-    <t>Camisa de mujer en mezcla de lino blanca/rayas beige H&amp;M</t>
+    <t>Camisa resort con efecto arrugado beige H&amp;M</t>
   </si>
   <si>
-    <t>Talla XL</t>
+    <t>LTA343</t>
   </si>
   <si>
-    <t>LTA297</t>
+    <t>Pulóver corto acanalado rosa polvoriento con adornos H&amp;M</t>
   </si>
   <si>
-    <t>Talla L</t>
+    <t>LTA344</t>
   </si>
   <si>
-    <t>LTA298</t>
+    <t>LTA345</t>
   </si>
   <si>
-    <t>Tops /hm /hombres /tallas-pequenas</t>
+    <t>Top sin mangas acanalado crema con rayas negras H&amp;M</t>
   </si>
   <si>
-    <t>Camisa de mujer en mezcla de lino blanca/rayas azules H&amp;M</t>
+    <t>LTA346</t>
   </si>
   <si>
-    <t>Talla S</t>
+    <t>LTA347</t>
   </si>
   <si>
-    <t>LTA299</t>
+    <t xml:space="preserve">Vestido /tallas-pequenas  </t>
   </si>
   <si>
-    <t>Talla XS</t>
+    <t>Vestido de crepé con cinturón atado crema con estampado de hojas negras H&amp;M</t>
   </si>
   <si>
-    <t>LTA300</t>
+    <t>LTA348</t>
   </si>
   <si>
-    <t>Tops /hm /hm /tallas-medianas</t>
+    <t>Tops /tallas-pequenas</t>
   </si>
   <si>
-    <t>Talla M</t>
+    <t xml:space="preserve">Blusa de manga globo de algodón blanca </t>
   </si>
   <si>
-    <t>LTA301</t>
+    <t>LTA349</t>
   </si>
   <si>
-    <t>Partes-de-abajo /hm /tallas-pequenas</t>
+    <t>Tops /tallas-medianas</t>
   </si>
   <si>
-    <t>Jeans de mujer de anchos azul denim H&amp;M</t>
+    <t xml:space="preserve">Blusa anudada rosa claro </t>
   </si>
   <si>
-    <t>Talla S_2</t>
+    <t>LTA350</t>
   </si>
   <si>
-    <t>LTA302</t>
+    <t>Camisa con bolsillos azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido satinado azul grisáceo </t>
   </si>
   <si>
     <t>Talla S_4</t>
   </si>
   <si>
-    <t>LTA303</t>
+    <t>LTA352</t>
   </si>
   <si>
-    <t>Talla XS_0</t>
+    <t>Top denim oscuro con brillantes</t>
   </si>
   <si>
-    <t>LTA304</t>
+    <t>LTA353</t>
   </si>
   <si>
-    <t>Jeans de mujer de anchos azul denim claro H&amp;M</t>
+    <t xml:space="preserve">Camisa corta de mangas lñargas azul con rayas blancas </t>
   </si>
   <si>
-    <t>LTA305</t>
+    <t>LTA354</t>
   </si>
   <si>
-    <t>Partes-de-abajo /hm /tallas-medianas</t>
+    <t>Camisa desmangada de algodón rosa fucsia</t>
   </si>
   <si>
-    <t>Talla M_6</t>
+    <t>LTA355</t>
   </si>
   <si>
-    <t>LTA306</t>
+    <t>Pulóver ajustado blanco michelada</t>
   </si>
   <si>
-    <t>Talla M_8</t>
+    <t>LTA356</t>
   </si>
   <si>
-    <t>LTA307</t>
-  </si>
-  <si>
-    <t>LTA308</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Talla L_10</t>
+    <t>LTA357</t>
   </si>
 </sst>
 </file>
@@ -393,14 +408,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -453,6 +468,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -467,29 +497,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -499,8 +506,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,8 +529,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +555,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,18 +590,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,35 +601,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -616,7 +631,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,61 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,103 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +881,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,7 +890,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,17 +940,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,32 +968,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -964,142 +979,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,37 +1134,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,9 +1507,9 @@
   <dimension ref="A1:XEX94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17953,7 +17968,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -17962,11 +17977,25 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>G2</f>
         <v>2</v>
       </c>
+      <c r="J2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>19.46</v>
+      </c>
+      <c r="N2">
+        <v>29.19</v>
+      </c>
       <c r="O2" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
@@ -17977,25 +18006,40 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>19.46</v>
+      </c>
+      <c r="N3">
+        <v>29.19</v>
       </c>
       <c r="O3" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:15">
@@ -18003,16 +18047,16 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -18023,22 +18067,37 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
+      <c r="J4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>19.46</v>
+      </c>
+      <c r="N4">
+        <v>29.19</v>
+      </c>
       <c r="O4" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9">
         <v>35</v>
@@ -18050,7 +18109,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>19.46</v>
+      </c>
+      <c r="N5">
+        <v>29.19</v>
       </c>
       <c r="O5" s="9">
         <v>35</v>
@@ -18058,19 +18132,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -18081,25 +18155,40 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
+      <c r="J6" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>14.19</v>
+      </c>
+      <c r="N6">
+        <v>21.285</v>
+      </c>
       <c r="O6" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F7" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -18110,25 +18199,40 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
+      <c r="J7" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>14.19</v>
+      </c>
+      <c r="N7">
+        <v>21.285</v>
+      </c>
       <c r="O7" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -18137,28 +18241,42 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f>G8</f>
         <v>1</v>
       </c>
+      <c r="J8" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>14.19</v>
+      </c>
+      <c r="N8">
+        <v>21.285</v>
+      </c>
       <c r="O8" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F9" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -18169,25 +18287,40 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
+      <c r="J9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>17.94</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>24.44</v>
+      </c>
+      <c r="N9">
+        <v>36.66</v>
+      </c>
       <c r="O9" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F10" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -18198,25 +18331,40 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
+      <c r="J10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>17.94</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>24.44</v>
+      </c>
+      <c r="N10">
+        <v>36.66</v>
+      </c>
       <c r="O10" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F11" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -18227,25 +18375,40 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
+      <c r="J11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>17.94</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>24.44</v>
+      </c>
+      <c r="N11">
+        <v>36.66</v>
+      </c>
       <c r="O11" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F12" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -18256,25 +18419,40 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
+      <c r="J12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>17.94</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>24.44</v>
+      </c>
+      <c r="N12">
+        <v>36.66</v>
+      </c>
       <c r="O12" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F13" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -18285,25 +18463,40 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>17.99</v>
+      </c>
+      <c r="N13">
+        <v>26.985</v>
+      </c>
       <c r="O13" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -18314,25 +18507,40 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>17.99</v>
+      </c>
+      <c r="N14">
+        <v>26.985</v>
+      </c>
       <c r="O14" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -18343,25 +18551,40 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>17.99</v>
+      </c>
+      <c r="N15">
+        <v>26.985</v>
+      </c>
       <c r="O15" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F16" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -18372,25 +18595,40 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
+      <c r="J16" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>18.49</v>
+      </c>
+      <c r="N16">
+        <v>27.735</v>
+      </c>
       <c r="O16" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F17" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -18401,150 +18639,240 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>38</v>
+      </c>
+      <c r="N17">
+        <v>57</v>
+      </c>
       <c r="O17" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F18" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>17.49</v>
+      </c>
+      <c r="N18">
+        <v>26.235</v>
       </c>
       <c r="O18" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F19" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>17.49</v>
+      </c>
+      <c r="N19">
+        <v>26.235</v>
       </c>
       <c r="O19" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F20" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>17.49</v>
+      </c>
+      <c r="N20">
+        <v>26.235</v>
       </c>
       <c r="O20" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F21" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>11.96</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>17.96</v>
+      </c>
+      <c r="N21">
+        <v>26.94</v>
       </c>
       <c r="O21" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" s="9">
         <v>20</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>16.5</v>
       </c>
       <c r="O22" s="9">
         <v>20</v>
@@ -18552,78 +18880,107 @@
     </row>
     <row r="23" customHeight="1" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F23" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>38</v>
+      </c>
+      <c r="N23">
+        <v>57</v>
       </c>
       <c r="O23" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F24" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>20.99</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>27.99</v>
+      </c>
+      <c r="N24">
+        <v>41.985</v>
       </c>
       <c r="O24" s="9">
-        <f>F24</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F25" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -18634,39 +18991,67 @@
       <c r="I25" s="3">
         <v>1</v>
       </c>
+      <c r="J25" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>19.46</v>
+      </c>
+      <c r="N25">
+        <v>29.19</v>
+      </c>
       <c r="O25" s="9">
-        <f t="shared" ref="O25:O61" si="0">F25</f>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:15">
       <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F26" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>19.46</v>
+      </c>
+      <c r="N26">
+        <v>29.19</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:15">
@@ -18674,29 +19059,43 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F27" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K27" s="3">
+        <v>8.97</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>15.47</v>
+      </c>
+      <c r="N27">
+        <v>23.205</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
@@ -18704,59 +19103,87 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F28" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>8.97</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>15.47</v>
+      </c>
+      <c r="N28">
+        <v>23.205</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
       <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>20.99</v>
+      </c>
+      <c r="N29">
+        <v>31.485</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
@@ -18764,16 +19191,16 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F30" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -18784,26 +19211,40 @@
       <c r="I30" s="3">
         <v>1</v>
       </c>
+      <c r="J30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>21.49</v>
+      </c>
+      <c r="N30">
+        <v>32.235</v>
+      </c>
       <c r="O30" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F31" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -18814,26 +19255,40 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
+      <c r="J31" s="3">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>29.5</v>
+      </c>
+      <c r="N31">
+        <v>44.25</v>
+      </c>
       <c r="O31" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="F32" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -18844,26 +19299,40 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
+      <c r="J32" s="3">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>29.5</v>
+      </c>
+      <c r="N32">
+        <v>44.25</v>
+      </c>
       <c r="O32" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F33" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -18874,56 +19343,84 @@
       <c r="I33" s="3">
         <v>1</v>
       </c>
+      <c r="J33" s="3">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>29.5</v>
+      </c>
+      <c r="N33">
+        <v>44.25</v>
+      </c>
       <c r="O33" s="9">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="F34" s="9">
         <v>30</v>
       </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>8.97</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>14.97</v>
+      </c>
+      <c r="N34">
+        <v>22.455</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="F35" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
@@ -18934,26 +19431,40 @@
       <c r="I35" s="3">
         <v>2</v>
       </c>
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <v>11.95</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>17.95</v>
+      </c>
+      <c r="N35">
+        <v>26.925</v>
+      </c>
       <c r="O35" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F36" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
@@ -18964,146 +19475,216 @@
       <c r="I36" s="3">
         <v>2</v>
       </c>
+      <c r="J36" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>8.79</v>
+      </c>
+      <c r="N36">
+        <v>13.185</v>
+      </c>
       <c r="O36" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="F37" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>8.79</v>
+      </c>
+      <c r="N37">
+        <v>13.185</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="F38" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>10.79</v>
+      </c>
+      <c r="N38">
+        <v>16.185</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="F39" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K39" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>10.79</v>
+      </c>
+      <c r="N39">
+        <v>16.185</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="F40" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K40" s="3">
+        <v>17.94</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>24.44</v>
+      </c>
+      <c r="N40">
+        <v>36.66</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F41" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -19114,26 +19695,34 @@
       <c r="I41" s="3">
         <v>1</v>
       </c>
+      <c r="J41" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="M41">
+        <v>1.8</v>
+      </c>
+      <c r="N41">
+        <v>2.7</v>
+      </c>
       <c r="O41" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F42" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -19144,35 +19733,322 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
+      <c r="J42" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="M42">
+        <v>1.8</v>
+      </c>
+      <c r="N42">
+        <v>2.7</v>
+      </c>
       <c r="O42" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="43" spans="6:15">
-      <c r="F43" s="9"/>
-      <c r="O43" s="9"/>
+    <row r="43" customHeight="1" spans="1:15">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="9">
+        <v>35</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
+        <v>3.5</v>
+      </c>
+      <c r="N43">
+        <v>5.25</v>
+      </c>
+      <c r="O43" s="9">
+        <v>35</v>
+      </c>
     </row>
-    <row r="44" spans="15:15">
-      <c r="O44" s="9"/>
+    <row r="44" customHeight="1" spans="1:15">
+      <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4.5</v>
+      </c>
+      <c r="O44" s="9">
+        <v>30</v>
+      </c>
     </row>
-    <row r="45" spans="15:15">
-      <c r="O45" s="9"/>
+    <row r="45" customHeight="1" spans="1:15">
+      <c r="A45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" s="9">
+        <v>20</v>
+      </c>
     </row>
-    <row r="46" spans="15:15">
-      <c r="O46" s="9"/>
+    <row r="46" customHeight="1" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>25</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="M46">
+        <v>2.5</v>
+      </c>
+      <c r="N46">
+        <v>3.75</v>
+      </c>
+      <c r="O46" s="9">
+        <v>25</v>
+      </c>
     </row>
-    <row r="47" spans="15:15">
-      <c r="O47" s="9"/>
+    <row r="47" customHeight="1" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="M47">
+        <v>1.8</v>
+      </c>
+      <c r="N47">
+        <v>2.7</v>
+      </c>
+      <c r="O47" s="9">
+        <v>18</v>
+      </c>
     </row>
-    <row r="48" spans="15:15">
-      <c r="O48" s="9"/>
+    <row r="48" customHeight="1" spans="1:15">
+      <c r="A48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M48">
+        <v>1.5</v>
+      </c>
+      <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48" s="9">
+        <v>15</v>
+      </c>
     </row>
-    <row r="49" spans="15:15">
-      <c r="O49" s="9"/>
+    <row r="49" customHeight="1" spans="1:15">
+      <c r="A49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M49">
+        <v>1.5</v>
+      </c>
+      <c r="N49">
+        <v>2.25</v>
+      </c>
+      <c r="O49" s="9">
+        <v>15</v>
+      </c>
     </row>
-    <row r="50" spans="15:15">
-      <c r="O50" s="9"/>
+    <row r="50" customHeight="1" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M50">
+        <v>1.5</v>
+      </c>
+      <c r="N50">
+        <v>2.25</v>
+      </c>
+      <c r="O50" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" s="9"/>
@@ -19254,109 +20130,109 @@
     </row>
     <row r="77" spans="15:15">
       <c r="O77" s="9">
-        <f t="shared" ref="O65:O94" si="1">F77</f>
+        <f t="shared" ref="O65:O94" si="0">F77</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="295">
   <si>
     <t>Code</t>
   </si>
@@ -85,625 +85,823 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>LTA388</t>
+    <t>LTA270</t>
+  </si>
+  <si>
+    <t>vestido /tallas-medianas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido playero de manga larga tejido </t>
+  </si>
+  <si>
+    <t>Talla M</t>
+  </si>
+  <si>
+    <t>LTA265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido /tallas-pequenas  </t>
+  </si>
+  <si>
+    <t>Vestido playero healter de moda color blanco</t>
+  </si>
+  <si>
+    <t>Talla S</t>
+  </si>
+  <si>
+    <t>LTA272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido playero de ganchillo caqui </t>
+  </si>
+  <si>
+    <t>LTA473</t>
+  </si>
+  <si>
+    <t>Vestido túnica beige animal print H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA474</t>
+  </si>
+  <si>
+    <t>Talla XS</t>
+  </si>
+  <si>
+    <t>LTA475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vestido /tallas-grandes </t>
+  </si>
+  <si>
+    <t>Talla XL</t>
+  </si>
+  <si>
+    <t>LTA476</t>
+  </si>
+  <si>
+    <t>Partes-de-abajo /hm /tallas-grandes</t>
+  </si>
+  <si>
+    <t>Shorts de buzo de mujer en algodón lavado azul grisáceo H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla L</t>
+  </si>
+  <si>
+    <t>LTA477</t>
+  </si>
+  <si>
+    <t>Partes-de-abajo /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>LTA478</t>
+  </si>
+  <si>
+    <t>Shorts de buzo de mujer en algodón lavado crema H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA479</t>
+  </si>
+  <si>
+    <t>Vestido de tirantes con cuerpo panal de abeja azul y blanco estampado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA480</t>
+  </si>
+  <si>
+    <t>LTA481</t>
+  </si>
+  <si>
+    <t>Vestido línea A blanco con estampado azul de hojas H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA482</t>
+  </si>
+  <si>
+    <t>Vestido crochet morado de rayas anudado</t>
+  </si>
+  <si>
+    <t>LTA483</t>
+  </si>
+  <si>
+    <t>Vestido de algodón con abotonadura frontal negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA484</t>
+  </si>
+  <si>
+    <t>Vestido pulóver con vuelos blanco DontCallMe</t>
+  </si>
+  <si>
+    <t>LTA485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido corto bleazer en mezcla de lino marrón </t>
+  </si>
+  <si>
+    <t>LTA486</t>
+  </si>
+  <si>
+    <t>Vestido de mangas largas negro estampado floral PinkWoman</t>
+  </si>
+  <si>
+    <t>LTA487</t>
+  </si>
+  <si>
+    <t>LTA488</t>
+  </si>
+  <si>
+    <t>Vestido acampanado con ribetes de encaje negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA489</t>
+  </si>
+  <si>
+    <t>Mono de tirantes en punto arrugado negro estampado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA490</t>
+  </si>
+  <si>
+    <t>Vestido evasé con tirantes espaguetis verde vivo H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA491</t>
+  </si>
+  <si>
+    <t>LTA492</t>
+  </si>
+  <si>
+    <t>Vestido en mezcla de lino con tirantes finos marrón PLT</t>
+  </si>
+  <si>
+    <t>Talla M_6</t>
+  </si>
+  <si>
+    <t>LTA493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lenceria /tallas-pequenas  </t>
+  </si>
+  <si>
+    <t>Pijama en pointelle blanco floral H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA494</t>
+  </si>
+  <si>
+    <t>lenceria /tallas-medianas</t>
+  </si>
+  <si>
+    <t>Pijama estampado rosa con frutillas H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA495</t>
+  </si>
+  <si>
+    <t>bolsos</t>
+  </si>
+  <si>
+    <t>Bolso cruzado negro con detalles dorados H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla pequeno</t>
+  </si>
+  <si>
+    <t>LTA496</t>
+  </si>
+  <si>
+    <t>Tops /tallas-grandes</t>
+  </si>
+  <si>
+    <t>Body de tanga con copa acolchada sin costuras negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA497</t>
+  </si>
+  <si>
+    <t>Shorts de buzo de mujer crema con rayas negras H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA498</t>
+  </si>
+  <si>
+    <t>Partes-de-abajo /hm /tallas-medianas</t>
+  </si>
+  <si>
+    <t>Shorts arrugado con cordón color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA499</t>
+  </si>
+  <si>
+    <t>Shorts de mujer de algodón azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA500</t>
+  </si>
+  <si>
+    <t>Shorts buzo de mujer beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA501</t>
+  </si>
+  <si>
+    <t>Partes-de-abajo /hm /tallas-extra-grandes</t>
+  </si>
+  <si>
+    <t>Shorts buzo de mujer gris jaspeado H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XXL</t>
+  </si>
+  <si>
+    <t>LTA502</t>
+  </si>
+  <si>
+    <t>Shorts buzo de mujer rojo H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA503</t>
+  </si>
+  <si>
+    <t>Shorts de jersey arrugados azul y blanco estampado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA504</t>
+  </si>
+  <si>
+    <t>LTA505</t>
+  </si>
+  <si>
+    <t>hombres /hm /hm /tallas-grandes</t>
+  </si>
+  <si>
+    <t>Shorts relaxed fit negro lavado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA506</t>
+  </si>
+  <si>
+    <t>Shorts de mezclilla color crema H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla M_8</t>
+  </si>
+  <si>
+    <t>LTA507</t>
+  </si>
+  <si>
+    <t>Shorts denim altos gris oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla L_12</t>
+  </si>
+  <si>
+    <t>LTA508</t>
+  </si>
+  <si>
+    <t>Talla L_10</t>
+  </si>
+  <si>
+    <t>LTA509</t>
+  </si>
+  <si>
+    <t>Shorts denim con lazada decorativa blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA510</t>
+  </si>
+  <si>
+    <t>Shorts de mujer de mezclilla blanca con flecos H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA511</t>
+  </si>
+  <si>
+    <t>LTA512</t>
+  </si>
+  <si>
+    <t>Shorts denim ultra altos blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA513</t>
+  </si>
+  <si>
+    <t>Shorts con cinturón blanco H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA514</t>
+  </si>
+  <si>
+    <t>Shorts de mezclilla ultra altos azul denim H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA515</t>
+  </si>
+  <si>
+    <t>Shorts de meclilla con bolsillos delanteros azul denim H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA516</t>
+  </si>
+  <si>
+    <t>Shorts de mezclilla azul denim oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA517</t>
+  </si>
+  <si>
+    <t>Minifalda azul claro denim H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA518</t>
+  </si>
+  <si>
+    <t>Pantalón de sarga con cordón de ajuste turquesa claro con rayas H&amp;M</t>
+  </si>
+  <si>
+    <t>Pantalones de sarga con cordón animal print H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA520</t>
+  </si>
+  <si>
+    <t>Pantalón de sarga con cordón de ajuste negro floral H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA521</t>
+  </si>
+  <si>
+    <t>Pantalón de sarga con cordón de ajuste verde palmeras H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA522</t>
+  </si>
+  <si>
+    <t>Camisa de mangas largas slim fit azul claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA523</t>
   </si>
   <si>
     <t>hombres /hm /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>Polo en punto calado blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t>LTA342</t>
+    <t>Camisa de mangas cortas blanca y gris rayada H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA524</t>
+  </si>
+  <si>
+    <t>Camisa de mangas cortas efecto arrugado negra H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA525</t>
+  </si>
+  <si>
+    <t>hombres /hm /hm /tallas-extra-grandes</t>
+  </si>
+  <si>
+    <t>Pulóver loose fit negro Masashi H&amp;M</t>
+  </si>
+  <si>
+    <t>Pulóver loose fit negro carbonar H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA527</t>
+  </si>
+  <si>
+    <t>Pulóver Coolmax negro de gran calidad H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA528</t>
+  </si>
+  <si>
+    <t>Pulóver loose fit blanco Fórmula 1 H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA529</t>
+  </si>
+  <si>
+    <t>Pulóver con motivo estampado blanco New York H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA530</t>
+  </si>
+  <si>
+    <t>Pulóver loose fit blanco/Puerto Vallarta H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA274</t>
+  </si>
+  <si>
+    <t>trajes-de-bano /tallas-medianas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traje de baño de manga larga y short </t>
+  </si>
+  <si>
+    <t>LTA275</t>
+  </si>
+  <si>
+    <t>trajes-de-bano /tallas-grandes</t>
+  </si>
+  <si>
+    <t>LTA273</t>
+  </si>
+  <si>
+    <t>trajes-de-bano /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>LTA276</t>
+  </si>
+  <si>
+    <t>LTA531</t>
+  </si>
+  <si>
+    <t>calzado</t>
+  </si>
+  <si>
+    <t>Tenis básicos con cordones verde olivo ZARA</t>
+  </si>
+  <si>
+    <t>Talla 40</t>
+  </si>
+  <si>
+    <t>LTA532</t>
+  </si>
+  <si>
+    <t>Tenis básicos con cordones gris ZARA</t>
+  </si>
+  <si>
+    <t>Talla 42</t>
+  </si>
+  <si>
+    <t>LTA533</t>
+  </si>
+  <si>
+    <t>Talla 43</t>
+  </si>
+  <si>
+    <t>LTA534</t>
+  </si>
+  <si>
+    <t>Mocasines de hombres de piel marrón ZARA</t>
+  </si>
+  <si>
+    <t>LTA535</t>
+  </si>
+  <si>
+    <t>Sandalias prácticas de hombres marrón con detalle de hebillas plateadas ZARA</t>
+  </si>
+  <si>
+    <t>LTA536</t>
+  </si>
+  <si>
+    <t>Sandalias de hombre cruzadas negras ZARA</t>
+  </si>
+  <si>
+    <t>LTA537</t>
+  </si>
+  <si>
+    <t>LTA538</t>
+  </si>
+  <si>
+    <t>Tacones de punta fina negros de vinil ZARA</t>
+  </si>
+  <si>
+    <t>Talla 39</t>
+  </si>
+  <si>
+    <t>LTA539</t>
+  </si>
+  <si>
+    <t>Tacones de punta fina azul grisáceos con brillo Jessica Simpson</t>
+  </si>
+  <si>
+    <t>Talla 7.5_38</t>
+  </si>
+  <si>
+    <t>LTA540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tacones de punta fina beige claro de vinil ZARA </t>
+  </si>
+  <si>
+    <t>Talla 37</t>
+  </si>
+  <si>
+    <t>LTA541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tacones de punta fina verde menta Charles </t>
+  </si>
+  <si>
+    <t>Talla 37.5-38</t>
+  </si>
+  <si>
+    <t>LTA542</t>
+  </si>
+  <si>
+    <t>Mocasines de vestir negros con suela track unisex ZARA</t>
+  </si>
+  <si>
+    <t>LTA543</t>
+  </si>
+  <si>
+    <t>LTA544</t>
+  </si>
+  <si>
+    <t>Mocasines de vestir marrón oscuro con ligero tacón unisex ZARA</t>
+  </si>
+  <si>
+    <t>LTA545</t>
+  </si>
+  <si>
+    <t>Mocasines de vestir negros con ligero tacón unisex ZARA</t>
+  </si>
+  <si>
+    <t>LTA546</t>
+  </si>
+  <si>
+    <t>LTA547</t>
+  </si>
+  <si>
+    <t>Talla 41</t>
+  </si>
+  <si>
+    <t>LTA548</t>
+  </si>
+  <si>
+    <t>Mocasines casuales de hombres de piel beige oscuro ZARA</t>
+  </si>
+  <si>
+    <t>LTA549</t>
+  </si>
+  <si>
+    <t>LTA550</t>
+  </si>
+  <si>
+    <t>Mocasines casuales de hombres de piel grises ZARA</t>
+  </si>
+  <si>
+    <t>LTA551</t>
+  </si>
+  <si>
+    <t>Mocasines casuales de hombres de piel azul marino ZARA</t>
+  </si>
+  <si>
+    <t>LTA552</t>
+  </si>
+  <si>
+    <t>Mocasines de mujer beige claro ZARA</t>
+  </si>
+  <si>
+    <t>LTA553</t>
+  </si>
+  <si>
+    <t>LTA554</t>
+  </si>
+  <si>
+    <t>Mocasines de mujer negros estilo piel de cocodrilo con detalle de cadena ZARA</t>
+  </si>
+  <si>
+    <t>LTA555</t>
+  </si>
+  <si>
+    <t>Mocasines de mujer negros efecto acharolado ZARA</t>
+  </si>
+  <si>
+    <t>Talla 36</t>
+  </si>
+  <si>
+    <t>LTA556</t>
+  </si>
+  <si>
+    <t>Bolso de hombre de vinil negro PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>Talla mediano</t>
+  </si>
+  <si>
+    <t>LTA557</t>
+  </si>
+  <si>
+    <t>Bolso bandolera beige oscuro unisex Parfois</t>
+  </si>
+  <si>
+    <t>LTA558</t>
+  </si>
+  <si>
+    <t>accesorios</t>
+  </si>
+  <si>
+    <t>Cinturón básico efecto piel marrón PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>Talla 38</t>
+  </si>
+  <si>
+    <t>LTA559</t>
+  </si>
+  <si>
+    <t>Cinturón marrón de piel con hebilla negra PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>Talla 34</t>
+  </si>
+  <si>
+    <t>LTA560</t>
+  </si>
+  <si>
+    <t>Cinturón marrón con efecto ahumado de piel con hebilla en plata vieja PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA561</t>
+  </si>
+  <si>
+    <t>LTA562</t>
+  </si>
+  <si>
+    <t>Cinturón marrón de piel con hebilla en plata vieja PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA563</t>
+  </si>
+  <si>
+    <t>LTA564</t>
+  </si>
+  <si>
+    <t>Cinturón negro de piel con hebilla en plata vieja PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA565</t>
+  </si>
+  <si>
+    <t>Cinturón negro de piel con hebilla negra PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA566</t>
+  </si>
+  <si>
+    <t>LTA567</t>
+  </si>
+  <si>
+    <t>Short de buzo regular fit beige H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA397</t>
   </si>
   <si>
     <t>hombres /hm /hm /tallas-pequenas</t>
   </si>
   <si>
-    <t>Camisa resort con efecto arrugado beige H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S</t>
-  </si>
-  <si>
-    <t>LTA335</t>
-  </si>
-  <si>
-    <t>Camisa de punto de manga cortas negra H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA326</t>
-  </si>
-  <si>
-    <t>Tops /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Gilet sastre de traje verde caqui oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partes-de-abajo /hm /tallas-pequenas </t>
-  </si>
-  <si>
-    <t>Maxi falda negra H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XS</t>
-  </si>
-  <si>
-    <t>LTA389</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>LTA390</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>YILHM2551</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /tallas-grandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bikini acanalado blanco de dos piezas </t>
-  </si>
-  <si>
-    <t>Talla L</t>
-  </si>
-  <si>
-    <t>BU043506</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /tallas-medianas</t>
-  </si>
-  <si>
-    <t>YILHM2550</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>BU043578</t>
-  </si>
-  <si>
-    <t>Traje de baño acanalado negro de una sola pieza</t>
-  </si>
-  <si>
-    <t>BU06775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bikini strapless rosa estampado de flores </t>
-  </si>
-  <si>
-    <t>BU06776</t>
-  </si>
-  <si>
-    <t>BU067412</t>
-  </si>
-  <si>
-    <t>Bikini strapless rosa fucsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traje de baño elegante negro casual unicolor con adorno en tendencia </t>
-  </si>
-  <si>
-    <t>YILHM2542</t>
-  </si>
-  <si>
-    <t>Traje de baño de una sola pieza unicolor y diseño con abertura</t>
-  </si>
-  <si>
-    <t>YILHM2544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vestido /tallas-grandes </t>
-  </si>
-  <si>
-    <t>Vestido maxi con textura tipo lino de diseño bandeau con nudo y aberturas PLT</t>
-  </si>
-  <si>
-    <t>Talla L_12</t>
-  </si>
-  <si>
-    <t>LTA207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido /tallas-pequenas  </t>
-  </si>
-  <si>
-    <t>Vestido en mezcla de lino con mangas farol blanco PLT</t>
-  </si>
-  <si>
-    <t>Talla XS_0</t>
-  </si>
-  <si>
-    <t>LTA206</t>
-  </si>
-  <si>
-    <t>Talla S_2</t>
-  </si>
-  <si>
-    <t>BU043569</t>
-  </si>
-  <si>
-    <t>Vestido elegante de línea larga color negro de hombro atado</t>
-  </si>
-  <si>
-    <t>YILHM1070</t>
-  </si>
-  <si>
-    <t>vestido /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Vestido maxi de lino en color óxido tipo bandeau con con cortes laterales PLT</t>
-  </si>
-  <si>
-    <t>Talla M_8</t>
-  </si>
-  <si>
-    <t>BU04409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido satinado negro con estampado de flores rojas </t>
-  </si>
-  <si>
-    <t>BU0738</t>
-  </si>
-  <si>
-    <t>Vestido denim H&amp;M</t>
-  </si>
-  <si>
-    <t>BU0732</t>
-  </si>
-  <si>
-    <t>Vestido drapeado negro con estampado de flores pequeñas blancas</t>
-  </si>
-  <si>
-    <t>UB0234</t>
-  </si>
-  <si>
-    <t>Vestido azul satinado corto de tirantes finos cruzados H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lenceria /tallas-pequenas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pijama de pantalón corto negro de algodón Victoria´s Secret </t>
-  </si>
-  <si>
-    <t>YILHM0458</t>
-  </si>
-  <si>
-    <t>YILHM0459</t>
-  </si>
-  <si>
-    <t>lenceria /tallas-medianas</t>
-  </si>
-  <si>
-    <t>YILHM0460</t>
-  </si>
-  <si>
-    <t>lenceria /tallas-grandes</t>
-  </si>
-  <si>
-    <t>YILHM0454</t>
-  </si>
-  <si>
-    <t>Pijama de pantalón largo rosa claro de algodón Victoria´s Secret</t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>YILHM0453</t>
-  </si>
-  <si>
-    <t>LTA391</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Pulóver corto acanalado blanco con adornos H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA392</t>
-  </si>
-  <si>
-    <t>calzado</t>
-  </si>
-  <si>
-    <t>Tenis Adidas Samba</t>
-  </si>
-  <si>
-    <t>Talla 7_38</t>
-  </si>
-  <si>
-    <t>YNIR137</t>
-  </si>
-  <si>
-    <t>Sandalias de punta fina plateados H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 9_40</t>
-  </si>
-  <si>
-    <t>YNIR138</t>
-  </si>
-  <si>
-    <t>Mocasines beige animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 6_37</t>
-  </si>
-  <si>
-    <t>YNIR139</t>
-  </si>
-  <si>
-    <t>Ballerinas estilo Mary Jane marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR140</t>
-  </si>
-  <si>
-    <t>Sandalias de tacón kitten plateados H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 10_41</t>
-  </si>
-  <si>
-    <t>YNIR141</t>
-  </si>
-  <si>
-    <t>Sandalias trenzadas marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR125</t>
-  </si>
-  <si>
-    <t>Sandalias balerinas con diseño de rejilla beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR143</t>
-  </si>
-  <si>
-    <t>Mocasines en tejido cepillado negros H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 5_36</t>
-  </si>
-  <si>
-    <t>YNIR101</t>
-  </si>
-  <si>
-    <t>bolsos</t>
-  </si>
-  <si>
-    <t>Bolso de hombro con detalle entretejido marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla pequeno</t>
-  </si>
-  <si>
-    <t>YNIR144</t>
-  </si>
-  <si>
-    <t>Bolso de hombros de flecos negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla mediano</t>
-  </si>
-  <si>
-    <t>YNIR145</t>
-  </si>
-  <si>
-    <t>Bolso de hombro con correa trenzada negro H&amp;M</t>
-  </si>
-  <si>
-    <t>YNIR146</t>
-  </si>
-  <si>
-    <t>Bolso de hombro con correa trenzada color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA393</t>
-  </si>
-  <si>
-    <t>accesorios</t>
-  </si>
-  <si>
-    <t>Cinturón negro con hebilla plateada H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA394</t>
-  </si>
-  <si>
-    <t>Sujetador balconette acolchado de microfibra beige H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 34C</t>
-  </si>
-  <si>
-    <t>LTA204</t>
-  </si>
-  <si>
-    <t>Vestido satinado terracota con estampado animal print y vuelos PLT</t>
-  </si>
-  <si>
-    <t>LTA395</t>
-  </si>
-  <si>
-    <t>Pantalón de hombre cropped slim fit gris oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S_30</t>
-  </si>
-  <si>
-    <t>LTA396</t>
-  </si>
-  <si>
-    <t>Pantalón de hombre cropped slim fit negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla S_31</t>
-  </si>
-  <si>
-    <t>LTA397</t>
-  </si>
-  <si>
-    <t>Short de buzo regular fit beige H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA398</t>
-  </si>
-  <si>
-    <t>Short de buzo regular fit azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA399</t>
-  </si>
-  <si>
-    <t>Short buzo de gran calidad gris jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM3117</t>
+    <t>LTA568</t>
+  </si>
+  <si>
+    <t>Shorts de buzo regular fit beige de gran calidad H&amp;M</t>
   </si>
   <si>
     <t>Shorts de buzo regular fit negro de gran calidad H&amp;M</t>
   </si>
   <si>
-    <t>LTA401</t>
-  </si>
-  <si>
-    <t>Shorts regular fit negro de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA402</t>
-  </si>
-  <si>
-    <t>Short bañador beige estampado de palmeras H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA403</t>
-  </si>
-  <si>
-    <t>Short bañador azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA404</t>
-  </si>
-  <si>
-    <t>Pantaloneta en mezcla de lino beige H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA405</t>
-  </si>
-  <si>
-    <t>Pantalón con cordón de algodón marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA406</t>
-  </si>
-  <si>
-    <t>Pantalón de algodón con cordón de ajuste animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA407</t>
-  </si>
-  <si>
-    <t>Pantalón en mezcla de lino azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA408</t>
-  </si>
-  <si>
-    <t>Pantalón con cordón en mezcla de lino borgoña H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA409</t>
-  </si>
-  <si>
-    <t>Pantalones con cordón de pierna ancha negros H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA410</t>
-  </si>
-  <si>
-    <t>Pantalón recto con cordón de ajuste blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA411</t>
-  </si>
-  <si>
-    <t>Vestido de algodón con cuerpo panal de abeja negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA412</t>
-  </si>
-  <si>
-    <t>Vestido de punto efecto arrugado azul y blanco estampado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA413</t>
-  </si>
-  <si>
-    <t>Vestido de tirantes con cuerpo panal de abeja verde H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA414</t>
-  </si>
-  <si>
-    <t>Vestido panal de abeja con tirantes finos negro floral H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA415</t>
-  </si>
-  <si>
-    <t>Vestido efecto arrugado con tirantes espagueti negro estampado beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido strapless verde satinado </t>
-  </si>
-  <si>
-    <t>LTA417</t>
-  </si>
-  <si>
-    <t>Talla S_4</t>
-  </si>
-  <si>
-    <t>LTA418</t>
-  </si>
-  <si>
-    <t>Vestido bodycon con diseño drapeado marrón H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA419</t>
-  </si>
-  <si>
-    <t>Vestido lencero drapeado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA420</t>
-  </si>
-  <si>
-    <t>Vestido de algodón con tirantes de lazo y vuelos blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA421</t>
-  </si>
-  <si>
-    <t>Vestido con tirantes finos y vuelos negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA422</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Pulóver de mujer oversized gris jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA423</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-grades</t>
-  </si>
-  <si>
-    <t>Túnica con vuelos amarillo pálido H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA424</t>
-  </si>
-  <si>
-    <t>Top halter drapeado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA425</t>
-  </si>
-  <si>
-    <t>Blusa con ribete de vuelos rosa salmón H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA426</t>
-  </si>
-  <si>
-    <t>Blusa con broderie inglés azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA427</t>
-  </si>
-  <si>
-    <t>Blusa de muselina de algodón blanca H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA428</t>
-  </si>
-  <si>
-    <t>Camisa oxford rosa H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA429</t>
-  </si>
-  <si>
-    <t>Pulóver ajustado de mujer acanalado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA430</t>
-  </si>
-  <si>
-    <t>Top acanalado con escote de corazón crema floral H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA431</t>
-  </si>
-  <si>
-    <t>Pulóver corto ajustado blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXS</t>
-  </si>
-  <si>
-    <t>LTA432</t>
-  </si>
-  <si>
-    <t>Pulóver corto ajustado negro de rayas blancas H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA433</t>
-  </si>
-  <si>
-    <t>Top con hombros descubiertos azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA434</t>
-  </si>
-  <si>
-    <t>Cardigán corto en punto acanalado blanco con rayas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA435</t>
-  </si>
-  <si>
-    <t>Pulóver de mujer de microfibra color topo H&amp;M</t>
-  </si>
-  <si>
-    <t>Top sin mangas en punto acanalado beige oscuro H&amp;M</t>
+    <t>LTA569</t>
+  </si>
+  <si>
+    <t>Shorts de chandal de corte regular negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA570</t>
+  </si>
+  <si>
+    <t>Shorts de buzo regular fit gris claro jaspeado de gran calidad H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA571</t>
+  </si>
+  <si>
+    <t>Shorts de buzo regular fit gris oscuro de gran calidad H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA572</t>
+  </si>
+  <si>
+    <t>Shorts regular fit gris oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA573</t>
+  </si>
+  <si>
+    <t>Shorts de buzo regular fit marrón H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA574</t>
+  </si>
+  <si>
+    <t>Shorts de buzo regular fit gris jaspeado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA575</t>
+  </si>
+  <si>
+    <t>Bolso shopper rojo burdeos ZARA</t>
+  </si>
+  <si>
+    <t>LTA576</t>
+  </si>
+  <si>
+    <t>Bolso shopper marrón Parfois</t>
+  </si>
+  <si>
+    <t>Talla grande</t>
+  </si>
+  <si>
+    <t>LTA577</t>
+  </si>
+  <si>
+    <t>hombres /tallas-medianas</t>
+  </si>
+  <si>
+    <t>Polo de hombre crochet verde lima PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA578</t>
+  </si>
+  <si>
+    <t>hombres /tallas-grandes</t>
+  </si>
+  <si>
+    <t>Polo de hombre de punto desgarrado crema PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA579</t>
+  </si>
+  <si>
+    <t>Polo de hombre de punto desgarrado verde olivo PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA580</t>
+  </si>
+  <si>
+    <t>Polo de hombre crochet color crema ZARA</t>
+  </si>
+  <si>
+    <t>LTA581</t>
+  </si>
+  <si>
+    <t>Polo de hombre de punto desgarrado negro PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA582</t>
+  </si>
+  <si>
+    <t>hombres /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>Polo texturizado azul marino Springfield</t>
+  </si>
+  <si>
+    <t>LTA583</t>
+  </si>
+  <si>
+    <t>Polo abotonado azul marino  Springfield</t>
+  </si>
+  <si>
+    <t>LTA584</t>
+  </si>
+  <si>
+    <t>Polo texturizado marrón ZARA</t>
+  </si>
+  <si>
+    <t>LTA585</t>
+  </si>
+  <si>
+    <t>Polo texturizado verde caqui Springfield</t>
+  </si>
+  <si>
+    <t>LTA586</t>
+  </si>
+  <si>
+    <t>Polo con textura negro detalle de cuello bordado blanco PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t>LTA587</t>
+  </si>
+  <si>
+    <t>Polo de punto gris Bershka</t>
+  </si>
+  <si>
+    <t>LTA588</t>
+  </si>
+  <si>
+    <t>LTA589</t>
+  </si>
+  <si>
+    <t>Polo de hombre de punto desgarrado marrón PULL&amp;BEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -711,14 +909,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -776,8 +974,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,8 +1019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +1036,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -814,7 +1067,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,91 +1112,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,7 +1151,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,31 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,127 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,11 +1404,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,6 +1439,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,188 +1501,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1463,47 +1661,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,12 +2041,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX104"/>
+  <dimension ref="A1:XEX140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94:H105"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18307,10 +18505,10 @@
         <v>25</v>
       </c>
       <c r="F2" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="11">
         <v>0</v>
@@ -18319,8 +18517,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="16">
-        <f t="shared" ref="O2:O31" si="0">F2</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="14.8" spans="1:15">
@@ -18349,7 +18546,6 @@
         <v>0</v>
       </c>
       <c r="O3" s="16">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -18367,10 +18563,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -18379,8 +18575,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="14.8" spans="1:15">
@@ -18388,16 +18583,16 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -18409,25 +18604,24 @@
         <v>0</v>
       </c>
       <c r="O5" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="14.8" spans="1:15">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
@@ -18439,25 +18633,24 @@
         <v>0</v>
       </c>
       <c r="O6" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="14.8" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F7" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -18469,25 +18662,24 @@
         <v>0</v>
       </c>
       <c r="O7" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="14.8" spans="1:15">
       <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -18496,11 +18688,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.8" spans="1:15">
@@ -18511,103 +18702,100 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
       </c>
       <c r="I9" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="14.8" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
       </c>
       <c r="I10" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="14.8" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G11" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="14.8" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -18619,25 +18807,24 @@
         <v>1</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.8" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F13" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
@@ -18646,28 +18833,27 @@
         <v>0</v>
       </c>
       <c r="I13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="14.8" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -18679,25 +18865,24 @@
         <v>1</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="14.8" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -18709,25 +18894,24 @@
         <v>1</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="14.8" spans="1:15">
-      <c r="A16" s="2">
-        <v>2541</v>
+      <c r="A16" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F16" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -18736,28 +18920,27 @@
         <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="14.8" spans="1:15">
-      <c r="A17" s="2">
-        <v>2540</v>
+      <c r="A17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F17" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -18766,88 +18949,85 @@
         <v>0</v>
       </c>
       <c r="I17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="14.8" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="14.8" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F19" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="14.8" spans="1:15">
-      <c r="A20" s="2">
-        <v>1031</v>
+      <c r="A20" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F20" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
@@ -18856,11 +19036,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="14.8" spans="1:15">
@@ -18868,16 +19047,16 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F21" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -18889,25 +19068,24 @@
         <v>0</v>
       </c>
       <c r="O21" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="14.8" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F22" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -18916,28 +19094,27 @@
         <v>0</v>
       </c>
       <c r="I22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="14.8" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -18949,55 +19126,53 @@
         <v>1</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="14.8" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11">
         <v>0</v>
       </c>
       <c r="I24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="14.8" spans="1:15">
-      <c r="A25" s="2">
-        <v>1069</v>
+      <c r="A25" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F25" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -19006,28 +19181,27 @@
         <v>0</v>
       </c>
       <c r="I25" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="14.8" spans="1:15">
       <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F26" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="10">
         <v>1</v>
@@ -19039,8 +19213,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="14.8" spans="1:15">
@@ -19048,46 +19221,45 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F27" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="14.8" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G28" s="10">
         <v>1</v>
@@ -19099,25 +19271,24 @@
         <v>1</v>
       </c>
       <c r="O28" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="14.8" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F29" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G29" s="10">
         <v>1</v>
@@ -19129,25 +19300,24 @@
         <v>1</v>
       </c>
       <c r="O29" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="14.8" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F30" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G30" s="10">
         <v>1</v>
@@ -19156,28 +19326,27 @@
         <v>0</v>
       </c>
       <c r="I30" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="14.8" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F31" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G31" s="10">
         <v>1</v>
@@ -19189,25 +19358,24 @@
         <v>1</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="14.8" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F32" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G32" s="10">
         <v>1</v>
@@ -19219,25 +19387,24 @@
         <v>1</v>
       </c>
       <c r="O32" s="16">
-        <f>F32</f>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="14.8" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
@@ -19249,25 +19416,24 @@
         <v>1</v>
       </c>
       <c r="O33" s="16">
-        <f>F33</f>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="14.8" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F34" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G34" s="10">
         <v>1</v>
@@ -19279,25 +19445,24 @@
         <v>1</v>
       </c>
       <c r="O34" s="16">
-        <f>F34</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="14.8" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F35" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
@@ -19309,55 +19474,53 @@
         <v>1</v>
       </c>
       <c r="O35" s="16">
-        <f>F35</f>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="14.8" spans="1:15">
       <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F36" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" s="11">
         <v>0</v>
       </c>
       <c r="I36" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36" s="16">
-        <f>F36</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="14.8" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F37" s="9">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="G37" s="10">
         <v>1</v>
@@ -19369,25 +19532,24 @@
         <v>1</v>
       </c>
       <c r="O37" s="16">
-        <f>F37</f>
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="14.8" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F38" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G38" s="10">
         <v>1</v>
@@ -19396,28 +19558,27 @@
         <v>0</v>
       </c>
       <c r="I38" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="16">
-        <f>F38</f>
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="14.8" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F39" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G39" s="10">
         <v>1</v>
@@ -19429,25 +19590,24 @@
         <v>1</v>
       </c>
       <c r="O39" s="16">
-        <f>F39</f>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="14.8" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F40" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
@@ -19459,25 +19619,24 @@
         <v>1</v>
       </c>
       <c r="O40" s="16">
-        <f>F40</f>
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="14.8" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
       </c>
       <c r="F41" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
@@ -19489,25 +19648,24 @@
         <v>1</v>
       </c>
       <c r="O41" s="16">
-        <f>F41</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="14.8" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F42" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G42" s="10">
         <v>1</v>
@@ -19516,31 +19674,30 @@
         <v>0</v>
       </c>
       <c r="I42" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="16">
-        <f>F42</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="14.8" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F43" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -19549,38 +19706,36 @@
         <v>0</v>
       </c>
       <c r="O43" s="16">
-        <f>F43</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="14.8" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F44" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G44" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="16">
-        <f>F44</f>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="14.8" spans="1:15">
@@ -19588,16 +19743,16 @@
         <v>122</v>
       </c>
       <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
         <v>123</v>
       </c>
-      <c r="C45" t="s">
-        <v>124</v>
-      </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F45" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G45" s="10">
         <v>1</v>
@@ -19606,58 +19761,56 @@
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="16">
-        <f>F45</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="14.8" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F46" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
       </c>
       <c r="I46" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" s="16">
-        <f t="shared" ref="O46:O93" si="1">F46</f>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="14.8" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F47" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G47" s="10">
         <v>1</v>
@@ -19666,28 +19819,27 @@
         <v>0</v>
       </c>
       <c r="I47" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="16">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="14.8" spans="1:15">
       <c r="A48" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F48" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G48" s="10">
         <v>1</v>
@@ -19699,25 +19851,24 @@
         <v>1</v>
       </c>
       <c r="O48" s="16">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="14.8" spans="1:15">
       <c r="A49" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F49" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
@@ -19729,25 +19880,24 @@
         <v>1</v>
       </c>
       <c r="O49" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="14.8" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F50" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G50" s="10">
         <v>1</v>
@@ -19756,28 +19906,27 @@
         <v>0</v>
       </c>
       <c r="I50" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="14.8" spans="1:15">
-      <c r="A51" s="2" t="s">
-        <v>139</v>
+      <c r="A51" s="2">
+        <v>3431</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F51" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G51" s="10">
         <v>1</v>
@@ -19789,25 +19938,24 @@
         <v>0</v>
       </c>
       <c r="O51" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="14.8" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="F52" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="10">
         <v>1</v>
@@ -19819,25 +19967,24 @@
         <v>1</v>
       </c>
       <c r="O52" s="16">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="14.8" spans="1:15">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="F53" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G53" s="10">
         <v>1</v>
@@ -19849,55 +19996,53 @@
         <v>1</v>
       </c>
       <c r="O53" s="16">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="14.8" spans="1:15">
       <c r="A54" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F54" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G54" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="11">
         <v>0</v>
       </c>
       <c r="I54" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="14.8" spans="1:15">
       <c r="A55" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F55" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -19909,25 +20054,24 @@
         <v>1</v>
       </c>
       <c r="O55" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="14.8" spans="1:15">
       <c r="A56" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F56" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G56" s="10">
         <v>1</v>
@@ -19939,25 +20083,24 @@
         <v>1</v>
       </c>
       <c r="O56" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="14.8" spans="1:15">
       <c r="A57" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F57" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G57" s="10">
         <v>1</v>
@@ -19969,25 +20112,24 @@
         <v>0</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="14.8" spans="1:15">
-      <c r="A58" s="2" t="s">
-        <v>155</v>
+      <c r="A58" s="2">
+        <v>3307</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F58" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G58" s="10">
         <v>1</v>
@@ -19999,25 +20141,24 @@
         <v>0</v>
       </c>
       <c r="O58" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="14.8" spans="1:15">
       <c r="A59" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F59" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G59" s="10">
         <v>1</v>
@@ -20026,58 +20167,56 @@
         <v>0</v>
       </c>
       <c r="I59" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="14.8" spans="1:15">
       <c r="A60" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F60" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G60" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
       </c>
       <c r="I60" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O60" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="14.8" spans="1:15">
       <c r="A61" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G61" s="10">
         <v>1</v>
@@ -20089,25 +20228,24 @@
         <v>1</v>
       </c>
       <c r="O61" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="14.8" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F62" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G62" s="10">
         <v>1</v>
@@ -20119,22 +20257,21 @@
         <v>0</v>
       </c>
       <c r="O62" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="14.8" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F63" s="9">
         <v>30</v>
@@ -20146,25 +20283,24 @@
         <v>0</v>
       </c>
       <c r="I63" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="16">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="64" ht="14.8" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" t="s">
         <v>42</v>
-      </c>
-      <c r="C64" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" t="s">
-        <v>29</v>
       </c>
       <c r="F64" s="9">
         <v>30</v>
@@ -20179,25 +20315,24 @@
         <v>0</v>
       </c>
       <c r="O64" s="16">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="65" ht="14.8" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
       </c>
       <c r="F65" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G65" s="10">
         <v>1</v>
@@ -20209,22 +20344,21 @@
         <v>0</v>
       </c>
       <c r="O65" s="16">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="14.8" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F66" s="9">
         <v>30</v>
@@ -20239,25 +20373,24 @@
         <v>0</v>
       </c>
       <c r="O66" s="16">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="67" ht="14.8" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="F67" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G67" s="10">
         <v>1</v>
@@ -20269,25 +20402,25 @@
         <v>1</v>
       </c>
       <c r="O67" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>F67</f>
+        <v>55</v>
       </c>
     </row>
     <row r="68" ht="14.8" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="F68" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G68" s="10">
         <v>1</v>
@@ -20299,25 +20432,25 @@
         <v>1</v>
       </c>
       <c r="O68" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" ref="O68:O99" si="0">F68</f>
+        <v>55</v>
       </c>
     </row>
     <row r="69" ht="14.8" spans="1:15">
       <c r="A69" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="F69" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G69" s="10">
         <v>1</v>
@@ -20329,25 +20462,25 @@
         <v>1</v>
       </c>
       <c r="O69" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="14.8" spans="1:15">
       <c r="A70" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="F70" s="9">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="G70" s="10">
         <v>1</v>
@@ -20356,28 +20489,28 @@
         <v>0</v>
       </c>
       <c r="I70" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="71" ht="14.8" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="F71" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G71" s="10">
         <v>1</v>
@@ -20386,28 +20519,28 @@
         <v>0</v>
       </c>
       <c r="I71" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="14.8" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="F72" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G72" s="10">
         <v>1</v>
@@ -20419,25 +20552,25 @@
         <v>1</v>
       </c>
       <c r="O72" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="73" ht="14.8" spans="1:15">
       <c r="A73" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="F73" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G73" s="10">
         <v>1</v>
@@ -20449,55 +20582,55 @@
         <v>1</v>
       </c>
       <c r="O73" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="74" ht="14.8" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F74" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G74" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="11">
         <v>0</v>
       </c>
       <c r="I74" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="14.8" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="F75" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G75" s="10">
         <v>1</v>
@@ -20509,25 +20642,25 @@
         <v>1</v>
       </c>
       <c r="O75" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="14.8" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F76" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G76" s="10">
         <v>1</v>
@@ -20539,25 +20672,25 @@
         <v>1</v>
       </c>
       <c r="O76" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="14.8" spans="1:15">
       <c r="A77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" t="s">
         <v>193</v>
       </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>194</v>
-      </c>
-      <c r="D77" t="s">
-        <v>25</v>
-      </c>
       <c r="F77" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G77" s="10">
         <v>1</v>
@@ -20569,25 +20702,25 @@
         <v>1</v>
       </c>
       <c r="O77" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="14.8" spans="1:15">
       <c r="A78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
         <v>195</v>
       </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" t="s">
-        <v>196</v>
-      </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="F78" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G78" s="10">
         <v>1</v>
@@ -20599,25 +20732,25 @@
         <v>1</v>
       </c>
       <c r="O78" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="79" ht="14.8" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="F79" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G79" s="10">
         <v>1</v>
@@ -20629,25 +20762,25 @@
         <v>1</v>
       </c>
       <c r="O79" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="80" ht="14.8" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="F80" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G80" s="10">
         <v>1</v>
@@ -20659,25 +20792,25 @@
         <v>1</v>
       </c>
       <c r="O80" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="81" ht="14.8" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="F81" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G81" s="10">
         <v>1</v>
@@ -20689,55 +20822,55 @@
         <v>1</v>
       </c>
       <c r="O81" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="82" ht="14.8" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="F82" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G82" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="11">
         <v>0</v>
       </c>
       <c r="I82" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="83" ht="14.8" spans="1:15">
       <c r="A83" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F83" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G83" s="10">
         <v>1</v>
@@ -20749,25 +20882,25 @@
         <v>1</v>
       </c>
       <c r="O83" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="84" ht="14.8" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="F84" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G84" s="10">
         <v>1</v>
@@ -20779,25 +20912,25 @@
         <v>1</v>
       </c>
       <c r="O84" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="14.8" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F85" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G85" s="10">
         <v>1</v>
@@ -20806,28 +20939,28 @@
         <v>0</v>
       </c>
       <c r="I85" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="86" ht="14.8" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="F86" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G86" s="10">
         <v>1</v>
@@ -20839,25 +20972,25 @@
         <v>1</v>
       </c>
       <c r="O86" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="87" ht="14.8" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="F87" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G87" s="10">
         <v>1</v>
@@ -20869,25 +21002,25 @@
         <v>1</v>
       </c>
       <c r="O87" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="88" ht="14.8" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="F88" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G88" s="10">
         <v>1</v>
@@ -20899,25 +21032,25 @@
         <v>1</v>
       </c>
       <c r="O88" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="89" ht="14.8" spans="1:15">
       <c r="A89" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="F89" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G89" s="10">
         <v>1</v>
@@ -20929,25 +21062,25 @@
         <v>1</v>
       </c>
       <c r="O89" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="90" ht="14.8" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="F90" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G90" s="10">
         <v>1</v>
@@ -20959,25 +21092,25 @@
         <v>1</v>
       </c>
       <c r="O90" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="91" ht="14.8" spans="1:15">
       <c r="A91" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="F91" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G91" s="10">
         <v>1</v>
@@ -20989,119 +21122,1213 @@
         <v>1</v>
       </c>
       <c r="O91" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="92" ht="14.8" spans="1:15">
       <c r="A92" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="F92" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G92" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" s="11">
         <v>0</v>
       </c>
       <c r="I92" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O92" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="14.8" spans="1:15">
-      <c r="A93" s="2">
-        <v>3191</v>
+      <c r="A93" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="F93" s="9">
-        <v>15</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G93" s="10">
+        <v>2</v>
       </c>
       <c r="H93" s="11">
         <v>0</v>
       </c>
       <c r="I93" s="14">
+        <v>2</v>
+      </c>
+      <c r="O93" s="16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" ht="14.8" spans="1:15">
+      <c r="A94" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F94" s="9">
+        <v>25</v>
+      </c>
+      <c r="G94" s="10">
+        <v>1</v>
+      </c>
+      <c r="H94" s="11">
         <v>0</v>
       </c>
-      <c r="O93" s="16">
+      <c r="I94" s="14">
+        <v>1</v>
+      </c>
+      <c r="O94" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" ht="14.8" spans="1:15">
+      <c r="A95" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" s="9">
+        <v>25</v>
+      </c>
+      <c r="G95" s="10">
+        <v>1</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
+        <v>1</v>
+      </c>
+      <c r="O95" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" ht="14.8" spans="1:15">
+      <c r="A96" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" s="9">
+        <v>25</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="14">
+        <v>1</v>
+      </c>
+      <c r="O96" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" ht="14.8" spans="1:15">
+      <c r="A97" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="9">
+        <v>25</v>
+      </c>
+      <c r="G97" s="10">
+        <v>1</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <v>1</v>
+      </c>
+      <c r="O97" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="14.8" spans="1:15">
+      <c r="A98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="9">
+        <v>25</v>
+      </c>
+      <c r="G98" s="10">
+        <v>1</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="14">
+        <v>1</v>
+      </c>
+      <c r="O98" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" ht="14.8" spans="1:15">
+      <c r="A99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" s="9">
+        <v>25</v>
+      </c>
+      <c r="G99" s="10">
+        <v>1</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="14">
+        <v>1</v>
+      </c>
+      <c r="O99" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="14.8" spans="1:15">
+      <c r="A100" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="9">
+        <v>25</v>
+      </c>
+      <c r="G100" s="10">
+        <v>1</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="14">
+        <v>1</v>
+      </c>
+      <c r="O100" s="16">
+        <f t="shared" ref="O100:O125" si="1">F100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="14.8" spans="1:15">
+      <c r="A101" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s">
+        <v>225</v>
+      </c>
+      <c r="C101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" s="9">
+        <v>25</v>
+      </c>
+      <c r="G101" s="10">
+        <v>1</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="14">
+        <v>1</v>
+      </c>
+      <c r="O101" s="16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="94" ht="14.8" spans="6:9">
-      <c r="F94" s="9"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="14"/>
+    <row r="102" ht="14.8" spans="1:15">
+      <c r="A102" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="9">
+        <v>25</v>
+      </c>
+      <c r="G102" s="10">
+        <v>1</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
+        <v>1</v>
+      </c>
+      <c r="O102" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="95" ht="14.8" spans="6:9">
-      <c r="F95" s="9"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="14"/>
+    <row r="103" ht="14.8" spans="1:15">
+      <c r="A103" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="9">
+        <v>25</v>
+      </c>
+      <c r="G103" s="10">
+        <v>1</v>
+      </c>
+      <c r="H103" s="11">
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
+        <v>0</v>
+      </c>
+      <c r="O103" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="96" ht="14.8" spans="6:9">
-      <c r="F96" s="9"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="14"/>
+    <row r="104" ht="14.8" spans="1:15">
+      <c r="A104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="9">
+        <v>25</v>
+      </c>
+      <c r="G104" s="10">
+        <v>1</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="14">
+        <v>0</v>
+      </c>
+      <c r="O104" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="97" ht="14.8" spans="6:9">
-      <c r="F97" s="9"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="14"/>
+    <row r="105" ht="14.8" spans="1:15">
+      <c r="A105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="9">
+        <v>28</v>
+      </c>
+      <c r="G105" s="10">
+        <v>1</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="14">
+        <v>1</v>
+      </c>
+      <c r="O105" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="98" ht="14.8" spans="6:9">
-      <c r="F98" s="9"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="14"/>
+    <row r="106" ht="14.8" spans="1:15">
+      <c r="A106" s="2">
+        <v>22555</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="9">
+        <v>28</v>
+      </c>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0</v>
+      </c>
+      <c r="I106" s="14">
+        <v>0</v>
+      </c>
+      <c r="O106" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="99" ht="14.8" spans="6:9">
-      <c r="F99" s="9"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="14"/>
+    <row r="107" ht="14.8" spans="1:15">
+      <c r="A107" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" t="s">
+        <v>250</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="9">
+        <v>25</v>
+      </c>
+      <c r="G107" s="10">
+        <v>1</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
+      </c>
+      <c r="I107" s="14">
+        <v>0</v>
+      </c>
+      <c r="O107" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="100" ht="14.8" spans="6:8">
-      <c r="F100" s="9"/>
-      <c r="H100" s="11"/>
+    <row r="108" ht="14.8" spans="1:15">
+      <c r="A108" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="9">
+        <v>25</v>
+      </c>
+      <c r="G108" s="10">
+        <v>1</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="I108" s="14">
+        <v>0</v>
+      </c>
+      <c r="O108" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="101" ht="14.8" spans="6:8">
-      <c r="F101" s="9"/>
-      <c r="H101" s="11"/>
+    <row r="109" ht="14.8" spans="1:15">
+      <c r="A109" s="2">
+        <v>3122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="9">
+        <v>28</v>
+      </c>
+      <c r="G109" s="10">
+        <v>1</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0</v>
+      </c>
+      <c r="I109" s="14">
+        <v>0</v>
+      </c>
+      <c r="O109" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="102" ht="14.8" spans="8:8">
-      <c r="H102" s="11"/>
+    <row r="110" ht="14.8" spans="1:15">
+      <c r="A110" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="9">
+        <v>28</v>
+      </c>
+      <c r="G110" s="10">
+        <v>1</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="14">
+        <v>0</v>
+      </c>
+      <c r="O110" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="103" ht="14.8" spans="8:8">
-      <c r="H103" s="11"/>
+    <row r="111" ht="14.8" spans="1:15">
+      <c r="A111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="9">
+        <v>25</v>
+      </c>
+      <c r="G111" s="10">
+        <v>1</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0</v>
+      </c>
+      <c r="I111" s="14">
+        <v>0</v>
+      </c>
+      <c r="O111" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="104" ht="14.8" spans="8:8">
-      <c r="H104" s="11"/>
+    <row r="112" ht="14.8" spans="1:15">
+      <c r="A112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="9">
+        <v>25</v>
+      </c>
+      <c r="G112" s="10">
+        <v>1</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="14">
+        <v>1</v>
+      </c>
+      <c r="O112" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="14.8" spans="1:15">
+      <c r="A113" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="9">
+        <v>25</v>
+      </c>
+      <c r="G113" s="10">
+        <v>1</v>
+      </c>
+      <c r="H113" s="11">
+        <v>0</v>
+      </c>
+      <c r="I113" s="14">
+        <v>1</v>
+      </c>
+      <c r="O113" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" ht="14.8" spans="1:15">
+      <c r="A114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" t="s">
+        <v>221</v>
+      </c>
+      <c r="F114" s="9">
+        <v>60</v>
+      </c>
+      <c r="G114" s="10">
+        <v>1</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="14">
+        <v>1</v>
+      </c>
+      <c r="O114" s="16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" ht="14.8" spans="1:15">
+      <c r="A115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" t="s">
+        <v>265</v>
+      </c>
+      <c r="F115" s="9">
+        <v>60</v>
+      </c>
+      <c r="G115" s="10">
+        <v>1</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="I115" s="14">
+        <v>1</v>
+      </c>
+      <c r="O115" s="16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" ht="14.8" spans="1:15">
+      <c r="A116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" t="s">
+        <v>267</v>
+      </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="9">
+        <v>35</v>
+      </c>
+      <c r="G116" s="10">
+        <v>1</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0</v>
+      </c>
+      <c r="I116" s="14">
+        <v>1</v>
+      </c>
+      <c r="O116" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" ht="14.8" spans="1:15">
+      <c r="A117" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="9">
+        <v>35</v>
+      </c>
+      <c r="G117" s="10">
+        <v>2</v>
+      </c>
+      <c r="H117" s="11">
+        <v>0</v>
+      </c>
+      <c r="I117" s="14">
+        <v>2</v>
+      </c>
+      <c r="O117" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" ht="14.8" spans="1:15">
+      <c r="A118" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="9">
+        <v>35</v>
+      </c>
+      <c r="G118" s="10">
+        <v>1</v>
+      </c>
+      <c r="H118" s="11">
+        <v>0</v>
+      </c>
+      <c r="I118" s="14">
+        <v>1</v>
+      </c>
+      <c r="O118" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" ht="14.8" spans="1:15">
+      <c r="A119" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="9">
+        <v>35</v>
+      </c>
+      <c r="G119" s="10">
+        <v>1</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0</v>
+      </c>
+      <c r="I119" s="14">
+        <v>1</v>
+      </c>
+      <c r="O119" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" ht="14.8" spans="1:15">
+      <c r="A120" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B120" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="9">
+        <v>35</v>
+      </c>
+      <c r="G120" s="10">
+        <v>1</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
+      </c>
+      <c r="I120" s="14">
+        <v>1</v>
+      </c>
+      <c r="O120" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" ht="14.8" spans="1:15">
+      <c r="A121" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B121" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="9">
+        <v>35</v>
+      </c>
+      <c r="G121" s="10">
+        <v>1</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0</v>
+      </c>
+      <c r="I121" s="14">
+        <v>1</v>
+      </c>
+      <c r="O121" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" ht="14.8" spans="1:15">
+      <c r="A122" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="9">
+        <v>35</v>
+      </c>
+      <c r="G122" s="10">
+        <v>1</v>
+      </c>
+      <c r="H122" s="11">
+        <v>0</v>
+      </c>
+      <c r="I122" s="14">
+        <v>1</v>
+      </c>
+      <c r="O122" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" ht="14.8" spans="1:15">
+      <c r="A123" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" t="s">
+        <v>284</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="9">
+        <v>35</v>
+      </c>
+      <c r="G123" s="10">
+        <v>1</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="I123" s="14">
+        <v>1</v>
+      </c>
+      <c r="O123" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" ht="14.8" spans="1:15">
+      <c r="A124" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
+        <v>286</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="9">
+        <v>35</v>
+      </c>
+      <c r="G124" s="10">
+        <v>1</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
+      </c>
+      <c r="I124" s="14">
+        <v>1</v>
+      </c>
+      <c r="O124" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" ht="14.8" spans="1:15">
+      <c r="A125" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" t="s">
+        <v>288</v>
+      </c>
+      <c r="D125" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="9">
+        <v>35</v>
+      </c>
+      <c r="G125" s="10">
+        <v>1</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="I125" s="14">
+        <v>1</v>
+      </c>
+      <c r="O125" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" ht="14.8" spans="1:9">
+      <c r="A126" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="9">
+        <v>35</v>
+      </c>
+      <c r="G126" s="10">
+        <v>1</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0</v>
+      </c>
+      <c r="I126" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="14.8" spans="1:9">
+      <c r="A127" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B127" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="9">
+        <v>35</v>
+      </c>
+      <c r="G127" s="10">
+        <v>1</v>
+      </c>
+      <c r="H127" s="11">
+        <v>0</v>
+      </c>
+      <c r="I127" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="14.8" spans="1:9">
+      <c r="A128" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="9">
+        <v>35</v>
+      </c>
+      <c r="G128" s="10">
+        <v>1</v>
+      </c>
+      <c r="H128" s="11">
+        <v>0</v>
+      </c>
+      <c r="I128" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="14.8" spans="4:9">
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="11">
+        <v>0</v>
+      </c>
+      <c r="I129" s="14"/>
+    </row>
+    <row r="130" ht="14.8" spans="4:9">
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="11">
+        <v>0</v>
+      </c>
+      <c r="I130" s="14"/>
+    </row>
+    <row r="131" ht="14.8" spans="4:9">
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="11">
+        <v>0</v>
+      </c>
+      <c r="I131" s="14"/>
+    </row>
+    <row r="132" ht="14.8" spans="4:9">
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="11">
+        <v>0</v>
+      </c>
+      <c r="I132" s="14"/>
+    </row>
+    <row r="133" ht="14.8" spans="4:9">
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="11">
+        <v>0</v>
+      </c>
+      <c r="I133" s="14"/>
+    </row>
+    <row r="134" ht="14.8" spans="4:9">
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" s="9"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="11">
+        <v>0</v>
+      </c>
+      <c r="I134" s="14"/>
+    </row>
+    <row r="135" ht="14.8" spans="4:9">
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" s="9"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="11">
+        <v>0</v>
+      </c>
+      <c r="I135" s="14"/>
+    </row>
+    <row r="136" ht="14.8" spans="4:9">
+      <c r="D136" t="s">
+        <v>294</v>
+      </c>
+      <c r="F136" s="9"/>
+      <c r="G136" s="10"/>
+      <c r="I136" s="14"/>
+    </row>
+    <row r="137" ht="14.8" spans="6:9">
+      <c r="F137" s="9"/>
+      <c r="G137" s="10"/>
+      <c r="I137" s="14"/>
+    </row>
+    <row r="138" ht="14.8" spans="6:9">
+      <c r="F138" s="9"/>
+      <c r="G138" s="10"/>
+      <c r="I138" s="14"/>
+    </row>
+    <row r="139" ht="14.8" spans="6:9">
+      <c r="F139" s="9"/>
+      <c r="G139" s="10"/>
+      <c r="I139" s="14"/>
+    </row>
+    <row r="140" ht="14.8" spans="6:6">
+      <c r="F140" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V10">
+  <autoFilter ref="A1:V1">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="15740" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>Code</t>
   </si>
@@ -85,826 +85,16 @@
     <t>Precio Promocion</t>
   </si>
   <si>
-    <t>LTA270</t>
-  </si>
-  <si>
-    <t>vestido /tallas-medianas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido playero de manga larga tejido </t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t>LTA265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido /tallas-pequenas  </t>
-  </si>
-  <si>
-    <t>Vestido playero healter de moda color blanco</t>
-  </si>
-  <si>
-    <t>Talla S</t>
-  </si>
-  <si>
-    <t>LTA272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido playero de ganchillo caqui </t>
-  </si>
-  <si>
-    <t>LTA473</t>
-  </si>
-  <si>
-    <t>Vestido túnica beige animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA474</t>
-  </si>
-  <si>
-    <t>Talla XS</t>
-  </si>
-  <si>
-    <t>LTA475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vestido /tallas-grandes </t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>LTA476</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Shorts de buzo de mujer en algodón lavado azul grisáceo H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla L</t>
-  </si>
-  <si>
-    <t>LTA477</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>LTA478</t>
-  </si>
-  <si>
-    <t>Shorts de buzo de mujer en algodón lavado crema H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA479</t>
-  </si>
-  <si>
-    <t>Vestido de tirantes con cuerpo panal de abeja azul y blanco estampado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA480</t>
-  </si>
-  <si>
-    <t>LTA481</t>
-  </si>
-  <si>
-    <t>Vestido línea A blanco con estampado azul de hojas H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA482</t>
-  </si>
-  <si>
-    <t>Vestido crochet morado de rayas anudado</t>
-  </si>
-  <si>
-    <t>LTA483</t>
-  </si>
-  <si>
-    <t>Vestido de algodón con abotonadura frontal negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA484</t>
-  </si>
-  <si>
-    <t>Vestido pulóver con vuelos blanco DontCallMe</t>
-  </si>
-  <si>
-    <t>LTA485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido corto bleazer en mezcla de lino marrón </t>
-  </si>
-  <si>
-    <t>LTA486</t>
-  </si>
-  <si>
-    <t>Vestido de mangas largas negro estampado floral PinkWoman</t>
-  </si>
-  <si>
-    <t>LTA487</t>
-  </si>
-  <si>
-    <t>LTA488</t>
-  </si>
-  <si>
-    <t>Vestido acampanado con ribetes de encaje negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA489</t>
-  </si>
-  <si>
-    <t>Mono de tirantes en punto arrugado negro estampado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA490</t>
-  </si>
-  <si>
-    <t>Vestido evasé con tirantes espaguetis verde vivo H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA491</t>
-  </si>
-  <si>
-    <t>LTA492</t>
-  </si>
-  <si>
-    <t>Vestido en mezcla de lino con tirantes finos marrón PLT</t>
-  </si>
-  <si>
-    <t>Talla M_6</t>
-  </si>
-  <si>
-    <t>LTA493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lenceria /tallas-pequenas  </t>
-  </si>
-  <si>
-    <t>Pijama en pointelle blanco floral H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA494</t>
-  </si>
-  <si>
-    <t>lenceria /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Pijama estampado rosa con frutillas H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA495</t>
-  </si>
-  <si>
-    <t>bolsos</t>
-  </si>
-  <si>
-    <t>Bolso cruzado negro con detalles dorados H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla pequeno</t>
-  </si>
-  <si>
-    <t>LTA496</t>
-  </si>
-  <si>
-    <t>Tops /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Body de tanga con copa acolchada sin costuras negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA497</t>
-  </si>
-  <si>
-    <t>Shorts de buzo de mujer crema con rayas negras H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA498</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Shorts arrugado con cordón color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA499</t>
-  </si>
-  <si>
-    <t>Shorts de mujer de algodón azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA500</t>
-  </si>
-  <si>
-    <t>Shorts buzo de mujer beige claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA501</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-extra-grandes</t>
-  </si>
-  <si>
-    <t>Shorts buzo de mujer gris jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXL</t>
-  </si>
-  <si>
-    <t>LTA502</t>
-  </si>
-  <si>
-    <t>Shorts buzo de mujer rojo H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA503</t>
-  </si>
-  <si>
-    <t>Shorts de jersey arrugados azul y blanco estampado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA504</t>
-  </si>
-  <si>
-    <t>LTA505</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Shorts relaxed fit negro lavado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA506</t>
-  </si>
-  <si>
-    <t>Shorts de mezclilla color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla M_8</t>
-  </si>
-  <si>
-    <t>LTA507</t>
-  </si>
-  <si>
-    <t>Shorts denim altos gris oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla L_12</t>
-  </si>
-  <si>
-    <t>LTA508</t>
-  </si>
-  <si>
-    <t>Talla L_10</t>
-  </si>
-  <si>
-    <t>LTA509</t>
-  </si>
-  <si>
-    <t>Shorts denim con lazada decorativa blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA510</t>
-  </si>
-  <si>
-    <t>Shorts de mujer de mezclilla blanca con flecos H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA511</t>
-  </si>
-  <si>
-    <t>LTA512</t>
-  </si>
-  <si>
-    <t>Shorts denim ultra altos blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA513</t>
-  </si>
-  <si>
-    <t>Shorts con cinturón blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA514</t>
-  </si>
-  <si>
-    <t>Shorts de mezclilla ultra altos azul denim H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA515</t>
-  </si>
-  <si>
-    <t>Shorts de meclilla con bolsillos delanteros azul denim H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA516</t>
-  </si>
-  <si>
-    <t>Shorts de mezclilla azul denim oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA517</t>
-  </si>
-  <si>
-    <t>Minifalda azul claro denim H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA518</t>
-  </si>
-  <si>
-    <t>Pantalón de sarga con cordón de ajuste turquesa claro con rayas H&amp;M</t>
-  </si>
-  <si>
-    <t>Pantalones de sarga con cordón animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA520</t>
-  </si>
-  <si>
-    <t>Pantalón de sarga con cordón de ajuste negro floral H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA521</t>
-  </si>
-  <si>
-    <t>Pantalón de sarga con cordón de ajuste verde palmeras H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA522</t>
-  </si>
-  <si>
-    <t>Camisa de mangas largas slim fit azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA523</t>
+    <t>LTA590</t>
   </si>
   <si>
     <t>hombres /hm /hm /tallas-medianas</t>
   </si>
   <si>
-    <t>Camisa de mangas cortas blanca y gris rayada H&amp;M</t>
+    <t>Polo regular fit blanco H&amp;M</t>
   </si>
   <si>
-    <t>LTA524</t>
-  </si>
-  <si>
-    <t>Camisa de mangas cortas efecto arrugado negra H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA525</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-extra-grandes</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit negro Masashi H&amp;M</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit negro carbonar H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA527</t>
-  </si>
-  <si>
-    <t>Pulóver Coolmax negro de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA528</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit blanco Fórmula 1 H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA529</t>
-  </si>
-  <si>
-    <t>Pulóver con motivo estampado blanco New York H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA530</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit blanco/Puerto Vallarta H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA274</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /tallas-medianas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traje de baño de manga larga y short </t>
-  </si>
-  <si>
-    <t>LTA275</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /tallas-grandes</t>
-  </si>
-  <si>
-    <t>LTA273</t>
-  </si>
-  <si>
-    <t>trajes-de-bano /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>LTA276</t>
-  </si>
-  <si>
-    <t>LTA531</t>
-  </si>
-  <si>
-    <t>calzado</t>
-  </si>
-  <si>
-    <t>Tenis básicos con cordones verde olivo ZARA</t>
-  </si>
-  <si>
-    <t>Talla 40</t>
-  </si>
-  <si>
-    <t>LTA532</t>
-  </si>
-  <si>
-    <t>Tenis básicos con cordones gris ZARA</t>
-  </si>
-  <si>
-    <t>Talla 42</t>
-  </si>
-  <si>
-    <t>LTA533</t>
-  </si>
-  <si>
-    <t>Talla 43</t>
-  </si>
-  <si>
-    <t>LTA534</t>
-  </si>
-  <si>
-    <t>Mocasines de hombres de piel marrón ZARA</t>
-  </si>
-  <si>
-    <t>LTA535</t>
-  </si>
-  <si>
-    <t>Sandalias prácticas de hombres marrón con detalle de hebillas plateadas ZARA</t>
-  </si>
-  <si>
-    <t>LTA536</t>
-  </si>
-  <si>
-    <t>Sandalias de hombre cruzadas negras ZARA</t>
-  </si>
-  <si>
-    <t>LTA537</t>
-  </si>
-  <si>
-    <t>LTA538</t>
-  </si>
-  <si>
-    <t>Tacones de punta fina negros de vinil ZARA</t>
-  </si>
-  <si>
-    <t>Talla 39</t>
-  </si>
-  <si>
-    <t>LTA539</t>
-  </si>
-  <si>
-    <t>Tacones de punta fina azul grisáceos con brillo Jessica Simpson</t>
-  </si>
-  <si>
-    <t>Talla 7.5_38</t>
-  </si>
-  <si>
-    <t>LTA540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tacones de punta fina beige claro de vinil ZARA </t>
-  </si>
-  <si>
-    <t>Talla 37</t>
-  </si>
-  <si>
-    <t>LTA541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tacones de punta fina verde menta Charles </t>
-  </si>
-  <si>
-    <t>Talla 37.5-38</t>
-  </si>
-  <si>
-    <t>LTA542</t>
-  </si>
-  <si>
-    <t>Mocasines de vestir negros con suela track unisex ZARA</t>
-  </si>
-  <si>
-    <t>LTA543</t>
-  </si>
-  <si>
-    <t>LTA544</t>
-  </si>
-  <si>
-    <t>Mocasines de vestir marrón oscuro con ligero tacón unisex ZARA</t>
-  </si>
-  <si>
-    <t>LTA545</t>
-  </si>
-  <si>
-    <t>Mocasines de vestir negros con ligero tacón unisex ZARA</t>
-  </si>
-  <si>
-    <t>LTA546</t>
-  </si>
-  <si>
-    <t>LTA547</t>
-  </si>
-  <si>
-    <t>Talla 41</t>
-  </si>
-  <si>
-    <t>LTA548</t>
-  </si>
-  <si>
-    <t>Mocasines casuales de hombres de piel beige oscuro ZARA</t>
-  </si>
-  <si>
-    <t>LTA549</t>
-  </si>
-  <si>
-    <t>LTA550</t>
-  </si>
-  <si>
-    <t>Mocasines casuales de hombres de piel grises ZARA</t>
-  </si>
-  <si>
-    <t>LTA551</t>
-  </si>
-  <si>
-    <t>Mocasines casuales de hombres de piel azul marino ZARA</t>
-  </si>
-  <si>
-    <t>LTA552</t>
-  </si>
-  <si>
-    <t>Mocasines de mujer beige claro ZARA</t>
-  </si>
-  <si>
-    <t>LTA553</t>
-  </si>
-  <si>
-    <t>LTA554</t>
-  </si>
-  <si>
-    <t>Mocasines de mujer negros estilo piel de cocodrilo con detalle de cadena ZARA</t>
-  </si>
-  <si>
-    <t>LTA555</t>
-  </si>
-  <si>
-    <t>Mocasines de mujer negros efecto acharolado ZARA</t>
-  </si>
-  <si>
-    <t>Talla 36</t>
-  </si>
-  <si>
-    <t>LTA556</t>
-  </si>
-  <si>
-    <t>Bolso de hombre de vinil negro PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>Talla mediano</t>
-  </si>
-  <si>
-    <t>LTA557</t>
-  </si>
-  <si>
-    <t>Bolso bandolera beige oscuro unisex Parfois</t>
-  </si>
-  <si>
-    <t>LTA558</t>
-  </si>
-  <si>
-    <t>accesorios</t>
-  </si>
-  <si>
-    <t>Cinturón básico efecto piel marrón PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>Talla 38</t>
-  </si>
-  <si>
-    <t>LTA559</t>
-  </si>
-  <si>
-    <t>Cinturón marrón de piel con hebilla negra PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>Talla 34</t>
-  </si>
-  <si>
-    <t>LTA560</t>
-  </si>
-  <si>
-    <t>Cinturón marrón con efecto ahumado de piel con hebilla en plata vieja PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA561</t>
-  </si>
-  <si>
-    <t>LTA562</t>
-  </si>
-  <si>
-    <t>Cinturón marrón de piel con hebilla en plata vieja PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA563</t>
-  </si>
-  <si>
-    <t>LTA564</t>
-  </si>
-  <si>
-    <t>Cinturón negro de piel con hebilla en plata vieja PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA565</t>
-  </si>
-  <si>
-    <t>Cinturón negro de piel con hebilla negra PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA566</t>
-  </si>
-  <si>
-    <t>LTA567</t>
-  </si>
-  <si>
-    <t>Short de buzo regular fit beige H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA397</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>LTA568</t>
-  </si>
-  <si>
-    <t>Shorts de buzo regular fit beige de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>Shorts de buzo regular fit negro de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA569</t>
-  </si>
-  <si>
-    <t>Shorts de chandal de corte regular negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA570</t>
-  </si>
-  <si>
-    <t>Shorts de buzo regular fit gris claro jaspeado de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA571</t>
-  </si>
-  <si>
-    <t>Shorts de buzo regular fit gris oscuro de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA572</t>
-  </si>
-  <si>
-    <t>Shorts regular fit gris oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA573</t>
-  </si>
-  <si>
-    <t>Shorts de buzo regular fit marrón H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA574</t>
-  </si>
-  <si>
-    <t>Shorts de buzo regular fit gris jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA575</t>
-  </si>
-  <si>
-    <t>Bolso shopper rojo burdeos ZARA</t>
-  </si>
-  <si>
-    <t>LTA576</t>
-  </si>
-  <si>
-    <t>Bolso shopper marrón Parfois</t>
-  </si>
-  <si>
-    <t>Talla grande</t>
-  </si>
-  <si>
-    <t>LTA577</t>
-  </si>
-  <si>
-    <t>hombres /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Polo de hombre crochet verde lima PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA578</t>
-  </si>
-  <si>
-    <t>hombres /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Polo de hombre de punto desgarrado crema PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA579</t>
-  </si>
-  <si>
-    <t>Polo de hombre de punto desgarrado verde olivo PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA580</t>
-  </si>
-  <si>
-    <t>Polo de hombre crochet color crema ZARA</t>
-  </si>
-  <si>
-    <t>LTA581</t>
-  </si>
-  <si>
-    <t>Polo de hombre de punto desgarrado negro PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA582</t>
-  </si>
-  <si>
-    <t>hombres /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Polo texturizado azul marino Springfield</t>
-  </si>
-  <si>
-    <t>LTA583</t>
-  </si>
-  <si>
-    <t>Polo abotonado azul marino  Springfield</t>
-  </si>
-  <si>
-    <t>LTA584</t>
-  </si>
-  <si>
-    <t>Polo texturizado marrón ZARA</t>
-  </si>
-  <si>
-    <t>LTA585</t>
-  </si>
-  <si>
-    <t>Polo texturizado verde caqui Springfield</t>
-  </si>
-  <si>
-    <t>LTA586</t>
-  </si>
-  <si>
-    <t>Polo con textura negro detalle de cuello bordado blanco PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA587</t>
-  </si>
-  <si>
-    <t>Polo de punto gris Bershka</t>
-  </si>
-  <si>
-    <t>LTA588</t>
-  </si>
-  <si>
-    <t>LTA589</t>
-  </si>
-  <si>
-    <t>Polo de hombre de punto desgarrado marrón PULL&amp;BEAR</t>
-  </si>
-  <si>
-    <t>LTA590</t>
-  </si>
-  <si>
-    <t>Polo regular fit blanco H&amp;M</t>
+    <t>Talla M</t>
   </si>
   <si>
     <t>LTA591</t>
@@ -922,6 +112,12 @@
     <t>LTA593</t>
   </si>
   <si>
+    <t>hombres /hm /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>Talla S</t>
+  </si>
+  <si>
     <t>LTA594</t>
   </si>
   <si>
@@ -931,7 +127,13 @@
     <t>LTA596</t>
   </si>
   <si>
+    <t>hombres /hm /hm /tallas-grandes</t>
+  </si>
+  <si>
     <t>Pulóver en mezlca de punto frio verde oscuro jaspeado H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla L</t>
   </si>
   <si>
     <t>LTA597</t>
@@ -959,6 +161,9 @@
   </si>
   <si>
     <t>Pulóver de corte regular con cuello beige oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>Talla XS</t>
   </si>
   <si>
     <t>LTA603</t>
@@ -1100,6 +305,9 @@
   </si>
   <si>
     <t>LTA629</t>
+  </si>
+  <si>
+    <t>calzado</t>
   </si>
   <si>
     <t>Balerinas con strass negras H&amp;M</t>
@@ -1334,18 +542,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1728,103 +930,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1839,7 +1041,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1860,10 +1062,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1873,14 +1075,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1895,19 +1094,19 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1917,53 +1116,28 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2300,98 +1474,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX213"/>
+  <dimension ref="A1:XEX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N169" sqref="N169"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.7421875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.7421875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.1484375" customWidth="1"/>
     <col min="3" max="3" width="65.4375" customWidth="1"/>
     <col min="4" max="4" width="14.4453125" customWidth="1"/>
     <col min="5" max="5" width="7.8125" customWidth="1"/>
     <col min="6" max="6" width="11.8359375" customWidth="1"/>
-    <col min="7" max="7" width="11.71875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.71875" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.53125" customWidth="1"/>
-    <col min="9" max="9" width="8.59375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.890625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.890625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.59375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.890625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.890625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="5" customWidth="1"/>
     <col min="15" max="15" width="9.1875"/>
-    <col min="16" max="16" width="9.765625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.765625" style="6" customWidth="1"/>
     <col min="17" max="17" width="16.1484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="91" customHeight="1" spans="1:16378">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="20"/>
@@ -18751,8 +17925,8 @@
       <c r="XEW1" s="21"/>
       <c r="XEX1" s="21"/>
     </row>
-    <row r="2" ht="14.8" spans="1:15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.8" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
@@ -18764,6476 +17938,2318 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12">
-        <v>30</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="11">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <f>F2*10%</f>
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <f>K2+L2+J2</f>
+        <v>12.15</v>
+      </c>
+      <c r="N2" s="4">
+        <f>M2*1.5</f>
+        <v>18.225</v>
+      </c>
+      <c r="O2" s="18">
+        <v>25</v>
+      </c>
+      <c r="P2" s="19">
+        <f>O2-N2</f>
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="3" ht="14.8" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11">
+        <v>25</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="O2" s="19">
-        <v>30</v>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J34" si="0">F3*10%</f>
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4">
+        <f>K3+L3+J3</f>
+        <v>12.15</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N34" si="1">M3*1.5</f>
+        <v>18.225</v>
+      </c>
+      <c r="O3" s="18">
+        <f t="shared" ref="O2:O29" si="2">F3</f>
+        <v>25</v>
+      </c>
+      <c r="P3" s="19">
+        <f t="shared" ref="P3:P34" si="3">O3-N3</f>
+        <v>6.775</v>
       </c>
     </row>
-    <row r="3" ht="14.8" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" ht="14.8" spans="1:16">
+      <c r="A4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12">
-        <v>30</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="14.8" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>K4+L4+J4</f>
+        <v>12.15</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>18.225</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="3"/>
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="5" ht="14.8" spans="1:16">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="13">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>25</v>
+      </c>
+      <c r="G5" s="12">
         <v>2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <f>K5+L5+J5</f>
+        <v>12.15</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>18.225</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="3"/>
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="6" ht="14.8" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
-        <v>30</v>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <f>K6+L6+J6</f>
+        <v>12.15</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>18.225</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="3"/>
+        <v>6.775</v>
       </c>
     </row>
-    <row r="5" ht="14.8" spans="1:15">
-      <c r="A5" s="3" t="s">
+    <row r="7" ht="14.8" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="12">
-        <v>30</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F7" s="11">
+        <v>25</v>
+      </c>
+      <c r="G7" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <f>K7+L7+J7</f>
+        <v>12.15</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>18.225</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="3"/>
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="8" ht="14.8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="11">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="O5" s="19">
-        <v>30</v>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6.97</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" ref="M8:M19" si="4">K8+L8+J8</f>
+        <v>10.97</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>16.455</v>
+      </c>
+      <c r="O8" s="18">
+        <v>20</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="3"/>
+        <v>3.545</v>
       </c>
     </row>
-    <row r="6" ht="14.8" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="9" ht="14.8" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>6.97</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="4"/>
+        <v>10.97</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>16.455</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="3"/>
+        <v>3.545</v>
+      </c>
+    </row>
+    <row r="10" ht="14.8" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6.97</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="4"/>
+        <v>10.97</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>16.455</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="3"/>
+        <v>3.545</v>
+      </c>
+    </row>
+    <row r="11" ht="14.8" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="11">
         <v>35</v>
       </c>
-      <c r="F6" s="12">
-        <v>30</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="G11" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I11" s="16">
         <v>0</v>
       </c>
-      <c r="O6" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="14.8" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="12">
-        <v>30</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="14.8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12">
-        <v>20</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="14.8" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="12">
-        <v>20</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="14.8" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="12">
-        <v>20</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="14.8" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="12">
-        <v>28</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="14.8" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="12">
-        <v>28</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="14.8" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="12">
-        <v>30</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="14.8" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="12">
-        <v>20</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="O14" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="14.8" spans="1:15">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="12">
-        <v>30</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="O15" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="14.8" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="12">
-        <v>20</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="O16" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="14.8" spans="1:15">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="12">
-        <v>28</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="14.8" spans="1:15">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="12">
-        <v>25</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="14.8" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="12">
-        <v>28</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="O19" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" ht="14.8" spans="1:15">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="12">
-        <v>25</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="O20" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" ht="14.8" spans="1:15">
-      <c r="A21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="12">
-        <v>30</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" ht="14.8" spans="1:15">
-      <c r="A22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="12">
-        <v>30</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="O22" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="14.8" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="12">
-        <v>30</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>1</v>
-      </c>
-      <c r="O23" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="14.8" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="12">
-        <v>25</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>1</v>
-      </c>
-      <c r="O24" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" ht="14.8" spans="1:15">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="12">
-        <v>28</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>1</v>
-      </c>
-      <c r="O25" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" ht="14.8" spans="1:15">
-      <c r="A26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="12">
-        <v>25</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="O26" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" ht="14.8" spans="1:15">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="12">
-        <v>35</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>6.97</v>
+      </c>
+      <c r="L11" s="5">
         <v>2</v>
       </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" ht="14.8" spans="1:15">
-      <c r="A28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="12">
-        <v>25</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="O28" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" ht="14.8" spans="1:15">
-      <c r="A29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="12">
-        <v>20</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="14">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>1</v>
-      </c>
-      <c r="O29" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" ht="14.8" spans="1:15">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="12">
-        <v>20</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="O30" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" ht="14.8" spans="1:15">
-      <c r="A31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="12">
-        <v>20</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>1</v>
-      </c>
-      <c r="O31" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="14.8" spans="1:15">
-      <c r="A32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="12">
-        <v>20</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>1</v>
-      </c>
-      <c r="O32" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" ht="14.8" spans="1:15">
-      <c r="A33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="12">
-        <v>20</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>1</v>
-      </c>
-      <c r="O33" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" ht="14.8" spans="1:15">
-      <c r="A34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="12">
-        <v>20</v>
-      </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="14">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>1</v>
-      </c>
-      <c r="O34" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="14.8" spans="1:15">
-      <c r="A35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="12">
-        <v>22</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>1</v>
-      </c>
-      <c r="O35" s="19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" ht="14.8" spans="1:15">
-      <c r="A36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="12">
-        <v>20</v>
-      </c>
-      <c r="G36" s="13">
-        <v>1</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <v>1</v>
-      </c>
-      <c r="O36" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" ht="14.8" spans="1:15">
-      <c r="A37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="12">
-        <v>35</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1</v>
-      </c>
-      <c r="H37" s="14">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>1</v>
-      </c>
-      <c r="O37" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" ht="14.8" spans="1:15">
-      <c r="A38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="12">
-        <v>28</v>
-      </c>
-      <c r="G38" s="13">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="O38" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" ht="14.8" spans="1:15">
-      <c r="A39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="12">
-        <v>25</v>
-      </c>
-      <c r="G39" s="13">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
-      <c r="O39" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" ht="14.8" spans="1:15">
-      <c r="A40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="12">
-        <v>25</v>
-      </c>
-      <c r="G40" s="13">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
-      <c r="O40" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" ht="14.8" spans="1:15">
-      <c r="A41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="12">
-        <v>30</v>
-      </c>
-      <c r="G41" s="13">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17">
-        <v>1</v>
-      </c>
-      <c r="O41" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" ht="14.8" spans="1:15">
-      <c r="A42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="12">
-        <v>30</v>
-      </c>
-      <c r="G42" s="13">
-        <v>1</v>
-      </c>
-      <c r="H42" s="14">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17">
-        <v>0</v>
-      </c>
-      <c r="O42" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" ht="14.8" spans="1:15">
-      <c r="A43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="12">
-        <v>30</v>
-      </c>
-      <c r="G43" s="13">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17">
-        <v>0</v>
-      </c>
-      <c r="O43" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" ht="14.8" spans="1:15">
-      <c r="A44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="12">
-        <v>30</v>
-      </c>
-      <c r="G44" s="13">
-        <v>2</v>
-      </c>
-      <c r="H44" s="14">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="O44" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" ht="14.8" spans="1:15">
-      <c r="A45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="12">
-        <v>35</v>
-      </c>
-      <c r="G45" s="13">
-        <v>1</v>
-      </c>
-      <c r="H45" s="14">
-        <v>0</v>
-      </c>
-      <c r="I45" s="17">
-        <v>1</v>
-      </c>
-      <c r="O45" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" ht="14.8" spans="1:15">
-      <c r="A46" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="12">
-        <v>25</v>
-      </c>
-      <c r="G46" s="13">
-        <v>1</v>
-      </c>
-      <c r="H46" s="14">
-        <v>0</v>
-      </c>
-      <c r="I46" s="17">
-        <v>1</v>
-      </c>
-      <c r="O46" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" ht="14.8" spans="1:15">
-      <c r="A47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="12">
-        <v>28</v>
-      </c>
-      <c r="G47" s="13">
-        <v>1</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17">
-        <v>0</v>
-      </c>
-      <c r="O47" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" ht="14.8" spans="1:15">
-      <c r="A48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="12">
-        <v>25</v>
-      </c>
-      <c r="G48" s="13">
-        <v>1</v>
-      </c>
-      <c r="H48" s="14">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
-        <v>1</v>
-      </c>
-      <c r="O48" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" ht="14.8" spans="1:15">
-      <c r="A49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="12">
-        <v>30</v>
-      </c>
-      <c r="G49" s="13">
-        <v>1</v>
-      </c>
-      <c r="H49" s="14">
-        <v>0</v>
-      </c>
-      <c r="I49" s="17">
-        <v>1</v>
-      </c>
-      <c r="O49" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" ht="14.8" spans="1:15">
-      <c r="A50" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="12">
-        <v>30</v>
-      </c>
-      <c r="G50" s="13">
-        <v>1</v>
-      </c>
-      <c r="H50" s="14">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <v>1</v>
-      </c>
-      <c r="O50" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" ht="14.8" spans="1:15">
-      <c r="A51" s="3">
-        <v>3431</v>
-      </c>
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="12">
-        <v>30</v>
-      </c>
-      <c r="G51" s="13">
-        <v>1</v>
-      </c>
-      <c r="H51" s="14">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
-        <v>0</v>
-      </c>
-      <c r="O51" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" ht="14.8" spans="1:15">
-      <c r="A52" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="12">
-        <v>30</v>
-      </c>
-      <c r="G52" s="13">
-        <v>1</v>
-      </c>
-      <c r="H52" s="14">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17">
-        <v>1</v>
-      </c>
-      <c r="O52" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" ht="14.8" spans="1:15">
-      <c r="A53" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="12">
-        <v>30</v>
-      </c>
-      <c r="G53" s="13">
-        <v>1</v>
-      </c>
-      <c r="H53" s="14">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
-        <v>1</v>
-      </c>
-      <c r="O53" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" ht="14.8" spans="1:15">
-      <c r="A54" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="12">
-        <v>30</v>
-      </c>
-      <c r="G54" s="13">
-        <v>1</v>
-      </c>
-      <c r="H54" s="14">
-        <v>0</v>
-      </c>
-      <c r="I54" s="17">
-        <v>1</v>
-      </c>
-      <c r="O54" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" ht="14.8" spans="1:15">
-      <c r="A55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="12">
-        <v>30</v>
-      </c>
-      <c r="G55" s="13">
-        <v>1</v>
-      </c>
-      <c r="H55" s="14">
-        <v>0</v>
-      </c>
-      <c r="I55" s="17">
-        <v>1</v>
-      </c>
-      <c r="O55" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" ht="14.8" spans="1:15">
-      <c r="A56" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="12">
-        <v>30</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
-        <v>1</v>
-      </c>
-      <c r="O56" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" ht="14.8" spans="1:15">
-      <c r="A57" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="12">
-        <v>20</v>
-      </c>
-      <c r="G57" s="13">
-        <v>1</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0</v>
-      </c>
-      <c r="I57" s="17">
-        <v>0</v>
-      </c>
-      <c r="O57" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" ht="14.8" spans="1:15">
-      <c r="A58" s="3">
-        <v>3307</v>
-      </c>
-      <c r="B58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="12">
-        <v>20</v>
-      </c>
-      <c r="G58" s="13">
-        <v>1</v>
-      </c>
-      <c r="H58" s="14">
-        <v>0</v>
-      </c>
-      <c r="I58" s="17">
-        <v>0</v>
-      </c>
-      <c r="O58" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" ht="14.8" spans="1:15">
-      <c r="A59" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="12">
-        <v>20</v>
-      </c>
-      <c r="G59" s="13">
-        <v>1</v>
-      </c>
-      <c r="H59" s="14">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
-        <v>1</v>
-      </c>
-      <c r="O59" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" ht="14.8" spans="1:15">
-      <c r="A60" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="12">
-        <v>20</v>
-      </c>
-      <c r="G60" s="13">
-        <v>1</v>
-      </c>
-      <c r="H60" s="14">
-        <v>0</v>
-      </c>
-      <c r="I60" s="17">
-        <v>1</v>
-      </c>
-      <c r="O60" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" ht="14.8" spans="1:15">
-      <c r="A61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="12">
-        <v>20</v>
-      </c>
-      <c r="G61" s="13">
-        <v>1</v>
-      </c>
-      <c r="H61" s="14">
-        <v>0</v>
-      </c>
-      <c r="I61" s="17">
-        <v>1</v>
-      </c>
-      <c r="O61" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" ht="14.8" spans="1:15">
-      <c r="A62" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="12">
-        <v>20</v>
-      </c>
-      <c r="G62" s="13">
-        <v>1</v>
-      </c>
-      <c r="H62" s="14">
-        <v>0</v>
-      </c>
-      <c r="I62" s="17">
-        <v>0</v>
-      </c>
-      <c r="O62" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" ht="14.8" spans="1:15">
-      <c r="A63" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="12">
-        <v>30</v>
-      </c>
-      <c r="G63" s="13">
-        <v>1</v>
-      </c>
-      <c r="H63" s="14">
-        <v>0</v>
-      </c>
-      <c r="I63" s="17">
-        <v>0</v>
-      </c>
-      <c r="O63" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" ht="14.8" spans="1:15">
-      <c r="A64" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="12">
-        <v>30</v>
-      </c>
-      <c r="G64" s="13">
-        <v>2</v>
-      </c>
-      <c r="H64" s="14">
-        <v>0</v>
-      </c>
-      <c r="I64" s="17">
-        <v>0</v>
-      </c>
-      <c r="O64" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" ht="14.8" spans="1:15">
-      <c r="A65" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="12">
-        <v>30</v>
-      </c>
-      <c r="G65" s="13">
-        <v>1</v>
-      </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="I65" s="17">
-        <v>0</v>
-      </c>
-      <c r="O65" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" ht="14.8" spans="1:15">
-      <c r="A66" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="12">
-        <v>30</v>
-      </c>
-      <c r="G66" s="13">
-        <v>1</v>
-      </c>
-      <c r="H66" s="14">
-        <v>0</v>
-      </c>
-      <c r="I66" s="17">
-        <v>0</v>
-      </c>
-      <c r="O66" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" ht="14.8" spans="1:15">
-      <c r="A67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="12">
-        <v>55</v>
-      </c>
-      <c r="G67" s="13">
-        <v>1</v>
-      </c>
-      <c r="H67" s="14">
-        <v>0</v>
-      </c>
-      <c r="I67" s="17">
-        <v>1</v>
-      </c>
-      <c r="O67" s="19">
-        <f>F67</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" ht="14.8" spans="1:15">
-      <c r="A68" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="12">
-        <v>55</v>
-      </c>
-      <c r="G68" s="13">
-        <v>1</v>
-      </c>
-      <c r="H68" s="14">
-        <v>0</v>
-      </c>
-      <c r="I68" s="17">
-        <v>1</v>
-      </c>
-      <c r="O68" s="19">
-        <f t="shared" ref="O68:O99" si="0">F68</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" ht="14.8" spans="1:15">
-      <c r="A69" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" s="12">
-        <v>55</v>
-      </c>
-      <c r="G69" s="13">
-        <v>1</v>
-      </c>
-      <c r="H69" s="14">
-        <v>0</v>
-      </c>
-      <c r="I69" s="17">
-        <v>1</v>
-      </c>
-      <c r="O69" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" ht="14.8" spans="1:15">
-      <c r="A70" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="12">
-        <v>95</v>
-      </c>
-      <c r="G70" s="13">
-        <v>1</v>
-      </c>
-      <c r="H70" s="14">
-        <v>0</v>
-      </c>
-      <c r="I70" s="17">
-        <v>1</v>
-      </c>
-      <c r="O70" s="19">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" ht="14.8" spans="1:15">
-      <c r="A71" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" s="12">
-        <v>55</v>
-      </c>
-      <c r="G71" s="13">
-        <v>1</v>
-      </c>
-      <c r="H71" s="14">
-        <v>0</v>
-      </c>
-      <c r="I71" s="17">
-        <v>0</v>
-      </c>
-      <c r="O71" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" ht="14.8" spans="1:15">
-      <c r="A72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" s="12">
-        <v>55</v>
-      </c>
-      <c r="G72" s="13">
-        <v>1</v>
-      </c>
-      <c r="H72" s="14">
-        <v>0</v>
-      </c>
-      <c r="I72" s="17">
-        <v>1</v>
-      </c>
-      <c r="O72" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" ht="14.8" spans="1:15">
-      <c r="A73" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" s="12">
-        <v>55</v>
-      </c>
-      <c r="G73" s="13">
-        <v>1</v>
-      </c>
-      <c r="H73" s="14">
-        <v>0</v>
-      </c>
-      <c r="I73" s="17">
-        <v>1</v>
-      </c>
-      <c r="O73" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" ht="14.8" spans="1:15">
-      <c r="A74" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" t="s">
-        <v>184</v>
-      </c>
-      <c r="F74" s="12">
-        <v>55</v>
-      </c>
-      <c r="G74" s="13">
-        <v>2</v>
-      </c>
-      <c r="H74" s="14">
-        <v>0</v>
-      </c>
-      <c r="I74" s="17">
-        <v>2</v>
-      </c>
-      <c r="O74" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" ht="14.8" spans="1:15">
-      <c r="A75" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" t="s">
-        <v>187</v>
-      </c>
-      <c r="F75" s="12">
-        <v>55</v>
-      </c>
-      <c r="G75" s="13">
-        <v>1</v>
-      </c>
-      <c r="H75" s="14">
-        <v>0</v>
-      </c>
-      <c r="I75" s="17">
-        <v>1</v>
-      </c>
-      <c r="O75" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" ht="14.8" spans="1:15">
-      <c r="A76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="12">
-        <v>55</v>
-      </c>
-      <c r="G76" s="13">
-        <v>1</v>
-      </c>
-      <c r="H76" s="14">
-        <v>0</v>
-      </c>
-      <c r="I76" s="17">
-        <v>1</v>
-      </c>
-      <c r="O76" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" ht="14.8" spans="1:15">
-      <c r="A77" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F77" s="12">
-        <v>55</v>
-      </c>
-      <c r="G77" s="13">
-        <v>1</v>
-      </c>
-      <c r="H77" s="14">
-        <v>0</v>
-      </c>
-      <c r="I77" s="17">
-        <v>1</v>
-      </c>
-      <c r="O77" s="19">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" ht="14.8" spans="1:15">
-      <c r="A78" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" s="12">
-        <v>90</v>
-      </c>
-      <c r="G78" s="13">
-        <v>1</v>
-      </c>
-      <c r="H78" s="14">
-        <v>0</v>
-      </c>
-      <c r="I78" s="17">
-        <v>1</v>
-      </c>
-      <c r="O78" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" ht="14.8" spans="1:15">
-      <c r="A79" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F79" s="12">
-        <v>90</v>
-      </c>
-      <c r="G79" s="13">
-        <v>1</v>
-      </c>
-      <c r="H79" s="14">
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
-        <v>1</v>
-      </c>
-      <c r="O79" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" ht="14.8" spans="1:15">
-      <c r="A80" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" t="s">
-        <v>198</v>
-      </c>
-      <c r="D80" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" s="12">
-        <v>90</v>
-      </c>
-      <c r="G80" s="13">
-        <v>1</v>
-      </c>
-      <c r="H80" s="14">
-        <v>0</v>
-      </c>
-      <c r="I80" s="17">
-        <v>1</v>
-      </c>
-      <c r="O80" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" ht="14.8" spans="1:15">
-      <c r="A81" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" t="s">
-        <v>172</v>
-      </c>
-      <c r="F81" s="12">
-        <v>90</v>
-      </c>
-      <c r="G81" s="13">
-        <v>1</v>
-      </c>
-      <c r="H81" s="14">
-        <v>0</v>
-      </c>
-      <c r="I81" s="17">
-        <v>1</v>
-      </c>
-      <c r="O81" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" ht="14.8" spans="1:15">
-      <c r="A82" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
-        <v>184</v>
-      </c>
-      <c r="F82" s="12">
-        <v>90</v>
-      </c>
-      <c r="G82" s="13">
-        <v>1</v>
-      </c>
-      <c r="H82" s="14">
-        <v>0</v>
-      </c>
-      <c r="I82" s="17">
-        <v>1</v>
-      </c>
-      <c r="O82" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" ht="14.8" spans="1:15">
-      <c r="A83" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" s="12">
-        <v>90</v>
-      </c>
-      <c r="G83" s="13">
-        <v>1</v>
-      </c>
-      <c r="H83" s="14">
-        <v>0</v>
-      </c>
-      <c r="I83" s="17">
-        <v>1</v>
-      </c>
-      <c r="O83" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" ht="14.8" spans="1:15">
-      <c r="A84" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" t="s">
-        <v>172</v>
-      </c>
-      <c r="F84" s="12">
-        <v>90</v>
-      </c>
-      <c r="G84" s="13">
-        <v>1</v>
-      </c>
-      <c r="H84" s="14">
-        <v>0</v>
-      </c>
-      <c r="I84" s="17">
-        <v>1</v>
-      </c>
-      <c r="O84" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" ht="14.8" spans="1:15">
-      <c r="A85" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>205</v>
-      </c>
-      <c r="D85" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="12">
-        <v>90</v>
-      </c>
-      <c r="G85" s="13">
-        <v>1</v>
-      </c>
-      <c r="H85" s="14">
-        <v>0</v>
-      </c>
-      <c r="I85" s="17">
-        <v>1</v>
-      </c>
-      <c r="O85" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" ht="14.8" spans="1:15">
-      <c r="A86" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>208</v>
-      </c>
-      <c r="D86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" s="12">
-        <v>90</v>
-      </c>
-      <c r="G86" s="13">
-        <v>1</v>
-      </c>
-      <c r="H86" s="14">
-        <v>0</v>
-      </c>
-      <c r="I86" s="17">
-        <v>1</v>
-      </c>
-      <c r="O86" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" ht="14.8" spans="1:15">
-      <c r="A87" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B87" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" t="s">
-        <v>203</v>
-      </c>
-      <c r="F87" s="12">
-        <v>90</v>
-      </c>
-      <c r="G87" s="13">
-        <v>1</v>
-      </c>
-      <c r="H87" s="14">
-        <v>0</v>
-      </c>
-      <c r="I87" s="17">
-        <v>1</v>
-      </c>
-      <c r="O87" s="19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" ht="14.8" spans="1:15">
-      <c r="A88" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B88" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
-      <c r="F88" s="12">
-        <v>60</v>
-      </c>
-      <c r="G88" s="13">
-        <v>1</v>
-      </c>
-      <c r="H88" s="14">
-        <v>0</v>
-      </c>
-      <c r="I88" s="17">
-        <v>1</v>
-      </c>
-      <c r="O88" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" ht="14.8" spans="1:15">
-      <c r="A89" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B89" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" t="s">
-        <v>184</v>
-      </c>
-      <c r="F89" s="12">
-        <v>60</v>
-      </c>
-      <c r="G89" s="13">
-        <v>1</v>
-      </c>
-      <c r="H89" s="14">
-        <v>0</v>
-      </c>
-      <c r="I89" s="17">
-        <v>1</v>
-      </c>
-      <c r="O89" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" ht="14.8" spans="1:15">
-      <c r="A90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B90" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" t="s">
-        <v>184</v>
-      </c>
-      <c r="F90" s="12">
-        <v>60</v>
-      </c>
-      <c r="G90" s="13">
-        <v>1</v>
-      </c>
-      <c r="H90" s="14">
-        <v>0</v>
-      </c>
-      <c r="I90" s="17">
-        <v>1</v>
-      </c>
-      <c r="O90" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" ht="14.8" spans="1:15">
-      <c r="A91" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" s="12">
-        <v>60</v>
-      </c>
-      <c r="G91" s="13">
-        <v>1</v>
-      </c>
-      <c r="H91" s="14">
-        <v>0</v>
-      </c>
-      <c r="I91" s="17">
-        <v>1</v>
-      </c>
-      <c r="O91" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" ht="14.8" spans="1:15">
-      <c r="A92" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" t="s">
-        <v>221</v>
-      </c>
-      <c r="F92" s="12">
-        <v>30</v>
-      </c>
-      <c r="G92" s="13">
-        <v>3</v>
-      </c>
-      <c r="H92" s="14">
-        <v>0</v>
-      </c>
-      <c r="I92" s="17">
-        <v>3</v>
-      </c>
-      <c r="O92" s="19">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" ht="14.8" spans="1:15">
-      <c r="A93" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" t="s">
-        <v>221</v>
-      </c>
-      <c r="F93" s="12">
-        <v>40</v>
-      </c>
-      <c r="G93" s="13">
-        <v>2</v>
-      </c>
-      <c r="H93" s="14">
-        <v>0</v>
-      </c>
-      <c r="I93" s="17">
-        <v>2</v>
-      </c>
-      <c r="O93" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" ht="14.8" spans="1:15">
-      <c r="A94" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" t="s">
-        <v>227</v>
-      </c>
-      <c r="F94" s="12">
-        <v>25</v>
-      </c>
-      <c r="G94" s="13">
-        <v>1</v>
-      </c>
-      <c r="H94" s="14">
-        <v>0</v>
-      </c>
-      <c r="I94" s="17">
-        <v>1</v>
-      </c>
-      <c r="O94" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" ht="14.8" spans="1:15">
-      <c r="A95" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B95" t="s">
-        <v>225</v>
-      </c>
-      <c r="C95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D95" t="s">
-        <v>230</v>
-      </c>
-      <c r="F95" s="12">
-        <v>25</v>
-      </c>
-      <c r="G95" s="13">
-        <v>1</v>
-      </c>
-      <c r="H95" s="14">
-        <v>0</v>
-      </c>
-      <c r="I95" s="17">
-        <v>1</v>
-      </c>
-      <c r="O95" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" ht="14.8" spans="1:15">
-      <c r="A96" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B96" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" t="s">
-        <v>230</v>
-      </c>
-      <c r="F96" s="12">
-        <v>25</v>
-      </c>
-      <c r="G96" s="13">
-        <v>1</v>
-      </c>
-      <c r="H96" s="14">
-        <v>0</v>
-      </c>
-      <c r="I96" s="17">
-        <v>1</v>
-      </c>
-      <c r="O96" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" ht="14.8" spans="1:15">
-      <c r="A97" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B97" t="s">
-        <v>225</v>
-      </c>
-      <c r="C97" t="s">
-        <v>232</v>
-      </c>
-      <c r="D97" t="s">
-        <v>172</v>
-      </c>
-      <c r="F97" s="12">
-        <v>25</v>
-      </c>
-      <c r="G97" s="13">
-        <v>1</v>
-      </c>
-      <c r="H97" s="14">
-        <v>0</v>
-      </c>
-      <c r="I97" s="17">
-        <v>1</v>
-      </c>
-      <c r="O97" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" ht="14.8" spans="1:15">
-      <c r="A98" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B98" t="s">
-        <v>225</v>
-      </c>
-      <c r="C98" t="s">
-        <v>235</v>
-      </c>
-      <c r="D98" t="s">
-        <v>172</v>
-      </c>
-      <c r="F98" s="12">
-        <v>25</v>
-      </c>
-      <c r="G98" s="13">
-        <v>1</v>
-      </c>
-      <c r="H98" s="14">
-        <v>0</v>
-      </c>
-      <c r="I98" s="17">
-        <v>1</v>
-      </c>
-      <c r="O98" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" ht="14.8" spans="1:15">
-      <c r="A99" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C99" t="s">
-        <v>235</v>
-      </c>
-      <c r="D99" t="s">
-        <v>230</v>
-      </c>
-      <c r="F99" s="12">
-        <v>25</v>
-      </c>
-      <c r="G99" s="13">
-        <v>1</v>
-      </c>
-      <c r="H99" s="14">
-        <v>0</v>
-      </c>
-      <c r="I99" s="17">
-        <v>1</v>
-      </c>
-      <c r="O99" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" ht="14.8" spans="1:15">
-      <c r="A100" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B100" t="s">
-        <v>225</v>
-      </c>
-      <c r="C100" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" t="s">
-        <v>172</v>
-      </c>
-      <c r="F100" s="12">
-        <v>25</v>
-      </c>
-      <c r="G100" s="13">
-        <v>1</v>
-      </c>
-      <c r="H100" s="14">
-        <v>0</v>
-      </c>
-      <c r="I100" s="17">
-        <v>1</v>
-      </c>
-      <c r="O100" s="19">
-        <f t="shared" ref="O100:O125" si="1">F100</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" ht="14.8" spans="1:15">
-      <c r="A101" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B101" t="s">
-        <v>225</v>
-      </c>
-      <c r="C101" t="s">
-        <v>240</v>
-      </c>
-      <c r="D101" t="s">
-        <v>227</v>
-      </c>
-      <c r="F101" s="12">
-        <v>25</v>
-      </c>
-      <c r="G101" s="13">
-        <v>1</v>
-      </c>
-      <c r="H101" s="14">
-        <v>0</v>
-      </c>
-      <c r="I101" s="17">
-        <v>1</v>
-      </c>
-      <c r="O101" s="19">
+      <c r="M11" s="4">
+        <f t="shared" si="4"/>
+        <v>12.47</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" ht="14.8" spans="1:15">
-      <c r="A102" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" t="s">
-        <v>172</v>
-      </c>
-      <c r="F102" s="12">
-        <v>25</v>
-      </c>
-      <c r="G102" s="13">
-        <v>1</v>
-      </c>
-      <c r="H102" s="14">
-        <v>0</v>
-      </c>
-      <c r="I102" s="17">
-        <v>1</v>
-      </c>
-      <c r="O102" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="14.8" spans="1:15">
-      <c r="A103" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" t="s">
-        <v>243</v>
-      </c>
-      <c r="D103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F103" s="12">
-        <v>25</v>
-      </c>
-      <c r="G103" s="13">
-        <v>1</v>
-      </c>
-      <c r="H103" s="14">
-        <v>0</v>
-      </c>
-      <c r="I103" s="17">
-        <v>0</v>
-      </c>
-      <c r="O103" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" ht="14.8" spans="1:15">
-      <c r="A104" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="12">
-        <v>25</v>
-      </c>
-      <c r="G104" s="13">
-        <v>1</v>
-      </c>
-      <c r="H104" s="14">
-        <v>0</v>
-      </c>
-      <c r="I104" s="17">
-        <v>0</v>
-      </c>
-      <c r="O104" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" ht="14.8" spans="1:15">
-      <c r="A105" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="s">
-        <v>247</v>
-      </c>
-      <c r="D105" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="12">
-        <v>28</v>
-      </c>
-      <c r="G105" s="13">
-        <v>1</v>
-      </c>
-      <c r="H105" s="14">
-        <v>0</v>
-      </c>
-      <c r="I105" s="17">
-        <v>1</v>
-      </c>
-      <c r="O105" s="19">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" ht="14.8" spans="1:15">
-      <c r="A106" s="3">
-        <v>22555</v>
-      </c>
-      <c r="B106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" t="s">
-        <v>248</v>
-      </c>
-      <c r="D106" t="s">
-        <v>42</v>
-      </c>
-      <c r="F106" s="12">
-        <v>28</v>
-      </c>
-      <c r="G106" s="13">
-        <v>1</v>
-      </c>
-      <c r="H106" s="14">
-        <v>0</v>
-      </c>
-      <c r="I106" s="17">
-        <v>0</v>
-      </c>
-      <c r="O106" s="19">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" ht="14.8" spans="1:15">
-      <c r="A107" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B107" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" t="s">
-        <v>250</v>
-      </c>
-      <c r="D107" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="12">
-        <v>25</v>
-      </c>
-      <c r="G107" s="13">
-        <v>1</v>
-      </c>
-      <c r="H107" s="14">
-        <v>0</v>
-      </c>
-      <c r="I107" s="17">
-        <v>0</v>
-      </c>
-      <c r="O107" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" ht="14.8" spans="1:15">
-      <c r="A108" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D108" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="12">
-        <v>25</v>
-      </c>
-      <c r="G108" s="13">
-        <v>1</v>
-      </c>
-      <c r="H108" s="14">
-        <v>0</v>
-      </c>
-      <c r="I108" s="17">
-        <v>0</v>
-      </c>
-      <c r="O108" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" ht="14.8" spans="1:15">
-      <c r="A109" s="3">
-        <v>3122</v>
-      </c>
-      <c r="B109" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" t="s">
-        <v>252</v>
-      </c>
-      <c r="D109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" s="12">
-        <v>28</v>
-      </c>
-      <c r="G109" s="13">
-        <v>1</v>
-      </c>
-      <c r="H109" s="14">
-        <v>0</v>
-      </c>
-      <c r="I109" s="17">
-        <v>0</v>
-      </c>
-      <c r="O109" s="19">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" ht="14.8" spans="1:15">
-      <c r="A110" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C110" t="s">
-        <v>254</v>
-      </c>
-      <c r="D110" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110" s="12">
-        <v>28</v>
-      </c>
-      <c r="G110" s="13">
-        <v>1</v>
-      </c>
-      <c r="H110" s="14">
-        <v>0</v>
-      </c>
-      <c r="I110" s="17">
-        <v>0</v>
-      </c>
-      <c r="O110" s="19">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" ht="14.8" spans="1:15">
-      <c r="A111" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111" t="s">
-        <v>256</v>
-      </c>
-      <c r="D111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F111" s="12">
-        <v>25</v>
-      </c>
-      <c r="G111" s="13">
-        <v>1</v>
-      </c>
-      <c r="H111" s="14">
-        <v>0</v>
-      </c>
-      <c r="I111" s="17">
-        <v>0</v>
-      </c>
-      <c r="O111" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" ht="14.8" spans="1:15">
-      <c r="A112" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B112" t="s">
-        <v>105</v>
-      </c>
-      <c r="C112" t="s">
-        <v>258</v>
-      </c>
-      <c r="D112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112" s="12">
-        <v>25</v>
-      </c>
-      <c r="G112" s="13">
-        <v>1</v>
-      </c>
-      <c r="H112" s="14">
-        <v>0</v>
-      </c>
-      <c r="I112" s="17">
-        <v>1</v>
-      </c>
-      <c r="O112" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" ht="14.8" spans="1:15">
-      <c r="A113" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B113" t="s">
-        <v>105</v>
-      </c>
-      <c r="C113" t="s">
-        <v>260</v>
-      </c>
-      <c r="D113" t="s">
-        <v>42</v>
-      </c>
-      <c r="F113" s="12">
-        <v>25</v>
-      </c>
-      <c r="G113" s="13">
-        <v>1</v>
-      </c>
-      <c r="H113" s="14">
-        <v>0</v>
-      </c>
-      <c r="I113" s="17">
-        <v>1</v>
-      </c>
-      <c r="O113" s="19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" ht="14.8" spans="1:15">
-      <c r="A114" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B114" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" t="s">
-        <v>262</v>
-      </c>
-      <c r="D114" t="s">
-        <v>221</v>
-      </c>
-      <c r="F114" s="12">
-        <v>60</v>
-      </c>
-      <c r="G114" s="13">
-        <v>1</v>
-      </c>
-      <c r="H114" s="14">
-        <v>0</v>
-      </c>
-      <c r="I114" s="17">
-        <v>1</v>
-      </c>
-      <c r="O114" s="19">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" ht="14.8" spans="1:15">
-      <c r="A115" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B115" t="s">
-        <v>80</v>
-      </c>
-      <c r="C115" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" t="s">
-        <v>265</v>
-      </c>
-      <c r="F115" s="12">
-        <v>60</v>
-      </c>
-      <c r="G115" s="13">
-        <v>1</v>
-      </c>
-      <c r="H115" s="14">
-        <v>0</v>
-      </c>
-      <c r="I115" s="17">
-        <v>1</v>
-      </c>
-      <c r="O115" s="19">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" ht="14.8" spans="1:15">
-      <c r="A116" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B116" t="s">
-        <v>267</v>
-      </c>
-      <c r="C116" t="s">
-        <v>268</v>
-      </c>
-      <c r="D116" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="12">
-        <v>35</v>
-      </c>
-      <c r="G116" s="13">
-        <v>1</v>
-      </c>
-      <c r="H116" s="14">
-        <v>0</v>
-      </c>
-      <c r="I116" s="17">
-        <v>1</v>
-      </c>
-      <c r="O116" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" ht="14.8" spans="1:15">
-      <c r="A117" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B117" t="s">
-        <v>270</v>
-      </c>
-      <c r="C117" t="s">
-        <v>271</v>
-      </c>
-      <c r="D117" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117" s="12">
-        <v>35</v>
-      </c>
-      <c r="G117" s="13">
-        <v>2</v>
-      </c>
-      <c r="H117" s="14">
-        <v>0</v>
-      </c>
-      <c r="I117" s="17">
-        <v>2</v>
-      </c>
-      <c r="O117" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" ht="14.8" spans="1:15">
-      <c r="A118" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" t="s">
-        <v>267</v>
-      </c>
-      <c r="C118" t="s">
-        <v>273</v>
-      </c>
-      <c r="D118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="12">
-        <v>35</v>
-      </c>
-      <c r="G118" s="13">
-        <v>1</v>
-      </c>
-      <c r="H118" s="14">
-        <v>0</v>
-      </c>
-      <c r="I118" s="17">
-        <v>1</v>
-      </c>
-      <c r="O118" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" ht="14.8" spans="1:15">
-      <c r="A119" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B119" t="s">
-        <v>267</v>
-      </c>
-      <c r="C119" t="s">
-        <v>275</v>
-      </c>
-      <c r="D119" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="12">
-        <v>35</v>
-      </c>
-      <c r="G119" s="13">
-        <v>1</v>
-      </c>
-      <c r="H119" s="14">
-        <v>0</v>
-      </c>
-      <c r="I119" s="17">
-        <v>1</v>
-      </c>
-      <c r="O119" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" ht="14.8" spans="1:15">
-      <c r="A120" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B120" t="s">
-        <v>270</v>
-      </c>
-      <c r="C120" t="s">
-        <v>277</v>
-      </c>
-      <c r="D120" t="s">
-        <v>42</v>
-      </c>
-      <c r="F120" s="12">
-        <v>35</v>
-      </c>
-      <c r="G120" s="13">
-        <v>1</v>
-      </c>
-      <c r="H120" s="14">
-        <v>0</v>
-      </c>
-      <c r="I120" s="17">
-        <v>1</v>
-      </c>
-      <c r="O120" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" ht="14.8" spans="1:15">
-      <c r="A121" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B121" t="s">
-        <v>279</v>
-      </c>
-      <c r="C121" t="s">
-        <v>280</v>
-      </c>
-      <c r="D121" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="12">
-        <v>35</v>
-      </c>
-      <c r="G121" s="13">
-        <v>1</v>
-      </c>
-      <c r="H121" s="14">
-        <v>0</v>
-      </c>
-      <c r="I121" s="17">
-        <v>1</v>
-      </c>
-      <c r="O121" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122" ht="14.8" spans="1:15">
-      <c r="A122" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B122" t="s">
-        <v>270</v>
-      </c>
-      <c r="C122" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="12">
-        <v>35</v>
-      </c>
-      <c r="G122" s="13">
-        <v>1</v>
-      </c>
-      <c r="H122" s="14">
-        <v>0</v>
-      </c>
-      <c r="I122" s="17">
-        <v>1</v>
-      </c>
-      <c r="O122" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="123" ht="14.8" spans="1:15">
-      <c r="A123" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B123" t="s">
-        <v>279</v>
-      </c>
-      <c r="C123" t="s">
-        <v>284</v>
-      </c>
-      <c r="D123" t="s">
-        <v>29</v>
-      </c>
-      <c r="F123" s="12">
-        <v>35</v>
-      </c>
-      <c r="G123" s="13">
-        <v>1</v>
-      </c>
-      <c r="H123" s="14">
-        <v>0</v>
-      </c>
-      <c r="I123" s="17">
-        <v>1</v>
-      </c>
-      <c r="O123" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" ht="14.8" spans="1:15">
-      <c r="A124" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B124" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" t="s">
-        <v>286</v>
-      </c>
-      <c r="D124" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" s="12">
-        <v>35</v>
-      </c>
-      <c r="G124" s="13">
-        <v>1</v>
-      </c>
-      <c r="H124" s="14">
-        <v>0</v>
-      </c>
-      <c r="I124" s="17">
-        <v>1</v>
-      </c>
-      <c r="O124" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="125" ht="14.8" spans="1:15">
-      <c r="A125" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" t="s">
-        <v>288</v>
-      </c>
-      <c r="D125" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="12">
-        <v>35</v>
-      </c>
-      <c r="G125" s="13">
-        <v>1</v>
-      </c>
-      <c r="H125" s="14">
-        <v>0</v>
-      </c>
-      <c r="I125" s="17">
-        <v>1</v>
-      </c>
-      <c r="O125" s="19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" ht="14.8" spans="1:15">
-      <c r="A126" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B126" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" t="s">
-        <v>290</v>
-      </c>
-      <c r="D126" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126" s="12">
-        <v>35</v>
-      </c>
-      <c r="G126" s="13">
-        <v>1</v>
-      </c>
-      <c r="H126" s="14">
-        <v>0</v>
-      </c>
-      <c r="I126" s="17">
-        <v>1</v>
-      </c>
-      <c r="O126" s="19">
-        <f t="shared" ref="O126:O157" si="2">F126</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" ht="14.8" spans="1:15">
-      <c r="A127" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B127" t="s">
-        <v>270</v>
-      </c>
-      <c r="C127" t="s">
-        <v>268</v>
-      </c>
-      <c r="D127" t="s">
-        <v>42</v>
-      </c>
-      <c r="F127" s="12">
-        <v>35</v>
-      </c>
-      <c r="G127" s="13">
-        <v>1</v>
-      </c>
-      <c r="H127" s="14">
-        <v>0</v>
-      </c>
-      <c r="I127" s="17">
-        <v>1</v>
-      </c>
-      <c r="O127" s="19">
+        <v>18.705</v>
+      </c>
+      <c r="O11" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
+      <c r="P11" s="19">
+        <f t="shared" si="3"/>
+        <v>16.295</v>
+      </c>
     </row>
-    <row r="128" ht="14.8" spans="1:15">
-      <c r="A128" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B128" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" t="s">
-        <v>293</v>
-      </c>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="12">
+    <row r="12" ht="14.8" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="11">
         <v>35</v>
       </c>
-      <c r="G128" s="13">
-        <v>1</v>
-      </c>
-      <c r="H128" s="14">
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="I128" s="17">
-        <v>1</v>
-      </c>
-      <c r="O128" s="19">
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>11.94</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>17.44</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>26.16</v>
+      </c>
+      <c r="O12" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
+      <c r="P12" s="19">
+        <f t="shared" si="3"/>
+        <v>8.84</v>
+      </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="14.8" spans="1:16">
-      <c r="A129" s="22"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
-      <c r="O129" s="29"/>
-      <c r="P129" s="30"/>
-    </row>
-    <row r="130" ht="14.8" spans="1:16">
-      <c r="A130" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B130" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" t="s">
-        <v>295</v>
-      </c>
-      <c r="D130" t="s">
+    <row r="13" ht="14.8" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="F130" s="12">
-        <v>25</v>
-      </c>
-      <c r="G130" s="13">
-        <v>1</v>
-      </c>
-      <c r="H130" s="14">
+      <c r="F13" s="11">
+        <v>35</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I130" s="17">
-        <v>1</v>
-      </c>
-      <c r="J130" s="5">
-        <f>F130*10%</f>
-        <v>2.5</v>
-      </c>
-      <c r="K130" s="6">
-        <v>7.65</v>
-      </c>
-      <c r="L130" s="6">
+      <c r="I13" s="16">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
-        <f>K130+L130+J130</f>
-        <v>12.15</v>
-      </c>
-      <c r="N130" s="5">
-        <f>M130*1.5</f>
-        <v>18.225</v>
-      </c>
-      <c r="O130" s="19">
-        <v>25</v>
-      </c>
-      <c r="P130" s="31">
-        <f>O130-N130</f>
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="131" ht="14.8" spans="1:16">
-      <c r="A131" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C131" t="s">
-        <v>297</v>
-      </c>
-      <c r="D131" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="12">
-        <v>25</v>
-      </c>
-      <c r="G131" s="13">
-        <v>1</v>
-      </c>
-      <c r="H131" s="14">
-        <v>0</v>
-      </c>
-      <c r="I131" s="17">
-        <v>1</v>
-      </c>
-      <c r="J131" s="5">
-        <f t="shared" ref="J131:J162" si="3">F131*10%</f>
-        <v>2.5</v>
-      </c>
-      <c r="K131" s="6">
-        <v>7.65</v>
-      </c>
-      <c r="L131" s="6">
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11.94</v>
+      </c>
+      <c r="L13" s="5">
         <v>2</v>
       </c>
-      <c r="M131" s="5">
-        <f>K131+L131+J131</f>
-        <v>12.15</v>
-      </c>
-      <c r="N131" s="5">
-        <f t="shared" ref="N131:N162" si="4">M131*1.5</f>
-        <v>18.225</v>
-      </c>
-      <c r="O131" s="19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P131" s="31">
-        <f t="shared" ref="P131:P162" si="5">O131-N131</f>
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="132" ht="14.8" spans="1:16">
-      <c r="A132" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B132" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" t="s">
-        <v>299</v>
-      </c>
-      <c r="D132" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="12">
-        <v>25</v>
-      </c>
-      <c r="G132" s="13">
-        <v>1</v>
-      </c>
-      <c r="H132" s="14">
-        <v>0</v>
-      </c>
-      <c r="I132" s="17">
-        <v>1</v>
-      </c>
-      <c r="J132" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="K132" s="6">
-        <v>7.65</v>
-      </c>
-      <c r="L132" s="6">
-        <v>2</v>
-      </c>
-      <c r="M132" s="5">
-        <f>K132+L132+J132</f>
-        <v>12.15</v>
-      </c>
-      <c r="N132" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="4"/>
-        <v>18.225</v>
-      </c>
-      <c r="O132" s="19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P132" s="31">
-        <f t="shared" si="5"/>
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="133" ht="14.8" spans="1:16">
-      <c r="A133" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B133" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" t="s">
-        <v>299</v>
-      </c>
-      <c r="D133" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="12">
-        <v>25</v>
-      </c>
-      <c r="G133" s="13">
-        <v>2</v>
-      </c>
-      <c r="H133" s="14">
-        <v>0</v>
-      </c>
-      <c r="I133" s="17">
-        <v>2</v>
-      </c>
-      <c r="J133" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="K133" s="6">
-        <v>7.65</v>
-      </c>
-      <c r="L133" s="6">
-        <v>2</v>
-      </c>
-      <c r="M133" s="5">
-        <f>K133+L133+J133</f>
-        <v>12.15</v>
-      </c>
-      <c r="N133" s="5">
-        <f t="shared" si="4"/>
-        <v>18.225</v>
-      </c>
-      <c r="O133" s="19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P133" s="31">
-        <f t="shared" si="5"/>
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="134" ht="14.8" spans="1:16">
-      <c r="A134" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B134" t="s">
-        <v>245</v>
-      </c>
-      <c r="C134" t="s">
-        <v>297</v>
-      </c>
-      <c r="D134" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="12">
-        <v>25</v>
-      </c>
-      <c r="G134" s="13">
-        <v>1</v>
-      </c>
-      <c r="H134" s="14">
-        <v>0</v>
-      </c>
-      <c r="I134" s="17">
-        <v>1</v>
-      </c>
-      <c r="J134" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="K134" s="6">
-        <v>7.65</v>
-      </c>
-      <c r="L134" s="6">
-        <v>2</v>
-      </c>
-      <c r="M134" s="5">
-        <f>K134+L134+J134</f>
-        <v>12.15</v>
-      </c>
-      <c r="N134" s="5">
-        <f t="shared" si="4"/>
-        <v>18.225</v>
-      </c>
-      <c r="O134" s="19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P134" s="31">
-        <f t="shared" si="5"/>
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="135" ht="14.8" spans="1:16">
-      <c r="A135" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B135" t="s">
-        <v>245</v>
-      </c>
-      <c r="C135" t="s">
-        <v>295</v>
-      </c>
-      <c r="D135" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="12">
-        <v>25</v>
-      </c>
-      <c r="G135" s="13">
-        <v>1</v>
-      </c>
-      <c r="H135" s="14">
-        <v>0</v>
-      </c>
-      <c r="I135" s="17">
-        <v>1</v>
-      </c>
-      <c r="J135" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="K135" s="6">
-        <v>7.65</v>
-      </c>
-      <c r="L135" s="6">
-        <v>2</v>
-      </c>
-      <c r="M135" s="5">
-        <f>K135+L135+J135</f>
-        <v>12.15</v>
-      </c>
-      <c r="N135" s="5">
-        <f t="shared" si="4"/>
-        <v>18.225</v>
-      </c>
-      <c r="O135" s="19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P135" s="31">
-        <f t="shared" si="5"/>
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="136" ht="14.8" spans="1:16">
-      <c r="A136" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B136" t="s">
-        <v>105</v>
-      </c>
-      <c r="C136" t="s">
-        <v>304</v>
-      </c>
-      <c r="D136" t="s">
-        <v>42</v>
-      </c>
-      <c r="F136" s="12">
-        <v>20</v>
-      </c>
-      <c r="G136" s="13">
-        <v>1</v>
-      </c>
-      <c r="H136" s="14">
-        <v>0</v>
-      </c>
-      <c r="I136" s="17">
-        <v>1</v>
-      </c>
-      <c r="J136" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K136" s="6">
-        <v>6.97</v>
-      </c>
-      <c r="L136" s="6">
-        <v>2</v>
-      </c>
-      <c r="M136" s="5">
-        <f t="shared" ref="M136:M147" si="6">K136+L136+J136</f>
-        <v>10.97</v>
-      </c>
-      <c r="N136" s="5">
-        <f t="shared" si="4"/>
-        <v>16.455</v>
-      </c>
-      <c r="O136" s="19">
-        <v>20</v>
-      </c>
-      <c r="P136" s="31">
-        <f t="shared" si="5"/>
-        <v>3.545</v>
-      </c>
-    </row>
-    <row r="137" ht="14.8" spans="1:16">
-      <c r="A137" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B137" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" t="s">
-        <v>304</v>
-      </c>
-      <c r="D137" t="s">
-        <v>29</v>
-      </c>
-      <c r="F137" s="12">
-        <v>20</v>
-      </c>
-      <c r="G137" s="13">
-        <v>1</v>
-      </c>
-      <c r="H137" s="14">
-        <v>0</v>
-      </c>
-      <c r="I137" s="17">
-        <v>1</v>
-      </c>
-      <c r="J137" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K137" s="6">
-        <v>6.97</v>
-      </c>
-      <c r="L137" s="6">
-        <v>2</v>
-      </c>
-      <c r="M137" s="5">
-        <f t="shared" si="6"/>
-        <v>10.97</v>
-      </c>
-      <c r="N137" s="5">
-        <f t="shared" si="4"/>
-        <v>16.455</v>
-      </c>
-      <c r="O137" s="19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="P137" s="31">
-        <f t="shared" si="5"/>
-        <v>3.545</v>
-      </c>
-    </row>
-    <row r="138" ht="14.8" spans="1:16">
-      <c r="A138" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B138" t="s">
-        <v>142</v>
-      </c>
-      <c r="C138" t="s">
-        <v>304</v>
-      </c>
-      <c r="D138" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="12">
-        <v>20</v>
-      </c>
-      <c r="G138" s="13">
-        <v>2</v>
-      </c>
-      <c r="H138" s="14">
-        <v>0</v>
-      </c>
-      <c r="I138" s="17">
-        <v>2</v>
-      </c>
-      <c r="J138" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K138" s="6">
-        <v>6.97</v>
-      </c>
-      <c r="L138" s="6">
-        <v>2</v>
-      </c>
-      <c r="M138" s="5">
-        <f t="shared" si="6"/>
-        <v>10.97</v>
-      </c>
-      <c r="N138" s="5">
-        <f t="shared" si="4"/>
-        <v>16.455</v>
-      </c>
-      <c r="O138" s="19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="P138" s="31">
-        <f t="shared" si="5"/>
-        <v>3.545</v>
-      </c>
-    </row>
-    <row r="139" ht="14.8" spans="1:16">
-      <c r="A139" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B139" t="s">
-        <v>105</v>
-      </c>
-      <c r="C139" t="s">
-        <v>308</v>
-      </c>
-      <c r="D139" t="s">
-        <v>42</v>
-      </c>
-      <c r="F139" s="12">
-        <v>35</v>
-      </c>
-      <c r="G139" s="13">
-        <v>1</v>
-      </c>
-      <c r="H139" s="14">
-        <v>0</v>
-      </c>
-      <c r="I139" s="17">
-        <v>0</v>
-      </c>
-      <c r="J139" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="K139" s="6">
-        <v>6.97</v>
-      </c>
-      <c r="L139" s="6">
-        <v>2</v>
-      </c>
-      <c r="M139" s="5">
-        <f t="shared" si="6"/>
-        <v>12.47</v>
-      </c>
-      <c r="N139" s="5">
-        <f t="shared" si="4"/>
-        <v>18.705</v>
-      </c>
-      <c r="O139" s="19">
+        <v>17.44</v>
+      </c>
+      <c r="N13" s="4">
+        <f>M13*1.5</f>
+        <v>26.16</v>
+      </c>
+      <c r="O13" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P139" s="31">
-        <f t="shared" si="5"/>
-        <v>16.295</v>
+      <c r="P13" s="19">
+        <f t="shared" si="3"/>
+        <v>8.84</v>
       </c>
     </row>
-    <row r="140" ht="14.8" spans="1:16">
-      <c r="A140" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B140" t="s">
-        <v>245</v>
-      </c>
-      <c r="C140" t="s">
-        <v>310</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
-      <c r="F140" s="12">
+    <row r="14" ht="14.8" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="11">
+        <v>30</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8.96</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="4"/>
+        <v>13.96</v>
+      </c>
+      <c r="N14" s="4">
+        <f>M14*1.5</f>
+        <v>20.94</v>
+      </c>
+      <c r="O14" s="18">
+        <v>30</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="3"/>
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="15" ht="14.8" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11">
         <v>35</v>
       </c>
-      <c r="G140" s="13">
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L15" s="5">
         <v>2</v>
       </c>
-      <c r="H140" s="14">
-        <v>0</v>
-      </c>
-      <c r="I140" s="17">
-        <v>2</v>
-      </c>
-      <c r="J140" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="K140" s="6">
-        <v>11.94</v>
-      </c>
-      <c r="L140" s="6">
-        <v>2</v>
-      </c>
-      <c r="M140" s="5">
-        <f t="shared" si="6"/>
-        <v>17.44</v>
-      </c>
-      <c r="N140" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="4"/>
-        <v>26.16</v>
-      </c>
-      <c r="O140" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="N15" s="4">
+        <f>M15*1.5</f>
+        <v>8.25</v>
+      </c>
+      <c r="O15" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P140" s="31">
-        <f t="shared" si="5"/>
-        <v>8.84</v>
+      <c r="P15" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
       </c>
     </row>
-    <row r="141" ht="14.8" spans="1:16">
-      <c r="A141" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B141" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" t="s">
-        <v>310</v>
-      </c>
-      <c r="D141" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" s="12">
+    <row r="16" ht="14.8" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="11">
         <v>35</v>
       </c>
-      <c r="G141" s="13">
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L16" s="5">
         <v>2</v>
       </c>
-      <c r="H141" s="14">
-        <v>0</v>
-      </c>
-      <c r="I141" s="17">
-        <v>2</v>
-      </c>
-      <c r="J141" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="K141" s="6">
-        <v>11.94</v>
-      </c>
-      <c r="L141" s="6">
-        <v>2</v>
-      </c>
-      <c r="M141" s="5">
-        <f t="shared" si="6"/>
-        <v>17.44</v>
-      </c>
-      <c r="N141" s="5">
-        <f>M141*1.5</f>
-        <v>26.16</v>
-      </c>
-      <c r="O141" s="19">
+      <c r="M16" s="4">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="N16" s="4">
+        <f>M16*1.5</f>
+        <v>8.25</v>
+      </c>
+      <c r="O16" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P141" s="31">
-        <f t="shared" si="5"/>
-        <v>8.84</v>
+      <c r="P16" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
       </c>
     </row>
-    <row r="142" ht="14.8" spans="1:16">
-      <c r="A142" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B142" t="s">
-        <v>245</v>
-      </c>
-      <c r="C142" t="s">
-        <v>313</v>
-      </c>
-      <c r="D142" t="s">
+    <row r="17" ht="14.8" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11">
         <v>35</v>
       </c>
-      <c r="F142" s="12">
-        <v>30</v>
-      </c>
-      <c r="G142" s="13">
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L17" s="5">
         <v>2</v>
       </c>
-      <c r="H142" s="14">
-        <v>0</v>
-      </c>
-      <c r="I142" s="17">
-        <v>0</v>
-      </c>
-      <c r="J142" s="5">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K142" s="6">
-        <v>8.96</v>
-      </c>
-      <c r="L142" s="6">
-        <v>2</v>
-      </c>
-      <c r="M142" s="5">
-        <f t="shared" si="6"/>
-        <v>13.96</v>
-      </c>
-      <c r="N142" s="5">
-        <f>M142*1.5</f>
-        <v>20.94</v>
-      </c>
-      <c r="O142" s="19">
-        <v>30</v>
-      </c>
-      <c r="P142" s="31">
-        <f t="shared" si="5"/>
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="143" ht="14.8" spans="1:16">
-      <c r="A143" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B143" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" t="s">
-        <v>315</v>
-      </c>
-      <c r="D143" t="s">
-        <v>25</v>
-      </c>
-      <c r="F143" s="12">
-        <v>35</v>
-      </c>
-      <c r="G143" s="13">
-        <v>1</v>
-      </c>
-      <c r="H143" s="14">
-        <v>0</v>
-      </c>
-      <c r="I143" s="17">
-        <v>1</v>
-      </c>
-      <c r="J143" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L143" s="6">
-        <v>2</v>
-      </c>
-      <c r="M143" s="5">
-        <f t="shared" si="6"/>
+      <c r="M17" s="4">
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="N143" s="5">
-        <f>M143*1.5</f>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O143" s="19">
+      <c r="O17" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P143" s="31">
-        <f t="shared" si="5"/>
+      <c r="P17" s="19">
+        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
-    <row r="144" ht="14.8" spans="1:16">
-      <c r="A144" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B144" t="s">
-        <v>105</v>
-      </c>
-      <c r="C144" t="s">
-        <v>315</v>
-      </c>
-      <c r="D144" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144" s="12">
+    <row r="18" ht="14.8" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="11">
         <v>35</v>
       </c>
-      <c r="G144" s="13">
+      <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H144" s="14">
+      <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I144" s="17">
+      <c r="I18" s="16">
         <v>1</v>
       </c>
-      <c r="J144" s="5">
-        <f t="shared" si="3"/>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L144" s="6">
+      <c r="L18" s="5">
         <v>2</v>
       </c>
-      <c r="M144" s="5">
-        <f t="shared" si="6"/>
+      <c r="M18" s="4">
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="N144" s="5">
-        <f>M144*1.5</f>
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O144" s="19">
+      <c r="O18" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P144" s="31">
-        <f t="shared" si="5"/>
+      <c r="P18" s="19">
+        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
-    <row r="145" ht="14.8" spans="1:16">
-      <c r="A145" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B145" t="s">
-        <v>245</v>
-      </c>
-      <c r="C145" t="s">
-        <v>315</v>
-      </c>
-      <c r="D145" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145" s="12">
+    <row r="19" ht="14.8" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="11">
         <v>35</v>
       </c>
-      <c r="G145" s="13">
+      <c r="G19" s="12">
         <v>1</v>
       </c>
-      <c r="H145" s="14">
+      <c r="H19" s="13">
         <v>0</v>
       </c>
-      <c r="I145" s="17">
+      <c r="I19" s="16">
         <v>1</v>
       </c>
-      <c r="J145" s="5">
-        <f t="shared" si="3"/>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L145" s="6">
+      <c r="L19" s="5">
         <v>2</v>
       </c>
-      <c r="M145" s="5">
-        <f t="shared" si="6"/>
+      <c r="M19" s="4">
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="N145" s="5">
-        <f t="shared" si="4"/>
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O145" s="19">
+      <c r="O19" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P145" s="31">
-        <f t="shared" si="5"/>
+      <c r="P19" s="19">
+        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
-    <row r="146" ht="14.8" spans="1:16">
-      <c r="A146" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B146" t="s">
-        <v>142</v>
-      </c>
-      <c r="C146" t="s">
-        <v>319</v>
-      </c>
-      <c r="D146" t="s">
-        <v>25</v>
-      </c>
-      <c r="F146" s="12">
+    <row r="20" ht="14.8" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="11">
         <v>35</v>
       </c>
-      <c r="G146" s="13">
+      <c r="G20" s="12">
         <v>1</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I146" s="17">
+      <c r="I20" s="16">
         <v>1</v>
       </c>
-      <c r="J146" s="5">
-        <f t="shared" si="3"/>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L146" s="6">
+      <c r="L20" s="5">
         <v>2</v>
       </c>
-      <c r="M146" s="5">
-        <f t="shared" si="6"/>
+      <c r="M20" s="4">
+        <f t="shared" ref="M20:M49" si="5">K20+L20+J20</f>
         <v>5.5</v>
       </c>
-      <c r="N146" s="5">
-        <f t="shared" si="4"/>
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O146" s="19">
+      <c r="O20" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P146" s="31">
+      <c r="P20" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="21" ht="14.8" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="11">
+        <v>35</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="147" ht="14.8" spans="1:16">
-      <c r="A147" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B147" t="s">
-        <v>245</v>
-      </c>
-      <c r="C147" t="s">
-        <v>319</v>
-      </c>
-      <c r="D147" t="s">
-        <v>29</v>
-      </c>
-      <c r="F147" s="12">
-        <v>35</v>
-      </c>
-      <c r="G147" s="13">
-        <v>1</v>
-      </c>
-      <c r="H147" s="14">
-        <v>0</v>
-      </c>
-      <c r="I147" s="17">
-        <v>1</v>
-      </c>
-      <c r="J147" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L147" s="6">
-        <v>2</v>
-      </c>
-      <c r="M147" s="5">
-        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
-      <c r="N147" s="5">
-        <f t="shared" si="4"/>
+      <c r="N21" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O147" s="19">
+      <c r="O21" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P147" s="31">
+      <c r="P21" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="22" ht="14.8" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="11">
+        <v>35</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="148" ht="14.8" spans="1:16">
-      <c r="A148" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B148" t="s">
-        <v>105</v>
-      </c>
-      <c r="C148" t="s">
-        <v>319</v>
-      </c>
-      <c r="D148" t="s">
-        <v>42</v>
-      </c>
-      <c r="F148" s="12">
-        <v>35</v>
-      </c>
-      <c r="G148" s="13">
-        <v>1</v>
-      </c>
-      <c r="H148" s="14">
-        <v>0</v>
-      </c>
-      <c r="I148" s="17">
-        <v>1</v>
-      </c>
-      <c r="J148" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L148" s="6">
-        <v>2</v>
-      </c>
-      <c r="M148" s="5">
-        <f t="shared" ref="M148:M177" si="7">K148+L148+J148</f>
         <v>5.5</v>
       </c>
-      <c r="N148" s="5">
-        <f t="shared" si="4"/>
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O148" s="19">
+      <c r="O22" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P148" s="31">
+      <c r="P22" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="23" ht="14.8" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="11">
+        <v>35</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2</v>
+      </c>
+      <c r="M23" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="149" ht="14.8" spans="1:16">
-      <c r="A149" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B149" t="s">
-        <v>142</v>
-      </c>
-      <c r="C149" t="s">
-        <v>323</v>
-      </c>
-      <c r="D149" t="s">
-        <v>25</v>
-      </c>
-      <c r="F149" s="12">
-        <v>35</v>
-      </c>
-      <c r="G149" s="13">
-        <v>1</v>
-      </c>
-      <c r="H149" s="14">
-        <v>0</v>
-      </c>
-      <c r="I149" s="17">
-        <v>1</v>
-      </c>
-      <c r="J149" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L149" s="6">
-        <v>2</v>
-      </c>
-      <c r="M149" s="5">
-        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="N149" s="5">
-        <f t="shared" si="4"/>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O149" s="19">
+      <c r="O23" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P149" s="31">
+      <c r="P23" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="24" ht="14.8" spans="1:16">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="11">
+        <v>35</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="150" ht="14.8" spans="1:16">
-      <c r="A150" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B150" t="s">
-        <v>105</v>
-      </c>
-      <c r="C150" t="s">
-        <v>323</v>
-      </c>
-      <c r="D150" t="s">
-        <v>42</v>
-      </c>
-      <c r="F150" s="12">
-        <v>35</v>
-      </c>
-      <c r="G150" s="13">
-        <v>1</v>
-      </c>
-      <c r="H150" s="14">
-        <v>0</v>
-      </c>
-      <c r="I150" s="17">
-        <v>1</v>
-      </c>
-      <c r="J150" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L150" s="6">
-        <v>2</v>
-      </c>
-      <c r="M150" s="5">
-        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="N150" s="5">
-        <f t="shared" si="4"/>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O150" s="19">
+      <c r="O24" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P150" s="31">
+      <c r="P24" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="25" ht="14.8" spans="1:16">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="11">
+        <v>35</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2</v>
+      </c>
+      <c r="M25" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="151" ht="14.8" spans="1:16">
-      <c r="A151" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B151" t="s">
-        <v>245</v>
-      </c>
-      <c r="C151" t="s">
-        <v>323</v>
-      </c>
-      <c r="D151" t="s">
-        <v>29</v>
-      </c>
-      <c r="F151" s="12">
-        <v>35</v>
-      </c>
-      <c r="G151" s="13">
-        <v>1</v>
-      </c>
-      <c r="H151" s="14">
-        <v>0</v>
-      </c>
-      <c r="I151" s="17">
-        <v>1</v>
-      </c>
-      <c r="J151" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L151" s="6">
-        <v>2</v>
-      </c>
-      <c r="M151" s="5">
-        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="N151" s="5">
-        <f t="shared" si="4"/>
+      <c r="N25" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O151" s="19">
+      <c r="O25" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P151" s="31">
+      <c r="P25" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="26" ht="14.8" spans="1:16">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="11">
+        <v>35</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L26" s="5">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="152" ht="14.8" spans="1:16">
-      <c r="A152" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B152" t="s">
-        <v>105</v>
-      </c>
-      <c r="C152" t="s">
-        <v>327</v>
-      </c>
-      <c r="D152" t="s">
-        <v>42</v>
-      </c>
-      <c r="F152" s="12">
-        <v>35</v>
-      </c>
-      <c r="G152" s="13">
-        <v>1</v>
-      </c>
-      <c r="H152" s="14">
-        <v>0</v>
-      </c>
-      <c r="I152" s="17">
-        <v>1</v>
-      </c>
-      <c r="J152" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L152" s="6">
-        <v>2</v>
-      </c>
-      <c r="M152" s="5">
-        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="N152" s="5">
-        <f t="shared" si="4"/>
+      <c r="N26" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O152" s="19">
+      <c r="O26" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P152" s="31">
+      <c r="P26" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="27" ht="14.8" spans="1:16">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="11">
+        <v>35</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L27" s="5">
+        <v>2</v>
+      </c>
+      <c r="M27" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="153" ht="14.8" spans="1:16">
-      <c r="A153" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B153" t="s">
-        <v>142</v>
-      </c>
-      <c r="C153" t="s">
-        <v>327</v>
-      </c>
-      <c r="D153" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" s="12">
-        <v>35</v>
-      </c>
-      <c r="G153" s="13">
-        <v>1</v>
-      </c>
-      <c r="H153" s="14">
-        <v>0</v>
-      </c>
-      <c r="I153" s="17">
-        <v>1</v>
-      </c>
-      <c r="J153" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L153" s="6">
-        <v>2</v>
-      </c>
-      <c r="M153" s="5">
-        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="N153" s="5">
-        <f t="shared" si="4"/>
+      <c r="N27" s="4">
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="O153" s="19">
+      <c r="O27" s="18">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P153" s="31">
+      <c r="P27" s="19">
+        <f t="shared" si="3"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="28" ht="14.8" spans="1:16">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="11">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2</v>
+      </c>
+      <c r="M28" s="4">
         <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="154" ht="14.8" spans="1:16">
-      <c r="A154" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B154" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" t="s">
-        <v>330</v>
-      </c>
-      <c r="D154" t="s">
-        <v>29</v>
-      </c>
-      <c r="F154" s="12">
-        <v>35</v>
-      </c>
-      <c r="G154" s="13">
-        <v>1</v>
-      </c>
-      <c r="H154" s="14">
-        <v>0</v>
-      </c>
-      <c r="I154" s="17">
-        <v>1</v>
-      </c>
-      <c r="J154" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L154" s="6">
-        <v>2</v>
-      </c>
-      <c r="M154" s="5">
-        <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="N154" s="5">
-        <f t="shared" si="4"/>
-        <v>8.25</v>
-      </c>
-      <c r="O154" s="19">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P154" s="31">
-        <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="155" ht="14.8" spans="1:16">
-      <c r="A155" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B155" t="s">
-        <v>245</v>
-      </c>
-      <c r="C155" t="s">
-        <v>332</v>
-      </c>
-      <c r="D155" t="s">
-        <v>333</v>
-      </c>
-      <c r="F155" s="12">
-        <v>35</v>
-      </c>
-      <c r="G155" s="13">
-        <v>1</v>
-      </c>
-      <c r="H155" s="14">
-        <v>0</v>
-      </c>
-      <c r="I155" s="17">
-        <v>1</v>
-      </c>
-      <c r="J155" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="L155" s="6">
-        <v>2</v>
-      </c>
-      <c r="M155" s="5">
-        <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="N155" s="5">
-        <f t="shared" si="4"/>
-        <v>8.25</v>
-      </c>
-      <c r="O155" s="19">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P155" s="31">
-        <f t="shared" si="5"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="156" ht="14.8" spans="1:16">
-      <c r="A156" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B156" t="s">
-        <v>245</v>
-      </c>
-      <c r="C156" t="s">
-        <v>335</v>
-      </c>
-      <c r="D156" t="s">
-        <v>336</v>
-      </c>
-      <c r="F156" s="12">
-        <v>40</v>
-      </c>
-      <c r="G156" s="13">
-        <v>1</v>
-      </c>
-      <c r="H156" s="14">
-        <v>0</v>
-      </c>
-      <c r="I156" s="17">
-        <v>1</v>
-      </c>
-      <c r="J156" s="5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L156" s="6">
-        <v>2</v>
-      </c>
-      <c r="M156" s="5">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="N156" s="5">
-        <f t="shared" si="4"/>
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O156" s="19">
+      <c r="O28" s="18">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="P156" s="31">
+      <c r="P28" s="19">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="14.8" spans="1:16">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="11">
+        <v>40</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="5">
+        <v>2</v>
+      </c>
+      <c r="M29" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" ht="14.8" spans="1:16">
-      <c r="A157" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B157" t="s">
-        <v>105</v>
-      </c>
-      <c r="C157" t="s">
-        <v>338</v>
-      </c>
-      <c r="D157" t="s">
-        <v>339</v>
-      </c>
-      <c r="F157" s="12">
-        <v>40</v>
-      </c>
-      <c r="G157" s="13">
-        <v>1</v>
-      </c>
-      <c r="H157" s="14">
-        <v>0</v>
-      </c>
-      <c r="I157" s="17">
-        <v>1</v>
-      </c>
-      <c r="J157" s="5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L157" s="6">
-        <v>2</v>
-      </c>
-      <c r="M157" s="5">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="N157" s="5">
-        <f t="shared" si="4"/>
+      <c r="N29" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O157" s="19">
+      <c r="O29" s="18">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="P157" s="31">
+      <c r="P29" s="19">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" ht="14.8" spans="1:16">
+      <c r="A30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="11">
+        <v>40</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2</v>
+      </c>
+      <c r="M30" s="4">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O30" s="18">
+        <f>F30</f>
+        <v>40</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="158" ht="14.8" spans="1:16">
-      <c r="A158" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" t="s">
-        <v>245</v>
-      </c>
-      <c r="C158" t="s">
-        <v>338</v>
-      </c>
-      <c r="D158" t="s">
-        <v>341</v>
-      </c>
-      <c r="F158" s="12">
+    <row r="31" ht="14.8" spans="1:16">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="11">
         <v>40</v>
       </c>
-      <c r="G158" s="13">
+      <c r="G31" s="12">
         <v>1</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H31" s="13">
         <v>0</v>
       </c>
-      <c r="I158" s="17">
+      <c r="I31" s="16">
         <v>1</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J31" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O31" s="18">
+        <f>F31</f>
+        <v>40</v>
+      </c>
+      <c r="P31" s="19">
         <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" ht="14.8" spans="1:16">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="11">
+        <v>40</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L158" s="6">
+      <c r="L32" s="5">
         <v>2</v>
       </c>
-      <c r="M158" s="5">
-        <f t="shared" si="7"/>
+      <c r="M32" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N158" s="5">
-        <f t="shared" si="4"/>
+      <c r="N32" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O158" s="19">
-        <f t="shared" ref="O158:O189" si="8">F158</f>
+      <c r="O32" s="18">
+        <f>F32</f>
         <v>40</v>
       </c>
-      <c r="P158" s="31">
+      <c r="P32" s="19">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="14.8" spans="1:16">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="11">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2</v>
+      </c>
+      <c r="M33" s="4">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O33" s="18">
+        <f>F33</f>
+        <v>40</v>
+      </c>
+      <c r="P33" s="19">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="159" ht="14.8" spans="1:16">
-      <c r="A159" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B159" t="s">
-        <v>245</v>
-      </c>
-      <c r="C159" t="s">
-        <v>338</v>
-      </c>
-      <c r="D159" t="s">
-        <v>336</v>
-      </c>
-      <c r="F159" s="12">
+    <row r="34" ht="14.8" spans="1:16">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="11">
         <v>40</v>
       </c>
-      <c r="G159" s="13">
+      <c r="G34" s="12">
         <v>1</v>
       </c>
-      <c r="H159" s="14">
+      <c r="H34" s="13">
         <v>0</v>
       </c>
-      <c r="I159" s="17">
+      <c r="I34" s="16">
         <v>1</v>
       </c>
-      <c r="J159" s="5">
+      <c r="J34" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O34" s="18">
+        <f>F34</f>
+        <v>40</v>
+      </c>
+      <c r="P34" s="19">
         <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" ht="14.8" spans="1:16">
+      <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="11">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <f>F35*10%</f>
         <v>4</v>
       </c>
-      <c r="L159" s="6">
+      <c r="L35" s="5">
         <v>2</v>
       </c>
-      <c r="M159" s="5">
-        <f t="shared" si="7"/>
+      <c r="M35" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N159" s="5">
-        <f t="shared" si="4"/>
+      <c r="N35" s="4">
+        <f>M35*1.5</f>
         <v>9</v>
       </c>
-      <c r="O159" s="19">
-        <f t="shared" si="8"/>
+      <c r="O35" s="18">
+        <f>F35</f>
         <v>40</v>
       </c>
-      <c r="P159" s="31">
+      <c r="P35" s="19">
+        <f>O35-N35</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" ht="14.8" spans="1:16">
+      <c r="A36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="11">
+        <v>40</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <f>F36*10%</f>
+        <v>4</v>
+      </c>
+      <c r="L36" s="5">
+        <v>2</v>
+      </c>
+      <c r="M36" s="4">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N36" s="4">
+        <f>M36*1.5</f>
+        <v>9</v>
+      </c>
+      <c r="O36" s="18">
+        <f>F36</f>
+        <v>40</v>
+      </c>
+      <c r="P36" s="19">
+        <f>O36-N36</f>
         <v>31</v>
       </c>
     </row>
-    <row r="160" ht="14.8" spans="1:16">
-      <c r="A160" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B160" t="s">
-        <v>105</v>
-      </c>
-      <c r="C160" t="s">
-        <v>344</v>
-      </c>
-      <c r="D160" t="s">
-        <v>345</v>
-      </c>
-      <c r="F160" s="12">
+    <row r="37" ht="14.8" spans="1:16">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="11">
         <v>40</v>
       </c>
-      <c r="G160" s="13">
+      <c r="G37" s="12">
         <v>1</v>
       </c>
-      <c r="H160" s="14">
+      <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="I160" s="17">
+      <c r="I37" s="16">
         <v>1</v>
       </c>
-      <c r="J160" s="5">
-        <f t="shared" si="3"/>
+      <c r="J37" s="4">
+        <f>F37*10%</f>
         <v>4</v>
       </c>
-      <c r="L160" s="6">
+      <c r="L37" s="5">
         <v>2</v>
       </c>
-      <c r="M160" s="5">
-        <f t="shared" si="7"/>
+      <c r="M37" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N160" s="5">
-        <f t="shared" si="4"/>
+      <c r="N37" s="4">
+        <f>M37*1.5</f>
         <v>9</v>
       </c>
-      <c r="O160" s="19">
-        <f t="shared" si="8"/>
+      <c r="O37" s="18">
+        <f>F37</f>
         <v>40</v>
       </c>
-      <c r="P160" s="31">
+      <c r="P37" s="19">
+        <f>O37-N37</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="14.8" spans="1:16">
+      <c r="A38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="11">
+        <v>40</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <f>F38*10%</f>
+        <v>4</v>
+      </c>
+      <c r="L38" s="5">
+        <v>2</v>
+      </c>
+      <c r="M38" s="4">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N38" s="4">
+        <f>M38*1.5</f>
+        <v>9</v>
+      </c>
+      <c r="O38" s="18">
+        <f>F38</f>
+        <v>40</v>
+      </c>
+      <c r="P38" s="19">
+        <f>O38-N38</f>
         <v>31</v>
       </c>
     </row>
-    <row r="161" ht="14.8" spans="1:16">
-      <c r="A161" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B161" t="s">
-        <v>105</v>
-      </c>
-      <c r="C161" t="s">
-        <v>344</v>
-      </c>
-      <c r="D161" t="s">
-        <v>339</v>
-      </c>
-      <c r="F161" s="12">
+    <row r="39" ht="14.8" spans="1:16">
+      <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11">
         <v>40</v>
       </c>
-      <c r="G161" s="13">
+      <c r="G39" s="12">
         <v>1</v>
       </c>
-      <c r="H161" s="14">
+      <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I161" s="17">
+      <c r="I39" s="16">
         <v>1</v>
       </c>
-      <c r="J161" s="5">
-        <f t="shared" si="3"/>
+      <c r="J39" s="4">
+        <f>F39*10%</f>
         <v>4</v>
       </c>
-      <c r="L161" s="6">
+      <c r="L39" s="5">
         <v>2</v>
       </c>
-      <c r="M161" s="5">
-        <f t="shared" si="7"/>
+      <c r="M39" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N161" s="5">
-        <f t="shared" si="4"/>
+      <c r="N39" s="4">
+        <f>M39*1.5</f>
         <v>9</v>
       </c>
-      <c r="O161" s="19">
-        <f t="shared" si="8"/>
+      <c r="O39" s="18">
+        <f>F39</f>
         <v>40</v>
       </c>
-      <c r="P161" s="31">
+      <c r="P39" s="19">
+        <f>O39-N39</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" ht="14.8" spans="1:16">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="11">
+        <v>40</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <f>F40*10%</f>
+        <v>4</v>
+      </c>
+      <c r="L40" s="5">
+        <v>2</v>
+      </c>
+      <c r="M40" s="4">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N40" s="4">
+        <f>M40*1.5</f>
+        <v>9</v>
+      </c>
+      <c r="O40" s="18">
+        <f>F40</f>
+        <v>40</v>
+      </c>
+      <c r="P40" s="19">
+        <f>O40-N40</f>
         <v>31</v>
       </c>
     </row>
-    <row r="162" ht="14.8" spans="1:16">
-      <c r="A162" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B162" t="s">
-        <v>245</v>
-      </c>
-      <c r="C162" t="s">
-        <v>348</v>
-      </c>
-      <c r="D162" t="s">
-        <v>349</v>
-      </c>
-      <c r="F162" s="12">
-        <v>40</v>
-      </c>
-      <c r="G162" s="13">
+    <row r="41" ht="14.8" spans="1:16">
+      <c r="A41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="11">
+        <v>35</v>
+      </c>
+      <c r="G41" s="12">
         <v>1</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H41" s="13">
         <v>0</v>
       </c>
-      <c r="I162" s="17">
+      <c r="I41" s="16">
         <v>1</v>
       </c>
-      <c r="J162" s="5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L162" s="6">
+      <c r="J41" s="4">
+        <f>F41*10%</f>
+        <v>3.5</v>
+      </c>
+      <c r="K41" s="5">
+        <v>12</v>
+      </c>
+      <c r="L41" s="5">
         <v>2</v>
       </c>
-      <c r="M162" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N162" s="5">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="O162" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P162" s="31">
+      <c r="M41" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>17.5</v>
+      </c>
+      <c r="N41" s="4">
+        <f>M41*1.5</f>
+        <v>26.25</v>
+      </c>
+      <c r="O41" s="18">
+        <f>F41</f>
+        <v>35</v>
+      </c>
+      <c r="P41" s="19">
+        <f>O41-N41</f>
+        <v>8.75</v>
       </c>
     </row>
-    <row r="163" ht="14.8" spans="1:16">
-      <c r="A163" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B163" t="s">
-        <v>105</v>
-      </c>
-      <c r="C163" t="s">
-        <v>351</v>
-      </c>
-      <c r="D163" t="s">
-        <v>339</v>
-      </c>
-      <c r="F163" s="12">
-        <v>40</v>
-      </c>
-      <c r="G163" s="13">
+    <row r="42" ht="14.8" spans="1:16">
+      <c r="A42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="11">
+        <v>55</v>
+      </c>
+      <c r="G42" s="12">
         <v>1</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H42" s="13">
         <v>0</v>
       </c>
-      <c r="I163" s="17">
+      <c r="I42" s="16">
         <v>1</v>
       </c>
-      <c r="J163" s="5">
-        <f t="shared" ref="J163:J183" si="9">F163*10%</f>
-        <v>4</v>
-      </c>
-      <c r="L163" s="6">
+      <c r="J42" s="4">
+        <f>F42*10%</f>
+        <v>5.5</v>
+      </c>
+      <c r="L42" s="5">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N163" s="5">
-        <f t="shared" ref="N163:N188" si="10">M163*1.5</f>
-        <v>9</v>
-      </c>
-      <c r="O163" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P163" s="31">
-        <f t="shared" ref="P163:P187" si="11">O163-N163</f>
-        <v>31</v>
+      <c r="M42" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="N42" s="4">
+        <f>M42*1.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="O42" s="18">
+        <f>F42</f>
+        <v>55</v>
+      </c>
+      <c r="P42" s="19">
+        <f>O42-N42</f>
+        <v>43.75</v>
       </c>
     </row>
-    <row r="164" ht="14.8" spans="1:16">
-      <c r="A164" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B164" t="s">
-        <v>245</v>
-      </c>
-      <c r="C164" t="s">
-        <v>351</v>
-      </c>
-      <c r="D164" t="s">
-        <v>349</v>
-      </c>
-      <c r="F164" s="12">
-        <v>40</v>
-      </c>
-      <c r="G164" s="13">
-        <v>1</v>
-      </c>
-      <c r="H164" s="14">
-        <v>0</v>
-      </c>
-      <c r="I164" s="17">
-        <v>1</v>
-      </c>
-      <c r="J164" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="L164" s="6">
-        <v>2</v>
-      </c>
-      <c r="M164" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N164" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O164" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P164" s="31">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+    <row r="43" ht="14.8" spans="1:16">
+      <c r="A43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="19"/>
     </row>
-    <row r="165" ht="14.8" spans="1:16">
-      <c r="A165" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B165" t="s">
-        <v>245</v>
-      </c>
-      <c r="C165" t="s">
-        <v>354</v>
-      </c>
-      <c r="D165" t="s">
-        <v>349</v>
-      </c>
-      <c r="F165" s="12">
-        <v>40</v>
-      </c>
-      <c r="G165" s="13">
-        <v>1</v>
-      </c>
-      <c r="H165" s="14">
-        <v>0</v>
-      </c>
-      <c r="I165" s="17">
-        <v>1</v>
-      </c>
-      <c r="J165" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="L165" s="6">
-        <v>2</v>
-      </c>
-      <c r="M165" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N165" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O165" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P165" s="31">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+    <row r="44" ht="14.8" spans="6:16">
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="19"/>
     </row>
-    <row r="166" ht="14.8" spans="1:16">
-      <c r="A166" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B166" t="s">
-        <v>105</v>
-      </c>
-      <c r="C166" t="s">
-        <v>356</v>
-      </c>
-      <c r="D166" t="s">
-        <v>339</v>
-      </c>
-      <c r="F166" s="12">
-        <v>40</v>
-      </c>
-      <c r="G166" s="13">
-        <v>1</v>
-      </c>
-      <c r="H166" s="14">
-        <v>0</v>
-      </c>
-      <c r="I166" s="17">
-        <v>1</v>
-      </c>
-      <c r="J166" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="L166" s="6">
-        <v>2</v>
-      </c>
-      <c r="M166" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N166" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O166" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P166" s="31">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+    <row r="45" ht="14.8" spans="6:16">
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="19"/>
     </row>
-    <row r="167" ht="14.8" spans="1:16">
-      <c r="A167" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B167" t="s">
-        <v>105</v>
-      </c>
-      <c r="C167" t="s">
-        <v>358</v>
-      </c>
-      <c r="D167" t="s">
-        <v>42</v>
-      </c>
-      <c r="F167" s="12">
-        <v>40</v>
-      </c>
-      <c r="G167" s="13">
-        <v>1</v>
-      </c>
-      <c r="H167" s="14">
-        <v>0</v>
-      </c>
-      <c r="I167" s="17">
-        <v>1</v>
-      </c>
-      <c r="J167" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="L167" s="6">
-        <v>2</v>
-      </c>
-      <c r="M167" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N167" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O167" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P167" s="31">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+    <row r="46" ht="14.8" spans="6:16">
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19"/>
     </row>
-    <row r="168" ht="14.8" spans="1:16">
-      <c r="A168" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B168" t="s">
-        <v>245</v>
-      </c>
-      <c r="C168" t="s">
-        <v>358</v>
-      </c>
-      <c r="D168" t="s">
-        <v>29</v>
-      </c>
-      <c r="F168" s="12">
-        <v>40</v>
-      </c>
-      <c r="G168" s="13">
-        <v>1</v>
-      </c>
-      <c r="H168" s="14">
-        <v>0</v>
-      </c>
-      <c r="I168" s="17">
-        <v>1</v>
-      </c>
-      <c r="J168" s="5">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="L168" s="6">
-        <v>2</v>
-      </c>
-      <c r="M168" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N168" s="5">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="O168" s="19">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="P168" s="31">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+    <row r="47" ht="14.8" spans="6:16">
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="19"/>
     </row>
-    <row r="169" ht="14.8" spans="1:16">
-      <c r="A169" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B169" t="s">
-        <v>167</v>
-      </c>
-      <c r="C169" t="s">
-        <v>361</v>
-      </c>
-      <c r="D169" t="s">
-        <v>362</v>
-      </c>
-      <c r="F169" s="12">
-        <v>35</v>
-      </c>
-      <c r="G169" s="13">
-        <v>1</v>
-      </c>
-      <c r="H169" s="14">
-        <v>0</v>
-      </c>
-      <c r="I169" s="17">
-        <v>1</v>
-      </c>
-      <c r="J169" s="5">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-      <c r="K169" s="6">
-        <v>12</v>
-      </c>
-      <c r="L169" s="6">
-        <v>2</v>
-      </c>
-      <c r="M169" s="5">
-        <f t="shared" si="7"/>
-        <v>17.5</v>
-      </c>
-      <c r="N169" s="5">
-        <f>M169*1.5</f>
-        <v>26.25</v>
-      </c>
-      <c r="O169" s="19">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="P169" s="31">
-        <f t="shared" si="11"/>
-        <v>8.75</v>
-      </c>
+    <row r="48" ht="14.8" spans="6:16">
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="19"/>
     </row>
-    <row r="170" ht="14.8" spans="1:16">
-      <c r="A170" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B170" t="s">
-        <v>167</v>
-      </c>
-      <c r="C170" t="s">
-        <v>364</v>
-      </c>
-      <c r="D170" t="s">
-        <v>365</v>
-      </c>
-      <c r="F170" s="12">
-        <v>55</v>
-      </c>
-      <c r="G170" s="13">
-        <v>1</v>
-      </c>
-      <c r="H170" s="14">
-        <v>0</v>
-      </c>
-      <c r="I170" s="17">
-        <v>1</v>
-      </c>
-      <c r="J170" s="5">
-        <f t="shared" si="9"/>
-        <v>5.5</v>
-      </c>
-      <c r="L170" s="6">
-        <v>2</v>
-      </c>
-      <c r="M170" s="5">
-        <f t="shared" si="7"/>
-        <v>7.5</v>
-      </c>
-      <c r="N170" s="5">
-        <f>M170*1.5</f>
-        <v>11.25</v>
-      </c>
-      <c r="O170" s="19">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="P170" s="31">
-        <f t="shared" si="11"/>
-        <v>43.75</v>
-      </c>
+    <row r="49" ht="14.8" spans="6:16">
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="19"/>
     </row>
-    <row r="171" ht="14.8" spans="1:16">
-      <c r="A171" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F171" s="12"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="14">
-        <v>0</v>
-      </c>
-      <c r="I171" s="17"/>
-      <c r="J171" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L171" s="6">
-        <v>2</v>
-      </c>
-      <c r="M171" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N171" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O171" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P171" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="50" ht="14.8" spans="6:16">
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="19"/>
     </row>
-    <row r="172" ht="14.8" spans="6:16">
-      <c r="F172" s="12"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="14">
-        <v>0</v>
-      </c>
-      <c r="I172" s="17"/>
-      <c r="J172" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L172" s="6">
-        <v>2</v>
-      </c>
-      <c r="M172" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N172" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O172" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P172" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="51" ht="14.8" spans="6:16">
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="19"/>
     </row>
-    <row r="173" ht="14.8" spans="6:16">
-      <c r="F173" s="12"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="14">
-        <v>0</v>
-      </c>
-      <c r="I173" s="17"/>
-      <c r="J173" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L173" s="6">
-        <v>2</v>
-      </c>
-      <c r="M173" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N173" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O173" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P173" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="52" ht="14.8" spans="6:16">
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="19"/>
     </row>
-    <row r="174" ht="14.8" spans="6:16">
-      <c r="F174" s="12"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="14">
-        <v>0</v>
-      </c>
-      <c r="I174" s="17"/>
-      <c r="J174" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L174" s="6">
-        <v>2</v>
-      </c>
-      <c r="M174" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N174" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O174" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P174" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="53" ht="14.8" spans="6:16">
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="19"/>
     </row>
-    <row r="175" ht="14.8" spans="6:16">
-      <c r="F175" s="12"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="14">
-        <v>0</v>
-      </c>
-      <c r="I175" s="17"/>
-      <c r="J175" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L175" s="6">
-        <v>2</v>
-      </c>
-      <c r="M175" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N175" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O175" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P175" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="54" ht="14.8" spans="6:16">
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="19"/>
     </row>
-    <row r="176" ht="14.8" spans="6:16">
-      <c r="F176" s="12"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="14">
-        <v>0</v>
-      </c>
-      <c r="I176" s="17"/>
-      <c r="J176" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L176" s="6">
-        <v>2</v>
-      </c>
-      <c r="M176" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N176" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O176" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P176" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="55" ht="14.8" spans="6:16">
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="19"/>
     </row>
-    <row r="177" ht="14.8" spans="6:16">
-      <c r="F177" s="12"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="14">
-        <v>0</v>
-      </c>
-      <c r="I177" s="17"/>
-      <c r="J177" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L177" s="6">
-        <v>2</v>
-      </c>
-      <c r="M177" s="5">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N177" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O177" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P177" s="31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
+    <row r="56" ht="14.8" spans="6:16">
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="16"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="19"/>
     </row>
-    <row r="178" ht="14.8" spans="6:16">
-      <c r="F178" s="12"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="14">
-        <v>0</v>
-      </c>
-      <c r="I178" s="17"/>
-      <c r="J178" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L178" s="6">
-        <v>2</v>
-      </c>
-      <c r="N178" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O178" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P178" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="57" ht="14.8" spans="6:16">
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="16"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="19"/>
     </row>
-    <row r="179" ht="14.8" spans="6:16">
-      <c r="F179" s="12"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="14">
-        <v>0</v>
-      </c>
-      <c r="I179" s="17"/>
-      <c r="J179" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L179" s="6">
-        <v>2</v>
-      </c>
-      <c r="N179" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O179" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P179" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="58" ht="14.8" spans="6:16">
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="19"/>
     </row>
-    <row r="180" ht="14.8" spans="6:16">
-      <c r="F180" s="12"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="14">
-        <v>0</v>
-      </c>
-      <c r="I180" s="17"/>
-      <c r="J180" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L180" s="6">
-        <v>2</v>
-      </c>
-      <c r="N180" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O180" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P180" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="59" ht="14.8" spans="6:16">
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="19"/>
     </row>
-    <row r="181" ht="14.8" spans="6:16">
-      <c r="F181" s="12"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="14">
-        <v>0</v>
-      </c>
-      <c r="I181" s="17"/>
-      <c r="J181" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L181" s="6">
-        <v>2</v>
-      </c>
-      <c r="N181" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O181" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P181" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="60" ht="14.8" spans="6:15">
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="18"/>
     </row>
-    <row r="182" ht="14.8" spans="6:16">
-      <c r="F182" s="12"/>
-      <c r="G182" s="13"/>
-      <c r="H182" s="14">
-        <v>0</v>
-      </c>
-      <c r="I182" s="17"/>
-      <c r="J182" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L182" s="6">
-        <v>2</v>
-      </c>
-      <c r="N182" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O182" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P182" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="61" ht="14.8" spans="7:15">
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+      <c r="O61" s="18"/>
     </row>
-    <row r="183" ht="14.8" spans="6:16">
-      <c r="F183" s="12"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="14">
-        <v>0</v>
-      </c>
-      <c r="I183" s="17"/>
-      <c r="J183" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L183" s="6">
-        <v>2</v>
-      </c>
-      <c r="N183" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O183" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P183" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="62" ht="14.8" spans="7:15">
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+      <c r="O62" s="18"/>
     </row>
-    <row r="184" ht="14.8" spans="6:16">
-      <c r="F184" s="12"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="14">
-        <v>0</v>
-      </c>
-      <c r="I184" s="17"/>
-      <c r="L184" s="6">
-        <v>2</v>
-      </c>
-      <c r="N184" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O184" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P184" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="63" ht="14.8" spans="7:15">
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c r="O63" s="18"/>
     </row>
-    <row r="185" ht="14.8" spans="6:16">
-      <c r="F185" s="12"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="14">
-        <v>0</v>
-      </c>
-      <c r="I185" s="17"/>
-      <c r="L185" s="6">
-        <v>2</v>
-      </c>
-      <c r="N185" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O185" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P185" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="64" ht="14.8" spans="7:15">
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
+      <c r="O64" s="18"/>
     </row>
-    <row r="186" ht="14.8" spans="6:16">
-      <c r="F186" s="12"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="14">
-        <v>0</v>
-      </c>
-      <c r="N186" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O186" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P186" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="65" ht="14.8" spans="7:15">
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
+      <c r="O65" s="18"/>
     </row>
-    <row r="187" ht="14.8" spans="6:16">
-      <c r="F187" s="12"/>
-      <c r="G187" s="13"/>
-      <c r="H187" s="14">
-        <v>0</v>
-      </c>
-      <c r="N187" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O187" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P187" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+    <row r="66" ht="14.8" spans="7:15">
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
+      <c r="O66" s="18"/>
     </row>
-    <row r="188" ht="14.8" spans="6:15">
-      <c r="F188" s="12"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="14">
-        <v>0</v>
-      </c>
-      <c r="N188" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O188" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+    <row r="67" ht="14.8" spans="8:15">
+      <c r="H67" s="13"/>
+      <c r="O67" s="18"/>
     </row>
-    <row r="189" ht="14.8" spans="7:15">
-      <c r="G189" s="13"/>
-      <c r="H189" s="14">
-        <v>0</v>
-      </c>
-      <c r="O189" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+    <row r="68" ht="14.8" spans="8:15">
+      <c r="H68" s="13"/>
+      <c r="O68" s="18"/>
     </row>
-    <row r="190" ht="14.8" spans="7:15">
-      <c r="G190" s="13"/>
-      <c r="H190" s="14">
-        <v>0</v>
-      </c>
-      <c r="O190" s="19">
-        <f t="shared" ref="O190:O213" si="12">F190</f>
-        <v>0</v>
-      </c>
+    <row r="69" ht="14.8" spans="8:15">
+      <c r="H69" s="13"/>
+      <c r="O69" s="18"/>
     </row>
-    <row r="191" ht="14.8" spans="7:15">
-      <c r="G191" s="13"/>
-      <c r="H191" s="14">
-        <v>0</v>
-      </c>
-      <c r="O191" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="70" ht="14.8" spans="8:15">
+      <c r="H70" s="13"/>
+      <c r="O70" s="18"/>
     </row>
-    <row r="192" ht="14.8" spans="7:15">
-      <c r="G192" s="13"/>
-      <c r="H192" s="14">
-        <v>0</v>
-      </c>
-      <c r="O192" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="71" ht="14.8" spans="8:15">
+      <c r="H71" s="13"/>
+      <c r="O71" s="18"/>
     </row>
-    <row r="193" ht="14.8" spans="7:15">
-      <c r="G193" s="13"/>
-      <c r="H193" s="14">
-        <v>0</v>
-      </c>
-      <c r="O193" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="72" ht="14.8" spans="8:15">
+      <c r="H72" s="13"/>
+      <c r="O72" s="18"/>
     </row>
-    <row r="194" ht="14.8" spans="7:15">
-      <c r="G194" s="13"/>
-      <c r="H194" s="14">
-        <v>0</v>
-      </c>
-      <c r="O194" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="73" ht="14.8" spans="8:15">
+      <c r="H73" s="13"/>
+      <c r="O73" s="18"/>
     </row>
-    <row r="195" ht="14.8" spans="8:15">
-      <c r="H195" s="14">
-        <v>0</v>
-      </c>
-      <c r="O195" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="74" ht="14.8" spans="15:15">
+      <c r="O74" s="18"/>
     </row>
-    <row r="196" ht="14.8" spans="8:15">
-      <c r="H196" s="14">
-        <v>0</v>
-      </c>
-      <c r="O196" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="75" ht="14.8" spans="15:15">
+      <c r="O75" s="18"/>
     </row>
-    <row r="197" ht="14.8" spans="8:15">
-      <c r="H197" s="14">
-        <v>0</v>
-      </c>
-      <c r="O197" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="76" ht="14.8" spans="15:15">
+      <c r="O76" s="18"/>
     </row>
-    <row r="198" ht="14.8" spans="8:15">
-      <c r="H198" s="14">
-        <v>0</v>
-      </c>
-      <c r="O198" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="77" ht="14.8" spans="15:15">
+      <c r="O77" s="18"/>
     </row>
-    <row r="199" ht="14.8" spans="8:15">
-      <c r="H199" s="14">
-        <v>0</v>
-      </c>
-      <c r="O199" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="78" ht="14.8" spans="15:15">
+      <c r="O78" s="18"/>
     </row>
-    <row r="200" ht="14.8" spans="8:15">
-      <c r="H200" s="14">
-        <v>0</v>
-      </c>
-      <c r="O200" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="79" ht="14.8" spans="15:15">
+      <c r="O79" s="18"/>
     </row>
-    <row r="201" ht="14.8" spans="8:15">
-      <c r="H201" s="14">
-        <v>0</v>
-      </c>
-      <c r="O201" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="80" ht="14.8" spans="15:15">
+      <c r="O80" s="18"/>
     </row>
-    <row r="202" ht="14.8" spans="15:15">
-      <c r="O202" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="81" ht="14.8" spans="15:15">
+      <c r="O81" s="18"/>
     </row>
-    <row r="203" ht="14.8" spans="15:15">
-      <c r="O203" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="82" ht="14.8" spans="15:15">
+      <c r="O82" s="18"/>
     </row>
-    <row r="204" ht="14.8" spans="15:15">
-      <c r="O204" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="83" ht="14.8" spans="15:15">
+      <c r="O83" s="18"/>
     </row>
-    <row r="205" ht="14.8" spans="15:15">
-      <c r="O205" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="84" ht="14.8" spans="15:15">
+      <c r="O84" s="18"/>
     </row>
-    <row r="206" ht="14.8" spans="15:15">
-      <c r="O206" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" ht="14.8" spans="15:15">
-      <c r="O207" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" ht="14.8" spans="15:15">
-      <c r="O208" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" ht="14.8" spans="15:15">
-      <c r="O209" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" ht="14.8" spans="15:15">
-      <c r="O210" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" ht="14.8" spans="15:15">
-      <c r="O211" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" ht="14.8" spans="15:15">
-      <c r="O212" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" ht="14.8" spans="15:15">
-      <c r="O213" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+    <row r="85" ht="14.8" spans="15:15">
+      <c r="O85" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V136">
+  <autoFilter ref="A1:V8">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="12580"/>
+    <workbookView windowWidth="28800" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>Code</t>
   </si>
@@ -324,23 +324,20 @@
   <si>
     <t>Talla 8.5_41</t>
   </si>
-  <si>
-    <t>LTA631</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -399,6 +396,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -406,7 +418,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -420,26 +448,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,15 +473,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,7 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,23 +516,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -520,25 +532,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,55 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +602,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,37 +704,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,31 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,26 +825,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +885,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -910,168 +922,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,56 +1082,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,9 +1474,9 @@
   <dimension ref="A1:XEX85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17961,7 +17958,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="4">
-        <f>K2+L2+J2</f>
+        <f t="shared" ref="M2:M7" si="0">K2+L2+J2</f>
         <v>12.15</v>
       </c>
       <c r="N2" s="4">
@@ -18002,7 +17999,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J34" si="0">F3*10%</f>
+        <f t="shared" ref="J3:J42" si="1">F3*10%</f>
         <v>2.5</v>
       </c>
       <c r="K3" s="5">
@@ -18012,19 +18009,19 @@
         <v>2</v>
       </c>
       <c r="M3" s="4">
-        <f>K3+L3+J3</f>
+        <f t="shared" si="0"/>
         <v>12.15</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N34" si="1">M3*1.5</f>
+        <f t="shared" ref="N3:N42" si="2">M3*1.5</f>
         <v>18.225</v>
       </c>
       <c r="O3" s="18">
-        <f t="shared" ref="O2:O29" si="2">F3</f>
+        <f t="shared" ref="O2:O42" si="3">F3</f>
         <v>25</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" ref="P3:P34" si="3">O3-N3</f>
+        <f t="shared" ref="P3:P42" si="4">O3-N3</f>
         <v>6.775</v>
       </c>
     </row>
@@ -18054,7 +18051,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K4" s="5">
@@ -18064,19 +18061,19 @@
         <v>2</v>
       </c>
       <c r="M4" s="4">
-        <f>K4+L4+J4</f>
+        <f t="shared" si="0"/>
         <v>12.15</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.225</v>
       </c>
       <c r="O4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="P4" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.775</v>
       </c>
     </row>
@@ -18106,7 +18103,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K5" s="5">
@@ -18116,19 +18113,19 @@
         <v>2</v>
       </c>
       <c r="M5" s="4">
-        <f>K5+L5+J5</f>
+        <f t="shared" si="0"/>
         <v>12.15</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.225</v>
       </c>
       <c r="O5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="P5" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.775</v>
       </c>
     </row>
@@ -18158,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K6" s="5">
@@ -18168,19 +18165,19 @@
         <v>2</v>
       </c>
       <c r="M6" s="4">
-        <f>K6+L6+J6</f>
+        <f t="shared" si="0"/>
         <v>12.15</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.225</v>
       </c>
       <c r="O6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="P6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.775</v>
       </c>
     </row>
@@ -18210,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K7" s="5">
@@ -18220,19 +18217,19 @@
         <v>2</v>
       </c>
       <c r="M7" s="4">
-        <f>K7+L7+J7</f>
+        <f t="shared" si="0"/>
         <v>12.15</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.225</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="P7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.775</v>
       </c>
     </row>
@@ -18262,7 +18259,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K8" s="5">
@@ -18272,18 +18269,18 @@
         <v>2</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8:M19" si="4">K8+L8+J8</f>
+        <f t="shared" ref="M8:M19" si="5">K8+L8+J8</f>
         <v>10.97</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.455</v>
       </c>
       <c r="O8" s="18">
         <v>20</v>
       </c>
       <c r="P8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.545</v>
       </c>
     </row>
@@ -18313,7 +18310,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K9" s="5">
@@ -18323,19 +18320,19 @@
         <v>2</v>
       </c>
       <c r="M9" s="4">
+        <f t="shared" si="5"/>
+        <v>10.97</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="2"/>
+        <v>16.455</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P9" s="19">
         <f t="shared" si="4"/>
-        <v>10.97</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="1"/>
-        <v>16.455</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" si="3"/>
         <v>3.545</v>
       </c>
     </row>
@@ -18365,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K10" s="5">
@@ -18375,19 +18372,19 @@
         <v>2</v>
       </c>
       <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>10.97</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="2"/>
+        <v>16.455</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P10" s="19">
         <f t="shared" si="4"/>
-        <v>10.97</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="1"/>
-        <v>16.455</v>
-      </c>
-      <c r="O10" s="18">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="P10" s="19">
-        <f t="shared" si="3"/>
         <v>3.545</v>
       </c>
     </row>
@@ -18417,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="K11" s="5">
@@ -18427,19 +18424,19 @@
         <v>2</v>
       </c>
       <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>12.47</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>18.705</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P11" s="19">
         <f t="shared" si="4"/>
-        <v>12.47</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="1"/>
-        <v>18.705</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P11" s="19">
-        <f t="shared" si="3"/>
         <v>16.295</v>
       </c>
     </row>
@@ -18469,7 +18466,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="K12" s="5">
@@ -18479,19 +18476,19 @@
         <v>2</v>
       </c>
       <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>17.44</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="2"/>
+        <v>26.16</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P12" s="19">
         <f t="shared" si="4"/>
-        <v>17.44</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="1"/>
-        <v>26.16</v>
-      </c>
-      <c r="O12" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P12" s="19">
-        <f t="shared" si="3"/>
         <v>8.84</v>
       </c>
     </row>
@@ -18521,7 +18518,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="K13" s="5">
@@ -18531,19 +18528,19 @@
         <v>2</v>
       </c>
       <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>17.44</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>26.16</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P13" s="19">
         <f t="shared" si="4"/>
-        <v>17.44</v>
-      </c>
-      <c r="N13" s="4">
-        <f>M13*1.5</f>
-        <v>26.16</v>
-      </c>
-      <c r="O13" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P13" s="19">
-        <f t="shared" si="3"/>
         <v>8.84</v>
       </c>
     </row>
@@ -18573,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K14" s="5">
@@ -18583,18 +18580,18 @@
         <v>2</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.96</v>
       </c>
       <c r="N14" s="4">
-        <f>M14*1.5</f>
+        <f t="shared" si="2"/>
         <v>20.94</v>
       </c>
       <c r="O14" s="18">
         <v>30</v>
       </c>
       <c r="P14" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.06</v>
       </c>
     </row>
@@ -18624,26 +18621,26 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
       </c>
       <c r="M15" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P15" s="19">
         <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N15" s="4">
-        <f>M15*1.5</f>
-        <v>8.25</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P15" s="19">
-        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18673,26 +18670,26 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L16" s="5">
         <v>2</v>
       </c>
       <c r="M16" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P16" s="19">
         <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N16" s="4">
-        <f>M16*1.5</f>
-        <v>8.25</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P16" s="19">
-        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18722,26 +18719,26 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
       </c>
       <c r="M17" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P17" s="19">
         <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="1"/>
-        <v>8.25</v>
-      </c>
-      <c r="O17" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P17" s="19">
-        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18771,26 +18768,26 @@
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
       </c>
       <c r="M18" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P18" s="19">
         <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="1"/>
-        <v>8.25</v>
-      </c>
-      <c r="O18" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P18" s="19">
-        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18820,26 +18817,26 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
       </c>
       <c r="M19" s="4">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P19" s="19">
         <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="1"/>
-        <v>8.25</v>
-      </c>
-      <c r="O19" s="18">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P19" s="19">
-        <f t="shared" si="3"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18869,26 +18866,26 @@
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L20" s="5">
         <v>2</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20:M49" si="5">K20+L20+J20</f>
+        <f t="shared" ref="M20:M49" si="6">K20+L20+J20</f>
         <v>5.5</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O20" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P20" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18918,26 +18915,26 @@
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L21" s="5">
         <v>2</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -18967,26 +18964,26 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L22" s="5">
         <v>2</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -19016,26 +19013,26 @@
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L23" s="5">
         <v>2</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -19065,26 +19062,26 @@
         <v>1</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L24" s="5">
         <v>2</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -19114,26 +19111,26 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L25" s="5">
         <v>2</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O25" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -19163,26 +19160,26 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O26" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P26" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -19212,26 +19209,26 @@
         <v>1</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="L27" s="5">
         <v>2</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.75</v>
       </c>
     </row>
@@ -19261,26 +19258,26 @@
         <v>1</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L28" s="5">
         <v>2</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O28" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19310,26 +19307,26 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L29" s="5">
         <v>2</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19359,26 +19356,26 @@
         <v>1</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L30" s="5">
         <v>2</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O30" s="18">
-        <f>F30</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19408,26 +19405,26 @@
         <v>1</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L31" s="5">
         <v>2</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O31" s="18">
-        <f>F31</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P31" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19457,26 +19454,26 @@
         <v>1</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L32" s="5">
         <v>2</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O32" s="18">
-        <f>F32</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19506,26 +19503,26 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L33" s="5">
         <v>2</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O33" s="18">
-        <f>F33</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P33" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19555,26 +19552,26 @@
         <v>1</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L34" s="5">
         <v>2</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O34" s="18">
-        <f>F34</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P34" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19604,26 +19601,26 @@
         <v>1</v>
       </c>
       <c r="J35" s="4">
-        <f>F35*10%</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L35" s="5">
         <v>2</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N35" s="4">
-        <f>M35*1.5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O35" s="18">
-        <f>F35</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P35" s="19">
-        <f>O35-N35</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19653,26 +19650,26 @@
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <f>F36*10%</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L36" s="5">
         <v>2</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N36" s="4">
-        <f>M36*1.5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O36" s="18">
-        <f>F36</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P36" s="19">
-        <f>O36-N36</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19702,26 +19699,26 @@
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <f>F37*10%</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L37" s="5">
         <v>2</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N37" s="4">
-        <f>M37*1.5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O37" s="18">
-        <f>F37</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P37" s="19">
-        <f>O37-N37</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19751,26 +19748,26 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <f>F38*10%</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L38" s="5">
         <v>2</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N38" s="4">
-        <f>M38*1.5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O38" s="18">
-        <f>F38</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P38" s="19">
-        <f>O38-N38</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19800,26 +19797,26 @@
         <v>1</v>
       </c>
       <c r="J39" s="4">
-        <f>F39*10%</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L39" s="5">
         <v>2</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N39" s="4">
-        <f>M39*1.5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O39" s="18">
-        <f>F39</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P39" s="19">
-        <f>O39-N39</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19849,26 +19846,26 @@
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <f>F40*10%</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L40" s="5">
         <v>2</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N40" s="4">
-        <f>M40*1.5</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O40" s="18">
-        <f>F40</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="P40" s="19">
-        <f>O40-N40</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -19898,7 +19895,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="4">
-        <f>F41*10%</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="K41" s="5">
@@ -19908,19 +19905,19 @@
         <v>2</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="N41" s="4">
-        <f>M41*1.5</f>
+        <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
       <c r="O41" s="18">
-        <f>F41</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="P41" s="19">
-        <f>O41-N41</f>
+        <f t="shared" si="4"/>
         <v>8.75</v>
       </c>
     </row>
@@ -19950,38 +19947,34 @@
         <v>1</v>
       </c>
       <c r="J42" s="4">
-        <f>F42*10%</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="N42" s="4">
-        <f>M42*1.5</f>
+        <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
       <c r="O42" s="18">
-        <f>F42</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="P42" s="19">
-        <f>O42-N42</f>
+        <f t="shared" si="4"/>
         <v>43.75</v>
       </c>
     </row>
-    <row r="43" ht="14.8" spans="1:16">
-      <c r="A43" s="2" t="s">
-        <v>102</v>
-      </c>
+    <row r="43" ht="14.8" spans="6:16">
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="18"/>
@@ -19992,7 +19985,6 @@
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="18"/>
@@ -20003,7 +19995,6 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="18"/>
@@ -20014,7 +20005,6 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="18"/>
@@ -20025,7 +20015,6 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="18"/>
@@ -20036,7 +20025,6 @@
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="18"/>
@@ -20047,7 +20035,6 @@
       <c r="G49" s="12"/>
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="18"/>
@@ -20058,7 +20045,6 @@
       <c r="G50" s="12"/>
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="18"/>
       <c r="P50" s="19"/>
@@ -20068,7 +20054,6 @@
       <c r="G51" s="12"/>
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="18"/>
       <c r="P51" s="19"/>
@@ -20078,7 +20063,6 @@
       <c r="G52" s="12"/>
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="18"/>
       <c r="P52" s="19"/>
@@ -20088,7 +20072,6 @@
       <c r="G53" s="12"/>
       <c r="H53" s="13"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="18"/>
       <c r="P53" s="19"/>
@@ -20098,7 +20081,6 @@
       <c r="G54" s="12"/>
       <c r="H54" s="13"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="18"/>
       <c r="P54" s="19"/>
@@ -20108,7 +20090,6 @@
       <c r="G55" s="12"/>
       <c r="H55" s="13"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="18"/>
       <c r="P55" s="19"/>
@@ -20249,7 +20230,7 @@
       <c r="O85" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V8">
+  <autoFilter ref="A1:V43">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaProductos_LETTA.xlsx
+++ b/EntradaProductos_LETTA.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$149</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Code</t>
   </si>
@@ -84,797 +84,20 @@
   <si>
     <t>Precio Promocion</t>
   </si>
-  <si>
-    <t>HAW0077</t>
-  </si>
-  <si>
-    <t>halloween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Careta de calabaza terrorífica </t>
-  </si>
-  <si>
-    <t>Talla estandar</t>
-  </si>
-  <si>
-    <t>HAW00781</t>
-  </si>
-  <si>
-    <t>Careta de diablo negro con cuernos engomada</t>
-  </si>
-  <si>
-    <t>HAW0085</t>
-  </si>
-  <si>
-    <t>Careta de oso diabólico negra con pelo</t>
-  </si>
-  <si>
-    <t>HAW0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">halloween /vestidos /tallas-pequenas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestido de tirantes finos de vinil rojo </t>
-  </si>
-  <si>
-    <t>Talla S</t>
-  </si>
-  <si>
-    <t>HAW0005</t>
-  </si>
-  <si>
-    <t>halloween /partes-de-abajo /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Pantalón de vinil rojo ajustado PLT</t>
-  </si>
-  <si>
-    <t>Talla S_2</t>
-  </si>
-  <si>
-    <t>LTA803</t>
-  </si>
-  <si>
-    <t>halloween /partes-de-abajo /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Talla L_10</t>
-  </si>
-  <si>
-    <t>LTA804</t>
-  </si>
-  <si>
-    <t>halloween /partes-de-abajo /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Talla M_6</t>
-  </si>
-  <si>
-    <t>HAW0008</t>
-  </si>
-  <si>
-    <t>halloween /partes-de-abajo</t>
-  </si>
-  <si>
-    <t>Saya tutú blanca con lazo PLT</t>
-  </si>
-  <si>
-    <t>Talla única</t>
-  </si>
-  <si>
-    <t>HAW0016</t>
-  </si>
-  <si>
-    <t>Saya tutú negra con lazo</t>
-  </si>
-  <si>
-    <t>HAW0012</t>
-  </si>
-  <si>
-    <t>Mono enterizo negro de vinil PLT</t>
-  </si>
-  <si>
-    <t>LTA805</t>
-  </si>
-  <si>
-    <t>LTA806</t>
-  </si>
-  <si>
-    <t>HAW0032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjunto rojo y negro de diabla </t>
-  </si>
-  <si>
-    <t>LTA807</t>
-  </si>
-  <si>
-    <t>Talla L</t>
-  </si>
-  <si>
-    <t>LTA808</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t>HAW0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mono de mujer rojo y negro estilo piloto de carreras </t>
-  </si>
-  <si>
-    <t>HAW0106</t>
-  </si>
-  <si>
-    <t>halloween /tops /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Pulóver rojo de gato halloween</t>
-  </si>
-  <si>
-    <t>LTA809</t>
-  </si>
-  <si>
-    <t>halloween /tops /tallas-grandes</t>
-  </si>
-  <si>
-    <t>HAW0104</t>
-  </si>
-  <si>
-    <t>halloween /tops /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Pulóver negro con calabaza halloween</t>
-  </si>
-  <si>
-    <t>LTA297</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Camisa de mujer en mezcla de lino blanca/rayas beige H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA298</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Camisa de mujer en mezcla de lino blanca/rayas azules H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA300</t>
-  </si>
-  <si>
-    <t>Tops /hm /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>LTA299</t>
-  </si>
-  <si>
-    <t>Talla XS</t>
-  </si>
-  <si>
-    <t>YILHM0340</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Jeans de mujer ancho azul denim claro SHEIN</t>
-  </si>
-  <si>
-    <t>LTA829</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-pequenaa</t>
-  </si>
-  <si>
-    <t>Jeans de mujer anchos azul denim H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XS_0</t>
-  </si>
-  <si>
-    <t>YILHM2062</t>
-  </si>
-  <si>
-    <t>Jeans de mujer altos skinny azul denim oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXL_18</t>
-  </si>
-  <si>
-    <t>BLTHM0914</t>
-  </si>
-  <si>
-    <t>Pantalón de mujer pitillo beige H&amp;M</t>
-  </si>
-  <si>
-    <t>0021</t>
-  </si>
-  <si>
-    <t>Pantalón de vestir amplio gris H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0923</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Pantalón de sastre recto rojo H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2094</t>
-  </si>
-  <si>
-    <t>Pantalón acampanado con raya beige H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla L_12</t>
-  </si>
-  <si>
-    <t>BLTHM0920</t>
-  </si>
-  <si>
-    <t>Pantalón sastre con hebilla decorativa burdeo H&amp;M</t>
-  </si>
-  <si>
-    <t>BU0505</t>
-  </si>
-  <si>
-    <t>Pantalón de vestir azul marino con rayas y hebilla decorativa Forever 21</t>
-  </si>
-  <si>
-    <t>LTA639</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Pantalón de sarga slim fit beige oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA830</t>
-  </si>
-  <si>
-    <t>calzado/hombres</t>
-  </si>
-  <si>
-    <t>Mocasines de hombre de vinil negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla 8.5_41</t>
-  </si>
-  <si>
-    <t>LTA831</t>
-  </si>
-  <si>
-    <t>Polo de algodón slim fit azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0903</t>
-  </si>
-  <si>
-    <t>Polo slim fit negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA173</t>
-  </si>
-  <si>
-    <t>YILHM2197</t>
-  </si>
-  <si>
-    <t>Pulóver negro slim fit H&amp;M</t>
-  </si>
-  <si>
-    <t>BLTHM0897</t>
-  </si>
-  <si>
-    <t>YILHM0893</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-medianas</t>
-  </si>
-  <si>
-    <t>YILHM0902</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-extra-grandes</t>
-  </si>
-  <si>
-    <t>Pulóver ajustado con cuello V negro H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XXL</t>
-  </si>
-  <si>
-    <t>YILHM2154</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit de gran calidad verde salvia claro H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2200</t>
-  </si>
-  <si>
-    <t>hombres /hm /hm /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Pulóver oversized de algodón negro de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>Talla XL</t>
-  </si>
-  <si>
-    <t>BLTHM0899</t>
-  </si>
-  <si>
-    <t>YILHM0572</t>
-  </si>
-  <si>
-    <t>YILHM2188</t>
-  </si>
-  <si>
-    <t>Pulóver regular fit negro H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM02141</t>
-  </si>
-  <si>
-    <t>0677</t>
-  </si>
-  <si>
-    <t>YILHM2138</t>
-  </si>
-  <si>
-    <t>Pulóver slim fit acanalado negro H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2302</t>
-  </si>
-  <si>
-    <t>Pulóver slim fit de algodón negro H&amp;M</t>
-  </si>
-  <si>
-    <t>0626</t>
-  </si>
-  <si>
-    <t>YILHM0241</t>
-  </si>
-  <si>
-    <t>0306</t>
-  </si>
-  <si>
-    <t>YILHM0242</t>
-  </si>
-  <si>
-    <t>Pulóver holgado negro de hombre H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0558</t>
-  </si>
-  <si>
-    <t>Polo slim fit azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>BLTHM0954</t>
-  </si>
-  <si>
-    <t>Pantalón de vestir de tiro alto azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2196</t>
-  </si>
-  <si>
-    <t>Pulóver holgado negro kodak H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2305</t>
-  </si>
-  <si>
-    <t>Pulóver de hombre slim fit blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA185</t>
-  </si>
-  <si>
-    <t>Pulóver blanco de ajuste regular H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA832</t>
-  </si>
-  <si>
-    <t>Pulóver blanco de hombre de ajuste regular cuello V H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA833</t>
-  </si>
-  <si>
-    <t>Pulóver de mujer oversized blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA834</t>
-  </si>
-  <si>
-    <t>Pulóver de hombre regular fit gris melange H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0880</t>
-  </si>
-  <si>
-    <t>Pulóver holgado con estampado de estrellas de hombre H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0882</t>
-  </si>
-  <si>
-    <t>YILHM0557</t>
-  </si>
-  <si>
-    <t>Pulóver regular fit azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM0881</t>
-  </si>
-  <si>
-    <t>YILHM0303</t>
-  </si>
-  <si>
-    <t>Pulóver regular fit negro jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>YILHM2194</t>
-  </si>
-  <si>
-    <t>LTA916</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Pantalón de traje con trabillas verde manzana ZARA</t>
-  </si>
-  <si>
-    <t>LTA917</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Pantalón cintura cruzada con cinturón plateado negro BERSHKA</t>
-  </si>
-  <si>
-    <t>Talla M_8</t>
-  </si>
-  <si>
-    <t>LTA918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalón estampado crema y negro ZARA </t>
-  </si>
-  <si>
-    <t>LTA919</t>
-  </si>
-  <si>
-    <t>Partes-de-abajo /tallas-grandes</t>
-  </si>
-  <si>
-    <t>Pantalón amplio con cordón de ajuste crema BERSHKA</t>
-  </si>
-  <si>
-    <t>LTA920</t>
-  </si>
-  <si>
-    <t>Pantaloneta con cordón de ajuste verde oliva Lefties</t>
-  </si>
-  <si>
-    <t>LTA921</t>
-  </si>
-  <si>
-    <t>Pantalón satinado con estampado de flores blancas ZARA</t>
-  </si>
-  <si>
-    <t>LTA922</t>
-  </si>
-  <si>
-    <t>Pantalón de lino con cordón de ajuste verde olivo ZARA</t>
-  </si>
-  <si>
-    <t>LTA923</t>
-  </si>
-  <si>
-    <t>Pantalón recto de lino con cinturón beige ZARA</t>
-  </si>
-  <si>
-    <t>LTA924</t>
-  </si>
-  <si>
-    <t>Pantalón recto con cinturón verde olivo ZARA</t>
-  </si>
-  <si>
-    <t>LTA925</t>
-  </si>
-  <si>
-    <t>Pantalón de lino verde olivo ZARA</t>
-  </si>
-  <si>
-    <t>LTA926</t>
-  </si>
-  <si>
-    <t>tops /tallas-medianas</t>
-  </si>
-  <si>
-    <t>Camisa de mujer de rayas blancas y azul claro puños reversibles ZARA</t>
-  </si>
-  <si>
-    <t>LTA927</t>
-  </si>
-  <si>
-    <t>hombres /tallas-grandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polo de hombre azul cielo Lefties </t>
-  </si>
-  <si>
-    <t>LTA928</t>
-  </si>
-  <si>
-    <t>Polo de hombre verde olivo Lefties</t>
-  </si>
-  <si>
-    <t>LTA929</t>
-  </si>
-  <si>
-    <t>tops /tallas-pequenas</t>
-  </si>
-  <si>
-    <t>Camisa magas 3/4 de rayas blancas y azules ZARA</t>
-  </si>
-  <si>
-    <t>LTA930</t>
-  </si>
-  <si>
-    <t>Top de manga larga de punto topo oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA931</t>
-  </si>
-  <si>
-    <t>Top off-the-shoulder negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA932</t>
-  </si>
-  <si>
-    <t>Top arrugado con lazo doble negro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA933</t>
-  </si>
-  <si>
-    <t>Top arrugado con lazo doble blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA934</t>
-  </si>
-  <si>
-    <t>Top acanalado con cuello bote blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA935</t>
-  </si>
-  <si>
-    <t>Pulóver de mujer acanalado azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA936</t>
-  </si>
-  <si>
-    <t>Pulóver entallado blanco de microfibra H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA937</t>
-  </si>
-  <si>
-    <t>Top de tirantes de microfibra biege grisáceo oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA938</t>
-  </si>
-  <si>
-    <t>Top de tirantes de microfibra blanco H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA939</t>
-  </si>
-  <si>
-    <t>Top de tirantes fruncidos beige animal print H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA940</t>
-  </si>
-  <si>
-    <t>Top off the shoulder en punto acanalado marrón H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA941</t>
-  </si>
-  <si>
-    <t>Top de mangas largas en punto pointelle blanco</t>
-  </si>
-  <si>
-    <t>3191</t>
-  </si>
-  <si>
-    <t>Top sin mangas en punto acanalado beige oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA942</t>
-  </si>
-  <si>
-    <t>Top drapeado color crema H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA943</t>
-  </si>
-  <si>
-    <t>Gilet de punto burdeos H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA944</t>
-  </si>
-  <si>
-    <t>Top acanalado con escote corazón rojo H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA945</t>
-  </si>
-  <si>
-    <t>Top de tirantes con ribete de encaje rosa claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA946</t>
-  </si>
-  <si>
-    <t>Top de tirantes con ribete de encaje verde claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA947</t>
-  </si>
-  <si>
-    <t>Top de tirantes con ribete de encaje azul claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA948</t>
-  </si>
-  <si>
-    <t>Top en punto pointelle verde claro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA949</t>
-  </si>
-  <si>
-    <t>Polo de mujer de algodón rojo con rayas blancas H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA950</t>
-  </si>
-  <si>
-    <t>Sostén deportivo con ShapeMove High support azul marino H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA951</t>
-  </si>
-  <si>
-    <t>Pulóver de mujer oversize blanco Sorveteria H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA952</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit de gran calidad gris claro jaspeado H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA953</t>
-  </si>
-  <si>
-    <t>LTA954</t>
-  </si>
-  <si>
-    <t>Pulóver verde salvia con motivo de texto H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA955</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit con motivo estampado rosa durazno/Echo Park H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA956</t>
-  </si>
-  <si>
-    <t>Pulóver oversized fit gris oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA957</t>
-  </si>
-  <si>
-    <t>Pulóver oversized fit gris verdoso oscuro de gran calidad  H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA958</t>
-  </si>
-  <si>
-    <t>Pulóver con motivo estampado loose fit blanco/Playa de Alcudia H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA959</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit con motivo de texto lila/Le triangle d´or H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA960</t>
-  </si>
-  <si>
-    <t>Pulóver con motivo estampado loose fit blanco/Pasta H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA961</t>
-  </si>
-  <si>
-    <t>Pulóver oversized negro/Iron Maiden H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA962</t>
-  </si>
-  <si>
-    <t>LTA963</t>
-  </si>
-  <si>
-    <t>Pulóver de algodón de mujer marrón oscuro H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA964</t>
-  </si>
-  <si>
-    <t>LTA965</t>
-  </si>
-  <si>
-    <t>Pulóver con motivo de texto negro/Beverly Hills H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA003</t>
-  </si>
-  <si>
-    <t>Pulóver oversized color crema de gran calidad H&amp;M</t>
-  </si>
-  <si>
-    <t>LTA966</t>
-  </si>
-  <si>
-    <t>Pulóver loose fit blanco Gentlemen H&amp;M</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -932,18 +155,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,8 +185,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,38 +247,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,29 +258,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,8 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,19 +338,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,37 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,31 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,31 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,6 +489,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,6 +585,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1381,7 +613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,6 +659,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1441,141 +682,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1584,28 +807,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1619,13 +842,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1637,32 +860,32 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2004,10 +1227,10 @@
   <sheetPr/>
   <dimension ref="A1:XEX149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18453,3882 +17676,969 @@
       <c r="XEW1" s="19"/>
       <c r="XEX1" s="19"/>
     </row>
-    <row r="2" ht="14.8" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="11">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12">
-        <v>3</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16">
-        <v>3</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" ref="O2:O11" si="0">F2</f>
-        <v>10</v>
-      </c>
+    <row r="2" ht="14.8" spans="6:15">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="O2" s="4"/>
     </row>
-    <row r="3" ht="14.8" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
-        <v>15</v>
-      </c>
-      <c r="G3" s="12">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>4</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="3" ht="14.8" spans="6:15">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="O3" s="4"/>
     </row>
-    <row r="4" ht="14.8" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="11">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+    <row r="4" ht="14.8" spans="6:15">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="16"/>
+      <c r="O4" s="4"/>
     </row>
-    <row r="5" ht="14.8" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="11">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+    <row r="5" ht="14.8" spans="6:15">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16"/>
+      <c r="O5" s="4"/>
     </row>
-    <row r="6" ht="14.8" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="6" ht="14.8" spans="6:15">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="O6" s="4"/>
     </row>
-    <row r="7" ht="14.8" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="11">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="7" ht="14.8" spans="6:15">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="O7" s="4"/>
     </row>
-    <row r="8" ht="14.8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11">
-        <v>15</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="8" ht="14.8" spans="6:15">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+      <c r="O8" s="4"/>
     </row>
-    <row r="9" ht="14.8" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="11">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12">
-        <v>3</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="9" ht="14.8" spans="6:15">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
+      <c r="O9" s="4"/>
     </row>
-    <row r="10" ht="14.8" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="11">
-        <v>15</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="10" ht="14.8" spans="6:15">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="16"/>
+      <c r="O10" s="4"/>
     </row>
-    <row r="11" ht="14.8" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="11">
-        <v>25</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+    <row r="11" ht="14.8" spans="6:15">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+      <c r="O11" s="4"/>
     </row>
-    <row r="12" ht="14.8" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11">
-        <v>25</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <f>F12</f>
-        <v>25</v>
-      </c>
+    <row r="12" ht="14.8" spans="6:15">
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="16"/>
+      <c r="O12" s="4"/>
     </row>
-    <row r="13" ht="14.8" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="11">
-        <v>25</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <f>F13</f>
-        <v>25</v>
-      </c>
+    <row r="13" ht="14.8" spans="6:15">
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="16"/>
+      <c r="O13" s="4"/>
     </row>
-    <row r="14" ht="14.8" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="11">
-        <v>25</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <f>F14</f>
-        <v>25</v>
-      </c>
+    <row r="14" ht="14.8" spans="6:15">
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="16"/>
+      <c r="O14" s="4"/>
     </row>
-    <row r="15" ht="14.8" spans="1:15">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="11">
-        <v>25</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>2</v>
-      </c>
-      <c r="O15" s="4">
-        <f>F15</f>
-        <v>25</v>
-      </c>
+    <row r="15" ht="14.8" spans="6:15">
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="16"/>
+      <c r="O15" s="4"/>
     </row>
-    <row r="16" ht="14.8" spans="1:15">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="11">
-        <v>25</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <f>F16</f>
-        <v>25</v>
-      </c>
+    <row r="16" ht="14.8" spans="6:15">
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="16"/>
+      <c r="O16" s="4"/>
     </row>
-    <row r="17" ht="14.8" spans="1:15">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="11">
-        <v>20</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
-        <f>F17</f>
-        <v>20</v>
-      </c>
+    <row r="17" ht="14.8" spans="6:15">
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="16"/>
+      <c r="O17" s="4"/>
     </row>
-    <row r="18" ht="14.8" spans="1:15">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="11">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>2</v>
-      </c>
-      <c r="O18" s="4">
-        <f>F18</f>
-        <v>10</v>
-      </c>
+    <row r="18" ht="14.8" spans="6:15">
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16"/>
+      <c r="O18" s="4"/>
     </row>
-    <row r="19" ht="14.8" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="11">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
-        <f>F19</f>
-        <v>10</v>
-      </c>
+    <row r="19" ht="14.8" spans="6:15">
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16"/>
+      <c r="O19" s="4"/>
     </row>
-    <row r="20" ht="14.8" spans="1:15">
-      <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="11">
-        <v>10</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <f>F20</f>
-        <v>10</v>
-      </c>
+    <row r="20" ht="14.8" spans="6:15">
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16"/>
+      <c r="O20" s="4"/>
     </row>
-    <row r="21" ht="14.8" spans="1:15">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="11">
-        <v>30</v>
-      </c>
-      <c r="G21" s="12">
-        <v>2</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" ref="O21:O42" si="1">F21</f>
-        <v>30</v>
-      </c>
+    <row r="21" ht="14.8" spans="6:15">
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="O21" s="4"/>
     </row>
-    <row r="22" ht="14.8" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="11">
-        <v>30</v>
-      </c>
-      <c r="G22" s="12">
-        <v>2</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+    <row r="22" ht="14.8" spans="6:15">
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="16"/>
+      <c r="O22" s="4"/>
     </row>
-    <row r="23" ht="14.8" spans="1:15">
-      <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="11">
-        <v>30</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+    <row r="23" ht="14.8" spans="6:15">
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="16"/>
+      <c r="O23" s="4"/>
     </row>
-    <row r="24" ht="14.8" spans="1:15">
-      <c r="A24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="11">
-        <v>30</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+    <row r="24" ht="14.8" spans="6:15">
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="16"/>
+      <c r="O24" s="4"/>
     </row>
-    <row r="25" ht="14.8" spans="1:15">
-      <c r="A25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="11">
-        <v>35</v>
-      </c>
-      <c r="G25" s="12">
-        <v>2</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
-        <v>2</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+    <row r="25" ht="14.8" spans="6:15">
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="16"/>
+      <c r="O25" s="4"/>
     </row>
-    <row r="26" ht="14.8" spans="1:15">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="11">
-        <v>30</v>
-      </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+    <row r="26" ht="14.8" spans="6:15">
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="O26" s="4"/>
     </row>
-    <row r="27" ht="14.8" spans="1:15">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="11">
-        <v>30</v>
-      </c>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+    <row r="27" ht="14.8" spans="6:15">
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="16"/>
+      <c r="O27" s="4"/>
     </row>
-    <row r="28" ht="14.8" spans="1:15">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="11">
-        <v>30</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+    <row r="28" ht="14.8" spans="6:15">
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="16"/>
+      <c r="O28" s="4"/>
     </row>
-    <row r="29" ht="14.8" spans="1:15">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="11">
-        <v>35</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+    <row r="29" ht="14.8" spans="6:15">
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="16"/>
+      <c r="O29" s="4"/>
     </row>
-    <row r="30" ht="14.8" spans="1:15">
-      <c r="A30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="11">
-        <v>40</v>
-      </c>
-      <c r="G30" s="12">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
+    <row r="30" ht="14.8" spans="6:15">
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="16"/>
+      <c r="O30" s="4"/>
     </row>
-    <row r="31" ht="14.8" spans="1:15">
-      <c r="A31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="11">
-        <v>35</v>
-      </c>
-      <c r="G31" s="12">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>1</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+    <row r="31" ht="14.8" spans="6:15">
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="16"/>
+      <c r="O31" s="4"/>
     </row>
-    <row r="32" ht="14.8" spans="1:15">
-      <c r="A32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="11">
-        <v>35</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+    <row r="32" ht="14.8" spans="6:15">
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="16"/>
+      <c r="O32" s="4"/>
     </row>
-    <row r="33" ht="14.8" spans="1:15">
-      <c r="A33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="11">
-        <v>35</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+    <row r="33" ht="14.8" spans="6:15">
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="16"/>
+      <c r="O33" s="4"/>
     </row>
-    <row r="34" ht="14.8" spans="1:15">
-      <c r="A34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="11">
-        <v>40</v>
-      </c>
-      <c r="G34" s="12">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="16">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
+    <row r="34" ht="14.8" spans="6:15">
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="16"/>
+      <c r="O34" s="4"/>
     </row>
-    <row r="35" ht="14.8" spans="1:15">
-      <c r="A35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="11">
-        <v>60</v>
-      </c>
-      <c r="G35" s="12">
-        <v>1</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
+    <row r="35" ht="14.8" spans="6:15">
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="16"/>
+      <c r="O35" s="4"/>
     </row>
-    <row r="36" ht="14.8" spans="1:15">
-      <c r="A36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="11">
-        <v>25</v>
-      </c>
-      <c r="G36" s="12">
-        <v>1</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+    <row r="36" ht="14.8" spans="6:15">
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="16"/>
+      <c r="O36" s="4"/>
     </row>
-    <row r="37" ht="14.8" spans="1:15">
-      <c r="A37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="11">
-        <v>25</v>
-      </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-      <c r="O37" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+    <row r="37" ht="14.8" spans="6:15">
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="16"/>
+      <c r="O37" s="4"/>
     </row>
-    <row r="38" ht="14.8" spans="1:15">
-      <c r="A38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="11">
-        <v>25</v>
-      </c>
-      <c r="G38" s="12">
-        <v>1</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
-        <v>0</v>
-      </c>
-      <c r="O38" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+    <row r="38" ht="14.8" spans="6:15">
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="16"/>
+      <c r="O38" s="4"/>
     </row>
-    <row r="39" ht="14.8" spans="1:15">
-      <c r="A39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="11">
-        <v>18</v>
-      </c>
-      <c r="G39" s="12">
-        <v>2</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
-        <v>2</v>
-      </c>
-      <c r="O39" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
+    <row r="39" ht="14.8" spans="6:15">
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="16"/>
+      <c r="O39" s="4"/>
     </row>
-    <row r="40" ht="14.8" spans="1:15">
-      <c r="A40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="11">
-        <v>18</v>
-      </c>
-      <c r="G40" s="12">
-        <v>2</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="16">
-        <v>2</v>
-      </c>
-      <c r="O40" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
+    <row r="40" ht="14.8" spans="6:15">
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="16"/>
+      <c r="O40" s="4"/>
     </row>
-    <row r="41" ht="14.8" spans="1:15">
-      <c r="A41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="11">
-        <v>18</v>
-      </c>
-      <c r="G41" s="12">
-        <v>1</v>
-      </c>
-      <c r="H41" s="13">
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
-        <v>1</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
+    <row r="41" ht="14.8" spans="6:15">
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+      <c r="O41" s="4"/>
     </row>
-    <row r="42" ht="14.8" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="11">
-        <v>18</v>
-      </c>
-      <c r="G42" s="12">
-        <v>1</v>
-      </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
+    <row r="42" ht="14.8" spans="6:15">
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="16"/>
+      <c r="O42" s="4"/>
     </row>
-    <row r="43" ht="14.8" spans="1:15">
-      <c r="A43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="11">
-        <v>20</v>
-      </c>
-      <c r="G43" s="12">
-        <v>1</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="16">
-        <v>1</v>
-      </c>
-      <c r="O43" s="4">
-        <f t="shared" ref="O43:O74" si="2">F43</f>
-        <v>20</v>
-      </c>
+    <row r="43" ht="14.8" spans="6:15">
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="O43" s="4"/>
     </row>
-    <row r="44" ht="14.8" spans="1:15">
-      <c r="A44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="11">
-        <v>20</v>
-      </c>
-      <c r="G44" s="12">
-        <v>1</v>
-      </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <v>0</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="44" ht="14.8" spans="6:15">
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="16"/>
+      <c r="O44" s="4"/>
     </row>
-    <row r="45" ht="14.8" spans="1:15">
-      <c r="A45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="11">
-        <v>20</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="45" ht="14.8" spans="6:15">
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="16"/>
+      <c r="O45" s="4"/>
     </row>
-    <row r="46" ht="14.8" spans="1:15">
-      <c r="A46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="11">
-        <v>18</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
-        <v>1</v>
-      </c>
-      <c r="O46" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="46" ht="14.8" spans="6:15">
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="16"/>
+      <c r="O46" s="4"/>
     </row>
-    <row r="47" ht="14.8" spans="1:15">
-      <c r="A47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="11">
-        <v>18</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="16">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="47" ht="14.8" spans="6:15">
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="16"/>
+      <c r="O47" s="4"/>
     </row>
-    <row r="48" ht="14.8" spans="1:15">
-      <c r="A48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="11">
-        <v>18</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <v>1</v>
-      </c>
-      <c r="O48" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="48" ht="14.8" spans="6:15">
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="16"/>
+      <c r="O48" s="4"/>
     </row>
-    <row r="49" ht="14.8" spans="1:15">
-      <c r="A49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="11">
-        <v>18</v>
-      </c>
-      <c r="G49" s="12">
-        <v>2</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="16">
-        <v>2</v>
-      </c>
-      <c r="O49" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="49" ht="14.8" spans="6:15">
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="16"/>
+      <c r="O49" s="4"/>
     </row>
-    <row r="50" ht="14.8" spans="1:15">
-      <c r="A50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="11">
-        <v>18</v>
-      </c>
-      <c r="G50" s="12">
-        <v>2</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-      <c r="I50" s="16">
-        <v>2</v>
-      </c>
-      <c r="O50" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="50" ht="14.8" spans="6:15">
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="16"/>
+      <c r="O50" s="4"/>
     </row>
-    <row r="51" ht="14.8" spans="1:15">
-      <c r="A51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="11">
-        <v>18</v>
-      </c>
-      <c r="G51" s="12">
-        <v>1</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="16">
-        <v>1</v>
-      </c>
-      <c r="O51" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="51" ht="14.8" spans="6:15">
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="16"/>
+      <c r="O51" s="4"/>
     </row>
-    <row r="52" ht="14.8" spans="1:15">
-      <c r="A52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="11">
-        <v>18</v>
-      </c>
-      <c r="G52" s="12">
-        <v>1</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="16">
-        <v>1</v>
-      </c>
-      <c r="O52" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="52" ht="14.8" spans="6:15">
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="16"/>
+      <c r="O52" s="4"/>
     </row>
-    <row r="53" ht="14.8" spans="1:15">
-      <c r="A53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="11">
-        <v>18</v>
-      </c>
-      <c r="G53" s="12">
-        <v>2</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="I53" s="16">
-        <v>2</v>
-      </c>
-      <c r="O53" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="53" ht="14.8" spans="6:15">
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="16"/>
+      <c r="O53" s="4"/>
     </row>
-    <row r="54" ht="14.8" spans="1:15">
-      <c r="A54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="11">
-        <v>18</v>
-      </c>
-      <c r="G54" s="12">
-        <v>1</v>
-      </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-      <c r="I54" s="16">
-        <v>1</v>
-      </c>
-      <c r="O54" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="54" ht="14.8" spans="6:15">
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="16"/>
+      <c r="O54" s="4"/>
     </row>
-    <row r="55" ht="14.8" spans="1:15">
-      <c r="A55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="11">
-        <v>18</v>
-      </c>
-      <c r="G55" s="12">
-        <v>1</v>
-      </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="16">
-        <v>1</v>
-      </c>
-      <c r="O55" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="55" ht="14.8" spans="6:15">
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="16"/>
+      <c r="O55" s="4"/>
     </row>
-    <row r="56" ht="14.8" spans="1:15">
-      <c r="A56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="11">
-        <v>18</v>
-      </c>
-      <c r="G56" s="12">
-        <v>1</v>
-      </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="16">
-        <v>0</v>
-      </c>
-      <c r="O56" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="56" ht="14.8" spans="6:15">
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="16"/>
+      <c r="O56" s="4"/>
     </row>
-    <row r="57" ht="14.8" spans="1:15">
-      <c r="A57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="11">
-        <v>25</v>
-      </c>
-      <c r="G57" s="12">
-        <v>2</v>
-      </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="16">
-        <v>0</v>
-      </c>
-      <c r="O57" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
+    <row r="57" ht="14.8" spans="6:15">
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="16"/>
+      <c r="O57" s="4"/>
     </row>
-    <row r="58" ht="14.8" spans="1:15">
-      <c r="A58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="11">
-        <v>30</v>
-      </c>
-      <c r="G58" s="12">
-        <v>1</v>
-      </c>
-      <c r="H58" s="13">
-        <v>0</v>
-      </c>
-      <c r="I58" s="16">
-        <v>1</v>
-      </c>
-      <c r="O58" s="4">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+    <row r="58" ht="14.8" spans="6:15">
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="16"/>
+      <c r="O58" s="4"/>
     </row>
-    <row r="59" ht="14.8" spans="1:15">
-      <c r="A59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="11">
-        <v>20</v>
-      </c>
-      <c r="G59" s="12">
-        <v>1</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0</v>
-      </c>
-      <c r="I59" s="16">
-        <v>0</v>
-      </c>
-      <c r="O59" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="59" ht="14.8" spans="6:15">
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="16"/>
+      <c r="O59" s="4"/>
     </row>
-    <row r="60" ht="14.8" spans="1:15">
-      <c r="A60" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="11">
-        <v>18</v>
-      </c>
-      <c r="G60" s="12">
-        <v>1</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="16">
-        <v>0</v>
-      </c>
-      <c r="O60" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="60" ht="14.8" spans="6:15">
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="16"/>
+      <c r="O60" s="4"/>
     </row>
-    <row r="61" ht="14.8" spans="1:15">
-      <c r="A61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="11">
-        <v>18</v>
-      </c>
-      <c r="G61" s="12">
-        <v>1</v>
-      </c>
-      <c r="H61" s="13">
-        <v>0</v>
-      </c>
-      <c r="I61" s="16">
-        <v>0</v>
-      </c>
-      <c r="O61" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="61" ht="14.8" spans="6:15">
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="16"/>
+      <c r="O61" s="4"/>
     </row>
-    <row r="62" ht="14.8" spans="1:15">
-      <c r="A62" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="11">
-        <v>18</v>
-      </c>
-      <c r="G62" s="12">
-        <v>1</v>
-      </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="16">
-        <v>0</v>
-      </c>
-      <c r="O62" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="62" ht="14.8" spans="6:15">
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="16"/>
+      <c r="O62" s="4"/>
     </row>
-    <row r="63" ht="14.8" spans="1:15">
-      <c r="A63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="11">
-        <v>18</v>
-      </c>
-      <c r="G63" s="12">
-        <v>1</v>
-      </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="16">
-        <v>0</v>
-      </c>
-      <c r="O63" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="63" ht="14.8" spans="6:15">
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="16"/>
+      <c r="O63" s="4"/>
     </row>
-    <row r="64" ht="14.8" spans="1:15">
-      <c r="A64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="11">
-        <v>18</v>
-      </c>
-      <c r="G64" s="12">
-        <v>1</v>
-      </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-      <c r="I64" s="16">
-        <v>0</v>
-      </c>
-      <c r="O64" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="64" ht="14.8" spans="6:15">
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="16"/>
+      <c r="O64" s="4"/>
     </row>
-    <row r="65" ht="14.8" spans="1:15">
-      <c r="A65" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="11">
-        <v>20</v>
-      </c>
-      <c r="G65" s="12">
-        <v>2</v>
-      </c>
-      <c r="H65" s="13">
-        <v>0</v>
-      </c>
-      <c r="I65" s="16">
-        <v>0</v>
-      </c>
-      <c r="O65" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="65" ht="14.8" spans="6:15">
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="16"/>
+      <c r="O65" s="4"/>
     </row>
-    <row r="66" ht="14.8" spans="1:15">
-      <c r="A66" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="11">
-        <v>20</v>
-      </c>
-      <c r="G66" s="12">
-        <v>1</v>
-      </c>
-      <c r="H66" s="13">
-        <v>0</v>
-      </c>
-      <c r="I66" s="16">
-        <v>0</v>
-      </c>
-      <c r="O66" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="66" ht="14.8" spans="6:15">
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="16"/>
+      <c r="O66" s="4"/>
     </row>
-    <row r="67" ht="14.8" spans="1:15">
-      <c r="A67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="11">
-        <v>18</v>
-      </c>
-      <c r="G67" s="12">
-        <v>1</v>
-      </c>
-      <c r="H67" s="13">
-        <v>0</v>
-      </c>
-      <c r="I67" s="16">
-        <v>0</v>
-      </c>
-      <c r="O67" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="67" ht="14.8" spans="6:15">
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="16"/>
+      <c r="O67" s="4"/>
     </row>
-    <row r="68" ht="14.8" spans="1:15">
-      <c r="A68" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="11">
-        <v>20</v>
-      </c>
-      <c r="G68" s="12">
-        <v>1</v>
-      </c>
-      <c r="H68" s="13">
-        <v>0</v>
-      </c>
-      <c r="I68" s="16">
-        <v>0</v>
-      </c>
-      <c r="O68" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
+    <row r="68" ht="14.8" spans="6:15">
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="16"/>
+      <c r="O68" s="4"/>
     </row>
-    <row r="69" ht="14.8" spans="1:15">
-      <c r="A69" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="11">
-        <v>18</v>
-      </c>
-      <c r="G69" s="12">
-        <v>1</v>
-      </c>
-      <c r="H69" s="13">
-        <v>0</v>
-      </c>
-      <c r="I69" s="16">
-        <v>1</v>
-      </c>
-      <c r="O69" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="69" ht="14.8" spans="6:15">
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="16"/>
+      <c r="O69" s="4"/>
     </row>
-    <row r="70" ht="14.8" spans="1:15">
-      <c r="A70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="11">
-        <v>18</v>
-      </c>
-      <c r="G70" s="12">
-        <v>1</v>
-      </c>
-      <c r="H70" s="13">
-        <v>0</v>
-      </c>
-      <c r="I70" s="16">
-        <v>1</v>
-      </c>
-      <c r="O70" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+    <row r="70" ht="14.8" spans="6:15">
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="16"/>
+      <c r="O70" s="4"/>
     </row>
-    <row r="71" ht="14.8" spans="1:15">
-      <c r="A71" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="11">
-        <v>35</v>
-      </c>
-      <c r="G71" s="12">
-        <v>1</v>
-      </c>
-      <c r="H71" s="13">
-        <v>0</v>
-      </c>
-      <c r="I71" s="16">
-        <v>1</v>
-      </c>
-      <c r="O71" s="4">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+    <row r="71" ht="14.8" spans="6:15">
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="16"/>
+      <c r="O71" s="4"/>
     </row>
-    <row r="72" ht="14.8" spans="1:15">
-      <c r="A72" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="11">
-        <v>35</v>
-      </c>
-      <c r="G72" s="12">
-        <v>1</v>
-      </c>
-      <c r="H72" s="13">
-        <v>0</v>
-      </c>
-      <c r="I72" s="16">
-        <v>1</v>
-      </c>
-      <c r="O72" s="4">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+    <row r="72" ht="14.8" spans="6:15">
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="16"/>
+      <c r="O72" s="4"/>
     </row>
-    <row r="73" ht="14.8" spans="1:15">
-      <c r="A73" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" s="11">
-        <v>35</v>
-      </c>
-      <c r="G73" s="12">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13">
-        <v>0</v>
-      </c>
-      <c r="I73" s="16">
-        <v>1</v>
-      </c>
-      <c r="O73" s="4">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+    <row r="73" ht="14.8" spans="6:15">
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="16"/>
+      <c r="O73" s="4"/>
     </row>
-    <row r="74" ht="14.8" spans="1:15">
-      <c r="A74" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="11">
-        <v>35</v>
-      </c>
-      <c r="G74" s="12">
-        <v>1</v>
-      </c>
-      <c r="H74" s="13">
-        <v>0</v>
-      </c>
-      <c r="I74" s="16">
-        <v>1</v>
-      </c>
-      <c r="O74" s="4">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+    <row r="74" ht="14.8" spans="6:15">
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="16"/>
+      <c r="O74" s="4"/>
     </row>
-    <row r="75" ht="14.8" spans="1:15">
-      <c r="A75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="11">
-        <v>35</v>
-      </c>
-      <c r="G75" s="12">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13">
-        <v>0</v>
-      </c>
-      <c r="I75" s="16">
-        <v>1</v>
-      </c>
-      <c r="O75" s="4">
-        <f t="shared" ref="O75:O99" si="3">F75</f>
-        <v>35</v>
-      </c>
+    <row r="75" ht="14.8" spans="6:15">
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="16"/>
+      <c r="O75" s="4"/>
     </row>
-    <row r="76" ht="14.8" spans="1:15">
-      <c r="A76" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="11">
-        <v>35</v>
-      </c>
-      <c r="G76" s="12">
-        <v>1</v>
-      </c>
-      <c r="H76" s="13">
-        <v>0</v>
-      </c>
-      <c r="I76" s="16">
-        <v>1</v>
-      </c>
-      <c r="O76" s="4">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
+    <row r="76" ht="14.8" spans="6:15">
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="16"/>
+      <c r="O76" s="4"/>
     </row>
-    <row r="77" ht="14.8" spans="1:15">
-      <c r="A77" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="11">
-        <v>35</v>
-      </c>
-      <c r="G77" s="12">
-        <v>1</v>
-      </c>
-      <c r="H77" s="13">
-        <v>0</v>
-      </c>
-      <c r="I77" s="16">
-        <v>1</v>
-      </c>
-      <c r="O77" s="4">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
+    <row r="77" ht="14.8" spans="6:15">
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="16"/>
+      <c r="O77" s="4"/>
     </row>
-    <row r="78" ht="14.8" spans="1:15">
-      <c r="A78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" s="11">
-        <v>40</v>
-      </c>
-      <c r="G78" s="12">
-        <v>1</v>
-      </c>
-      <c r="H78" s="13">
-        <v>0</v>
-      </c>
-      <c r="I78" s="16">
-        <v>1</v>
-      </c>
-      <c r="O78" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
+    <row r="78" ht="14.8" spans="6:15">
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="16"/>
+      <c r="O78" s="4"/>
     </row>
-    <row r="79" ht="14.8" spans="1:15">
-      <c r="A79" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="11">
-        <v>40</v>
-      </c>
-      <c r="G79" s="12">
-        <v>1</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0</v>
-      </c>
-      <c r="I79" s="16">
-        <v>1</v>
-      </c>
-      <c r="O79" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
+    <row r="79" ht="14.8" spans="6:15">
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="16"/>
+      <c r="O79" s="4"/>
     </row>
-    <row r="80" ht="14.8" spans="1:15">
-      <c r="A80" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="11">
-        <v>40</v>
-      </c>
-      <c r="G80" s="12">
-        <v>1</v>
-      </c>
-      <c r="H80" s="13">
-        <v>0</v>
-      </c>
-      <c r="I80" s="16">
-        <v>1</v>
-      </c>
-      <c r="O80" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
+    <row r="80" ht="14.8" spans="6:15">
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="16"/>
+      <c r="O80" s="4"/>
     </row>
-    <row r="81" ht="14.8" spans="1:15">
-      <c r="A81" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="11">
-        <v>35</v>
-      </c>
-      <c r="G81" s="12">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="16">
-        <v>1</v>
-      </c>
-      <c r="O81" s="4">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
+    <row r="81" ht="14.8" spans="6:15">
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="16"/>
+      <c r="O81" s="4"/>
     </row>
-    <row r="82" ht="14.8" spans="1:15">
-      <c r="A82" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="11">
-        <v>25</v>
-      </c>
-      <c r="G82" s="12">
-        <v>1</v>
-      </c>
-      <c r="H82" s="13">
-        <v>0</v>
-      </c>
-      <c r="I82" s="16">
-        <v>1</v>
-      </c>
-      <c r="O82" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
+    <row r="82" ht="14.8" spans="6:15">
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="16"/>
+      <c r="O82" s="4"/>
     </row>
-    <row r="83" ht="14.8" spans="1:15">
-      <c r="A83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B83" t="s">
-        <v>199</v>
-      </c>
-      <c r="C83" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="11">
-        <v>25</v>
-      </c>
-      <c r="G83" s="12">
-        <v>1</v>
-      </c>
-      <c r="H83" s="13">
-        <v>0</v>
-      </c>
-      <c r="I83" s="16">
-        <v>1</v>
-      </c>
-      <c r="O83" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
+    <row r="83" ht="14.8" spans="6:15">
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="16"/>
+      <c r="O83" s="4"/>
     </row>
-    <row r="84" ht="14.8" spans="1:15">
-      <c r="A84" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="11">
-        <v>30</v>
-      </c>
-      <c r="G84" s="12">
-        <v>1</v>
-      </c>
-      <c r="H84" s="13">
-        <v>0</v>
-      </c>
-      <c r="I84" s="16">
-        <v>1</v>
-      </c>
-      <c r="O84" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
+    <row r="84" ht="14.8" spans="6:15">
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="16"/>
+      <c r="O84" s="4"/>
     </row>
-    <row r="85" ht="14.8" spans="1:15">
-      <c r="A85" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F85" s="11">
-        <v>20</v>
-      </c>
-      <c r="G85" s="12">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="16">
-        <v>1</v>
-      </c>
-      <c r="O85" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="85" ht="14.8" spans="6:15">
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="16"/>
+      <c r="O85" s="4"/>
     </row>
-    <row r="86" ht="14.8" spans="1:15">
-      <c r="A86" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" t="s">
-        <v>79</v>
-      </c>
-      <c r="F86" s="11">
-        <v>20</v>
-      </c>
-      <c r="G86" s="12">
-        <v>1</v>
-      </c>
-      <c r="H86" s="13">
-        <v>0</v>
-      </c>
-      <c r="I86" s="16">
-        <v>1</v>
-      </c>
-      <c r="O86" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="86" ht="14.8" spans="6:15">
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="16"/>
+      <c r="O86" s="4"/>
     </row>
-    <row r="87" ht="14.8" spans="1:15">
-      <c r="A87" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="11">
-        <v>20</v>
-      </c>
-      <c r="G87" s="12">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13">
-        <v>0</v>
-      </c>
-      <c r="I87" s="16">
-        <v>1</v>
-      </c>
-      <c r="O87" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="87" ht="14.8" spans="6:15">
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="16"/>
+      <c r="O87" s="4"/>
     </row>
-    <row r="88" ht="14.8" spans="1:15">
-      <c r="A88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="11">
-        <v>20</v>
-      </c>
-      <c r="G88" s="12">
-        <v>2</v>
-      </c>
-      <c r="H88" s="13">
-        <v>0</v>
-      </c>
-      <c r="I88" s="16">
-        <v>2</v>
-      </c>
-      <c r="O88" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="88" ht="14.8" spans="6:15">
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="16"/>
+      <c r="O88" s="4"/>
     </row>
-    <row r="89" ht="14.8" spans="1:15">
-      <c r="A89" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D89" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89" s="11">
-        <v>18</v>
-      </c>
-      <c r="G89" s="12">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13">
-        <v>0</v>
-      </c>
-      <c r="I89" s="16">
-        <v>1</v>
-      </c>
-      <c r="O89" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+    <row r="89" ht="14.8" spans="6:15">
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="16"/>
+      <c r="O89" s="4"/>
     </row>
-    <row r="90" ht="14.8" spans="1:15">
-      <c r="A90" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>217</v>
-      </c>
-      <c r="D90" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" s="11">
-        <v>18</v>
-      </c>
-      <c r="G90" s="12">
-        <v>1</v>
-      </c>
-      <c r="H90" s="13">
-        <v>0</v>
-      </c>
-      <c r="I90" s="16">
-        <v>1</v>
-      </c>
-      <c r="O90" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+    <row r="90" ht="14.8" spans="6:15">
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="16"/>
+      <c r="O90" s="4"/>
     </row>
-    <row r="91" ht="14.8" spans="1:15">
-      <c r="A91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B91" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" t="s">
-        <v>219</v>
-      </c>
-      <c r="D91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="11">
-        <v>18</v>
-      </c>
-      <c r="G91" s="12">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13">
-        <v>0</v>
-      </c>
-      <c r="I91" s="16">
-        <v>1</v>
-      </c>
-      <c r="O91" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+    <row r="91" ht="14.8" spans="6:15">
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="16"/>
+      <c r="O91" s="4"/>
     </row>
-    <row r="92" ht="14.8" spans="1:15">
-      <c r="A92" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B92" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" t="s">
-        <v>221</v>
-      </c>
-      <c r="D92" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="11">
-        <v>18</v>
-      </c>
-      <c r="G92" s="12">
-        <v>1</v>
-      </c>
-      <c r="H92" s="13">
-        <v>0</v>
-      </c>
-      <c r="I92" s="16">
-        <v>1</v>
-      </c>
-      <c r="O92" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+    <row r="92" ht="14.8" spans="6:15">
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="16"/>
+      <c r="O92" s="4"/>
     </row>
-    <row r="93" ht="14.8" spans="1:15">
-      <c r="A93" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B93" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93" s="11">
-        <v>18</v>
-      </c>
-      <c r="G93" s="12">
-        <v>1</v>
-      </c>
-      <c r="H93" s="13">
-        <v>0</v>
-      </c>
-      <c r="I93" s="16">
-        <v>1</v>
-      </c>
-      <c r="O93" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+    <row r="93" ht="14.8" spans="6:15">
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="16"/>
+      <c r="O93" s="4"/>
     </row>
-    <row r="94" ht="14.8" spans="1:15">
-      <c r="A94" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" t="s">
-        <v>79</v>
-      </c>
-      <c r="F94" s="11">
-        <v>20</v>
-      </c>
-      <c r="G94" s="12">
-        <v>1</v>
-      </c>
-      <c r="H94" s="13">
-        <v>0</v>
-      </c>
-      <c r="I94" s="16">
-        <v>1</v>
-      </c>
-      <c r="O94" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="94" ht="14.8" spans="6:15">
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="16"/>
+      <c r="O94" s="4"/>
     </row>
-    <row r="95" ht="14.8" spans="1:15">
-      <c r="A95" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95" t="s">
-        <v>33</v>
-      </c>
-      <c r="F95" s="11">
-        <v>18</v>
-      </c>
-      <c r="G95" s="12">
-        <v>1</v>
-      </c>
-      <c r="H95" s="13">
-        <v>0</v>
-      </c>
-      <c r="I95" s="16">
-        <v>0</v>
-      </c>
-      <c r="O95" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+    <row r="95" ht="14.8" spans="6:15">
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="16"/>
+      <c r="O95" s="4"/>
     </row>
-    <row r="96" ht="14.8" spans="1:15">
-      <c r="A96" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>229</v>
-      </c>
-      <c r="D96" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" s="11">
-        <v>20</v>
-      </c>
-      <c r="G96" s="12">
-        <v>1</v>
-      </c>
-      <c r="H96" s="13">
-        <v>0</v>
-      </c>
-      <c r="I96" s="16">
-        <v>1</v>
-      </c>
-      <c r="O96" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="96" ht="14.8" spans="6:15">
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="16"/>
+      <c r="O96" s="4"/>
     </row>
-    <row r="97" ht="14.8" spans="1:15">
-      <c r="A97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" t="s">
-        <v>231</v>
-      </c>
-      <c r="D97" t="s">
-        <v>59</v>
-      </c>
-      <c r="F97" s="11">
-        <v>15</v>
-      </c>
-      <c r="G97" s="12">
-        <v>1</v>
-      </c>
-      <c r="H97" s="13">
-        <v>0</v>
-      </c>
-      <c r="I97" s="16">
-        <v>0</v>
-      </c>
-      <c r="O97" s="4">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
+    <row r="97" ht="14.8" spans="6:15">
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="16"/>
+      <c r="O97" s="4"/>
     </row>
-    <row r="98" ht="14.8" spans="1:15">
-      <c r="A98" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>233</v>
-      </c>
-      <c r="D98" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" s="11">
-        <v>20</v>
-      </c>
-      <c r="G98" s="12">
-        <v>1</v>
-      </c>
-      <c r="H98" s="13">
-        <v>0</v>
-      </c>
-      <c r="I98" s="16">
-        <v>1</v>
-      </c>
-      <c r="O98" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+    <row r="98" ht="14.8" spans="6:15">
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="16"/>
+      <c r="O98" s="4"/>
     </row>
-    <row r="99" ht="14.8" spans="1:15">
-      <c r="A99" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="s">
-        <v>235</v>
-      </c>
-      <c r="D99" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="11">
-        <v>25</v>
-      </c>
-      <c r="G99" s="12">
-        <v>1</v>
-      </c>
-      <c r="H99" s="13">
-        <v>0</v>
-      </c>
-      <c r="I99" s="16">
-        <v>1</v>
-      </c>
-      <c r="O99" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
+    <row r="99" ht="14.8" spans="6:15">
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="16"/>
+      <c r="O99" s="4"/>
     </row>
-    <row r="100" ht="14.8" spans="1:15">
-      <c r="A100" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" t="s">
-        <v>237</v>
-      </c>
-      <c r="D100" t="s">
-        <v>57</v>
-      </c>
-      <c r="F100" s="11">
-        <v>18</v>
-      </c>
-      <c r="G100" s="12">
-        <v>1</v>
-      </c>
-      <c r="H100" s="13">
-        <v>0</v>
-      </c>
-      <c r="I100" s="16">
-        <v>1</v>
-      </c>
-      <c r="O100" s="4">
-        <f t="shared" ref="O100:O123" si="4">F100</f>
-        <v>18</v>
-      </c>
+    <row r="100" ht="14.8" spans="6:15">
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="16"/>
+      <c r="O100" s="4"/>
     </row>
-    <row r="101" ht="14.8" spans="1:15">
-      <c r="A101" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B101" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" t="s">
-        <v>239</v>
-      </c>
-      <c r="D101" t="s">
-        <v>57</v>
-      </c>
-      <c r="F101" s="11">
-        <v>18</v>
-      </c>
-      <c r="G101" s="12">
-        <v>1</v>
-      </c>
-      <c r="H101" s="13">
-        <v>0</v>
-      </c>
-      <c r="I101" s="16">
-        <v>1</v>
-      </c>
-      <c r="O101" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+    <row r="101" ht="14.8" spans="6:15">
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="16"/>
+      <c r="O101" s="4"/>
     </row>
-    <row r="102" ht="14.8" spans="1:15">
-      <c r="A102" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102" t="s">
-        <v>130</v>
-      </c>
-      <c r="F102" s="11">
-        <v>18</v>
-      </c>
-      <c r="G102" s="12">
-        <v>1</v>
-      </c>
-      <c r="H102" s="13">
-        <v>0</v>
-      </c>
-      <c r="I102" s="16">
-        <v>1</v>
-      </c>
-      <c r="O102" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+    <row r="102" ht="14.8" spans="6:15">
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="16"/>
+      <c r="O102" s="4"/>
     </row>
-    <row r="103" ht="14.8" spans="1:15">
-      <c r="A103" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" t="s">
-        <v>243</v>
-      </c>
-      <c r="D103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F103" s="11">
-        <v>18</v>
-      </c>
-      <c r="G103" s="12">
-        <v>1</v>
-      </c>
-      <c r="H103" s="13">
-        <v>0</v>
-      </c>
-      <c r="I103" s="16">
-        <v>1</v>
-      </c>
-      <c r="O103" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+    <row r="103" ht="14.8" spans="6:15">
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="16"/>
+      <c r="O103" s="4"/>
     </row>
-    <row r="104" ht="14.8" spans="1:15">
-      <c r="A104" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" t="s">
-        <v>245</v>
-      </c>
-      <c r="D104" t="s">
-        <v>33</v>
-      </c>
-      <c r="F104" s="11">
-        <v>18</v>
-      </c>
-      <c r="G104" s="12">
-        <v>1</v>
-      </c>
-      <c r="H104" s="13">
-        <v>0</v>
-      </c>
-      <c r="I104" s="16">
-        <v>1</v>
-      </c>
-      <c r="O104" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+    <row r="104" ht="14.8" spans="6:15">
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="16"/>
+      <c r="O104" s="4"/>
     </row>
-    <row r="105" ht="14.8" spans="1:15">
-      <c r="A105" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" t="s">
-        <v>247</v>
-      </c>
-      <c r="D105" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="11">
-        <v>25</v>
-      </c>
-      <c r="G105" s="12">
-        <v>1</v>
-      </c>
-      <c r="H105" s="13">
-        <v>0</v>
-      </c>
-      <c r="I105" s="16">
-        <v>1</v>
-      </c>
-      <c r="O105" s="4">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
+    <row r="105" ht="14.8" spans="6:15">
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="16"/>
+      <c r="O105" s="4"/>
     </row>
-    <row r="106" ht="14.8" spans="1:15">
-      <c r="A106" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" t="s">
-        <v>249</v>
-      </c>
-      <c r="D106" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="11">
-        <v>30</v>
-      </c>
-      <c r="G106" s="12">
-        <v>1</v>
-      </c>
-      <c r="H106" s="13">
-        <v>0</v>
-      </c>
-      <c r="I106" s="16">
-        <v>1</v>
-      </c>
-      <c r="O106" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
+    <row r="106" ht="14.8" spans="6:15">
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="16"/>
+      <c r="O106" s="4"/>
     </row>
-    <row r="107" ht="14.8" spans="1:15">
-      <c r="A107" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" t="s">
-        <v>251</v>
-      </c>
-      <c r="D107" t="s">
-        <v>59</v>
-      </c>
-      <c r="F107" s="11">
-        <v>20</v>
-      </c>
-      <c r="G107" s="12">
-        <v>1</v>
-      </c>
-      <c r="H107" s="13">
-        <v>0</v>
-      </c>
-      <c r="I107" s="16">
-        <v>1</v>
-      </c>
-      <c r="O107" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="107" ht="14.8" spans="6:15">
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="16"/>
+      <c r="O107" s="4"/>
     </row>
-    <row r="108" ht="14.8" spans="1:15">
-      <c r="A108" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" t="s">
-        <v>33</v>
-      </c>
-      <c r="F108" s="11">
-        <v>20</v>
-      </c>
-      <c r="G108" s="12">
-        <v>1</v>
-      </c>
-      <c r="H108" s="13">
-        <v>0</v>
-      </c>
-      <c r="I108" s="16">
-        <v>1</v>
-      </c>
-      <c r="O108" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="108" ht="14.8" spans="6:15">
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="16"/>
+      <c r="O108" s="4"/>
     </row>
-    <row r="109" ht="14.8" spans="1:15">
-      <c r="A109" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B109" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="11">
-        <v>18</v>
-      </c>
-      <c r="G109" s="12">
-        <v>1</v>
-      </c>
-      <c r="H109" s="13">
-        <v>0</v>
-      </c>
-      <c r="I109" s="16">
-        <v>0</v>
-      </c>
-      <c r="O109" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+    <row r="109" ht="14.8" spans="6:15">
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="16"/>
+      <c r="O109" s="4"/>
     </row>
-    <row r="110" ht="14.8" spans="1:15">
-      <c r="A110" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B110" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" t="s">
-        <v>256</v>
-      </c>
-      <c r="D110" t="s">
-        <v>124</v>
-      </c>
-      <c r="F110" s="11">
-        <v>20</v>
-      </c>
-      <c r="G110" s="12">
-        <v>1</v>
-      </c>
-      <c r="H110" s="13">
-        <v>0</v>
-      </c>
-      <c r="I110" s="16">
-        <v>1</v>
-      </c>
-      <c r="O110" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="110" ht="14.8" spans="6:15">
+      <c r="F110" s="11"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="16"/>
+      <c r="O110" s="4"/>
     </row>
-    <row r="111" ht="14.8" spans="1:15">
-      <c r="A111" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B111" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="11">
-        <v>20</v>
-      </c>
-      <c r="G111" s="12">
-        <v>1</v>
-      </c>
-      <c r="H111" s="13">
-        <v>0</v>
-      </c>
-      <c r="I111" s="16">
-        <v>1</v>
-      </c>
-      <c r="O111" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="111" ht="14.8" spans="6:15">
+      <c r="F111" s="11"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="16"/>
+      <c r="O111" s="4"/>
     </row>
-    <row r="112" ht="14.8" spans="1:15">
-      <c r="A112" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B112" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="11">
-        <v>20</v>
-      </c>
-      <c r="G112" s="12">
-        <v>1</v>
-      </c>
-      <c r="H112" s="13">
-        <v>0</v>
-      </c>
-      <c r="I112" s="16">
-        <v>1</v>
-      </c>
-      <c r="O112" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="112" ht="14.8" spans="6:15">
+      <c r="F112" s="11"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="16"/>
+      <c r="O112" s="4"/>
     </row>
-    <row r="113" ht="14.8" spans="1:15">
-      <c r="A113" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" t="s">
-        <v>130</v>
-      </c>
-      <c r="F113" s="11">
-        <v>20</v>
-      </c>
-      <c r="G113" s="12">
-        <v>1</v>
-      </c>
-      <c r="H113" s="13">
-        <v>0</v>
-      </c>
-      <c r="I113" s="16">
-        <v>1</v>
-      </c>
-      <c r="O113" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="113" ht="14.8" spans="6:15">
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="16"/>
+      <c r="O113" s="4"/>
     </row>
-    <row r="114" ht="14.8" spans="1:15">
-      <c r="A114" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B114" t="s">
-        <v>105</v>
-      </c>
-      <c r="C114" t="s">
-        <v>264</v>
-      </c>
-      <c r="D114" t="s">
-        <v>79</v>
-      </c>
-      <c r="F114" s="11">
-        <v>20</v>
-      </c>
-      <c r="G114" s="12">
-        <v>1</v>
-      </c>
-      <c r="H114" s="13">
-        <v>0</v>
-      </c>
-      <c r="I114" s="16">
-        <v>1</v>
-      </c>
-      <c r="O114" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="114" ht="14.8" spans="6:15">
+      <c r="F114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="16"/>
+      <c r="O114" s="4"/>
     </row>
-    <row r="115" ht="14.8" spans="1:15">
-      <c r="A115" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B115" t="s">
-        <v>128</v>
-      </c>
-      <c r="C115" t="s">
-        <v>266</v>
-      </c>
-      <c r="D115" t="s">
-        <v>130</v>
-      </c>
-      <c r="F115" s="11">
-        <v>20</v>
-      </c>
-      <c r="G115" s="12">
-        <v>1</v>
-      </c>
-      <c r="H115" s="13">
-        <v>0</v>
-      </c>
-      <c r="I115" s="16">
-        <v>1</v>
-      </c>
-      <c r="O115" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="115" ht="14.8" spans="6:15">
+      <c r="F115" s="11"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="16"/>
+      <c r="O115" s="4"/>
     </row>
-    <row r="116" ht="14.8" spans="1:15">
-      <c r="A116" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B116" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" t="s">
-        <v>268</v>
-      </c>
-      <c r="D116" t="s">
-        <v>57</v>
-      </c>
-      <c r="F116" s="11">
-        <v>20</v>
-      </c>
-      <c r="G116" s="12">
-        <v>1</v>
-      </c>
-      <c r="H116" s="13">
-        <v>0</v>
-      </c>
-      <c r="I116" s="16">
-        <v>1</v>
-      </c>
-      <c r="O116" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="116" ht="14.8" spans="6:15">
+      <c r="F116" s="11"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="16"/>
+      <c r="O116" s="4"/>
     </row>
-    <row r="117" ht="14.8" spans="1:15">
-      <c r="A117" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B117" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" t="s">
-        <v>270</v>
-      </c>
-      <c r="D117" t="s">
-        <v>59</v>
-      </c>
-      <c r="F117" s="11">
-        <v>20</v>
-      </c>
-      <c r="G117" s="12">
-        <v>2</v>
-      </c>
-      <c r="H117" s="13">
-        <v>0</v>
-      </c>
-      <c r="I117" s="16">
-        <v>2</v>
-      </c>
-      <c r="O117" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="117" ht="14.8" spans="6:15">
+      <c r="F117" s="11"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="16"/>
+      <c r="O117" s="4"/>
     </row>
-    <row r="118" ht="14.8" spans="1:15">
-      <c r="A118" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B118" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" t="s">
-        <v>33</v>
-      </c>
-      <c r="F118" s="11">
-        <v>20</v>
-      </c>
-      <c r="G118" s="12">
-        <v>2</v>
-      </c>
-      <c r="H118" s="13">
-        <v>0</v>
-      </c>
-      <c r="I118" s="16">
-        <v>2</v>
-      </c>
-      <c r="O118" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="118" ht="14.8" spans="6:15">
+      <c r="F118" s="11"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="16"/>
+      <c r="O118" s="4"/>
     </row>
-    <row r="119" ht="14.8" spans="1:15">
-      <c r="A119" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" t="s">
-        <v>273</v>
-      </c>
-      <c r="D119" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="11">
-        <v>20</v>
-      </c>
-      <c r="G119" s="12">
-        <v>2</v